--- a/健忘症患者的账本.xlsx
+++ b/健忘症患者的账本.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinqi/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/lalala/项目/-/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="58">
   <si>
     <t>日期</t>
     <rPh sb="0" eb="1">
@@ -491,6 +491,72 @@
     </rPh>
     <rPh sb="3" eb="4">
       <t>yu'rong'fu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午饭</t>
+    <rPh sb="0" eb="1">
+      <t>wu'fn</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鞋</t>
+    <rPh sb="0" eb="1">
+      <t>xie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购水果</t>
+    <rPh sb="0" eb="1">
+      <t>gou'shui'guo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>啊皮的蛋卷</t>
+    <rPh sb="0" eb="1">
+      <t>a'pi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>dan'juan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通</t>
+    <rPh sb="0" eb="1">
+      <t>jiao't</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛肉块</t>
+    <rPh sb="0" eb="1">
+      <t>niu'rou'kuai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚饭</t>
+    <rPh sb="0" eb="1">
+      <t>wan'f</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>橙子</t>
+    <rPh sb="0" eb="1">
+      <t>chneg'zi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辣条</t>
+    <rPh sb="0" eb="1">
+      <t>la'tiao</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -575,7 +641,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -606,6 +672,15 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -616,12 +691,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -900,10 +969,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M79"/>
+  <dimension ref="A1:M95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -920,41 +989,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="17" t="s">
         <v>26</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="5">
-        <f>SUMIF(B4:B79,"&lt;0")</f>
-        <v>-3774.6600000000003</v>
+        <f>SUMIF(B4:B95,"&lt;0")</f>
+        <v>-5139.26</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
+      <c r="A2" s="18"/>
       <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C2">
         <f>3000+C1</f>
-        <v>-774.66000000000031</v>
+        <v>-2139.2600000000002</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>18</v>
       </c>
       <c r="F2">
         <f ca="1">DATE(2019,1,1)-TODAY()</f>
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I2">
         <f ca="1">C2/F2</f>
-        <v>-59.589230769230795</v>
+        <v>-534.81500000000005</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="10" customFormat="1" ht="61" customHeight="1" x14ac:dyDescent="0.2">
@@ -967,20 +1036,20 @@
       <c r="C3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
       <c r="I3" s="10">
         <f ca="1">C2/(F2-1)</f>
-        <v>-64.555000000000021</v>
+        <v>-713.0866666666667</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="12">
+      <c r="A4" s="13">
         <v>43435</v>
       </c>
       <c r="B4">
@@ -994,7 +1063,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="12"/>
+      <c r="A5" s="13"/>
       <c r="B5">
         <v>-20</v>
       </c>
@@ -1020,7 +1089,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="12">
+      <c r="A7" s="13">
         <v>43437</v>
       </c>
       <c r="B7">
@@ -1034,7 +1103,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="12"/>
+      <c r="A8" s="13"/>
       <c r="B8">
         <v>-89</v>
       </c>
@@ -1055,7 +1124,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="12"/>
+      <c r="A9" s="13"/>
       <c r="B9">
         <v>-6</v>
       </c>
@@ -1072,12 +1141,12 @@
         <v>38</v>
       </c>
       <c r="I9">
-        <f>SUMIF($D$4:$D103,G9,$B4:$B$105)</f>
-        <v>-140</v>
+        <f>SUMIF($D$4:$D119,G9,$B4:$B$121)</f>
+        <v>-190</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="12"/>
+      <c r="A10" s="13"/>
       <c r="B10">
         <v>-4</v>
       </c>
@@ -1094,19 +1163,19 @@
         <v>42</v>
       </c>
       <c r="I10">
-        <f>SUMIF($D$4:$D104,G10,$B$4:$B$105)</f>
-        <v>-366.72</v>
+        <f>SUMIF($D$4:$D120,G10,$B$4:$B$121)</f>
+        <v>-699.31999999999994</v>
       </c>
       <c r="L10" s="4" t="s">
         <v>39</v>
       </c>
       <c r="M10">
         <f>SUM(I9:I11)</f>
-        <v>-1121.6600000000001</v>
+        <v>-1504.26</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="13">
+      <c r="A11" s="16">
         <v>43438</v>
       </c>
       <c r="B11">
@@ -1125,12 +1194,12 @@
         <v>45</v>
       </c>
       <c r="I11">
-        <f>SUMIF($D$4:$D105,G11,$B$4:$B$105)</f>
+        <f>SUMIF($D$4:$D121,G11,$B$4:$B$121)</f>
         <v>-614.94000000000005</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="13"/>
+      <c r="A12" s="16"/>
       <c r="B12">
         <v>18</v>
       </c>
@@ -1144,12 +1213,12 @@
         <v>46</v>
       </c>
       <c r="I12">
-        <f ca="1">SUMIF($D$4:$D106,G12,$B$4:$B$105)</f>
-        <v>-1185</v>
+        <f ca="1">SUMIF($D$4:$D122,G12,$B$4:$B$121)</f>
+        <v>-2167</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="13"/>
+      <c r="A13" s="16"/>
       <c r="B13">
         <v>-7</v>
       </c>
@@ -1166,12 +1235,12 @@
         <v>40</v>
       </c>
       <c r="I13">
-        <f ca="1">SUMIF($D$4:$D107,G13,$B$4:$B$105)</f>
+        <f ca="1">SUMIF($D$4:$D123,G13,$B$4:$B$121)</f>
         <v>-1468</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="13"/>
+      <c r="A14" s="16"/>
       <c r="B14">
         <v>-8</v>
       </c>
@@ -1183,7 +1252,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="13"/>
+      <c r="A15" s="16"/>
       <c r="B15">
         <v>-6</v>
       </c>
@@ -1195,7 +1264,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="13"/>
+      <c r="A16" s="16"/>
       <c r="B16">
         <v>-34.799999999999997</v>
       </c>
@@ -1207,7 +1276,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="12">
+      <c r="A17" s="13">
         <v>43439</v>
       </c>
       <c r="B17">
@@ -1222,7 +1291,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="12"/>
+      <c r="A18" s="13"/>
       <c r="B18">
         <v>-1468</v>
       </c>
@@ -1234,7 +1303,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="12"/>
+      <c r="A19" s="13"/>
       <c r="B19" s="2">
         <v>-6</v>
       </c>
@@ -1246,7 +1315,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="12"/>
+      <c r="A20" s="13"/>
       <c r="B20">
         <v>7</v>
       </c>
@@ -1255,7 +1324,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="12"/>
+      <c r="A21" s="13"/>
       <c r="B21">
         <v>-4</v>
       </c>
@@ -1267,7 +1336,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="12"/>
+      <c r="A22" s="13"/>
       <c r="B22">
         <v>-29.9</v>
       </c>
@@ -1279,7 +1348,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="13">
+      <c r="A23" s="16">
         <v>43440</v>
       </c>
       <c r="B23">
@@ -1293,7 +1362,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="13"/>
+      <c r="A24" s="16"/>
       <c r="B24">
         <v>-5</v>
       </c>
@@ -1305,7 +1374,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="13"/>
+      <c r="A25" s="16"/>
       <c r="B25">
         <v>-9</v>
       </c>
@@ -1317,7 +1386,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="13"/>
+      <c r="A26" s="16"/>
       <c r="B26">
         <v>-249</v>
       </c>
@@ -1329,7 +1398,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="13"/>
+      <c r="A27" s="16"/>
       <c r="B27">
         <v>-13.88</v>
       </c>
@@ -1341,7 +1410,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="13">
+      <c r="A28" s="16">
         <v>43441</v>
       </c>
       <c r="B28">
@@ -1355,7 +1424,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="13"/>
+      <c r="A29" s="16"/>
       <c r="B29">
         <v>-6</v>
       </c>
@@ -1367,7 +1436,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="13"/>
+      <c r="A30" s="16"/>
       <c r="B30">
         <v>-4</v>
       </c>
@@ -1379,7 +1448,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="13"/>
+      <c r="A31" s="16"/>
       <c r="B31">
         <v>-18</v>
       </c>
@@ -1391,7 +1460,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="13"/>
+      <c r="A32" s="16"/>
       <c r="B32">
         <f>-89-129-119-89</f>
         <v>-426</v>
@@ -1404,7 +1473,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="12">
+      <c r="A33" s="13">
         <v>43442</v>
       </c>
       <c r="B33">
@@ -1418,7 +1487,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="12">
+      <c r="A34" s="13">
         <v>43443</v>
       </c>
       <c r="B34">
@@ -1432,7 +1501,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="12"/>
+      <c r="A35" s="13"/>
       <c r="B35">
         <v>-2</v>
       </c>
@@ -1444,7 +1513,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="16">
+      <c r="A36" s="19">
         <v>43444</v>
       </c>
       <c r="B36">
@@ -1458,7 +1527,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="16"/>
+      <c r="A37" s="19"/>
       <c r="B37">
         <v>-4</v>
       </c>
@@ -1470,7 +1539,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="16"/>
+      <c r="A38" s="19"/>
       <c r="B38">
         <v>-14.44</v>
       </c>
@@ -1482,7 +1551,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="12">
+      <c r="A39" s="13">
         <v>43445</v>
       </c>
       <c r="B39">
@@ -1496,7 +1565,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="12"/>
+      <c r="A40" s="13"/>
       <c r="B40">
         <v>-4</v>
       </c>
@@ -1508,7 +1577,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="12"/>
+      <c r="A41" s="13"/>
       <c r="B41">
         <v>-5</v>
       </c>
@@ -1520,7 +1589,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="12"/>
+      <c r="A42" s="13"/>
       <c r="B42">
         <v>-16</v>
       </c>
@@ -1532,7 +1601,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="12">
+      <c r="A43" s="13">
         <v>43446</v>
       </c>
       <c r="B43">
@@ -1546,7 +1615,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="12"/>
+      <c r="A44" s="13"/>
       <c r="B44">
         <v>-8</v>
       </c>
@@ -1558,7 +1627,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="12"/>
+      <c r="A45" s="13"/>
       <c r="B45">
         <v>-5</v>
       </c>
@@ -1570,7 +1639,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="12"/>
+      <c r="A46" s="13"/>
       <c r="B46">
         <v>-13</v>
       </c>
@@ -1582,7 +1651,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="12">
+      <c r="A47" s="13">
         <v>43447</v>
       </c>
       <c r="B47">
@@ -1596,7 +1665,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="12"/>
+      <c r="A48" s="13"/>
       <c r="B48">
         <v>-6</v>
       </c>
@@ -1608,7 +1677,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="12"/>
+      <c r="A49" s="13"/>
       <c r="B49">
         <v>-16</v>
       </c>
@@ -1620,7 +1689,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="12"/>
+      <c r="A50" s="13"/>
       <c r="B50">
         <v>-13</v>
       </c>
@@ -1632,7 +1701,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="12"/>
+      <c r="A51" s="13"/>
       <c r="B51">
         <v>-99</v>
       </c>
@@ -1644,7 +1713,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="12">
+      <c r="A52" s="13">
         <v>43448</v>
       </c>
       <c r="B52">
@@ -1658,7 +1727,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="12"/>
+      <c r="A53" s="13"/>
       <c r="B53">
         <v>-14</v>
       </c>
@@ -1670,7 +1739,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="12"/>
+      <c r="A54" s="13"/>
       <c r="B54">
         <v>-13</v>
       </c>
@@ -1682,7 +1751,7 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="12">
+      <c r="A55" s="13">
         <v>43449</v>
       </c>
       <c r="B55">
@@ -1696,7 +1765,7 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="12"/>
+      <c r="A56" s="13"/>
       <c r="B56">
         <v>-20</v>
       </c>
@@ -1708,7 +1777,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="12">
+      <c r="A57" s="13">
         <v>43450</v>
       </c>
       <c r="B57">
@@ -1722,7 +1791,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="12"/>
+      <c r="A58" s="13"/>
       <c r="B58">
         <v>-30</v>
       </c>
@@ -1734,7 +1803,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="12">
+      <c r="A59" s="13">
         <v>43451</v>
       </c>
       <c r="B59">
@@ -1748,7 +1817,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="12"/>
+      <c r="A60" s="13"/>
       <c r="B60">
         <v>-4.5</v>
       </c>
@@ -1760,7 +1829,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="12"/>
+      <c r="A61" s="13"/>
       <c r="B61">
         <v>-12</v>
       </c>
@@ -1772,7 +1841,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="12">
+      <c r="A62" s="13">
         <v>43452</v>
       </c>
       <c r="B62">
@@ -1786,7 +1855,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="12"/>
+      <c r="A63" s="13"/>
       <c r="B63">
         <v>-16</v>
       </c>
@@ -1798,7 +1867,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="12"/>
+      <c r="A64" s="13"/>
       <c r="B64">
         <v>-670</v>
       </c>
@@ -1810,7 +1879,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="12">
+      <c r="A65" s="13">
         <v>43453</v>
       </c>
       <c r="B65">
@@ -1824,7 +1893,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="12"/>
+      <c r="A66" s="13"/>
       <c r="B66">
         <v>-16</v>
       </c>
@@ -1836,81 +1905,347 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="12"/>
+      <c r="A67" s="13"/>
+      <c r="B67">
+        <v>-12</v>
+      </c>
+      <c r="C67" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67">
+        <v>2</v>
+      </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="1">
+      <c r="A68" s="13">
         <v>43454</v>
       </c>
+      <c r="B68">
+        <v>-10</v>
+      </c>
+      <c r="C68" t="s">
+        <v>17</v>
+      </c>
+      <c r="D68">
+        <v>2</v>
+      </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="1">
+      <c r="A69" s="13"/>
+      <c r="B69">
+        <v>-18</v>
+      </c>
+      <c r="C69" t="s">
+        <v>49</v>
+      </c>
+      <c r="D69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="13"/>
+      <c r="B70">
+        <v>-982</v>
+      </c>
+      <c r="C70" t="s">
+        <v>50</v>
+      </c>
+      <c r="D70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="13">
         <v>43455</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="1">
+      <c r="B71">
+        <v>-10</v>
+      </c>
+      <c r="C71" t="s">
+        <v>53</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="13"/>
+      <c r="B72">
+        <v>-4</v>
+      </c>
+      <c r="C72" t="s">
+        <v>7</v>
+      </c>
+      <c r="D72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="13"/>
+      <c r="B73">
+        <v>-4</v>
+      </c>
+      <c r="C73" t="s">
+        <v>55</v>
+      </c>
+      <c r="D73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="13">
         <v>43456</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="1">
+      <c r="B74">
+        <v>-30.8</v>
+      </c>
+      <c r="C74" t="s">
+        <v>51</v>
+      </c>
+      <c r="D74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="13"/>
+      <c r="B75">
+        <v>-13</v>
+      </c>
+      <c r="C75" t="s">
+        <v>52</v>
+      </c>
+      <c r="D75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="13"/>
+      <c r="B76">
+        <v>-15</v>
+      </c>
+      <c r="C76" t="s">
+        <v>54</v>
+      </c>
+      <c r="D76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="13"/>
+      <c r="B77">
+        <v>-15</v>
+      </c>
+      <c r="C77" t="s">
+        <v>56</v>
+      </c>
+      <c r="D77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="13"/>
+      <c r="B78">
+        <v>-42</v>
+      </c>
+      <c r="C78" t="s">
+        <v>8</v>
+      </c>
+      <c r="D78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="12">
         <v>43457</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="1">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="13">
         <v>43458</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="1">
+      <c r="B80">
+        <v>-10</v>
+      </c>
+      <c r="C80" t="s">
+        <v>17</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="13"/>
+      <c r="B81">
+        <v>-16</v>
+      </c>
+      <c r="C81" t="s">
+        <v>7</v>
+      </c>
+      <c r="D81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="13">
         <v>43459</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="1">
+      <c r="B82">
+        <v>-10</v>
+      </c>
+      <c r="C82" t="s">
+        <v>17</v>
+      </c>
+      <c r="D82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="13"/>
+      <c r="B83">
+        <v>-16</v>
+      </c>
+      <c r="C83" t="s">
+        <v>7</v>
+      </c>
+      <c r="D83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="13">
         <v>43460</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="1">
+      <c r="B84">
+        <v>-10</v>
+      </c>
+      <c r="C84" t="s">
+        <v>17</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="13"/>
+      <c r="B85">
+        <v>-4</v>
+      </c>
+      <c r="C85" t="s">
+        <v>7</v>
+      </c>
+      <c r="D85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="13"/>
+      <c r="B86">
+        <v>-62</v>
+      </c>
+      <c r="C86" t="s">
+        <v>8</v>
+      </c>
+      <c r="D86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="13">
         <v>43461</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="1">
+      <c r="B87">
+        <v>-10</v>
+      </c>
+      <c r="C87" t="s">
+        <v>17</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="13"/>
+      <c r="B88">
+        <v>-16</v>
+      </c>
+      <c r="C88" t="s">
+        <v>7</v>
+      </c>
+      <c r="D88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="13"/>
+      <c r="B89">
+        <v>-18.8</v>
+      </c>
+      <c r="C89" t="s">
+        <v>57</v>
+      </c>
+      <c r="D89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="13">
         <v>43462</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="1">
+      <c r="B90">
+        <v>-10</v>
+      </c>
+      <c r="C90" t="s">
+        <v>17</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="13"/>
+      <c r="B91">
+        <v>-14</v>
+      </c>
+      <c r="C91" t="s">
+        <v>7</v>
+      </c>
+      <c r="D91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" s="13"/>
+      <c r="B92">
+        <v>-12</v>
+      </c>
+      <c r="C92" t="s">
+        <v>8</v>
+      </c>
+      <c r="D92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="1">
         <v>43463</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="1">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="1">
         <v>43464</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="1">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="1">
         <v>43465</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="28">
+    <mergeCell ref="A74:A78"/>
+    <mergeCell ref="A68:A70"/>
     <mergeCell ref="A62:A64"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="A90:A92"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="A17:A22"/>
     <mergeCell ref="A11:A16"/>
@@ -1919,7 +2254,22 @@
     <mergeCell ref="A33"/>
     <mergeCell ref="A34:A35"/>
     <mergeCell ref="A36:A38"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="A87:A89"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="A28:A32"/>
     <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A84:A86"/>
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="A80:A81"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1961,7 +2311,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="17" t="s">
         <v>25</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -1980,7 +2330,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
+      <c r="A2" s="18"/>
       <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
@@ -1993,14 +2343,14 @@
       </c>
       <c r="F2">
         <f ca="1">DATE(2019,3,1)-TODAY()</f>
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I2">
         <f ca="1">C2/F2</f>
-        <v>31.166666666666668</v>
+        <v>35.61904761904762</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -2015,7 +2365,7 @@
       </c>
       <c r="I3">
         <f ca="1">C2/(F2-1)</f>
-        <v>31.6056338028169</v>
+        <v>36.193548387096776</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -2030,7 +2380,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="12">
+      <c r="A5" s="13">
         <v>43447</v>
       </c>
       <c r="B5">
@@ -2041,7 +2391,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="12"/>
+      <c r="A6" s="13"/>
       <c r="B6">
         <v>-350</v>
       </c>
@@ -2050,7 +2400,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="12"/>
+      <c r="A7" s="13"/>
       <c r="B7">
         <v>-129</v>
       </c>
@@ -2070,90 +2420,90 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="12">
+      <c r="A9" s="13">
         <v>43450</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="12"/>
+      <c r="A10" s="13"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="12"/>
+      <c r="A11" s="13"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="12"/>
+      <c r="A12" s="13"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="13">
+      <c r="A13" s="16">
         <v>43438</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="13"/>
+      <c r="A14" s="16"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="13"/>
+      <c r="A15" s="16"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="13"/>
+      <c r="A16" s="16"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="13"/>
+      <c r="A17" s="16"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="13"/>
+      <c r="A18" s="16"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="12">
+      <c r="A19" s="13">
         <v>43439</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="12"/>
+      <c r="A20" s="13"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="12"/>
+      <c r="A21" s="13"/>
       <c r="B21" s="2"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="12"/>
+      <c r="A22" s="13"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="12"/>
+      <c r="A23" s="13"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="12"/>
+      <c r="A24" s="13"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="13">
+      <c r="A25" s="16">
         <v>43440</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="13"/>
+      <c r="A26" s="16"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="13"/>
+      <c r="A27" s="16"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="13"/>
+      <c r="A28" s="16"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="13">
+      <c r="A29" s="16">
         <v>43441</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="13"/>
+      <c r="A30" s="16"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="13"/>
+      <c r="A31" s="16"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="13"/>
+      <c r="A32" s="16"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="13"/>
+      <c r="A33" s="16"/>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="8">
@@ -2161,23 +2511,23 @@
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="12">
+      <c r="A35" s="13">
         <v>43443</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="12"/>
+      <c r="A36" s="13"/>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" s="16">
+      <c r="A37" s="19">
         <v>43444</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" s="16"/>
+      <c r="A38" s="19"/>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" s="16"/>
+      <c r="A39" s="19"/>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="1">

--- a/健忘症患者的账本.xlsx
+++ b/健忘症患者的账本.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="880" yWindow="460" windowWidth="27920" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="880" yWindow="460" windowWidth="27920" windowHeight="17540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="12月" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="78">
   <si>
     <t>日期</t>
     <rPh sb="0" eb="1">
@@ -557,6 +557,161 @@
     <t>辣条</t>
     <rPh sb="0" eb="1">
       <t>la'tiao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>床垫</t>
+    <rPh sb="0" eb="1">
+      <t>chuang'dian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超市</t>
+    <rPh sb="0" eb="1">
+      <t>chao'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小提琴肩托</t>
+    <rPh sb="0" eb="1">
+      <t>xiao'ti'qin</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>jian'tuo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汗蒸</t>
+    <rPh sb="0" eb="1">
+      <t>han'z</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/1月</t>
+    <rPh sb="6" eb="7">
+      <t>yue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫生纸+面</t>
+    <rPh sb="0" eb="1">
+      <t>wei'sheng'zhi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>mian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水果</t>
+    <rPh sb="0" eb="1">
+      <t>shui'guo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早饭</t>
+    <rPh sb="0" eb="1">
+      <t>zao'f</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午饭</t>
+    <rPh sb="0" eb="1">
+      <t>wu'f</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汗蒸</t>
+    <rPh sb="0" eb="1">
+      <t>h'z</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猫薄荷</t>
+    <rPh sb="0" eb="1">
+      <t>mao</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>bo'he</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可乐</t>
+    <rPh sb="0" eb="1">
+      <t>k'l</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通</t>
+    <rPh sb="0" eb="1">
+      <t>j't</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午饭</t>
+    <rPh sb="0" eb="1">
+      <t>w'f</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帽子</t>
+    <rPh sb="0" eb="1">
+      <t>m'z</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>枕头</t>
+    <rPh sb="0" eb="1">
+      <t>zhen't</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大巴票</t>
+    <rPh sb="0" eb="1">
+      <t>da'ba</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>p</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首汽充值</t>
+    <rPh sb="0" eb="1">
+      <t>shou'qi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>chong'zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>臭豆腐</t>
+    <rPh sb="0" eb="1">
+      <t>chou'dou'f</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>草莓</t>
+    <rPh sb="0" eb="1">
+      <t>cao'mei</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -641,7 +796,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -674,14 +829,11 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -689,8 +841,23 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -969,10 +1136,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M95"/>
+  <dimension ref="A1:M102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="D92" sqref="D92"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -989,41 +1156,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>26</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="5">
-        <f>SUMIF(B4:B95,"&lt;0")</f>
-        <v>-5139.26</v>
+        <f>SUMIF(B4:B102,"&lt;0")</f>
+        <v>-5597.16</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
+      <c r="A2" s="17"/>
       <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C2">
         <f>3000+C1</f>
-        <v>-2139.2600000000002</v>
+        <v>-2597.16</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>18</v>
       </c>
       <c r="F2">
         <f ca="1">DATE(2019,1,1)-TODAY()</f>
-        <v>4</v>
+        <v>-13</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I2">
         <f ca="1">C2/F2</f>
-        <v>-534.81500000000005</v>
+        <v>199.78153846153845</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="10" customFormat="1" ht="61" customHeight="1" x14ac:dyDescent="0.2">
@@ -1036,20 +1203,20 @@
       <c r="C3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
       <c r="I3" s="10">
         <f ca="1">C2/(F2-1)</f>
-        <v>-713.0866666666667</v>
+        <v>185.51142857142855</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="13">
+      <c r="A4" s="15">
         <v>43435</v>
       </c>
       <c r="B4">
@@ -1063,7 +1230,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="13"/>
+      <c r="A5" s="15"/>
       <c r="B5">
         <v>-20</v>
       </c>
@@ -1089,7 +1256,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="13">
+      <c r="A7" s="15">
         <v>43437</v>
       </c>
       <c r="B7">
@@ -1103,7 +1270,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="13"/>
+      <c r="A8" s="15"/>
       <c r="B8">
         <v>-89</v>
       </c>
@@ -1124,7 +1291,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="13"/>
+      <c r="A9" s="15"/>
       <c r="B9">
         <v>-6</v>
       </c>
@@ -1141,12 +1308,12 @@
         <v>38</v>
       </c>
       <c r="I9">
-        <f>SUMIF($D$4:$D119,G9,$B4:$B$121)</f>
-        <v>-190</v>
+        <f>SUMIF($D$4:$D126,G9,$B4:$B$128)</f>
+        <v>-200</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="13"/>
+      <c r="A10" s="15"/>
       <c r="B10">
         <v>-4</v>
       </c>
@@ -1163,19 +1330,19 @@
         <v>42</v>
       </c>
       <c r="I10">
-        <f>SUMIF($D$4:$D120,G10,$B$4:$B$121)</f>
-        <v>-699.31999999999994</v>
+        <f>SUMIF($D$4:$D127,G10,$B$4:$B$128)</f>
+        <v>-821.61999999999989</v>
       </c>
       <c r="L10" s="4" t="s">
         <v>39</v>
       </c>
       <c r="M10">
         <f>SUM(I9:I11)</f>
-        <v>-1504.26</v>
+        <v>-1723.1599999999999</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="16">
+      <c r="A11" s="18">
         <v>43438</v>
       </c>
       <c r="B11">
@@ -1194,12 +1361,12 @@
         <v>45</v>
       </c>
       <c r="I11">
-        <f>SUMIF($D$4:$D121,G11,$B$4:$B$121)</f>
-        <v>-614.94000000000005</v>
+        <f>SUMIF($D$4:$D128,G11,$B$4:$B$128)</f>
+        <v>-701.54000000000008</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="16"/>
+      <c r="A12" s="18"/>
       <c r="B12">
         <v>18</v>
       </c>
@@ -1213,12 +1380,12 @@
         <v>46</v>
       </c>
       <c r="I12">
-        <f ca="1">SUMIF($D$4:$D122,G12,$B$4:$B$121)</f>
-        <v>-2167</v>
+        <f ca="1">SUMIF($D$4:$D129,G12,$B$4:$B$128)</f>
+        <v>-2406</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="16"/>
+      <c r="A13" s="18"/>
       <c r="B13">
         <v>-7</v>
       </c>
@@ -1235,12 +1402,12 @@
         <v>40</v>
       </c>
       <c r="I13">
-        <f ca="1">SUMIF($D$4:$D123,G13,$B$4:$B$121)</f>
+        <f ca="1">SUMIF($D$4:$D130,G13,$B$4:$B$128)</f>
         <v>-1468</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="16"/>
+      <c r="A14" s="18"/>
       <c r="B14">
         <v>-8</v>
       </c>
@@ -1252,7 +1419,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="16"/>
+      <c r="A15" s="18"/>
       <c r="B15">
         <v>-6</v>
       </c>
@@ -1264,7 +1431,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="16"/>
+      <c r="A16" s="18"/>
       <c r="B16">
         <v>-34.799999999999997</v>
       </c>
@@ -1276,7 +1443,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="13">
+      <c r="A17" s="15">
         <v>43439</v>
       </c>
       <c r="B17">
@@ -1291,7 +1458,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="13"/>
+      <c r="A18" s="15"/>
       <c r="B18">
         <v>-1468</v>
       </c>
@@ -1303,7 +1470,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="13"/>
+      <c r="A19" s="15"/>
       <c r="B19" s="2">
         <v>-6</v>
       </c>
@@ -1315,7 +1482,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="13"/>
+      <c r="A20" s="15"/>
       <c r="B20">
         <v>7</v>
       </c>
@@ -1324,7 +1491,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="13"/>
+      <c r="A21" s="15"/>
       <c r="B21">
         <v>-4</v>
       </c>
@@ -1336,7 +1503,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="13"/>
+      <c r="A22" s="15"/>
       <c r="B22">
         <v>-29.9</v>
       </c>
@@ -1348,7 +1515,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="16">
+      <c r="A23" s="18">
         <v>43440</v>
       </c>
       <c r="B23">
@@ -1362,7 +1529,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="16"/>
+      <c r="A24" s="18"/>
       <c r="B24">
         <v>-5</v>
       </c>
@@ -1374,7 +1541,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="16"/>
+      <c r="A25" s="18"/>
       <c r="B25">
         <v>-9</v>
       </c>
@@ -1386,7 +1553,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="16"/>
+      <c r="A26" s="18"/>
       <c r="B26">
         <v>-249</v>
       </c>
@@ -1398,7 +1565,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="16"/>
+      <c r="A27" s="18"/>
       <c r="B27">
         <v>-13.88</v>
       </c>
@@ -1410,7 +1577,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="16">
+      <c r="A28" s="18">
         <v>43441</v>
       </c>
       <c r="B28">
@@ -1424,7 +1591,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="16"/>
+      <c r="A29" s="18"/>
       <c r="B29">
         <v>-6</v>
       </c>
@@ -1436,7 +1603,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="16"/>
+      <c r="A30" s="18"/>
       <c r="B30">
         <v>-4</v>
       </c>
@@ -1448,7 +1615,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="16"/>
+      <c r="A31" s="18"/>
       <c r="B31">
         <v>-18</v>
       </c>
@@ -1460,7 +1627,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="16"/>
+      <c r="A32" s="18"/>
       <c r="B32">
         <f>-89-129-119-89</f>
         <v>-426</v>
@@ -1473,7 +1640,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="13">
+      <c r="A33" s="15">
         <v>43442</v>
       </c>
       <c r="B33">
@@ -1487,7 +1654,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="13">
+      <c r="A34" s="15">
         <v>43443</v>
       </c>
       <c r="B34">
@@ -1501,7 +1668,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="13"/>
+      <c r="A35" s="15"/>
       <c r="B35">
         <v>-2</v>
       </c>
@@ -1551,7 +1718,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="13">
+      <c r="A39" s="15">
         <v>43445</v>
       </c>
       <c r="B39">
@@ -1565,7 +1732,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="13"/>
+      <c r="A40" s="15"/>
       <c r="B40">
         <v>-4</v>
       </c>
@@ -1577,7 +1744,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="13"/>
+      <c r="A41" s="15"/>
       <c r="B41">
         <v>-5</v>
       </c>
@@ -1589,7 +1756,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="13"/>
+      <c r="A42" s="15"/>
       <c r="B42">
         <v>-16</v>
       </c>
@@ -1601,7 +1768,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="13">
+      <c r="A43" s="15">
         <v>43446</v>
       </c>
       <c r="B43">
@@ -1615,7 +1782,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="13"/>
+      <c r="A44" s="15"/>
       <c r="B44">
         <v>-8</v>
       </c>
@@ -1627,7 +1794,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="13"/>
+      <c r="A45" s="15"/>
       <c r="B45">
         <v>-5</v>
       </c>
@@ -1639,7 +1806,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="13"/>
+      <c r="A46" s="15"/>
       <c r="B46">
         <v>-13</v>
       </c>
@@ -1651,7 +1818,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="13">
+      <c r="A47" s="15">
         <v>43447</v>
       </c>
       <c r="B47">
@@ -1665,7 +1832,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="13"/>
+      <c r="A48" s="15"/>
       <c r="B48">
         <v>-6</v>
       </c>
@@ -1677,7 +1844,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="13"/>
+      <c r="A49" s="15"/>
       <c r="B49">
         <v>-16</v>
       </c>
@@ -1689,7 +1856,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="13"/>
+      <c r="A50" s="15"/>
       <c r="B50">
         <v>-13</v>
       </c>
@@ -1701,7 +1868,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="13"/>
+      <c r="A51" s="15"/>
       <c r="B51">
         <v>-99</v>
       </c>
@@ -1713,7 +1880,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="13">
+      <c r="A52" s="15">
         <v>43448</v>
       </c>
       <c r="B52">
@@ -1727,7 +1894,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="13"/>
+      <c r="A53" s="15"/>
       <c r="B53">
         <v>-14</v>
       </c>
@@ -1739,7 +1906,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="13"/>
+      <c r="A54" s="15"/>
       <c r="B54">
         <v>-13</v>
       </c>
@@ -1751,7 +1918,7 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="13">
+      <c r="A55" s="15">
         <v>43449</v>
       </c>
       <c r="B55">
@@ -1765,7 +1932,7 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="13"/>
+      <c r="A56" s="15"/>
       <c r="B56">
         <v>-20</v>
       </c>
@@ -1777,7 +1944,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="13">
+      <c r="A57" s="15">
         <v>43450</v>
       </c>
       <c r="B57">
@@ -1791,7 +1958,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="13"/>
+      <c r="A58" s="15"/>
       <c r="B58">
         <v>-30</v>
       </c>
@@ -1803,7 +1970,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="13">
+      <c r="A59" s="15">
         <v>43451</v>
       </c>
       <c r="B59">
@@ -1817,7 +1984,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="13"/>
+      <c r="A60" s="15"/>
       <c r="B60">
         <v>-4.5</v>
       </c>
@@ -1829,7 +1996,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="13"/>
+      <c r="A61" s="15"/>
       <c r="B61">
         <v>-12</v>
       </c>
@@ -1841,7 +2008,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="13">
+      <c r="A62" s="15">
         <v>43452</v>
       </c>
       <c r="B62">
@@ -1855,7 +2022,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="13"/>
+      <c r="A63" s="15"/>
       <c r="B63">
         <v>-16</v>
       </c>
@@ -1867,7 +2034,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="13"/>
+      <c r="A64" s="15"/>
       <c r="B64">
         <v>-670</v>
       </c>
@@ -1879,7 +2046,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="13">
+      <c r="A65" s="15">
         <v>43453</v>
       </c>
       <c r="B65">
@@ -1893,7 +2060,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="13"/>
+      <c r="A66" s="15"/>
       <c r="B66">
         <v>-16</v>
       </c>
@@ -1905,7 +2072,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="13"/>
+      <c r="A67" s="15"/>
       <c r="B67">
         <v>-12</v>
       </c>
@@ -1917,7 +2084,7 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="13">
+      <c r="A68" s="15">
         <v>43454</v>
       </c>
       <c r="B68">
@@ -1931,7 +2098,7 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="13"/>
+      <c r="A69" s="15"/>
       <c r="B69">
         <v>-18</v>
       </c>
@@ -1943,7 +2110,7 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="13"/>
+      <c r="A70" s="15"/>
       <c r="B70">
         <v>-982</v>
       </c>
@@ -1955,7 +2122,7 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="13">
+      <c r="A71" s="15">
         <v>43455</v>
       </c>
       <c r="B71">
@@ -1969,7 +2136,7 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="13"/>
+      <c r="A72" s="15"/>
       <c r="B72">
         <v>-4</v>
       </c>
@@ -1981,7 +2148,7 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="13"/>
+      <c r="A73" s="15"/>
       <c r="B73">
         <v>-4</v>
       </c>
@@ -1993,7 +2160,7 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="13">
+      <c r="A74" s="15">
         <v>43456</v>
       </c>
       <c r="B74">
@@ -2007,7 +2174,7 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="13"/>
+      <c r="A75" s="15"/>
       <c r="B75">
         <v>-13</v>
       </c>
@@ -2019,7 +2186,7 @@
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="13"/>
+      <c r="A76" s="15"/>
       <c r="B76">
         <v>-15</v>
       </c>
@@ -2031,221 +2198,346 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="13"/>
+      <c r="A77" s="15"/>
       <c r="B77">
+        <v>-30</v>
+      </c>
+      <c r="C77" t="s">
+        <v>61</v>
+      </c>
+      <c r="D77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="15"/>
+      <c r="B78">
         <v>-15</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C78" t="s">
         <v>56</v>
       </c>
-      <c r="D77">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="13"/>
-      <c r="B78">
+      <c r="D78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="15"/>
+      <c r="B79">
         <v>-42</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C79" t="s">
         <v>8</v>
       </c>
-      <c r="D78">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="12">
+      <c r="D79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="12">
         <v>43457</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="13">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="15">
         <v>43458</v>
       </c>
-      <c r="B80">
+      <c r="B81">
         <v>-10</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C81" t="s">
         <v>17</v>
       </c>
-      <c r="D80">
+      <c r="D81">
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="13"/>
-      <c r="B81">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="15"/>
+      <c r="B82">
         <v>-16</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C82" t="s">
         <v>7</v>
       </c>
-      <c r="D81">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="13">
+      <c r="D82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="15">
         <v>43459</v>
       </c>
-      <c r="B82">
+      <c r="B83">
         <v>-10</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C83" t="s">
         <v>17</v>
       </c>
-      <c r="D82">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="13"/>
-      <c r="B83">
+      <c r="D83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="15"/>
+      <c r="B84">
         <v>-16</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C84" t="s">
         <v>7</v>
       </c>
-      <c r="D83">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="13">
+      <c r="D84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="15">
         <v>43460</v>
       </c>
-      <c r="B84">
+      <c r="B85">
         <v>-10</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C85" t="s">
         <v>17</v>
       </c>
-      <c r="D84">
+      <c r="D85">
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="13"/>
-      <c r="B85">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="15"/>
+      <c r="B86">
         <v>-4</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C86" t="s">
         <v>7</v>
       </c>
-      <c r="D85">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="13"/>
-      <c r="B86">
+      <c r="D86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="15"/>
+      <c r="B87">
         <v>-62</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C87" t="s">
         <v>8</v>
       </c>
-      <c r="D86">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="13">
+      <c r="D87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="15">
         <v>43461</v>
       </c>
-      <c r="B87">
+      <c r="B88">
         <v>-10</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C88" t="s">
         <v>17</v>
       </c>
-      <c r="D87">
+      <c r="D88">
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="13"/>
-      <c r="B88">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="15"/>
+      <c r="B89">
         <v>-16</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C89" t="s">
         <v>7</v>
       </c>
-      <c r="D88">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" s="13"/>
-      <c r="B89">
+      <c r="D89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="15"/>
+      <c r="B90">
         <v>-18.8</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C90" t="s">
         <v>57</v>
       </c>
-      <c r="D89">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" s="13">
+      <c r="D90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="15">
         <v>43462</v>
       </c>
-      <c r="B90">
+      <c r="B91">
         <v>-10</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C91" t="s">
         <v>17</v>
       </c>
-      <c r="D90">
+      <c r="D91">
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="13"/>
-      <c r="B91">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" s="15"/>
+      <c r="B92">
         <v>-14</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C92" t="s">
         <v>7</v>
       </c>
-      <c r="D91">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" s="13"/>
-      <c r="B92">
+      <c r="D92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="15"/>
+      <c r="B93">
+        <v>-239</v>
+      </c>
+      <c r="C93" t="s">
+        <v>58</v>
+      </c>
+      <c r="D93">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="15"/>
+      <c r="B94">
         <v>-12</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C94" t="s">
         <v>8</v>
       </c>
-      <c r="D92">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="1">
+      <c r="D94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="15">
         <v>43463</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="1">
+      <c r="B95">
+        <v>-10</v>
+      </c>
+      <c r="C95" t="s">
+        <v>53</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="15"/>
+      <c r="B96">
+        <v>-6</v>
+      </c>
+      <c r="C96" t="s">
+        <v>4</v>
+      </c>
+      <c r="D96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="15"/>
+      <c r="B97">
+        <v>-4</v>
+      </c>
+      <c r="C97" t="s">
+        <v>47</v>
+      </c>
+      <c r="D97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="15"/>
+      <c r="B98">
+        <v>-39</v>
+      </c>
+      <c r="C98" t="s">
+        <v>8</v>
+      </c>
+      <c r="D98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="15">
         <v>43464</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="1">
+      <c r="B99">
+        <v>-22.9</v>
+      </c>
+      <c r="C99" t="s">
+        <v>59</v>
+      </c>
+      <c r="D99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="15"/>
+      <c r="B100">
+        <v>-50.4</v>
+      </c>
+      <c r="C100" t="s">
+        <v>59</v>
+      </c>
+      <c r="D100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" s="15"/>
+      <c r="B101">
+        <v>-30</v>
+      </c>
+      <c r="C101" t="s">
+        <v>61</v>
+      </c>
+      <c r="D101">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" s="13">
         <v>43465</v>
       </c>
+      <c r="B102">
+        <v>-26.6</v>
+      </c>
+      <c r="C102" t="s">
+        <v>60</v>
+      </c>
+      <c r="D102">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="A74:A78"/>
+  <mergeCells count="30">
+    <mergeCell ref="A85:A87"/>
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="A95:A98"/>
+    <mergeCell ref="A74:A79"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="A99:A101"/>
     <mergeCell ref="A68:A70"/>
     <mergeCell ref="A62:A64"/>
-    <mergeCell ref="A90:A92"/>
+    <mergeCell ref="A91:A94"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="A17:A22"/>
     <mergeCell ref="A11:A16"/>
@@ -2256,20 +2548,8 @@
     <mergeCell ref="A36:A38"/>
     <mergeCell ref="A65:A67"/>
     <mergeCell ref="A59:A61"/>
-    <mergeCell ref="A87:A89"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="A88:A90"/>
     <mergeCell ref="A57:A58"/>
-    <mergeCell ref="A84:A86"/>
-    <mergeCell ref="A71:A73"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="A80:A81"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2278,14 +2558,809 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:N67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="8" max="8" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.33203125" customWidth="1"/>
+    <col min="12" max="12" width="5.33203125" customWidth="1"/>
+    <col min="13" max="13" width="17.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="5">
+        <f>SUMIF(B4:B132,"&lt;0")</f>
+        <v>-3121.63</v>
+      </c>
+      <c r="E1" s="4"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="17"/>
+      <c r="B2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2">
+        <f>3000+C1</f>
+        <v>-121.63000000000011</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2">
+        <f ca="1">DATE(2019,2,1)-TODAY()</f>
+        <v>18</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2">
+        <f ca="1">C2/F2</f>
+        <v>-6.7572222222222287</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="10">
+        <f ca="1">C2/(F2-1)</f>
+        <v>-7.1547058823529479</v>
+      </c>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="13">
+        <v>43466</v>
+      </c>
+      <c r="B4">
+        <v>-22.13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="15">
+        <v>43467</v>
+      </c>
+      <c r="B5">
+        <v>-10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="15"/>
+      <c r="B6">
+        <v>-16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6">
+        <f>SUMIF($D$4:$D156,H6,$B4:$B$158)</f>
+        <v>-629</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="15"/>
+      <c r="B7">
+        <v>-24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7">
+        <f>SUMIF($D$4:$D157,H7,$B$4:$B$158)</f>
+        <v>-366.63</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N7">
+        <f>SUM(J6:J8)</f>
+        <v>-1653.63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="15">
+        <v>43468</v>
+      </c>
+      <c r="B8">
+        <v>-11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8">
+        <f>SUMIF($D$4:$D158,H8,$B$4:$B$158)</f>
+        <v>-658</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="15"/>
+      <c r="B9">
+        <v>-16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>4</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J9">
+        <f ca="1">SUMIF($D$4:$D159,H9,$B$4:$B$158)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="15"/>
+      <c r="B10">
+        <v>-15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10">
+        <f ca="1">SUMIF($D$4:$D160,H10,$B$4:$B$158)</f>
+        <v>-1453</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="15">
+        <v>43469</v>
+      </c>
+      <c r="B11">
+        <v>-11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="15"/>
+      <c r="B12">
+        <v>-1453</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="15"/>
+      <c r="B13">
+        <v>-4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="15"/>
+      <c r="B14">
+        <v>-55</v>
+      </c>
+      <c r="C14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="15"/>
+      <c r="B15">
+        <v>-11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="15">
+        <v>43470</v>
+      </c>
+      <c r="B16">
+        <v>-10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="15"/>
+      <c r="B17">
+        <v>-6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="15"/>
+      <c r="B18">
+        <v>-30</v>
+      </c>
+      <c r="C18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="15"/>
+      <c r="B19">
+        <v>-18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="15"/>
+      <c r="B20">
+        <v>-3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="15"/>
+      <c r="B21">
+        <v>-10</v>
+      </c>
+      <c r="C21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="15">
+        <v>43471</v>
+      </c>
+      <c r="B22">
+        <v>-10</v>
+      </c>
+      <c r="C22" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="15"/>
+      <c r="B23">
+        <v>-3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="15"/>
+      <c r="B24">
+        <v>-13</v>
+      </c>
+      <c r="C24" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="15">
+        <v>43472</v>
+      </c>
+      <c r="B25">
+        <v>-11</v>
+      </c>
+      <c r="C25" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="15"/>
+      <c r="B26">
+        <v>-4</v>
+      </c>
+      <c r="C26" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="15"/>
+      <c r="B27">
+        <v>-117</v>
+      </c>
+      <c r="C27" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="15"/>
+      <c r="B28">
+        <v>-218</v>
+      </c>
+      <c r="C28" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="15">
+        <v>43473</v>
+      </c>
+      <c r="B29">
+        <v>-11</v>
+      </c>
+      <c r="C29" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="15"/>
+      <c r="B30">
+        <v>-16</v>
+      </c>
+      <c r="C30" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="15"/>
+      <c r="B31">
+        <v>-245</v>
+      </c>
+      <c r="C31" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="18">
+        <v>43474</v>
+      </c>
+      <c r="B32">
+        <v>-11</v>
+      </c>
+      <c r="C32" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="18"/>
+      <c r="B33">
+        <v>-4</v>
+      </c>
+      <c r="C33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="18"/>
+      <c r="B34">
+        <v>-500</v>
+      </c>
+      <c r="C34" t="s">
+        <v>75</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="18"/>
+      <c r="B35">
+        <v>-16</v>
+      </c>
+      <c r="C35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="15">
+        <v>43475</v>
+      </c>
+      <c r="B36">
+        <v>-11</v>
+      </c>
+      <c r="C36" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="15"/>
+      <c r="B37">
+        <v>-6.5</v>
+      </c>
+      <c r="C37" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="15">
+        <v>43476</v>
+      </c>
+      <c r="B38">
+        <v>-11</v>
+      </c>
+      <c r="C38" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="15"/>
+      <c r="B39">
+        <v>-31</v>
+      </c>
+      <c r="C39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="15"/>
+      <c r="B40">
+        <v>-15</v>
+      </c>
+      <c r="C40" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="15"/>
+      <c r="B41">
+        <v>-49</v>
+      </c>
+      <c r="C41" t="s">
+        <v>77</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="15"/>
+      <c r="B42">
+        <v>-8</v>
+      </c>
+      <c r="C42" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="14">
+        <v>43477</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="15">
+        <v>43478</v>
+      </c>
+      <c r="B44">
+        <v>-34</v>
+      </c>
+      <c r="C44" t="s">
+        <v>77</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="15"/>
+      <c r="B45">
+        <v>-30</v>
+      </c>
+      <c r="C45" t="s">
+        <v>61</v>
+      </c>
+      <c r="D45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="15">
+        <v>43479</v>
+      </c>
+      <c r="B46">
+        <v>-11</v>
+      </c>
+      <c r="C46" t="s">
+        <v>53</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="15"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="15"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="15">
+        <v>43480</v>
+      </c>
+      <c r="B49">
+        <v>-11</v>
+      </c>
+      <c r="C49" t="s">
+        <v>53</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="15"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="15"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="13">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="13">
+        <v>43482</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="13">
+        <v>43483</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="13">
+        <v>43484</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="13">
+        <v>43485</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="13">
+        <v>43486</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="13">
+        <v>43487</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="13">
+        <v>43488</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="13">
+        <v>43489</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="13">
+        <v>43490</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="13">
+        <v>43491</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="13">
+        <v>43492</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="13">
+        <v>43493</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" s="13">
+        <v>43494</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" s="13">
+        <v>43495</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" s="13">
+        <v>43496</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="A38:A42"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="A5:A7"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2311,7 +3386,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>25</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -2330,7 +3405,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
+      <c r="A2" s="17"/>
       <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
@@ -2343,14 +3418,14 @@
       </c>
       <c r="F2">
         <f ca="1">DATE(2019,3,1)-TODAY()</f>
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I2">
         <f ca="1">C2/F2</f>
-        <v>35.61904761904762</v>
+        <v>48.782608695652172</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -2365,7 +3440,7 @@
       </c>
       <c r="I3">
         <f ca="1">C2/(F2-1)</f>
-        <v>36.193548387096776</v>
+        <v>49.866666666666667</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -2380,7 +3455,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="13">
+      <c r="A5" s="15">
         <v>43447</v>
       </c>
       <c r="B5">
@@ -2391,7 +3466,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="13"/>
+      <c r="A6" s="15"/>
       <c r="B6">
         <v>-350</v>
       </c>
@@ -2400,7 +3475,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="13"/>
+      <c r="A7" s="15"/>
       <c r="B7">
         <v>-129</v>
       </c>
@@ -2420,90 +3495,90 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="13">
+      <c r="A9" s="15">
         <v>43450</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="13"/>
+      <c r="A10" s="15"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="13"/>
+      <c r="A11" s="15"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="13"/>
+      <c r="A12" s="15"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="16">
+      <c r="A13" s="18">
         <v>43438</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="16"/>
+      <c r="A14" s="18"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="16"/>
+      <c r="A15" s="18"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="16"/>
+      <c r="A16" s="18"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="16"/>
+      <c r="A17" s="18"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="16"/>
+      <c r="A18" s="18"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="13">
+      <c r="A19" s="15">
         <v>43439</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="13"/>
+      <c r="A20" s="15"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="13"/>
+      <c r="A21" s="15"/>
       <c r="B21" s="2"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="13"/>
+      <c r="A22" s="15"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="13"/>
+      <c r="A23" s="15"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="13"/>
+      <c r="A24" s="15"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="16">
+      <c r="A25" s="18">
         <v>43440</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="16"/>
+      <c r="A26" s="18"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="16"/>
+      <c r="A27" s="18"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="16"/>
+      <c r="A28" s="18"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="16">
+      <c r="A29" s="18">
         <v>43441</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="16"/>
+      <c r="A30" s="18"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="16"/>
+      <c r="A31" s="18"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="16"/>
+      <c r="A32" s="18"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="16"/>
+      <c r="A33" s="18"/>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="8">
@@ -2511,12 +3586,12 @@
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="13">
+      <c r="A35" s="15">
         <v>43443</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="13"/>
+      <c r="A36" s="15"/>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="19">

--- a/健忘症患者的账本.xlsx
+++ b/健忘症患者的账本.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="81">
   <si>
     <t>日期</t>
     <rPh sb="0" eb="1">
@@ -712,6 +712,27 @@
     <t>草莓</t>
     <rPh sb="0" eb="1">
       <t>cao'mei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辣条</t>
+    <rPh sb="0" eb="1">
+      <t>la't</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烧饼</t>
+    <rPh sb="0" eb="1">
+      <t>shao'bing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猴姑米稀</t>
+    <rPh sb="0" eb="1">
+      <t>hou'gu'mi'xi</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1183,14 +1204,14 @@
       </c>
       <c r="F2">
         <f ca="1">DATE(2019,1,1)-TODAY()</f>
-        <v>-13</v>
+        <v>-16</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I2">
         <f ca="1">C2/F2</f>
-        <v>199.78153846153845</v>
+        <v>162.32249999999999</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="10" customFormat="1" ht="61" customHeight="1" x14ac:dyDescent="0.2">
@@ -1212,7 +1233,7 @@
       <c r="H3" s="21"/>
       <c r="I3" s="10">
         <f ca="1">C2/(F2-1)</f>
-        <v>185.51142857142855</v>
+        <v>152.7741176470588</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -2558,10 +2579,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N67"/>
+  <dimension ref="A1:N80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2582,8 +2603,8 @@
         <v>15</v>
       </c>
       <c r="C1" s="5">
-        <f>SUMIF(B4:B132,"&lt;0")</f>
-        <v>-3121.63</v>
+        <f>SUMIF(B4:B145,"&lt;0")</f>
+        <v>-3408.9300000000003</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="5"/>
@@ -2595,21 +2616,21 @@
       </c>
       <c r="C2">
         <f>3000+C1</f>
-        <v>-121.63000000000011</v>
+        <v>-408.93000000000029</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>18</v>
       </c>
       <c r="F2">
         <f ca="1">DATE(2019,2,1)-TODAY()</f>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I2">
         <f ca="1">C2/F2</f>
-        <v>-6.7572222222222287</v>
+        <v>-27.262000000000018</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -2631,7 +2652,7 @@
       <c r="H3" s="23"/>
       <c r="I3" s="10">
         <f ca="1">C2/(F2-1)</f>
-        <v>-7.1547058823529479</v>
+        <v>-29.209285714285734</v>
       </c>
       <c r="J3" s="10"/>
       <c r="K3" s="10"/>
@@ -2694,8 +2715,8 @@
         <v>38</v>
       </c>
       <c r="J6">
-        <f>SUMIF($D$4:$D156,H6,$B4:$B$158)</f>
-        <v>-629</v>
+        <f>SUMIF($D$4:$D169,H6,$B4:$B$171)</f>
+        <v>-649</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -2716,15 +2737,15 @@
         <v>42</v>
       </c>
       <c r="J7">
-        <f>SUMIF($D$4:$D157,H7,$B$4:$B$158)</f>
-        <v>-366.63</v>
+        <f>SUMIF($D$4:$D170,H7,$B$4:$B$171)</f>
+        <v>-623.92999999999995</v>
       </c>
       <c r="M7" s="4" t="s">
         <v>39</v>
       </c>
       <c r="N7">
         <f>SUM(J6:J8)</f>
-        <v>-1653.63</v>
+        <v>-1930.9299999999998</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -2747,7 +2768,7 @@
         <v>45</v>
       </c>
       <c r="J8">
-        <f>SUMIF($D$4:$D158,H8,$B$4:$B$158)</f>
+        <f>SUMIF($D$4:$D171,H8,$B$4:$B$171)</f>
         <v>-658</v>
       </c>
     </row>
@@ -2769,7 +2790,7 @@
         <v>46</v>
       </c>
       <c r="J9">
-        <f ca="1">SUMIF($D$4:$D159,H9,$B$4:$B$158)</f>
+        <f ca="1">SUMIF($D$4:$D172,H9,$B$4:$B$171)</f>
         <v>0</v>
       </c>
     </row>
@@ -2791,7 +2812,7 @@
         <v>40</v>
       </c>
       <c r="J10">
-        <f ca="1">SUMIF($D$4:$D160,H10,$B$4:$B$158)</f>
+        <f ca="1">SUMIF($D$4:$D173,H10,$B$4:$B$171)</f>
         <v>-1453</v>
       </c>
     </row>
@@ -3239,9 +3260,27 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="15"/>
+      <c r="B47">
+        <v>-8</v>
+      </c>
+      <c r="C47" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="15"/>
+      <c r="B48">
+        <v>-6</v>
+      </c>
+      <c r="C48" t="s">
+        <v>79</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="15">
@@ -3259,95 +3298,235 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="15"/>
+      <c r="B50">
+        <v>-8</v>
+      </c>
+      <c r="C50" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="15"/>
+      <c r="B51">
+        <v>-2.5</v>
+      </c>
+      <c r="C51" t="s">
+        <v>78</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="13">
+      <c r="A52" s="15"/>
+      <c r="B52">
+        <v>-6</v>
+      </c>
+      <c r="C52" t="s">
+        <v>79</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="15">
         <v>43481</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="13">
+      <c r="B53">
+        <v>-182</v>
+      </c>
+      <c r="C53" t="s">
+        <v>80</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="15"/>
+      <c r="B54">
+        <v>-10</v>
+      </c>
+      <c r="C54" t="s">
+        <v>53</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="15"/>
+      <c r="B55">
+        <v>-8</v>
+      </c>
+      <c r="C55" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="15"/>
+      <c r="B56">
+        <v>-23</v>
+      </c>
+      <c r="C56" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="15">
         <v>43482</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="13">
+      <c r="B57">
+        <v>-10</v>
+      </c>
+      <c r="C57" t="s">
+        <v>17</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="15"/>
+      <c r="B58">
+        <v>-8</v>
+      </c>
+      <c r="C58" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="15"/>
+      <c r="B59">
+        <v>-5.8</v>
+      </c>
+      <c r="C59" t="s">
+        <v>11</v>
+      </c>
+      <c r="D59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="15"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="15">
         <v>43483</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="13">
+      <c r="B61">
+        <v>-10</v>
+      </c>
+      <c r="C61" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="15"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="15"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="15">
         <v>43484</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="13">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" s="15"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" s="15"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" s="15">
         <v>43485</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="13">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" s="15"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" s="15"/>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" s="13">
         <v>43486</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="13">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" s="13">
         <v>43487</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="13">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" s="13">
         <v>43488</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="13">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" s="13">
         <v>43489</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="13">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" s="13">
         <v>43490</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="13">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" s="13">
         <v>43491</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="13">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" s="13">
         <v>43492</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="13">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" s="13">
         <v>43493</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A65" s="13">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" s="13">
         <v>43494</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A66" s="13">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" s="13">
         <v>43495</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A67" s="13">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" s="13">
         <v>43496</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="20">
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="A67:A69"/>
     <mergeCell ref="A44:A45"/>
     <mergeCell ref="A46:A48"/>
-    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="A49:A52"/>
     <mergeCell ref="A38:A42"/>
     <mergeCell ref="A36:A37"/>
     <mergeCell ref="A1:A2"/>
@@ -3418,14 +3597,14 @@
       </c>
       <c r="F2">
         <f ca="1">DATE(2019,3,1)-TODAY()</f>
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I2">
         <f ca="1">C2/F2</f>
-        <v>48.782608695652172</v>
+        <v>52.186046511627907</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -3440,7 +3619,7 @@
       </c>
       <c r="I3">
         <f ca="1">C2/(F2-1)</f>
-        <v>49.866666666666667</v>
+        <v>53.428571428571431</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">

--- a/健忘症患者的账本.xlsx
+++ b/健忘症患者的账本.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="90">
   <si>
     <t>日期</t>
     <rPh sb="0" eb="1">
@@ -668,13 +668,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>帽子</t>
-    <rPh sb="0" eb="1">
-      <t>m'z</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>枕头</t>
     <rPh sb="0" eb="1">
       <t>zhen't</t>
@@ -733,6 +726,85 @@
     <t>猴姑米稀</t>
     <rPh sb="0" eb="1">
       <t>hou'gu'mi'xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚饭</t>
+    <rPh sb="0" eb="1">
+      <t>wan'fna</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酸辣粉等</t>
+    <rPh sb="0" eb="1">
+      <t>suan'la'fe</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>deng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <rPh sb="0" eb="1">
+      <t>shu'liang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃喝</t>
+    <rPh sb="0" eb="1">
+      <t>chi'he</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必需购物</t>
+    <rPh sb="0" eb="1">
+      <t>bi'xu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>gou'wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非必需购物</t>
+    <rPh sb="0" eb="1">
+      <t>fei'bi'xu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>gou'wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房租</t>
+    <rPh sb="0" eb="1">
+      <t>fagn'zu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帽子</t>
+    <rPh sb="0" eb="1">
+      <t>mao'z</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秋裤</t>
+    <rPh sb="0" eb="1">
+      <t>iu'ku</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电影</t>
+    <rPh sb="0" eb="1">
+      <t>dian'ying</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -853,19 +925,13 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -874,11 +940,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1177,7 +1249,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="21" t="s">
         <v>26</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -1191,7 +1263,7 @@
       <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
+      <c r="A2" s="22"/>
       <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
@@ -1204,14 +1276,14 @@
       </c>
       <c r="F2">
         <f ca="1">DATE(2019,1,1)-TODAY()</f>
-        <v>-16</v>
+        <v>-20</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I2">
         <f ca="1">C2/F2</f>
-        <v>162.32249999999999</v>
+        <v>129.858</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="10" customFormat="1" ht="61" customHeight="1" x14ac:dyDescent="0.2">
@@ -1224,20 +1296,20 @@
       <c r="C3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
       <c r="I3" s="10">
         <f ca="1">C2/(F2-1)</f>
-        <v>152.7741176470588</v>
+        <v>123.6742857142857</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="15">
+      <c r="A4" s="17">
         <v>43435</v>
       </c>
       <c r="B4">
@@ -1251,7 +1323,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="15"/>
+      <c r="A5" s="17"/>
       <c r="B5">
         <v>-20</v>
       </c>
@@ -1277,7 +1349,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="15">
+      <c r="A7" s="17">
         <v>43437</v>
       </c>
       <c r="B7">
@@ -1291,7 +1363,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="15"/>
+      <c r="A8" s="17"/>
       <c r="B8">
         <v>-89</v>
       </c>
@@ -1312,7 +1384,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
+      <c r="A9" s="17"/>
       <c r="B9">
         <v>-6</v>
       </c>
@@ -1334,7 +1406,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="15"/>
+      <c r="A10" s="17"/>
       <c r="B10">
         <v>-4</v>
       </c>
@@ -1363,7 +1435,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="18">
+      <c r="A11" s="20">
         <v>43438</v>
       </c>
       <c r="B11">
@@ -1387,7 +1459,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="18"/>
+      <c r="A12" s="20"/>
       <c r="B12">
         <v>18</v>
       </c>
@@ -1406,7 +1478,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="18"/>
+      <c r="A13" s="20"/>
       <c r="B13">
         <v>-7</v>
       </c>
@@ -1428,7 +1500,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="18"/>
+      <c r="A14" s="20"/>
       <c r="B14">
         <v>-8</v>
       </c>
@@ -1440,7 +1512,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="18"/>
+      <c r="A15" s="20"/>
       <c r="B15">
         <v>-6</v>
       </c>
@@ -1452,7 +1524,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="18"/>
+      <c r="A16" s="20"/>
       <c r="B16">
         <v>-34.799999999999997</v>
       </c>
@@ -1464,7 +1536,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="15">
+      <c r="A17" s="17">
         <v>43439</v>
       </c>
       <c r="B17">
@@ -1479,7 +1551,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="15"/>
+      <c r="A18" s="17"/>
       <c r="B18">
         <v>-1468</v>
       </c>
@@ -1491,7 +1563,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="15"/>
+      <c r="A19" s="17"/>
       <c r="B19" s="2">
         <v>-6</v>
       </c>
@@ -1503,7 +1575,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="15"/>
+      <c r="A20" s="17"/>
       <c r="B20">
         <v>7</v>
       </c>
@@ -1512,7 +1584,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="15"/>
+      <c r="A21" s="17"/>
       <c r="B21">
         <v>-4</v>
       </c>
@@ -1524,7 +1596,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="15"/>
+      <c r="A22" s="17"/>
       <c r="B22">
         <v>-29.9</v>
       </c>
@@ -1536,7 +1608,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="18">
+      <c r="A23" s="20">
         <v>43440</v>
       </c>
       <c r="B23">
@@ -1550,7 +1622,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="18"/>
+      <c r="A24" s="20"/>
       <c r="B24">
         <v>-5</v>
       </c>
@@ -1562,7 +1634,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="18"/>
+      <c r="A25" s="20"/>
       <c r="B25">
         <v>-9</v>
       </c>
@@ -1574,7 +1646,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="18"/>
+      <c r="A26" s="20"/>
       <c r="B26">
         <v>-249</v>
       </c>
@@ -1586,7 +1658,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="18"/>
+      <c r="A27" s="20"/>
       <c r="B27">
         <v>-13.88</v>
       </c>
@@ -1598,7 +1670,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="18">
+      <c r="A28" s="20">
         <v>43441</v>
       </c>
       <c r="B28">
@@ -1612,7 +1684,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="18"/>
+      <c r="A29" s="20"/>
       <c r="B29">
         <v>-6</v>
       </c>
@@ -1624,7 +1696,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="18"/>
+      <c r="A30" s="20"/>
       <c r="B30">
         <v>-4</v>
       </c>
@@ -1636,7 +1708,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="18"/>
+      <c r="A31" s="20"/>
       <c r="B31">
         <v>-18</v>
       </c>
@@ -1648,7 +1720,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="18"/>
+      <c r="A32" s="20"/>
       <c r="B32">
         <f>-89-129-119-89</f>
         <v>-426</v>
@@ -1661,7 +1733,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="15">
+      <c r="A33" s="17">
         <v>43442</v>
       </c>
       <c r="B33">
@@ -1675,7 +1747,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="15">
+      <c r="A34" s="17">
         <v>43443</v>
       </c>
       <c r="B34">
@@ -1689,7 +1761,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="15"/>
+      <c r="A35" s="17"/>
       <c r="B35">
         <v>-2</v>
       </c>
@@ -1701,7 +1773,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="19">
+      <c r="A36" s="23">
         <v>43444</v>
       </c>
       <c r="B36">
@@ -1715,7 +1787,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="19"/>
+      <c r="A37" s="23"/>
       <c r="B37">
         <v>-4</v>
       </c>
@@ -1727,7 +1799,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="19"/>
+      <c r="A38" s="23"/>
       <c r="B38">
         <v>-14.44</v>
       </c>
@@ -1739,7 +1811,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="15">
+      <c r="A39" s="17">
         <v>43445</v>
       </c>
       <c r="B39">
@@ -1753,7 +1825,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="15"/>
+      <c r="A40" s="17"/>
       <c r="B40">
         <v>-4</v>
       </c>
@@ -1765,7 +1837,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="15"/>
+      <c r="A41" s="17"/>
       <c r="B41">
         <v>-5</v>
       </c>
@@ -1777,7 +1849,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="15"/>
+      <c r="A42" s="17"/>
       <c r="B42">
         <v>-16</v>
       </c>
@@ -1789,7 +1861,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="15">
+      <c r="A43" s="17">
         <v>43446</v>
       </c>
       <c r="B43">
@@ -1803,7 +1875,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="15"/>
+      <c r="A44" s="17"/>
       <c r="B44">
         <v>-8</v>
       </c>
@@ -1815,7 +1887,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="15"/>
+      <c r="A45" s="17"/>
       <c r="B45">
         <v>-5</v>
       </c>
@@ -1827,7 +1899,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="15"/>
+      <c r="A46" s="17"/>
       <c r="B46">
         <v>-13</v>
       </c>
@@ -1839,7 +1911,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="15">
+      <c r="A47" s="17">
         <v>43447</v>
       </c>
       <c r="B47">
@@ -1853,7 +1925,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="15"/>
+      <c r="A48" s="17"/>
       <c r="B48">
         <v>-6</v>
       </c>
@@ -1865,7 +1937,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="15"/>
+      <c r="A49" s="17"/>
       <c r="B49">
         <v>-16</v>
       </c>
@@ -1877,7 +1949,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="15"/>
+      <c r="A50" s="17"/>
       <c r="B50">
         <v>-13</v>
       </c>
@@ -1889,7 +1961,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="15"/>
+      <c r="A51" s="17"/>
       <c r="B51">
         <v>-99</v>
       </c>
@@ -1901,7 +1973,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="15">
+      <c r="A52" s="17">
         <v>43448</v>
       </c>
       <c r="B52">
@@ -1915,7 +1987,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="15"/>
+      <c r="A53" s="17"/>
       <c r="B53">
         <v>-14</v>
       </c>
@@ -1927,7 +1999,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="15"/>
+      <c r="A54" s="17"/>
       <c r="B54">
         <v>-13</v>
       </c>
@@ -1939,7 +2011,7 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="15">
+      <c r="A55" s="17">
         <v>43449</v>
       </c>
       <c r="B55">
@@ -1953,7 +2025,7 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="15"/>
+      <c r="A56" s="17"/>
       <c r="B56">
         <v>-20</v>
       </c>
@@ -1965,7 +2037,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="15">
+      <c r="A57" s="17">
         <v>43450</v>
       </c>
       <c r="B57">
@@ -1979,7 +2051,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="15"/>
+      <c r="A58" s="17"/>
       <c r="B58">
         <v>-30</v>
       </c>
@@ -1991,7 +2063,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="15">
+      <c r="A59" s="17">
         <v>43451</v>
       </c>
       <c r="B59">
@@ -2005,7 +2077,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="15"/>
+      <c r="A60" s="17"/>
       <c r="B60">
         <v>-4.5</v>
       </c>
@@ -2017,7 +2089,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="15"/>
+      <c r="A61" s="17"/>
       <c r="B61">
         <v>-12</v>
       </c>
@@ -2029,7 +2101,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="15">
+      <c r="A62" s="17">
         <v>43452</v>
       </c>
       <c r="B62">
@@ -2043,7 +2115,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="15"/>
+      <c r="A63" s="17"/>
       <c r="B63">
         <v>-16</v>
       </c>
@@ -2055,7 +2127,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="15"/>
+      <c r="A64" s="17"/>
       <c r="B64">
         <v>-670</v>
       </c>
@@ -2067,7 +2139,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="15">
+      <c r="A65" s="17">
         <v>43453</v>
       </c>
       <c r="B65">
@@ -2081,7 +2153,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="15"/>
+      <c r="A66" s="17"/>
       <c r="B66">
         <v>-16</v>
       </c>
@@ -2093,7 +2165,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="15"/>
+      <c r="A67" s="17"/>
       <c r="B67">
         <v>-12</v>
       </c>
@@ -2105,7 +2177,7 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="15">
+      <c r="A68" s="17">
         <v>43454</v>
       </c>
       <c r="B68">
@@ -2119,7 +2191,7 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="15"/>
+      <c r="A69" s="17"/>
       <c r="B69">
         <v>-18</v>
       </c>
@@ -2131,7 +2203,7 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="15"/>
+      <c r="A70" s="17"/>
       <c r="B70">
         <v>-982</v>
       </c>
@@ -2143,7 +2215,7 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="15">
+      <c r="A71" s="17">
         <v>43455</v>
       </c>
       <c r="B71">
@@ -2157,7 +2229,7 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="15"/>
+      <c r="A72" s="17"/>
       <c r="B72">
         <v>-4</v>
       </c>
@@ -2169,7 +2241,7 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="15"/>
+      <c r="A73" s="17"/>
       <c r="B73">
         <v>-4</v>
       </c>
@@ -2181,7 +2253,7 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="15">
+      <c r="A74" s="17">
         <v>43456</v>
       </c>
       <c r="B74">
@@ -2195,7 +2267,7 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="15"/>
+      <c r="A75" s="17"/>
       <c r="B75">
         <v>-13</v>
       </c>
@@ -2207,7 +2279,7 @@
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="15"/>
+      <c r="A76" s="17"/>
       <c r="B76">
         <v>-15</v>
       </c>
@@ -2219,7 +2291,7 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="15"/>
+      <c r="A77" s="17"/>
       <c r="B77">
         <v>-30</v>
       </c>
@@ -2231,7 +2303,7 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="15"/>
+      <c r="A78" s="17"/>
       <c r="B78">
         <v>-15</v>
       </c>
@@ -2243,7 +2315,7 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="15"/>
+      <c r="A79" s="17"/>
       <c r="B79">
         <v>-42</v>
       </c>
@@ -2260,7 +2332,7 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="15">
+      <c r="A81" s="17">
         <v>43458</v>
       </c>
       <c r="B81">
@@ -2274,7 +2346,7 @@
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="15"/>
+      <c r="A82" s="17"/>
       <c r="B82">
         <v>-16</v>
       </c>
@@ -2286,7 +2358,7 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="15">
+      <c r="A83" s="17">
         <v>43459</v>
       </c>
       <c r="B83">
@@ -2300,7 +2372,7 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="15"/>
+      <c r="A84" s="17"/>
       <c r="B84">
         <v>-16</v>
       </c>
@@ -2312,7 +2384,7 @@
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="15">
+      <c r="A85" s="17">
         <v>43460</v>
       </c>
       <c r="B85">
@@ -2326,7 +2398,7 @@
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="15"/>
+      <c r="A86" s="17"/>
       <c r="B86">
         <v>-4</v>
       </c>
@@ -2338,7 +2410,7 @@
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="15"/>
+      <c r="A87" s="17"/>
       <c r="B87">
         <v>-62</v>
       </c>
@@ -2350,7 +2422,7 @@
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="15">
+      <c r="A88" s="17">
         <v>43461</v>
       </c>
       <c r="B88">
@@ -2364,7 +2436,7 @@
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" s="15"/>
+      <c r="A89" s="17"/>
       <c r="B89">
         <v>-16</v>
       </c>
@@ -2376,7 +2448,7 @@
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" s="15"/>
+      <c r="A90" s="17"/>
       <c r="B90">
         <v>-18.8</v>
       </c>
@@ -2388,7 +2460,7 @@
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="15">
+      <c r="A91" s="17">
         <v>43462</v>
       </c>
       <c r="B91">
@@ -2402,7 +2474,7 @@
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" s="15"/>
+      <c r="A92" s="17"/>
       <c r="B92">
         <v>-14</v>
       </c>
@@ -2414,7 +2486,7 @@
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="15"/>
+      <c r="A93" s="17"/>
       <c r="B93">
         <v>-239</v>
       </c>
@@ -2426,7 +2498,7 @@
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="15"/>
+      <c r="A94" s="17"/>
       <c r="B94">
         <v>-12</v>
       </c>
@@ -2438,7 +2510,7 @@
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="15">
+      <c r="A95" s="17">
         <v>43463</v>
       </c>
       <c r="B95">
@@ -2452,7 +2524,7 @@
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" s="15"/>
+      <c r="A96" s="17"/>
       <c r="B96">
         <v>-6</v>
       </c>
@@ -2464,7 +2536,7 @@
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" s="15"/>
+      <c r="A97" s="17"/>
       <c r="B97">
         <v>-4</v>
       </c>
@@ -2476,7 +2548,7 @@
       </c>
     </row>
     <row r="98" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="15"/>
+      <c r="A98" s="17"/>
       <c r="B98">
         <v>-39</v>
       </c>
@@ -2488,7 +2560,7 @@
       </c>
     </row>
     <row r="99" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="15">
+      <c r="A99" s="17">
         <v>43464</v>
       </c>
       <c r="B99">
@@ -2502,7 +2574,7 @@
       </c>
     </row>
     <row r="100" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="15"/>
+      <c r="A100" s="17"/>
       <c r="B100">
         <v>-50.4</v>
       </c>
@@ -2514,7 +2586,7 @@
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A101" s="15"/>
+      <c r="A101" s="17"/>
       <c r="B101">
         <v>-30</v>
       </c>
@@ -2541,20 +2613,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A85:A87"/>
-    <mergeCell ref="A71:A73"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="A95:A98"/>
-    <mergeCell ref="A74:A79"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="A28:A32"/>
     <mergeCell ref="A99:A101"/>
     <mergeCell ref="A68:A70"/>
     <mergeCell ref="A62:A64"/>
@@ -2571,6 +2629,20 @@
     <mergeCell ref="A59:A61"/>
     <mergeCell ref="A88:A90"/>
     <mergeCell ref="A57:A58"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="A85:A87"/>
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="A95:A98"/>
+    <mergeCell ref="A74:A79"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2579,15 +2651,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N80"/>
+  <dimension ref="A1:N82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
     <col min="8" max="8" width="23.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="25.33203125" customWidth="1"/>
@@ -2596,44 +2669,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="21" t="s">
         <v>62</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="5">
-        <f>SUMIF(B4:B145,"&lt;0")</f>
-        <v>-3408.9300000000003</v>
+        <f>SUMIF(B4:B147,"&lt;0")</f>
+        <v>-3774.83</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
+      <c r="A2" s="22"/>
       <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C2">
         <f>3000+C1</f>
-        <v>-408.93000000000029</v>
+        <v>-774.82999999999993</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>18</v>
       </c>
       <c r="F2">
         <f ca="1">DATE(2019,2,1)-TODAY()</f>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I2">
         <f ca="1">C2/F2</f>
-        <v>-27.262000000000018</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+        <v>-70.439090909090908</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="77" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
@@ -2643,16 +2716,16 @@
       <c r="C3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
       <c r="I3" s="10">
         <f ca="1">C2/(F2-1)</f>
-        <v>-29.209285714285734</v>
+        <v>-77.48299999999999</v>
       </c>
       <c r="J3" s="10"/>
       <c r="K3" s="10"/>
@@ -2675,7 +2748,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="15">
+      <c r="A5" s="17">
         <v>43467</v>
       </c>
       <c r="B5">
@@ -2698,7 +2771,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="15"/>
+      <c r="A6" s="17"/>
       <c r="B6">
         <v>-16</v>
       </c>
@@ -2715,12 +2788,12 @@
         <v>38</v>
       </c>
       <c r="J6">
-        <f>SUMIF($D$4:$D169,H6,$B4:$B$171)</f>
-        <v>-649</v>
+        <f>SUMIF($D$4:$D171,H6,$B4:$B$173)</f>
+        <v>-914</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="15"/>
+      <c r="A7" s="17"/>
       <c r="B7">
         <v>-24</v>
       </c>
@@ -2737,19 +2810,19 @@
         <v>42</v>
       </c>
       <c r="J7">
-        <f>SUMIF($D$4:$D170,H7,$B$4:$B$171)</f>
-        <v>-623.92999999999995</v>
+        <f>SUMIF($D$4:$D172,H7,$B$4:$B$173)</f>
+        <v>-762.83</v>
       </c>
       <c r="M7" s="4" t="s">
         <v>39</v>
       </c>
       <c r="N7">
         <f>SUM(J6:J8)</f>
-        <v>-1930.9299999999998</v>
+        <v>-2306.83</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="15">
+      <c r="A8" s="17">
         <v>43468</v>
       </c>
       <c r="B8">
@@ -2768,12 +2841,12 @@
         <v>45</v>
       </c>
       <c r="J8">
-        <f>SUMIF($D$4:$D171,H8,$B$4:$B$171)</f>
-        <v>-658</v>
+        <f>SUMIF($D$4:$D173,H8,$B$4:$B$173)</f>
+        <v>-630</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
+      <c r="A9" s="17"/>
       <c r="B9">
         <v>-16</v>
       </c>
@@ -2790,12 +2863,12 @@
         <v>46</v>
       </c>
       <c r="J9">
-        <f ca="1">SUMIF($D$4:$D172,H9,$B$4:$B$171)</f>
+        <f ca="1">SUMIF($D$4:$D174,H9,$B$4:$B$173)</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="15"/>
+      <c r="A10" s="17"/>
       <c r="B10">
         <v>-15</v>
       </c>
@@ -2812,12 +2885,12 @@
         <v>40</v>
       </c>
       <c r="J10">
-        <f ca="1">SUMIF($D$4:$D173,H10,$B$4:$B$171)</f>
+        <f ca="1">SUMIF($D$4:$D175,H10,$B$4:$B$173)</f>
         <v>-1453</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="15">
+      <c r="A11" s="17">
         <v>43469</v>
       </c>
       <c r="B11">
@@ -2831,7 +2904,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="15"/>
+      <c r="A12" s="17"/>
       <c r="B12">
         <v>-1453</v>
       </c>
@@ -2843,7 +2916,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="15"/>
+      <c r="A13" s="17"/>
       <c r="B13">
         <v>-4</v>
       </c>
@@ -2855,7 +2928,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="15"/>
+      <c r="A14" s="17"/>
       <c r="B14">
         <v>-55</v>
       </c>
@@ -2867,7 +2940,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="15"/>
+      <c r="A15" s="17"/>
       <c r="B15">
         <v>-11</v>
       </c>
@@ -2879,7 +2952,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="15">
+      <c r="A16" s="17">
         <v>43470</v>
       </c>
       <c r="B16">
@@ -2892,8 +2965,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="15"/>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="17"/>
       <c r="B17">
         <v>-6</v>
       </c>
@@ -2904,8 +2977,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="15"/>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="17"/>
       <c r="B18">
         <v>-30</v>
       </c>
@@ -2916,8 +2989,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="15"/>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="17"/>
       <c r="B19">
         <v>-18</v>
       </c>
@@ -2927,9 +3000,15 @@
       <c r="D19">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="15"/>
+      <c r="H19" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="I19" s="16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="17"/>
       <c r="B20">
         <v>-3</v>
       </c>
@@ -2939,9 +3018,16 @@
       <c r="D20">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="15"/>
+      <c r="H20" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" s="16">
+        <f>COUNTIFS($D$4:$D$171,H6)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="17"/>
       <c r="B21">
         <v>-10</v>
       </c>
@@ -2951,9 +3037,16 @@
       <c r="D21">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="15">
+      <c r="H21" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="I21" s="16">
+        <f>COUNTIFS($D$4:$D$171,H7)</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="17">
         <v>43471</v>
       </c>
       <c r="B22">
@@ -2965,9 +3058,16 @@
       <c r="D22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="15"/>
+      <c r="H22" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="I22" s="16">
+        <f>COUNTIFS($D$4:$D$171,H8)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="17"/>
       <c r="B23">
         <v>-3</v>
       </c>
@@ -2977,9 +3077,16 @@
       <c r="D23">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="15"/>
+      <c r="H23" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="I23" s="16">
+        <f>COUNTIFS($D$4:$D$171,H9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="17"/>
       <c r="B24">
         <v>-13</v>
       </c>
@@ -2989,9 +3096,16 @@
       <c r="D24">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="15">
+      <c r="H24" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="I24" s="16">
+        <f>COUNTIFS($D$4:$D$171,H10)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="17">
         <v>43472</v>
       </c>
       <c r="B25">
@@ -3004,8 +3118,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="15"/>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="17"/>
       <c r="B26">
         <v>-4</v>
       </c>
@@ -3016,10 +3130,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="15"/>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="17"/>
       <c r="B27">
-        <v>-117</v>
+        <v>-218</v>
       </c>
       <c r="C27" t="s">
         <v>72</v>
@@ -3028,290 +3142,290 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="15"/>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="17">
+        <v>43473</v>
+      </c>
       <c r="B28">
-        <v>-218</v>
+        <v>-11</v>
       </c>
       <c r="C28" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="17"/>
+      <c r="B29">
+        <v>-16</v>
+      </c>
+      <c r="C29" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="17"/>
+      <c r="B30">
+        <v>-245</v>
+      </c>
+      <c r="C30" t="s">
         <v>73</v>
       </c>
-      <c r="D28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="15">
-        <v>43473</v>
-      </c>
-      <c r="B29">
+      <c r="D30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="20">
+        <v>43474</v>
+      </c>
+      <c r="B31">
         <v>-11</v>
       </c>
-      <c r="C29" t="s">
-        <v>70</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="15"/>
-      <c r="B30">
+      <c r="C31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="20"/>
+      <c r="B32">
+        <v>-4</v>
+      </c>
+      <c r="C32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="20"/>
+      <c r="B33">
+        <v>-500</v>
+      </c>
+      <c r="C33" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="20"/>
+      <c r="B34">
         <v>-16</v>
       </c>
-      <c r="C30" t="s">
-        <v>66</v>
-      </c>
-      <c r="D30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="15"/>
-      <c r="B31">
-        <v>-245</v>
-      </c>
-      <c r="C31" t="s">
-        <v>74</v>
-      </c>
-      <c r="D31">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="18">
-        <v>43474</v>
-      </c>
-      <c r="B32">
+      <c r="C34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="17">
+        <v>43475</v>
+      </c>
+      <c r="B35">
         <v>-11</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C35" t="s">
         <v>17</v>
       </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="18"/>
-      <c r="B33">
-        <v>-4</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="D35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="17"/>
+      <c r="B36">
+        <v>-6.5</v>
+      </c>
+      <c r="C36" t="s">
         <v>7</v>
       </c>
-      <c r="D33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="18"/>
-      <c r="B34">
-        <v>-500</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="D36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="17">
+        <v>43476</v>
+      </c>
+      <c r="B37">
+        <v>-11</v>
+      </c>
+      <c r="C37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="17"/>
+      <c r="B38">
+        <v>-31</v>
+      </c>
+      <c r="C38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="17"/>
+      <c r="B39">
+        <v>-15</v>
+      </c>
+      <c r="C39" t="s">
         <v>75</v>
       </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="18"/>
-      <c r="B35">
-        <v>-16</v>
-      </c>
-      <c r="C35" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="15">
-        <v>43475</v>
-      </c>
-      <c r="B36">
-        <v>-11</v>
-      </c>
-      <c r="C36" t="s">
-        <v>17</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="15"/>
-      <c r="B37">
-        <v>-6.5</v>
-      </c>
-      <c r="C37" t="s">
-        <v>7</v>
-      </c>
-      <c r="D37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="15">
-        <v>43476</v>
-      </c>
-      <c r="B38">
-        <v>-11</v>
-      </c>
-      <c r="C38" t="s">
-        <v>17</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="15"/>
-      <c r="B39">
-        <v>-31</v>
-      </c>
-      <c r="C39" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39">
-        <v>2</v>
-      </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="15"/>
+      <c r="A40" s="17"/>
       <c r="B40">
-        <v>-15</v>
+        <v>-49</v>
       </c>
       <c r="C40" t="s">
         <v>76</v>
       </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="15"/>
+      <c r="A41" s="17"/>
       <c r="B41">
-        <v>-49</v>
+        <v>-8</v>
       </c>
       <c r="C41" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="14">
+        <v>43477</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="17">
+        <v>43478</v>
+      </c>
+      <c r="B43">
+        <v>-34</v>
+      </c>
+      <c r="C43" t="s">
+        <v>76</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="17"/>
+      <c r="B44">
+        <v>-30</v>
+      </c>
+      <c r="C44" t="s">
+        <v>61</v>
+      </c>
+      <c r="D44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="17">
+        <v>43479</v>
+      </c>
+      <c r="B45">
+        <v>-11</v>
+      </c>
+      <c r="C45" t="s">
+        <v>53</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="17"/>
+      <c r="B46">
+        <v>-8</v>
+      </c>
+      <c r="C46" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="17"/>
+      <c r="B47">
+        <v>-6</v>
+      </c>
+      <c r="C47" t="s">
+        <v>78</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="17">
+        <v>43480</v>
+      </c>
+      <c r="B48">
+        <v>-11</v>
+      </c>
+      <c r="C48" t="s">
+        <v>53</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="17"/>
+      <c r="B49">
+        <v>-8</v>
+      </c>
+      <c r="C49" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="17"/>
+      <c r="B50">
+        <v>-2.5</v>
+      </c>
+      <c r="C50" t="s">
         <v>77</v>
       </c>
-      <c r="D41">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="15"/>
-      <c r="B42">
-        <v>-8</v>
-      </c>
-      <c r="C42" t="s">
-        <v>7</v>
-      </c>
-      <c r="D42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="14">
-        <v>43477</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="15">
-        <v>43478</v>
-      </c>
-      <c r="B44">
-        <v>-34</v>
-      </c>
-      <c r="C44" t="s">
-        <v>77</v>
-      </c>
-      <c r="D44">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="15"/>
-      <c r="B45">
-        <v>-30</v>
-      </c>
-      <c r="C45" t="s">
-        <v>61</v>
-      </c>
-      <c r="D45">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="15">
-        <v>43479</v>
-      </c>
-      <c r="B46">
-        <v>-11</v>
-      </c>
-      <c r="C46" t="s">
-        <v>53</v>
-      </c>
-      <c r="D46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="15"/>
-      <c r="B47">
-        <v>-8</v>
-      </c>
-      <c r="C47" t="s">
-        <v>8</v>
-      </c>
-      <c r="D47">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="15"/>
-      <c r="B48">
+      <c r="D50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="17"/>
+      <c r="B51">
         <v>-6</v>
-      </c>
-      <c r="C48" t="s">
-        <v>79</v>
-      </c>
-      <c r="D48">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="15">
-        <v>43480</v>
-      </c>
-      <c r="B49">
-        <v>-11</v>
-      </c>
-      <c r="C49" t="s">
-        <v>53</v>
-      </c>
-      <c r="D49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="15"/>
-      <c r="B50">
-        <v>-8</v>
-      </c>
-      <c r="C50" t="s">
-        <v>7</v>
-      </c>
-      <c r="D50">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="15"/>
-      <c r="B51">
-        <v>-2.5</v>
       </c>
       <c r="C51" t="s">
         <v>78</v>
@@ -3321,9 +3435,11 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="15"/>
+      <c r="A52" s="17">
+        <v>43481</v>
+      </c>
       <c r="B52">
-        <v>-6</v>
+        <v>-182</v>
       </c>
       <c r="C52" t="s">
         <v>79</v>
@@ -3333,98 +3449,105 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="15">
-        <v>43481</v>
-      </c>
+      <c r="A53" s="17"/>
       <c r="B53">
-        <v>-182</v>
+        <v>-10</v>
       </c>
       <c r="C53" t="s">
+        <v>53</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="17"/>
+      <c r="B54">
+        <v>-8</v>
+      </c>
+      <c r="C54" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="17"/>
+      <c r="B55">
+        <v>-23</v>
+      </c>
+      <c r="C55" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="17">
+        <v>43482</v>
+      </c>
+      <c r="B56">
+        <v>-10</v>
+      </c>
+      <c r="C56" t="s">
+        <v>17</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="17"/>
+      <c r="B57">
+        <v>-8</v>
+      </c>
+      <c r="C57" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="17"/>
+      <c r="B58">
+        <v>-8.6999999999999993</v>
+      </c>
+      <c r="C58" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="17"/>
+      <c r="B59">
+        <v>-110</v>
+      </c>
+      <c r="C59" t="s">
+        <v>81</v>
+      </c>
+      <c r="D59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="17"/>
+      <c r="B60">
+        <v>-12</v>
+      </c>
+      <c r="C60" t="s">
         <v>80</v>
       </c>
-      <c r="D53">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="15"/>
-      <c r="B54">
-        <v>-10</v>
-      </c>
-      <c r="C54" t="s">
-        <v>53</v>
-      </c>
-      <c r="D54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="15"/>
-      <c r="B55">
-        <v>-8</v>
-      </c>
-      <c r="C55" t="s">
-        <v>7</v>
-      </c>
-      <c r="D55">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="15"/>
-      <c r="B56">
-        <v>-23</v>
-      </c>
-      <c r="C56" t="s">
-        <v>8</v>
-      </c>
-      <c r="D56">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="15">
-        <v>43482</v>
-      </c>
-      <c r="B57">
-        <v>-10</v>
-      </c>
-      <c r="C57" t="s">
-        <v>17</v>
-      </c>
-      <c r="D57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="15"/>
-      <c r="B58">
-        <v>-8</v>
-      </c>
-      <c r="C58" t="s">
-        <v>7</v>
-      </c>
-      <c r="D58">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="15"/>
-      <c r="B59">
-        <v>-5.8</v>
-      </c>
-      <c r="C59" t="s">
-        <v>11</v>
-      </c>
-      <c r="D59">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="15"/>
+      <c r="D60">
+        <v>2</v>
+      </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="15">
+      <c r="A61" s="17">
         <v>43483</v>
       </c>
       <c r="B61">
@@ -3433,112 +3556,181 @@
       <c r="C61" t="s">
         <v>53</v>
       </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="15"/>
+      <c r="A62" s="17"/>
+      <c r="B62">
+        <v>-14</v>
+      </c>
+      <c r="C62" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62">
+        <v>2</v>
+      </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="15"/>
+      <c r="A63" s="17"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="15">
+      <c r="A64" s="17">
         <v>43484</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A65" s="15"/>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A66" s="15"/>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A67" s="15">
+      <c r="C64" t="s">
+        <v>64</v>
+      </c>
+      <c r="D64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="17"/>
+      <c r="B65">
+        <v>-62</v>
+      </c>
+      <c r="C65" t="s">
+        <v>89</v>
+      </c>
+      <c r="D65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="17"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="17">
         <v>43485</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A68" s="15"/>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A69" s="15"/>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A70" s="13">
+      <c r="B67">
+        <v>-144</v>
+      </c>
+      <c r="C67" t="s">
+        <v>87</v>
+      </c>
+      <c r="D67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="17"/>
+      <c r="B68">
+        <v>-30</v>
+      </c>
+      <c r="C68" t="s">
+        <v>61</v>
+      </c>
+      <c r="D68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="17"/>
+      <c r="B69">
+        <v>-98</v>
+      </c>
+      <c r="C69" t="s">
+        <v>88</v>
+      </c>
+      <c r="D69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="17">
         <v>43486</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A71" s="13">
+      <c r="B70">
+        <v>-10</v>
+      </c>
+      <c r="C70" t="s">
+        <v>53</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="17"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="17"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="13">
         <v>43487</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A72" s="13">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="13">
         <v>43488</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A73" s="13">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="13">
         <v>43489</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A74" s="13">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="13">
         <v>43490</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A75" s="13">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="13">
         <v>43491</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A76" s="13">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="13">
         <v>43492</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A77" s="13">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="13">
         <v>43493</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A78" s="13">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="13">
         <v>43494</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A79" s="13">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" s="13">
         <v>43495</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A80" s="13">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" s="13">
         <v>43496</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="A70:A72"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A56:A60"/>
+    <mergeCell ref="A52:A55"/>
     <mergeCell ref="A61:A63"/>
     <mergeCell ref="A64:A66"/>
     <mergeCell ref="A67:A69"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="A49:A52"/>
-    <mergeCell ref="A38:A42"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="A5:A7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3550,7 +3742,7 @@
   <dimension ref="A1:I60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="B9:C9"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3565,7 +3757,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="21" t="s">
         <v>25</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -3584,7 +3776,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
+      <c r="A2" s="22"/>
       <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
@@ -3597,14 +3789,14 @@
       </c>
       <c r="F2">
         <f ca="1">DATE(2019,3,1)-TODAY()</f>
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I2">
         <f ca="1">C2/F2</f>
-        <v>52.186046511627907</v>
+        <v>57.53846153846154</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -3619,7 +3811,7 @@
       </c>
       <c r="I3">
         <f ca="1">C2/(F2-1)</f>
-        <v>53.428571428571431</v>
+        <v>59.05263157894737</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -3634,7 +3826,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="15">
+      <c r="A5" s="17">
         <v>43447</v>
       </c>
       <c r="B5">
@@ -3645,7 +3837,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="15"/>
+      <c r="A6" s="17"/>
       <c r="B6">
         <v>-350</v>
       </c>
@@ -3654,7 +3846,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="15"/>
+      <c r="A7" s="17"/>
       <c r="B7">
         <v>-129</v>
       </c>
@@ -3674,90 +3866,90 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="15">
+      <c r="A9" s="17">
         <v>43450</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="15"/>
+      <c r="A10" s="17"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="15"/>
+      <c r="A11" s="17"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="15"/>
+      <c r="A12" s="17"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="18">
+      <c r="A13" s="20">
         <v>43438</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="18"/>
+      <c r="A14" s="20"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="18"/>
+      <c r="A15" s="20"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="18"/>
+      <c r="A16" s="20"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="18"/>
+      <c r="A17" s="20"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="18"/>
+      <c r="A18" s="20"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="15">
+      <c r="A19" s="17">
         <v>43439</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="15"/>
+      <c r="A20" s="17"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="15"/>
+      <c r="A21" s="17"/>
       <c r="B21" s="2"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="15"/>
+      <c r="A22" s="17"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="15"/>
+      <c r="A23" s="17"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="15"/>
+      <c r="A24" s="17"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="18">
+      <c r="A25" s="20">
         <v>43440</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="18"/>
+      <c r="A26" s="20"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="18"/>
+      <c r="A27" s="20"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="18"/>
+      <c r="A28" s="20"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="18">
+      <c r="A29" s="20">
         <v>43441</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="18"/>
+      <c r="A30" s="20"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="18"/>
+      <c r="A31" s="20"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="18"/>
+      <c r="A32" s="20"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="18"/>
+      <c r="A33" s="20"/>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="8">
@@ -3765,23 +3957,23 @@
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="15">
+      <c r="A35" s="17">
         <v>43443</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="15"/>
+      <c r="A36" s="17"/>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" s="19">
+      <c r="A37" s="23">
         <v>43444</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" s="19"/>
+      <c r="A38" s="23"/>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" s="19"/>
+      <c r="A39" s="23"/>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="1">

--- a/健忘症患者的账本.xlsx
+++ b/健忘症患者的账本.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="95">
   <si>
     <t>日期</t>
     <rPh sb="0" eb="1">
@@ -805,6 +805,41 @@
     <t>电影</t>
     <rPh sb="0" eb="1">
       <t>dian'ying</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>橙汁</t>
+    <rPh sb="0" eb="1">
+      <t>cheng'zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>话费</t>
+    <rPh sb="0" eb="1">
+      <t>hua'fei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提琴</t>
+    <rPh sb="0" eb="1">
+      <t>ti'q</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>橙汁</t>
+    <rPh sb="0" eb="1">
+      <t>cheng'z</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超市</t>
+    <rPh sb="0" eb="1">
+      <t>c's</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -922,14 +957,14 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1276,14 +1311,14 @@
       </c>
       <c r="F2">
         <f ca="1">DATE(2019,1,1)-TODAY()</f>
-        <v>-20</v>
+        <v>-27</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I2">
         <f ca="1">C2/F2</f>
-        <v>129.858</v>
+        <v>96.191111111111113</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="10" customFormat="1" ht="61" customHeight="1" x14ac:dyDescent="0.2">
@@ -1305,7 +1340,7 @@
       <c r="H3" s="19"/>
       <c r="I3" s="10">
         <f ca="1">C2/(F2-1)</f>
-        <v>123.6742857142857</v>
+        <v>92.755714285714276</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -2651,10 +2686,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N82"/>
+  <dimension ref="A1:N95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B91" sqref="B91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2676,8 +2711,8 @@
         <v>15</v>
       </c>
       <c r="C1" s="5">
-        <f>SUMIF(B4:B147,"&lt;0")</f>
-        <v>-3774.83</v>
+        <f>SUMIF(B4:B160,"&lt;0")</f>
+        <v>-4085.2800000000011</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="5"/>
@@ -2689,21 +2724,21 @@
       </c>
       <c r="C2">
         <f>3000+C1</f>
-        <v>-774.82999999999993</v>
+        <v>-1085.2800000000011</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>18</v>
       </c>
       <c r="F2">
         <f ca="1">DATE(2019,2,1)-TODAY()</f>
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I2">
         <f ca="1">C2/F2</f>
-        <v>-70.439090909090908</v>
+        <v>-271.32000000000028</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="77" customHeight="1" x14ac:dyDescent="0.2">
@@ -2716,16 +2751,16 @@
       <c r="C3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="15"/>
+      <c r="E3" s="14"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
       <c r="I3" s="10">
         <f ca="1">C2/(F2-1)</f>
-        <v>-77.48299999999999</v>
+        <v>-361.76000000000039</v>
       </c>
       <c r="J3" s="10"/>
       <c r="K3" s="10"/>
@@ -2788,8 +2823,8 @@
         <v>38</v>
       </c>
       <c r="J6">
-        <f>SUMIF($D$4:$D171,H6,$B4:$B$173)</f>
-        <v>-914</v>
+        <f>SUMIF($D$4:$D184,H6,$B4:$B$186)</f>
+        <v>-968.8</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -2810,15 +2845,15 @@
         <v>42</v>
       </c>
       <c r="J7">
-        <f>SUMIF($D$4:$D172,H7,$B$4:$B$173)</f>
-        <v>-762.83</v>
+        <f>SUMIF($D$4:$D185,H7,$B$4:$B$186)</f>
+        <v>-922.07999999999993</v>
       </c>
       <c r="M7" s="4" t="s">
         <v>39</v>
       </c>
       <c r="N7">
         <f>SUM(J6:J8)</f>
-        <v>-2306.83</v>
+        <v>-2350.48</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -2841,8 +2876,8 @@
         <v>45</v>
       </c>
       <c r="J8">
-        <f>SUMIF($D$4:$D173,H8,$B$4:$B$173)</f>
-        <v>-630</v>
+        <f>SUMIF($D$4:$D186,H8,$B$4:$B$186)</f>
+        <v>-459.6</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -2863,8 +2898,8 @@
         <v>46</v>
       </c>
       <c r="J9">
-        <f ca="1">SUMIF($D$4:$D174,H9,$B$4:$B$173)</f>
-        <v>0</v>
+        <f ca="1">SUMIF($D$4:$D187,H9,$B$4:$B$186)</f>
+        <v>-242</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -2885,7 +2920,7 @@
         <v>40</v>
       </c>
       <c r="J10">
-        <f ca="1">SUMIF($D$4:$D175,H10,$B$4:$B$173)</f>
+        <f ca="1">SUMIF($D$4:$D188,H10,$B$4:$B$186)</f>
         <v>-1453</v>
       </c>
     </row>
@@ -2902,6 +2937,7 @@
       <c r="D11">
         <v>1</v>
       </c>
+      <c r="I11" s="4"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="17"/>
@@ -2952,7 +2988,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="17">
+      <c r="A16" s="23">
         <v>43470</v>
       </c>
       <c r="B16">
@@ -2966,7 +3002,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="17"/>
+      <c r="A17" s="23"/>
       <c r="B17">
         <v>-6</v>
       </c>
@@ -2978,7 +3014,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="17"/>
+      <c r="A18" s="23"/>
       <c r="B18">
         <v>-30</v>
       </c>
@@ -2990,7 +3026,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="17"/>
+      <c r="A19" s="23"/>
       <c r="B19">
         <v>-18</v>
       </c>
@@ -3000,15 +3036,15 @@
       <c r="D19">
         <v>3</v>
       </c>
-      <c r="H19" s="16" t="s">
+      <c r="H19" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="I19" s="16" t="s">
+      <c r="I19" s="15" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="17"/>
+      <c r="A20" s="23"/>
       <c r="B20">
         <v>-3</v>
       </c>
@@ -3018,16 +3054,16 @@
       <c r="D20">
         <v>2</v>
       </c>
-      <c r="H20" s="16" t="s">
+      <c r="H20" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="I20" s="16">
-        <f>COUNTIFS($D$4:$D$171,H6)</f>
-        <v>18</v>
+      <c r="I20" s="15">
+        <f>COUNTIFS($D$4:$D$184,H6)</f>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="17"/>
+      <c r="A21" s="23"/>
       <c r="B21">
         <v>-10</v>
       </c>
@@ -3037,16 +3073,16 @@
       <c r="D21">
         <v>2</v>
       </c>
-      <c r="H21" s="16" t="s">
+      <c r="H21" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="I21" s="16">
-        <f>COUNTIFS($D$4:$D$171,H7)</f>
-        <v>36</v>
+      <c r="I21" s="15">
+        <f>COUNTIFS($D$4:$D$184,H7)</f>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="17">
+      <c r="A22" s="23">
         <v>43471</v>
       </c>
       <c r="B22">
@@ -3058,16 +3094,16 @@
       <c r="D22">
         <v>1</v>
       </c>
-      <c r="H22" s="16" t="s">
+      <c r="H22" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="I22" s="16">
-        <f>COUNTIFS($D$4:$D$171,H8)</f>
-        <v>8</v>
+      <c r="I22" s="15">
+        <f>COUNTIFS($D$4:$D$184,H8)</f>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="17"/>
+      <c r="A23" s="23"/>
       <c r="B23">
         <v>-3</v>
       </c>
@@ -3077,16 +3113,16 @@
       <c r="D23">
         <v>2</v>
       </c>
-      <c r="H23" s="16" t="s">
+      <c r="H23" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="I23" s="16">
-        <f>COUNTIFS($D$4:$D$171,H9)</f>
-        <v>0</v>
+      <c r="I23" s="15">
+        <f>COUNTIFS($D$4:$D$184,H9)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="17"/>
+      <c r="A24" s="23"/>
       <c r="B24">
         <v>-13</v>
       </c>
@@ -3096,11 +3132,11 @@
       <c r="D24">
         <v>2</v>
       </c>
-      <c r="H24" s="16" t="s">
+      <c r="H24" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="I24" s="16">
-        <f>COUNTIFS($D$4:$D$171,H10)</f>
+      <c r="I24" s="15">
+        <f>COUNTIFS($D$4:$D$184,H10)</f>
         <v>1</v>
       </c>
     </row>
@@ -3316,12 +3352,12 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="14">
+      <c r="A42" s="16">
         <v>43477</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="17">
+      <c r="A43" s="23">
         <v>43478</v>
       </c>
       <c r="B43">
@@ -3335,7 +3371,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="17"/>
+      <c r="A44" s="23"/>
       <c r="B44">
         <v>-30</v>
       </c>
@@ -3537,7 +3573,7 @@
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="17"/>
       <c r="B60">
-        <v>-12</v>
+        <v>-14.5</v>
       </c>
       <c r="C60" t="s">
         <v>80</v>
@@ -3563,7 +3599,7 @@
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="17"/>
       <c r="B62">
-        <v>-14</v>
+        <v>-16</v>
       </c>
       <c r="C62" t="s">
         <v>7</v>
@@ -3573,81 +3609,104 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="17"/>
+      <c r="A63" s="23">
+        <v>43484</v>
+      </c>
+      <c r="B63">
+        <v>-93.8</v>
+      </c>
+      <c r="C63" t="s">
+        <v>64</v>
+      </c>
+      <c r="D63">
+        <v>2</v>
+      </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="17">
-        <v>43484</v>
+      <c r="A64" s="23"/>
+      <c r="B64">
+        <v>-62</v>
       </c>
       <c r="C64" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="D64">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="17"/>
+      <c r="A65" s="23">
+        <v>43485</v>
+      </c>
       <c r="B65">
-        <v>-62</v>
+        <v>-144</v>
       </c>
       <c r="C65" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="23"/>
+      <c r="B66">
+        <v>-30</v>
+      </c>
+      <c r="C66" t="s">
+        <v>61</v>
+      </c>
+      <c r="D66">
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="17"/>
-    </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="17">
-        <v>43485</v>
-      </c>
+      <c r="A67" s="23"/>
       <c r="B67">
-        <v>-144</v>
+        <v>-98</v>
       </c>
       <c r="C67" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D67">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="17"/>
+      <c r="A68" s="17">
+        <v>43486</v>
+      </c>
       <c r="B68">
-        <v>-30</v>
+        <v>-10</v>
       </c>
       <c r="C68" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D68">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="17"/>
       <c r="B69">
-        <v>-98</v>
+        <v>-4</v>
       </c>
       <c r="C69" t="s">
-        <v>88</v>
+        <v>7</v>
       </c>
       <c r="D69">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="17">
-        <v>43486</v>
+        <v>43487</v>
       </c>
       <c r="B70">
         <v>-10</v>
       </c>
       <c r="C70" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="D70">
         <v>1</v>
@@ -3655,63 +3714,272 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="17"/>
+      <c r="B71">
+        <v>-12.75</v>
+      </c>
+      <c r="C71" t="s">
+        <v>7</v>
+      </c>
+      <c r="D71">
+        <v>2</v>
+      </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="17"/>
+      <c r="A72" s="17">
+        <v>43488</v>
+      </c>
+      <c r="B72">
+        <v>-4.4000000000000004</v>
+      </c>
+      <c r="C72" t="s">
+        <v>90</v>
+      </c>
+      <c r="D72">
+        <v>2</v>
+      </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="13">
-        <v>43487</v>
+      <c r="A73" s="17"/>
+      <c r="B73">
+        <v>-10</v>
+      </c>
+      <c r="C73" t="s">
+        <v>70</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="13">
-        <v>43488</v>
+      <c r="A74" s="17"/>
+      <c r="B74">
+        <v>-4</v>
+      </c>
+      <c r="C74" t="s">
+        <v>7</v>
+      </c>
+      <c r="D74">
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="13">
+      <c r="A75" s="17">
         <v>43489</v>
       </c>
+      <c r="B75">
+        <v>-4.8</v>
+      </c>
+      <c r="C75" t="s">
+        <v>90</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="13">
+      <c r="A76" s="17"/>
+      <c r="B76">
+        <v>-10</v>
+      </c>
+      <c r="C76" t="s">
+        <v>70</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="17">
         <v>43490</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="13">
+      <c r="B77">
+        <v>-10</v>
+      </c>
+      <c r="C77" t="s">
+        <v>70</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="17"/>
+      <c r="B78">
+        <v>-4.8</v>
+      </c>
+      <c r="C78" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="17"/>
+      <c r="B79">
+        <v>-10</v>
+      </c>
+      <c r="C79" t="s">
+        <v>91</v>
+      </c>
+      <c r="D79">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="17"/>
+      <c r="B80">
+        <v>-12</v>
+      </c>
+      <c r="C80" t="s">
+        <v>55</v>
+      </c>
+      <c r="D80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="17"/>
+      <c r="B81">
+        <v>-6</v>
+      </c>
+      <c r="C81" t="s">
+        <v>7</v>
+      </c>
+      <c r="D81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="16">
         <v>43491</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="13">
+      <c r="B82">
+        <v>-56.8</v>
+      </c>
+      <c r="C82" t="s">
+        <v>92</v>
+      </c>
+      <c r="D82">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="16">
         <v>43492</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="13">
+      <c r="B83">
+        <v>-13.8</v>
+      </c>
+      <c r="C83" t="s">
+        <v>94</v>
+      </c>
+      <c r="D83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="17">
         <v>43493</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="13">
+      <c r="B84">
+        <v>-10</v>
+      </c>
+      <c r="C84" t="s">
+        <v>53</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="17"/>
+      <c r="B85">
+        <v>-4</v>
+      </c>
+      <c r="C85" t="s">
+        <v>7</v>
+      </c>
+      <c r="D85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="17"/>
+      <c r="B86">
+        <v>-4.8</v>
+      </c>
+      <c r="C86" t="s">
+        <v>90</v>
+      </c>
+      <c r="D86">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="17"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="17">
         <v>43494</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A81" s="13">
+      <c r="B88">
+        <v>-10</v>
+      </c>
+      <c r="C88" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="17"/>
+      <c r="C89" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="17"/>
+      <c r="C90" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="17">
         <v>43495</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A82" s="13">
+      <c r="B91">
+        <v>-10</v>
+      </c>
+      <c r="C91" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" s="17"/>
+      <c r="C92" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="17"/>
+      <c r="C93" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="17"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="13">
         <v>43496</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="A70:A72"/>
+  <mergeCells count="27">
+    <mergeCell ref="A84:A87"/>
+    <mergeCell ref="A88:A90"/>
+    <mergeCell ref="A91:A94"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="A35:A36"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="A11:A15"/>
@@ -3721,16 +3989,16 @@
     <mergeCell ref="A25:A27"/>
     <mergeCell ref="A28:A30"/>
     <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="A48:A51"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A77:A81"/>
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="A68:A69"/>
     <mergeCell ref="A56:A60"/>
-    <mergeCell ref="A52:A55"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="A64:A66"/>
-    <mergeCell ref="A67:A69"/>
+    <mergeCell ref="A72:A74"/>
+    <mergeCell ref="A75:A76"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3789,14 +4057,14 @@
       </c>
       <c r="F2">
         <f ca="1">DATE(2019,3,1)-TODAY()</f>
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I2">
         <f ca="1">C2/F2</f>
-        <v>57.53846153846154</v>
+        <v>70.125</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -3811,7 +4079,7 @@
       </c>
       <c r="I3">
         <f ca="1">C2/(F2-1)</f>
-        <v>59.05263157894737</v>
+        <v>72.387096774193552</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">

--- a/健忘症患者的账本.xlsx
+++ b/健忘症患者的账本.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="95">
   <si>
     <t>日期</t>
     <rPh sb="0" eb="1">
@@ -1311,14 +1311,14 @@
       </c>
       <c r="F2">
         <f ca="1">DATE(2019,1,1)-TODAY()</f>
-        <v>-27</v>
+        <v>-29</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I2">
         <f ca="1">C2/F2</f>
-        <v>96.191111111111113</v>
+        <v>89.557241379310341</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="10" customFormat="1" ht="61" customHeight="1" x14ac:dyDescent="0.2">
@@ -1340,7 +1340,7 @@
       <c r="H3" s="19"/>
       <c r="I3" s="10">
         <f ca="1">C2/(F2-1)</f>
-        <v>92.755714285714276</v>
+        <v>86.571999999999989</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -2686,10 +2686,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N95"/>
+  <dimension ref="A1:N96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B91" sqref="B91"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B88" sqref="A88:XFD88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2711,8 +2711,8 @@
         <v>15</v>
       </c>
       <c r="C1" s="5">
-        <f>SUMIF(B4:B160,"&lt;0")</f>
-        <v>-4085.2800000000011</v>
+        <f>SUMIF(B4:B161,"&lt;0")</f>
+        <v>-5597.2900000000009</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="5"/>
@@ -2724,21 +2724,21 @@
       </c>
       <c r="C2">
         <f>3000+C1</f>
-        <v>-1085.2800000000011</v>
+        <v>-2597.2900000000009</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>18</v>
       </c>
       <c r="F2">
         <f ca="1">DATE(2019,2,1)-TODAY()</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I2">
         <f ca="1">C2/F2</f>
-        <v>-271.32000000000028</v>
+        <v>-1298.6450000000004</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="77" customHeight="1" x14ac:dyDescent="0.2">
@@ -2760,7 +2760,7 @@
       <c r="H3" s="10"/>
       <c r="I3" s="10">
         <f ca="1">C2/(F2-1)</f>
-        <v>-361.76000000000039</v>
+        <v>-2597.2900000000009</v>
       </c>
       <c r="J3" s="10"/>
       <c r="K3" s="10"/>
@@ -2823,8 +2823,8 @@
         <v>38</v>
       </c>
       <c r="J6">
-        <f>SUMIF($D$4:$D184,H6,$B4:$B$186)</f>
-        <v>-968.8</v>
+        <f>SUMIF($D$4:$D185,H6,$B4:$B$187)</f>
+        <v>-988.8</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -2845,15 +2845,15 @@
         <v>42</v>
       </c>
       <c r="J7">
-        <f>SUMIF($D$4:$D185,H7,$B$4:$B$186)</f>
-        <v>-922.07999999999993</v>
+        <f>SUMIF($D$4:$D186,H7,$B$4:$B$187)</f>
+        <v>-963.09</v>
       </c>
       <c r="M7" s="4" t="s">
         <v>39</v>
       </c>
       <c r="N7">
         <f>SUM(J6:J8)</f>
-        <v>-2350.48</v>
+        <v>-2441.4899999999998</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -2876,8 +2876,8 @@
         <v>45</v>
       </c>
       <c r="J8">
-        <f>SUMIF($D$4:$D186,H8,$B$4:$B$186)</f>
-        <v>-459.6</v>
+        <f>SUMIF($D$4:$D187,H8,$B$4:$B$187)</f>
+        <v>-489.6</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -2898,7 +2898,7 @@
         <v>46</v>
       </c>
       <c r="J9">
-        <f ca="1">SUMIF($D$4:$D187,H9,$B$4:$B$186)</f>
+        <f ca="1">SUMIF($D$4:$D188,H9,$B$4:$B$187)</f>
         <v>-242</v>
       </c>
     </row>
@@ -2920,8 +2920,8 @@
         <v>40</v>
       </c>
       <c r="J10">
-        <f ca="1">SUMIF($D$4:$D188,H10,$B$4:$B$186)</f>
-        <v>-1453</v>
+        <f ca="1">SUMIF($D$4:$D189,H10,$B$4:$B$187)</f>
+        <v>-2894</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -3058,8 +3058,8 @@
         <v>17</v>
       </c>
       <c r="I20" s="15">
-        <f>COUNTIFS($D$4:$D$184,H6)</f>
-        <v>24</v>
+        <f>COUNTIFS($D$4:$D$185,H6)</f>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -3077,8 +3077,8 @@
         <v>83</v>
       </c>
       <c r="I21" s="15">
-        <f>COUNTIFS($D$4:$D$184,H7)</f>
-        <v>44</v>
+        <f>COUNTIFS($D$4:$D$185,H7)</f>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -3098,8 +3098,8 @@
         <v>84</v>
       </c>
       <c r="I22" s="15">
-        <f>COUNTIFS($D$4:$D$184,H8)</f>
-        <v>9</v>
+        <f>COUNTIFS($D$4:$D$185,H8)</f>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -3117,7 +3117,7 @@
         <v>85</v>
       </c>
       <c r="I23" s="15">
-        <f>COUNTIFS($D$4:$D$184,H9)</f>
+        <f>COUNTIFS($D$4:$D$185,H9)</f>
         <v>2</v>
       </c>
     </row>
@@ -3136,8 +3136,8 @@
         <v>86</v>
       </c>
       <c r="I24" s="15">
-        <f>COUNTIFS($D$4:$D$184,H10)</f>
-        <v>1</v>
+        <f>COUNTIFS($D$4:$D$185,H10)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -3862,59 +3862,68 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="16">
+      <c r="A83" s="23">
         <v>43492</v>
       </c>
       <c r="B83">
+        <v>-30</v>
+      </c>
+      <c r="C83" t="s">
+        <v>61</v>
+      </c>
+      <c r="D83">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="23"/>
+      <c r="B84">
         <v>-13.8</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C84" t="s">
         <v>94</v>
       </c>
-      <c r="D83">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="17">
+      <c r="D84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="17">
         <v>43493</v>
       </c>
-      <c r="B84">
+      <c r="B85">
         <v>-10</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C85" t="s">
         <v>53</v>
       </c>
-      <c r="D84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="17"/>
-      <c r="B85">
-        <v>-4</v>
-      </c>
-      <c r="C85" t="s">
-        <v>7</v>
-      </c>
       <c r="D85">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="17"/>
       <c r="B86">
-        <v>-4.8</v>
+        <v>-4</v>
       </c>
       <c r="C86" t="s">
-        <v>90</v>
+        <v>7</v>
       </c>
       <c r="D86">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="17"/>
+      <c r="B87">
+        <v>-4.8</v>
+      </c>
+      <c r="C87" t="s">
+        <v>90</v>
+      </c>
+      <c r="D87">
+        <v>3</v>
+      </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="17">
@@ -3926,58 +3935,120 @@
       <c r="C88" t="s">
         <v>17</v>
       </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="17"/>
+      <c r="B89">
+        <v>-4.46</v>
+      </c>
       <c r="C89" t="s">
         <v>90</v>
       </c>
+      <c r="D89">
+        <v>2</v>
+      </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="17"/>
+      <c r="B90">
+        <v>-16.34</v>
+      </c>
       <c r="C90" t="s">
+        <v>59</v>
+      </c>
+      <c r="D90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="17"/>
+      <c r="B91">
+        <v>-6</v>
+      </c>
+      <c r="C91" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="17">
+      <c r="D91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" s="17">
         <v>43495</v>
       </c>
-      <c r="B91">
+      <c r="B92">
         <v>-10</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C92" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" s="17"/>
-      <c r="C92" t="s">
-        <v>90</v>
+      <c r="D92">
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="17"/>
+      <c r="B93">
+        <v>-4.21</v>
+      </c>
       <c r="C93" t="s">
-        <v>7</v>
+        <v>90</v>
+      </c>
+      <c r="D93">
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="17"/>
+      <c r="B94">
+        <v>-10</v>
+      </c>
+      <c r="C94" t="s">
+        <v>7</v>
+      </c>
+      <c r="D94">
+        <v>2</v>
+      </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="13">
+      <c r="A95" s="17"/>
+      <c r="B95">
+        <v>-1441</v>
+      </c>
+      <c r="C95" t="s">
+        <v>3</v>
+      </c>
+      <c r="D95">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="13">
         <v>43496</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="A84:A87"/>
-    <mergeCell ref="A88:A90"/>
-    <mergeCell ref="A91:A94"/>
+  <mergeCells count="28">
+    <mergeCell ref="A85:A87"/>
+    <mergeCell ref="A88:A91"/>
+    <mergeCell ref="A92:A95"/>
     <mergeCell ref="A43:A44"/>
     <mergeCell ref="A45:A47"/>
     <mergeCell ref="A48:A51"/>
+    <mergeCell ref="A77:A81"/>
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A56:A60"/>
+    <mergeCell ref="A72:A74"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="A83:A84"/>
     <mergeCell ref="A37:A41"/>
     <mergeCell ref="A35:A36"/>
     <mergeCell ref="A1:A2"/>
@@ -3989,16 +4060,6 @@
     <mergeCell ref="A25:A27"/>
     <mergeCell ref="A28:A30"/>
     <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A77:A81"/>
-    <mergeCell ref="A52:A55"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A56:A60"/>
-    <mergeCell ref="A72:A74"/>
-    <mergeCell ref="A75:A76"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4057,14 +4118,14 @@
       </c>
       <c r="F2">
         <f ca="1">DATE(2019,3,1)-TODAY()</f>
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I2">
         <f ca="1">C2/F2</f>
-        <v>70.125</v>
+        <v>74.8</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -4079,7 +4140,7 @@
       </c>
       <c r="I3">
         <f ca="1">C2/(F2-1)</f>
-        <v>72.387096774193552</v>
+        <v>77.379310344827587</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">

--- a/健忘症患者的账本.xlsx
+++ b/健忘症患者的账本.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="880" yWindow="460" windowWidth="27920" windowHeight="17540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="880" yWindow="460" windowWidth="27920" windowHeight="17540" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="12月" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="107">
   <si>
     <t>日期</t>
     <rPh sb="0" eb="1">
@@ -840,6 +840,99 @@
     <t>超市</t>
     <rPh sb="0" eb="1">
       <t>c's</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红包</t>
+    <rPh sb="0" eb="1">
+      <t>h'b</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打车</t>
+    <rPh sb="0" eb="1">
+      <t>da'che</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏</t>
+    <rPh sb="0" eb="1">
+      <t>you'xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电影票</t>
+    <rPh sb="0" eb="1">
+      <t>d'y</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>piao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃的</t>
+    <rPh sb="0" eb="1">
+      <t>chi'de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩具</t>
+    <rPh sb="0" eb="1">
+      <t>wan'ju</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给老父亲</t>
+    <rPh sb="0" eb="1">
+      <t>gei'lao'fu'qn</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红包-from老母亲</t>
+    <rPh sb="0" eb="1">
+      <t>h'b</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>lao'mu'q</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超市</t>
+    <rPh sb="0" eb="1">
+      <t>chao's</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电影</t>
+    <rPh sb="0" eb="1">
+      <t>dian'y</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火车票</t>
+    <rPh sb="0" eb="1">
+      <t>huo'che'p</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过年合计</t>
+    <rPh sb="0" eb="1">
+      <t>guo'nian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>he'ji</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -924,7 +1017,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -939,12 +1032,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -962,6 +1049,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -986,6 +1076,13 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1284,7 +1381,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>26</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -1298,7 +1395,7 @@
       <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22"/>
+      <c r="A2" s="21"/>
       <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
@@ -1311,40 +1408,40 @@
       </c>
       <c r="F2">
         <f ca="1">DATE(2019,1,1)-TODAY()</f>
-        <v>-29</v>
+        <v>-41</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I2">
         <f ca="1">C2/F2</f>
-        <v>89.557241379310341</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" s="10" customFormat="1" ht="61" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
+        <v>63.345365853658535</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="8" customFormat="1" ht="61" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="18" t="s">
+      <c r="B3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="10">
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="8">
         <f ca="1">C2/(F2-1)</f>
-        <v>86.571999999999989</v>
+        <v>61.837142857142851</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="17">
+      <c r="A4" s="16">
         <v>43435</v>
       </c>
       <c r="B4">
@@ -1358,7 +1455,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="17"/>
+      <c r="A5" s="16"/>
       <c r="B5">
         <v>-20</v>
       </c>
@@ -1384,7 +1481,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="17">
+      <c r="A7" s="16">
         <v>43437</v>
       </c>
       <c r="B7">
@@ -1398,7 +1495,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="17"/>
+      <c r="A8" s="16"/>
       <c r="B8">
         <v>-89</v>
       </c>
@@ -1408,7 +1505,7 @@
       <c r="D8">
         <v>4</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="9" t="s">
         <v>43</v>
       </c>
       <c r="H8" s="4" t="s">
@@ -1419,7 +1516,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="17"/>
+      <c r="A9" s="16"/>
       <c r="B9">
         <v>-6</v>
       </c>
@@ -1436,12 +1533,12 @@
         <v>38</v>
       </c>
       <c r="I9">
-        <f>SUMIF($D$4:$D126,G9,$B4:$B$128)</f>
+        <f>SUMIF($D$4:$D128,G9,$B4:$B$128)</f>
         <v>-200</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="17"/>
+      <c r="A10" s="16"/>
       <c r="B10">
         <v>-4</v>
       </c>
@@ -1470,7 +1567,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="20">
+      <c r="A11" s="19">
         <v>43438</v>
       </c>
       <c r="B11">
@@ -1494,7 +1591,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="20"/>
+      <c r="A12" s="19"/>
       <c r="B12">
         <v>18</v>
       </c>
@@ -1513,7 +1610,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="20"/>
+      <c r="A13" s="19"/>
       <c r="B13">
         <v>-7</v>
       </c>
@@ -1535,7 +1632,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="20"/>
+      <c r="A14" s="19"/>
       <c r="B14">
         <v>-8</v>
       </c>
@@ -1547,7 +1644,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="20"/>
+      <c r="A15" s="19"/>
       <c r="B15">
         <v>-6</v>
       </c>
@@ -1559,7 +1656,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="20"/>
+      <c r="A16" s="19"/>
       <c r="B16">
         <v>-34.799999999999997</v>
       </c>
@@ -1571,7 +1668,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="17">
+      <c r="A17" s="16">
         <v>43439</v>
       </c>
       <c r="B17">
@@ -1586,7 +1683,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="17"/>
+      <c r="A18" s="16"/>
       <c r="B18">
         <v>-1468</v>
       </c>
@@ -1598,7 +1695,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="17"/>
+      <c r="A19" s="16"/>
       <c r="B19" s="2">
         <v>-6</v>
       </c>
@@ -1610,7 +1707,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="17"/>
+      <c r="A20" s="16"/>
       <c r="B20">
         <v>7</v>
       </c>
@@ -1619,7 +1716,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="17"/>
+      <c r="A21" s="16"/>
       <c r="B21">
         <v>-4</v>
       </c>
@@ -1631,7 +1728,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="17"/>
+      <c r="A22" s="16"/>
       <c r="B22">
         <v>-29.9</v>
       </c>
@@ -1643,7 +1740,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="20">
+      <c r="A23" s="19">
         <v>43440</v>
       </c>
       <c r="B23">
@@ -1657,7 +1754,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="20"/>
+      <c r="A24" s="19"/>
       <c r="B24">
         <v>-5</v>
       </c>
@@ -1669,7 +1766,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="20"/>
+      <c r="A25" s="19"/>
       <c r="B25">
         <v>-9</v>
       </c>
@@ -1681,7 +1778,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="20"/>
+      <c r="A26" s="19"/>
       <c r="B26">
         <v>-249</v>
       </c>
@@ -1693,7 +1790,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="20"/>
+      <c r="A27" s="19"/>
       <c r="B27">
         <v>-13.88</v>
       </c>
@@ -1705,7 +1802,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="20">
+      <c r="A28" s="19">
         <v>43441</v>
       </c>
       <c r="B28">
@@ -1719,7 +1816,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="20"/>
+      <c r="A29" s="19"/>
       <c r="B29">
         <v>-6</v>
       </c>
@@ -1731,7 +1828,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="20"/>
+      <c r="A30" s="19"/>
       <c r="B30">
         <v>-4</v>
       </c>
@@ -1743,7 +1840,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="20"/>
+      <c r="A31" s="19"/>
       <c r="B31">
         <v>-18</v>
       </c>
@@ -1755,7 +1852,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="20"/>
+      <c r="A32" s="19"/>
       <c r="B32">
         <f>-89-129-119-89</f>
         <v>-426</v>
@@ -1768,7 +1865,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="17">
+      <c r="A33" s="16">
         <v>43442</v>
       </c>
       <c r="B33">
@@ -1782,7 +1879,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="17">
+      <c r="A34" s="16">
         <v>43443</v>
       </c>
       <c r="B34">
@@ -1796,7 +1893,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="17"/>
+      <c r="A35" s="16"/>
       <c r="B35">
         <v>-2</v>
       </c>
@@ -1808,7 +1905,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="23">
+      <c r="A36" s="22">
         <v>43444</v>
       </c>
       <c r="B36">
@@ -1822,7 +1919,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="23"/>
+      <c r="A37" s="22"/>
       <c r="B37">
         <v>-4</v>
       </c>
@@ -1834,7 +1931,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="23"/>
+      <c r="A38" s="22"/>
       <c r="B38">
         <v>-14.44</v>
       </c>
@@ -1846,7 +1943,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="17">
+      <c r="A39" s="16">
         <v>43445</v>
       </c>
       <c r="B39">
@@ -1860,7 +1957,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="17"/>
+      <c r="A40" s="16"/>
       <c r="B40">
         <v>-4</v>
       </c>
@@ -1872,7 +1969,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="17"/>
+      <c r="A41" s="16"/>
       <c r="B41">
         <v>-5</v>
       </c>
@@ -1884,7 +1981,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="17"/>
+      <c r="A42" s="16"/>
       <c r="B42">
         <v>-16</v>
       </c>
@@ -1896,7 +1993,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="17">
+      <c r="A43" s="16">
         <v>43446</v>
       </c>
       <c r="B43">
@@ -1910,7 +2007,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="17"/>
+      <c r="A44" s="16"/>
       <c r="B44">
         <v>-8</v>
       </c>
@@ -1922,7 +2019,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="17"/>
+      <c r="A45" s="16"/>
       <c r="B45">
         <v>-5</v>
       </c>
@@ -1934,7 +2031,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="17"/>
+      <c r="A46" s="16"/>
       <c r="B46">
         <v>-13</v>
       </c>
@@ -1946,7 +2043,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="17">
+      <c r="A47" s="16">
         <v>43447</v>
       </c>
       <c r="B47">
@@ -1960,7 +2057,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="17"/>
+      <c r="A48" s="16"/>
       <c r="B48">
         <v>-6</v>
       </c>
@@ -1972,7 +2069,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="17"/>
+      <c r="A49" s="16"/>
       <c r="B49">
         <v>-16</v>
       </c>
@@ -1984,7 +2081,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="17"/>
+      <c r="A50" s="16"/>
       <c r="B50">
         <v>-13</v>
       </c>
@@ -1996,7 +2093,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="17"/>
+      <c r="A51" s="16"/>
       <c r="B51">
         <v>-99</v>
       </c>
@@ -2008,7 +2105,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="17">
+      <c r="A52" s="16">
         <v>43448</v>
       </c>
       <c r="B52">
@@ -2022,7 +2119,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="17"/>
+      <c r="A53" s="16"/>
       <c r="B53">
         <v>-14</v>
       </c>
@@ -2034,7 +2131,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="17"/>
+      <c r="A54" s="16"/>
       <c r="B54">
         <v>-13</v>
       </c>
@@ -2046,7 +2143,7 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="17">
+      <c r="A55" s="16">
         <v>43449</v>
       </c>
       <c r="B55">
@@ -2060,7 +2157,7 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="17"/>
+      <c r="A56" s="16"/>
       <c r="B56">
         <v>-20</v>
       </c>
@@ -2072,7 +2169,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="17">
+      <c r="A57" s="16">
         <v>43450</v>
       </c>
       <c r="B57">
@@ -2086,7 +2183,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="17"/>
+      <c r="A58" s="16"/>
       <c r="B58">
         <v>-30</v>
       </c>
@@ -2098,7 +2195,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="17">
+      <c r="A59" s="16">
         <v>43451</v>
       </c>
       <c r="B59">
@@ -2112,7 +2209,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="17"/>
+      <c r="A60" s="16"/>
       <c r="B60">
         <v>-4.5</v>
       </c>
@@ -2124,7 +2221,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="17"/>
+      <c r="A61" s="16"/>
       <c r="B61">
         <v>-12</v>
       </c>
@@ -2136,7 +2233,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="17">
+      <c r="A62" s="16">
         <v>43452</v>
       </c>
       <c r="B62">
@@ -2150,7 +2247,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="17"/>
+      <c r="A63" s="16"/>
       <c r="B63">
         <v>-16</v>
       </c>
@@ -2162,7 +2259,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="17"/>
+      <c r="A64" s="16"/>
       <c r="B64">
         <v>-670</v>
       </c>
@@ -2174,7 +2271,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="17">
+      <c r="A65" s="16">
         <v>43453</v>
       </c>
       <c r="B65">
@@ -2188,7 +2285,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="17"/>
+      <c r="A66" s="16"/>
       <c r="B66">
         <v>-16</v>
       </c>
@@ -2200,7 +2297,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="17"/>
+      <c r="A67" s="16"/>
       <c r="B67">
         <v>-12</v>
       </c>
@@ -2212,7 +2309,7 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="17">
+      <c r="A68" s="16">
         <v>43454</v>
       </c>
       <c r="B68">
@@ -2226,7 +2323,7 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="17"/>
+      <c r="A69" s="16"/>
       <c r="B69">
         <v>-18</v>
       </c>
@@ -2238,7 +2335,7 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="17"/>
+      <c r="A70" s="16"/>
       <c r="B70">
         <v>-982</v>
       </c>
@@ -2250,7 +2347,7 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="17">
+      <c r="A71" s="16">
         <v>43455</v>
       </c>
       <c r="B71">
@@ -2264,7 +2361,7 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="17"/>
+      <c r="A72" s="16"/>
       <c r="B72">
         <v>-4</v>
       </c>
@@ -2276,7 +2373,7 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="17"/>
+      <c r="A73" s="16"/>
       <c r="B73">
         <v>-4</v>
       </c>
@@ -2288,7 +2385,7 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="17">
+      <c r="A74" s="16">
         <v>43456</v>
       </c>
       <c r="B74">
@@ -2302,7 +2399,7 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="17"/>
+      <c r="A75" s="16"/>
       <c r="B75">
         <v>-13</v>
       </c>
@@ -2314,7 +2411,7 @@
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="17"/>
+      <c r="A76" s="16"/>
       <c r="B76">
         <v>-15</v>
       </c>
@@ -2326,7 +2423,7 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="17"/>
+      <c r="A77" s="16"/>
       <c r="B77">
         <v>-30</v>
       </c>
@@ -2338,7 +2435,7 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="17"/>
+      <c r="A78" s="16"/>
       <c r="B78">
         <v>-15</v>
       </c>
@@ -2350,7 +2447,7 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="17"/>
+      <c r="A79" s="16"/>
       <c r="B79">
         <v>-42</v>
       </c>
@@ -2362,12 +2459,12 @@
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="12">
+      <c r="A80" s="10">
         <v>43457</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="17">
+      <c r="A81" s="16">
         <v>43458</v>
       </c>
       <c r="B81">
@@ -2381,7 +2478,7 @@
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="17"/>
+      <c r="A82" s="16"/>
       <c r="B82">
         <v>-16</v>
       </c>
@@ -2393,7 +2490,7 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="17">
+      <c r="A83" s="16">
         <v>43459</v>
       </c>
       <c r="B83">
@@ -2407,7 +2504,7 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="17"/>
+      <c r="A84" s="16"/>
       <c r="B84">
         <v>-16</v>
       </c>
@@ -2419,7 +2516,7 @@
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="17">
+      <c r="A85" s="16">
         <v>43460</v>
       </c>
       <c r="B85">
@@ -2433,7 +2530,7 @@
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="17"/>
+      <c r="A86" s="16"/>
       <c r="B86">
         <v>-4</v>
       </c>
@@ -2445,7 +2542,7 @@
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="17"/>
+      <c r="A87" s="16"/>
       <c r="B87">
         <v>-62</v>
       </c>
@@ -2457,7 +2554,7 @@
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="17">
+      <c r="A88" s="16">
         <v>43461</v>
       </c>
       <c r="B88">
@@ -2471,7 +2568,7 @@
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" s="17"/>
+      <c r="A89" s="16"/>
       <c r="B89">
         <v>-16</v>
       </c>
@@ -2483,7 +2580,7 @@
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" s="17"/>
+      <c r="A90" s="16"/>
       <c r="B90">
         <v>-18.8</v>
       </c>
@@ -2495,7 +2592,7 @@
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="17">
+      <c r="A91" s="16">
         <v>43462</v>
       </c>
       <c r="B91">
@@ -2509,7 +2606,7 @@
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" s="17"/>
+      <c r="A92" s="16"/>
       <c r="B92">
         <v>-14</v>
       </c>
@@ -2521,7 +2618,7 @@
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="17"/>
+      <c r="A93" s="16"/>
       <c r="B93">
         <v>-239</v>
       </c>
@@ -2533,7 +2630,7 @@
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="17"/>
+      <c r="A94" s="16"/>
       <c r="B94">
         <v>-12</v>
       </c>
@@ -2545,7 +2642,7 @@
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="17">
+      <c r="A95" s="16">
         <v>43463</v>
       </c>
       <c r="B95">
@@ -2559,7 +2656,7 @@
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" s="17"/>
+      <c r="A96" s="16"/>
       <c r="B96">
         <v>-6</v>
       </c>
@@ -2571,7 +2668,7 @@
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" s="17"/>
+      <c r="A97" s="16"/>
       <c r="B97">
         <v>-4</v>
       </c>
@@ -2583,7 +2680,7 @@
       </c>
     </row>
     <row r="98" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="17"/>
+      <c r="A98" s="16"/>
       <c r="B98">
         <v>-39</v>
       </c>
@@ -2595,7 +2692,7 @@
       </c>
     </row>
     <row r="99" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="17">
+      <c r="A99" s="16">
         <v>43464</v>
       </c>
       <c r="B99">
@@ -2609,7 +2706,7 @@
       </c>
     </row>
     <row r="100" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="17"/>
+      <c r="A100" s="16"/>
       <c r="B100">
         <v>-50.4</v>
       </c>
@@ -2621,7 +2718,7 @@
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A101" s="17"/>
+      <c r="A101" s="16"/>
       <c r="B101">
         <v>-30</v>
       </c>
@@ -2633,7 +2730,7 @@
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A102" s="13">
+      <c r="A102" s="11">
         <v>43465</v>
       </c>
       <c r="B102">
@@ -2688,8 +2785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B88" sqref="A88:XFD88"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2704,7 +2801,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>62</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -2712,64 +2809,64 @@
       </c>
       <c r="C1" s="5">
         <f>SUMIF(B4:B161,"&lt;0")</f>
-        <v>-5597.2900000000009</v>
+        <v>-5608.0100000000011</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="22"/>
+      <c r="A2" s="21"/>
       <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C2">
         <f>3000+C1</f>
-        <v>-2597.2900000000009</v>
+        <v>-2608.0100000000011</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>18</v>
       </c>
       <c r="F2">
         <f ca="1">DATE(2019,2,1)-TODAY()</f>
-        <v>2</v>
+        <v>-10</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I2">
         <f ca="1">C2/F2</f>
-        <v>-1298.6450000000004</v>
+        <v>260.8010000000001</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="77" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="14" t="s">
+      <c r="B3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10">
+      <c r="E3" s="12"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8">
         <f ca="1">C2/(F2-1)</f>
-        <v>-2597.2900000000009</v>
-      </c>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
+        <v>237.0918181818183</v>
+      </c>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="13">
+      <c r="A4" s="11">
         <v>43466</v>
       </c>
       <c r="B4">
@@ -2783,7 +2880,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="17">
+      <c r="A5" s="16">
         <v>43467</v>
       </c>
       <c r="B5">
@@ -2795,7 +2892,7 @@
       <c r="D5">
         <v>1</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="9" t="s">
         <v>43</v>
       </c>
       <c r="I5" s="4" t="s">
@@ -2806,7 +2903,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="17"/>
+      <c r="A6" s="16"/>
       <c r="B6">
         <v>-16</v>
       </c>
@@ -2828,7 +2925,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="17"/>
+      <c r="A7" s="16"/>
       <c r="B7">
         <v>-24</v>
       </c>
@@ -2846,18 +2943,18 @@
       </c>
       <c r="J7">
         <f>SUMIF($D$4:$D186,H7,$B$4:$B$187)</f>
-        <v>-963.09</v>
+        <v>-973.81000000000006</v>
       </c>
       <c r="M7" s="4" t="s">
         <v>39</v>
       </c>
       <c r="N7">
         <f>SUM(J6:J8)</f>
-        <v>-2441.4899999999998</v>
+        <v>-2452.21</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="17">
+      <c r="A8" s="16">
         <v>43468</v>
       </c>
       <c r="B8">
@@ -2881,7 +2978,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="17"/>
+      <c r="A9" s="16"/>
       <c r="B9">
         <v>-16</v>
       </c>
@@ -2903,7 +3000,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="17"/>
+      <c r="A10" s="16"/>
       <c r="B10">
         <v>-15</v>
       </c>
@@ -2925,7 +3022,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="17">
+      <c r="A11" s="16">
         <v>43469</v>
       </c>
       <c r="B11">
@@ -2940,7 +3037,7 @@
       <c r="I11" s="4"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="17"/>
+      <c r="A12" s="16"/>
       <c r="B12">
         <v>-1453</v>
       </c>
@@ -2952,7 +3049,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="17"/>
+      <c r="A13" s="16"/>
       <c r="B13">
         <v>-4</v>
       </c>
@@ -2964,7 +3061,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="17"/>
+      <c r="A14" s="16"/>
       <c r="B14">
         <v>-55</v>
       </c>
@@ -2976,7 +3073,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="17"/>
+      <c r="A15" s="16"/>
       <c r="B15">
         <v>-11</v>
       </c>
@@ -2988,7 +3085,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="23">
+      <c r="A16" s="22">
         <v>43470</v>
       </c>
       <c r="B16">
@@ -3002,7 +3099,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="23"/>
+      <c r="A17" s="22"/>
       <c r="B17">
         <v>-6</v>
       </c>
@@ -3014,7 +3111,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="23"/>
+      <c r="A18" s="22"/>
       <c r="B18">
         <v>-30</v>
       </c>
@@ -3026,7 +3123,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="23"/>
+      <c r="A19" s="22"/>
       <c r="B19">
         <v>-18</v>
       </c>
@@ -3036,15 +3133,15 @@
       <c r="D19">
         <v>3</v>
       </c>
-      <c r="H19" s="15" t="s">
+      <c r="H19" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="I19" s="15" t="s">
+      <c r="I19" s="13" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="23"/>
+      <c r="A20" s="22"/>
       <c r="B20">
         <v>-3</v>
       </c>
@@ -3054,16 +3151,16 @@
       <c r="D20">
         <v>2</v>
       </c>
-      <c r="H20" s="15" t="s">
+      <c r="H20" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I20" s="15">
+      <c r="I20" s="13">
         <f>COUNTIFS($D$4:$D$185,H6)</f>
         <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="23"/>
+      <c r="A21" s="22"/>
       <c r="B21">
         <v>-10</v>
       </c>
@@ -3073,16 +3170,16 @@
       <c r="D21">
         <v>2</v>
       </c>
-      <c r="H21" s="15" t="s">
+      <c r="H21" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="I21" s="15">
+      <c r="I21" s="13">
         <f>COUNTIFS($D$4:$D$185,H7)</f>
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="23">
+      <c r="A22" s="22">
         <v>43471</v>
       </c>
       <c r="B22">
@@ -3094,16 +3191,16 @@
       <c r="D22">
         <v>1</v>
       </c>
-      <c r="H22" s="15" t="s">
+      <c r="H22" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="I22" s="15">
+      <c r="I22" s="13">
         <f>COUNTIFS($D$4:$D$185,H8)</f>
         <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="23"/>
+      <c r="A23" s="22"/>
       <c r="B23">
         <v>-3</v>
       </c>
@@ -3113,16 +3210,16 @@
       <c r="D23">
         <v>2</v>
       </c>
-      <c r="H23" s="15" t="s">
+      <c r="H23" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="I23" s="15">
+      <c r="I23" s="13">
         <f>COUNTIFS($D$4:$D$185,H9)</f>
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="23"/>
+      <c r="A24" s="22"/>
       <c r="B24">
         <v>-13</v>
       </c>
@@ -3132,16 +3229,16 @@
       <c r="D24">
         <v>2</v>
       </c>
-      <c r="H24" s="15" t="s">
+      <c r="H24" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="I24" s="15">
+      <c r="I24" s="13">
         <f>COUNTIFS($D$4:$D$185,H10)</f>
         <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="17">
+      <c r="A25" s="16">
         <v>43472</v>
       </c>
       <c r="B25">
@@ -3155,7 +3252,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="17"/>
+      <c r="A26" s="16"/>
       <c r="B26">
         <v>-4</v>
       </c>
@@ -3167,7 +3264,7 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="17"/>
+      <c r="A27" s="16"/>
       <c r="B27">
         <v>-218</v>
       </c>
@@ -3179,7 +3276,7 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="17">
+      <c r="A28" s="16">
         <v>43473</v>
       </c>
       <c r="B28">
@@ -3193,7 +3290,7 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="17"/>
+      <c r="A29" s="16"/>
       <c r="B29">
         <v>-16</v>
       </c>
@@ -3205,7 +3302,7 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="17"/>
+      <c r="A30" s="16"/>
       <c r="B30">
         <v>-245</v>
       </c>
@@ -3217,7 +3314,7 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="20">
+      <c r="A31" s="19">
         <v>43474</v>
       </c>
       <c r="B31">
@@ -3231,7 +3328,7 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="20"/>
+      <c r="A32" s="19"/>
       <c r="B32">
         <v>-4</v>
       </c>
@@ -3243,7 +3340,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="20"/>
+      <c r="A33" s="19"/>
       <c r="B33">
         <v>-500</v>
       </c>
@@ -3255,7 +3352,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="20"/>
+      <c r="A34" s="19"/>
       <c r="B34">
         <v>-16</v>
       </c>
@@ -3267,7 +3364,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="17">
+      <c r="A35" s="16">
         <v>43475</v>
       </c>
       <c r="B35">
@@ -3281,7 +3378,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="17"/>
+      <c r="A36" s="16"/>
       <c r="B36">
         <v>-6.5</v>
       </c>
@@ -3293,7 +3390,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="17">
+      <c r="A37" s="16">
         <v>43476</v>
       </c>
       <c r="B37">
@@ -3307,7 +3404,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="17"/>
+      <c r="A38" s="16"/>
       <c r="B38">
         <v>-31</v>
       </c>
@@ -3319,7 +3416,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="17"/>
+      <c r="A39" s="16"/>
       <c r="B39">
         <v>-15</v>
       </c>
@@ -3328,7 +3425,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="17"/>
+      <c r="A40" s="16"/>
       <c r="B40">
         <v>-49</v>
       </c>
@@ -3340,7 +3437,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="17"/>
+      <c r="A41" s="16"/>
       <c r="B41">
         <v>-8</v>
       </c>
@@ -3352,12 +3449,12 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="16">
+      <c r="A42" s="14">
         <v>43477</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="23">
+      <c r="A43" s="22">
         <v>43478</v>
       </c>
       <c r="B43">
@@ -3371,7 +3468,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="23"/>
+      <c r="A44" s="22"/>
       <c r="B44">
         <v>-30</v>
       </c>
@@ -3383,7 +3480,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="17">
+      <c r="A45" s="16">
         <v>43479</v>
       </c>
       <c r="B45">
@@ -3397,7 +3494,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="17"/>
+      <c r="A46" s="16"/>
       <c r="B46">
         <v>-8</v>
       </c>
@@ -3409,7 +3506,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="17"/>
+      <c r="A47" s="16"/>
       <c r="B47">
         <v>-6</v>
       </c>
@@ -3421,7 +3518,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="17">
+      <c r="A48" s="16">
         <v>43480</v>
       </c>
       <c r="B48">
@@ -3435,7 +3532,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="17"/>
+      <c r="A49" s="16"/>
       <c r="B49">
         <v>-8</v>
       </c>
@@ -3447,7 +3544,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="17"/>
+      <c r="A50" s="16"/>
       <c r="B50">
         <v>-2.5</v>
       </c>
@@ -3459,7 +3556,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="17"/>
+      <c r="A51" s="16"/>
       <c r="B51">
         <v>-6</v>
       </c>
@@ -3471,7 +3568,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="17">
+      <c r="A52" s="16">
         <v>43481</v>
       </c>
       <c r="B52">
@@ -3485,7 +3582,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="17"/>
+      <c r="A53" s="16"/>
       <c r="B53">
         <v>-10</v>
       </c>
@@ -3497,7 +3594,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="17"/>
+      <c r="A54" s="16"/>
       <c r="B54">
         <v>-8</v>
       </c>
@@ -3509,7 +3606,7 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="17"/>
+      <c r="A55" s="16"/>
       <c r="B55">
         <v>-23</v>
       </c>
@@ -3521,7 +3618,7 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="17">
+      <c r="A56" s="16">
         <v>43482</v>
       </c>
       <c r="B56">
@@ -3535,7 +3632,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="17"/>
+      <c r="A57" s="16"/>
       <c r="B57">
         <v>-8</v>
       </c>
@@ -3547,7 +3644,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="17"/>
+      <c r="A58" s="16"/>
       <c r="B58">
         <v>-8.6999999999999993</v>
       </c>
@@ -3559,7 +3656,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="17"/>
+      <c r="A59" s="16"/>
       <c r="B59">
         <v>-110</v>
       </c>
@@ -3571,7 +3668,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="17"/>
+      <c r="A60" s="16"/>
       <c r="B60">
         <v>-14.5</v>
       </c>
@@ -3583,7 +3680,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="17">
+      <c r="A61" s="16">
         <v>43483</v>
       </c>
       <c r="B61">
@@ -3597,7 +3694,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="17"/>
+      <c r="A62" s="16"/>
       <c r="B62">
         <v>-16</v>
       </c>
@@ -3609,7 +3706,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="23">
+      <c r="A63" s="22">
         <v>43484</v>
       </c>
       <c r="B63">
@@ -3623,7 +3720,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="23"/>
+      <c r="A64" s="22"/>
       <c r="B64">
         <v>-62</v>
       </c>
@@ -3635,7 +3732,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="23">
+      <c r="A65" s="22">
         <v>43485</v>
       </c>
       <c r="B65">
@@ -3649,7 +3746,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="23"/>
+      <c r="A66" s="22"/>
       <c r="B66">
         <v>-30</v>
       </c>
@@ -3661,7 +3758,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="23"/>
+      <c r="A67" s="22"/>
       <c r="B67">
         <v>-98</v>
       </c>
@@ -3673,7 +3770,7 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="17">
+      <c r="A68" s="16">
         <v>43486</v>
       </c>
       <c r="B68">
@@ -3687,7 +3784,7 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="17"/>
+      <c r="A69" s="16"/>
       <c r="B69">
         <v>-4</v>
       </c>
@@ -3699,7 +3796,7 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="17">
+      <c r="A70" s="16">
         <v>43487</v>
       </c>
       <c r="B70">
@@ -3713,7 +3810,7 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="17"/>
+      <c r="A71" s="16"/>
       <c r="B71">
         <v>-12.75</v>
       </c>
@@ -3725,7 +3822,7 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="17">
+      <c r="A72" s="16">
         <v>43488</v>
       </c>
       <c r="B72">
@@ -3739,7 +3836,7 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="17"/>
+      <c r="A73" s="16"/>
       <c r="B73">
         <v>-10</v>
       </c>
@@ -3751,7 +3848,7 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="17"/>
+      <c r="A74" s="16"/>
       <c r="B74">
         <v>-4</v>
       </c>
@@ -3763,7 +3860,7 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="17">
+      <c r="A75" s="16">
         <v>43489</v>
       </c>
       <c r="B75">
@@ -3777,7 +3874,7 @@
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="17"/>
+      <c r="A76" s="16"/>
       <c r="B76">
         <v>-10</v>
       </c>
@@ -3789,7 +3886,7 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="17">
+      <c r="A77" s="16">
         <v>43490</v>
       </c>
       <c r="B77">
@@ -3803,7 +3900,7 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="17"/>
+      <c r="A78" s="16"/>
       <c r="B78">
         <v>-4.8</v>
       </c>
@@ -3812,7 +3909,7 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="17"/>
+      <c r="A79" s="16"/>
       <c r="B79">
         <v>-10</v>
       </c>
@@ -3824,7 +3921,7 @@
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="17"/>
+      <c r="A80" s="16"/>
       <c r="B80">
         <v>-12</v>
       </c>
@@ -3836,7 +3933,7 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="17"/>
+      <c r="A81" s="16"/>
       <c r="B81">
         <v>-6</v>
       </c>
@@ -3848,7 +3945,7 @@
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="16">
+      <c r="A82" s="14">
         <v>43491</v>
       </c>
       <c r="B82">
@@ -3862,7 +3959,7 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="23">
+      <c r="A83" s="22">
         <v>43492</v>
       </c>
       <c r="B83">
@@ -3876,7 +3973,7 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="23"/>
+      <c r="A84" s="22"/>
       <c r="B84">
         <v>-13.8</v>
       </c>
@@ -3888,7 +3985,7 @@
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="17">
+      <c r="A85" s="16">
         <v>43493</v>
       </c>
       <c r="B85">
@@ -3902,7 +3999,7 @@
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="17"/>
+      <c r="A86" s="16"/>
       <c r="B86">
         <v>-4</v>
       </c>
@@ -3914,7 +4011,7 @@
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="17"/>
+      <c r="A87" s="16"/>
       <c r="B87">
         <v>-4.8</v>
       </c>
@@ -3926,7 +4023,7 @@
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="17">
+      <c r="A88" s="16">
         <v>43494</v>
       </c>
       <c r="B88">
@@ -3940,7 +4037,7 @@
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" s="17"/>
+      <c r="A89" s="16"/>
       <c r="B89">
         <v>-4.46</v>
       </c>
@@ -3952,7 +4049,7 @@
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" s="17"/>
+      <c r="A90" s="16"/>
       <c r="B90">
         <v>-16.34</v>
       </c>
@@ -3964,7 +4061,7 @@
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="17"/>
+      <c r="A91" s="16"/>
       <c r="B91">
         <v>-6</v>
       </c>
@@ -3976,7 +4073,7 @@
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" s="17">
+      <c r="A92" s="16">
         <v>43495</v>
       </c>
       <c r="B92">
@@ -3990,7 +4087,7 @@
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="17"/>
+      <c r="A93" s="16"/>
       <c r="B93">
         <v>-4.21</v>
       </c>
@@ -4002,7 +4099,7 @@
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="17"/>
+      <c r="A94" s="16"/>
       <c r="B94">
         <v>-10</v>
       </c>
@@ -4014,7 +4111,7 @@
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="17"/>
+      <c r="A95" s="16"/>
       <c r="B95">
         <v>-1441</v>
       </c>
@@ -4026,8 +4123,17 @@
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" s="13">
+      <c r="A96" s="11">
         <v>43496</v>
+      </c>
+      <c r="B96">
+        <v>-10.72</v>
+      </c>
+      <c r="C96" t="s">
+        <v>59</v>
+      </c>
+      <c r="D96">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -4070,8 +4176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4086,46 +4192,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>25</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="5">
-        <f>SUMIF(B4:B60,"&lt;0")</f>
-        <v>-756</v>
+        <f>SUMIF(B4:B51,"&lt;0")</f>
+        <v>-2991.7099999999996</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F1" s="5">
-        <f>SUM(B4:B22)</f>
-        <v>-756</v>
+        <f>SUM(B4:B15)</f>
+        <v>-1198.1299999999999</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22"/>
+      <c r="A2" s="21"/>
       <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C2">
         <f>3000+C1</f>
-        <v>2244</v>
+        <v>8.2900000000004184</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>18</v>
       </c>
       <c r="F2">
         <f ca="1">DATE(2019,3,1)-TODAY()</f>
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I2">
         <f ca="1">C2/F2</f>
-        <v>74.8</v>
+        <v>0.46055555555557881</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -4140,11 +4246,11 @@
       </c>
       <c r="I3">
         <f ca="1">C2/(F2-1)</f>
-        <v>77.379310344827587</v>
+        <v>0.48764705882355402</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="9">
+      <c r="A4" s="23">
         <v>43433</v>
       </c>
       <c r="B4">
@@ -4155,7 +4261,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="17">
+      <c r="A5" s="22">
         <v>43447</v>
       </c>
       <c r="B5">
@@ -4166,7 +4272,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="17"/>
+      <c r="A6" s="22"/>
       <c r="B6">
         <v>-350</v>
       </c>
@@ -4175,7 +4281,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="17"/>
+      <c r="A7" s="22"/>
       <c r="B7">
         <v>-129</v>
       </c>
@@ -4184,7 +4290,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+      <c r="A8" s="24">
         <v>43448</v>
       </c>
       <c r="B8">
@@ -4195,231 +4301,396 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="17">
-        <v>43450</v>
+      <c r="A9" s="15">
+        <v>43497</v>
+      </c>
+      <c r="B9">
+        <v>-161.9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" t="s">
+        <v>106</v>
+      </c>
+      <c r="H9">
+        <f>SUM(B4:B36)-1000</f>
+        <v>-2980.71</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="17"/>
+      <c r="A10" s="25">
+        <v>43498</v>
+      </c>
+      <c r="B10">
+        <v>-10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="17"/>
+      <c r="A11" s="25"/>
+      <c r="B11">
+        <v>-5.4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="17"/>
+      <c r="A12" s="25"/>
+      <c r="B12">
+        <v>-22.5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="20">
-        <v>43438</v>
+      <c r="A13" s="25"/>
+      <c r="B13">
+        <v>-83.23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="20"/>
+      <c r="A14" s="25">
+        <v>43499</v>
+      </c>
+      <c r="B14">
+        <v>-109.3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="20"/>
+      <c r="A15" s="25"/>
+      <c r="B15">
+        <v>-49.8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="20"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="20"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="20"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="17">
-        <v>43439</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="17"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="17"/>
-      <c r="B21" s="2"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="17"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="17"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="17"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="20">
-        <v>43440</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="20"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="20"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="20"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="20">
-        <v>43441</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="20"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="20"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="20"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="20"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="8">
-        <v>43442</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="17">
-        <v>43443</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="17"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" s="23">
-        <v>43444</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" s="23"/>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" s="23"/>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="23">
+        <v>43500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="25">
+        <v>43501</v>
+      </c>
+      <c r="B17">
+        <v>-383.78</v>
+      </c>
+      <c r="C17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="25"/>
+      <c r="B18">
+        <v>1000</v>
+      </c>
+      <c r="C18" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="25"/>
+      <c r="B19">
+        <v>-300</v>
+      </c>
+      <c r="C19" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="25"/>
+      <c r="B20">
+        <v>-149</v>
+      </c>
+      <c r="C20" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="15">
+        <v>43502</v>
+      </c>
+      <c r="B21">
+        <v>-258.02999999999997</v>
+      </c>
+      <c r="C21" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="22">
+        <v>43503</v>
+      </c>
+      <c r="B22">
+        <v>-4</v>
+      </c>
+      <c r="C22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="22"/>
+      <c r="B23">
+        <v>-130.27000000000001</v>
+      </c>
+      <c r="C23" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="22">
+        <v>43504</v>
+      </c>
+      <c r="B24">
+        <v>-12</v>
+      </c>
+      <c r="C24" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="22"/>
+      <c r="B25">
+        <v>-15</v>
+      </c>
+      <c r="C25" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="22">
+        <v>43505</v>
+      </c>
+      <c r="B26">
+        <v>-7</v>
+      </c>
+      <c r="C26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="22"/>
+      <c r="B27">
+        <v>-39</v>
+      </c>
+      <c r="C27" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="22"/>
+      <c r="B28">
+        <v>-10</v>
+      </c>
+      <c r="C28" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="22"/>
+      <c r="B29">
+        <v>-17.600000000000001</v>
+      </c>
+      <c r="C29" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="22"/>
+      <c r="B30">
+        <v>-25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="22"/>
+      <c r="B31">
+        <v>-83</v>
+      </c>
+      <c r="C31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="22"/>
+      <c r="B32">
+        <v>-128</v>
+      </c>
+      <c r="C32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="22"/>
+      <c r="B33">
+        <v>-28</v>
+      </c>
+      <c r="C33" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="22"/>
+      <c r="B34">
+        <v>-65</v>
+      </c>
+      <c r="C34" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="22"/>
+      <c r="B35">
+        <v>-127.9</v>
+      </c>
+      <c r="C35" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="15">
+        <v>43506</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>43507</v>
+      </c>
+      <c r="B37">
+        <v>-11</v>
+      </c>
+      <c r="C37" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>43508</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>43509</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>43445</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+        <v>43510</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>43446</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+        <v>43511</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>43447</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+        <v>43512</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>43448</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+        <v>43513</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>43449</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+        <v>43514</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>43450</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+        <v>43515</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>43451</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+        <v>43516</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>43452</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+        <v>43517</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>43453</v>
+        <v>43518</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>43454</v>
+        <v>43519</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>43455</v>
+        <v>43520</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>43456</v>
+        <v>43521</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>43457</v>
+        <v>43522</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>43458</v>
+        <v>43523</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>43459</v>
+        <v>43524</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55" s="1">
-        <v>43460</v>
-      </c>
+      <c r="A55" s="1"/>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56" s="1">
-        <v>43461</v>
-      </c>
+      <c r="A56" s="1"/>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57" s="1">
-        <v>43462</v>
-      </c>
+      <c r="A57" s="1"/>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A58" s="1">
-        <v>43463</v>
-      </c>
+      <c r="A58" s="1"/>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A59" s="1">
-        <v>43464</v>
-      </c>
+      <c r="A59" s="1"/>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A60" s="1">
-        <v>43465</v>
-      </c>
+      <c r="A60" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A37:A39"/>
+  <mergeCells count="8">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="A13:A18"/>
-    <mergeCell ref="A19:A24"/>
-    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A15"/>
     <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A26:A35"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/健忘症患者的账本.xlsx
+++ b/健忘症患者的账本.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="107">
   <si>
     <t>日期</t>
     <rPh sb="0" eb="1">
@@ -896,16 +896,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>红包-from老母亲</t>
-    <rPh sb="0" eb="1">
-      <t>h'b</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>lao'mu'q</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>超市</t>
     <rPh sb="0" eb="1">
       <t>chao's</t>
@@ -932,6 +922,19 @@
       <t>guo'nian</t>
     </rPh>
     <rPh sb="2" eb="3">
+      <t>he'ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>除去过年合计</t>
+    <rPh sb="0" eb="1">
+      <t>chu'qu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>guo'nian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
       <t>he'ji</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1017,7 +1020,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1056,7 +1059,23 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1065,22 +1084,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1364,7 +1370,7 @@
   <dimension ref="A1:M102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1381,7 +1387,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
         <v>26</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -1395,7 +1401,7 @@
       <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21"/>
+      <c r="A2" s="20"/>
       <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
@@ -1408,14 +1414,14 @@
       </c>
       <c r="F2">
         <f ca="1">DATE(2019,1,1)-TODAY()</f>
-        <v>-41</v>
+        <v>-44</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I2">
         <f ca="1">C2/F2</f>
-        <v>63.345365853658535</v>
+        <v>59.026363636363634</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="8" customFormat="1" ht="61" customHeight="1" x14ac:dyDescent="0.2">
@@ -1428,20 +1434,20 @@
       <c r="C3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
       <c r="I3" s="8">
         <f ca="1">C2/(F2-1)</f>
-        <v>61.837142857142851</v>
+        <v>57.714666666666666</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="16">
+      <c r="A4" s="18">
         <v>43435</v>
       </c>
       <c r="B4">
@@ -1455,7 +1461,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="16"/>
+      <c r="A5" s="18"/>
       <c r="B5">
         <v>-20</v>
       </c>
@@ -1481,7 +1487,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="16">
+      <c r="A7" s="18">
         <v>43437</v>
       </c>
       <c r="B7">
@@ -1495,7 +1501,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="16"/>
+      <c r="A8" s="18"/>
       <c r="B8">
         <v>-89</v>
       </c>
@@ -1516,7 +1522,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="16"/>
+      <c r="A9" s="18"/>
       <c r="B9">
         <v>-6</v>
       </c>
@@ -1538,7 +1544,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="16"/>
+      <c r="A10" s="18"/>
       <c r="B10">
         <v>-4</v>
       </c>
@@ -1567,7 +1573,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="19">
+      <c r="A11" s="21">
         <v>43438</v>
       </c>
       <c r="B11">
@@ -1591,7 +1597,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="19"/>
+      <c r="A12" s="21"/>
       <c r="B12">
         <v>18</v>
       </c>
@@ -1610,7 +1616,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="19"/>
+      <c r="A13" s="21"/>
       <c r="B13">
         <v>-7</v>
       </c>
@@ -1632,7 +1638,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="19"/>
+      <c r="A14" s="21"/>
       <c r="B14">
         <v>-8</v>
       </c>
@@ -1644,7 +1650,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="19"/>
+      <c r="A15" s="21"/>
       <c r="B15">
         <v>-6</v>
       </c>
@@ -1656,7 +1662,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="19"/>
+      <c r="A16" s="21"/>
       <c r="B16">
         <v>-34.799999999999997</v>
       </c>
@@ -1668,7 +1674,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="16">
+      <c r="A17" s="18">
         <v>43439</v>
       </c>
       <c r="B17">
@@ -1683,7 +1689,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="16"/>
+      <c r="A18" s="18"/>
       <c r="B18">
         <v>-1468</v>
       </c>
@@ -1695,7 +1701,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="16"/>
+      <c r="A19" s="18"/>
       <c r="B19" s="2">
         <v>-6</v>
       </c>
@@ -1707,7 +1713,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="16"/>
+      <c r="A20" s="18"/>
       <c r="B20">
         <v>7</v>
       </c>
@@ -1716,7 +1722,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="16"/>
+      <c r="A21" s="18"/>
       <c r="B21">
         <v>-4</v>
       </c>
@@ -1728,7 +1734,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="16"/>
+      <c r="A22" s="18"/>
       <c r="B22">
         <v>-29.9</v>
       </c>
@@ -1740,7 +1746,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="19">
+      <c r="A23" s="21">
         <v>43440</v>
       </c>
       <c r="B23">
@@ -1754,7 +1760,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="19"/>
+      <c r="A24" s="21"/>
       <c r="B24">
         <v>-5</v>
       </c>
@@ -1766,7 +1772,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="19"/>
+      <c r="A25" s="21"/>
       <c r="B25">
         <v>-9</v>
       </c>
@@ -1778,7 +1784,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="19"/>
+      <c r="A26" s="21"/>
       <c r="B26">
         <v>-249</v>
       </c>
@@ -1790,7 +1796,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="19"/>
+      <c r="A27" s="21"/>
       <c r="B27">
         <v>-13.88</v>
       </c>
@@ -1802,7 +1808,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="19">
+      <c r="A28" s="21">
         <v>43441</v>
       </c>
       <c r="B28">
@@ -1816,7 +1822,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="19"/>
+      <c r="A29" s="21"/>
       <c r="B29">
         <v>-6</v>
       </c>
@@ -1828,7 +1834,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="19"/>
+      <c r="A30" s="21"/>
       <c r="B30">
         <v>-4</v>
       </c>
@@ -1840,7 +1846,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="19"/>
+      <c r="A31" s="21"/>
       <c r="B31">
         <v>-18</v>
       </c>
@@ -1852,7 +1858,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="19"/>
+      <c r="A32" s="21"/>
       <c r="B32">
         <f>-89-129-119-89</f>
         <v>-426</v>
@@ -1865,7 +1871,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="16">
+      <c r="A33" s="18">
         <v>43442</v>
       </c>
       <c r="B33">
@@ -1879,7 +1885,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="16">
+      <c r="A34" s="18">
         <v>43443</v>
       </c>
       <c r="B34">
@@ -1893,7 +1899,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="16"/>
+      <c r="A35" s="18"/>
       <c r="B35">
         <v>-2</v>
       </c>
@@ -1943,7 +1949,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="16">
+      <c r="A39" s="18">
         <v>43445</v>
       </c>
       <c r="B39">
@@ -1957,7 +1963,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="16"/>
+      <c r="A40" s="18"/>
       <c r="B40">
         <v>-4</v>
       </c>
@@ -1969,7 +1975,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="16"/>
+      <c r="A41" s="18"/>
       <c r="B41">
         <v>-5</v>
       </c>
@@ -1981,7 +1987,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="16"/>
+      <c r="A42" s="18"/>
       <c r="B42">
         <v>-16</v>
       </c>
@@ -1993,7 +1999,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="16">
+      <c r="A43" s="18">
         <v>43446</v>
       </c>
       <c r="B43">
@@ -2007,7 +2013,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="16"/>
+      <c r="A44" s="18"/>
       <c r="B44">
         <v>-8</v>
       </c>
@@ -2019,7 +2025,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="16"/>
+      <c r="A45" s="18"/>
       <c r="B45">
         <v>-5</v>
       </c>
@@ -2031,7 +2037,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="16"/>
+      <c r="A46" s="18"/>
       <c r="B46">
         <v>-13</v>
       </c>
@@ -2043,7 +2049,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="16">
+      <c r="A47" s="18">
         <v>43447</v>
       </c>
       <c r="B47">
@@ -2057,7 +2063,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="16"/>
+      <c r="A48" s="18"/>
       <c r="B48">
         <v>-6</v>
       </c>
@@ -2069,7 +2075,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="16"/>
+      <c r="A49" s="18"/>
       <c r="B49">
         <v>-16</v>
       </c>
@@ -2081,7 +2087,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="16"/>
+      <c r="A50" s="18"/>
       <c r="B50">
         <v>-13</v>
       </c>
@@ -2093,7 +2099,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="16"/>
+      <c r="A51" s="18"/>
       <c r="B51">
         <v>-99</v>
       </c>
@@ -2105,7 +2111,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="16">
+      <c r="A52" s="18">
         <v>43448</v>
       </c>
       <c r="B52">
@@ -2119,7 +2125,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="16"/>
+      <c r="A53" s="18"/>
       <c r="B53">
         <v>-14</v>
       </c>
@@ -2131,7 +2137,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="16"/>
+      <c r="A54" s="18"/>
       <c r="B54">
         <v>-13</v>
       </c>
@@ -2143,7 +2149,7 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="16">
+      <c r="A55" s="18">
         <v>43449</v>
       </c>
       <c r="B55">
@@ -2157,7 +2163,7 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="16"/>
+      <c r="A56" s="18"/>
       <c r="B56">
         <v>-20</v>
       </c>
@@ -2169,7 +2175,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="16">
+      <c r="A57" s="18">
         <v>43450</v>
       </c>
       <c r="B57">
@@ -2183,7 +2189,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="16"/>
+      <c r="A58" s="18"/>
       <c r="B58">
         <v>-30</v>
       </c>
@@ -2195,7 +2201,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="16">
+      <c r="A59" s="18">
         <v>43451</v>
       </c>
       <c r="B59">
@@ -2209,7 +2215,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="16"/>
+      <c r="A60" s="18"/>
       <c r="B60">
         <v>-4.5</v>
       </c>
@@ -2221,7 +2227,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="16"/>
+      <c r="A61" s="18"/>
       <c r="B61">
         <v>-12</v>
       </c>
@@ -2233,7 +2239,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="16">
+      <c r="A62" s="18">
         <v>43452</v>
       </c>
       <c r="B62">
@@ -2247,7 +2253,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="16"/>
+      <c r="A63" s="18"/>
       <c r="B63">
         <v>-16</v>
       </c>
@@ -2259,7 +2265,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="16"/>
+      <c r="A64" s="18"/>
       <c r="B64">
         <v>-670</v>
       </c>
@@ -2271,7 +2277,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="16">
+      <c r="A65" s="18">
         <v>43453</v>
       </c>
       <c r="B65">
@@ -2285,7 +2291,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="16"/>
+      <c r="A66" s="18"/>
       <c r="B66">
         <v>-16</v>
       </c>
@@ -2297,7 +2303,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="16"/>
+      <c r="A67" s="18"/>
       <c r="B67">
         <v>-12</v>
       </c>
@@ -2309,7 +2315,7 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="16">
+      <c r="A68" s="18">
         <v>43454</v>
       </c>
       <c r="B68">
@@ -2323,7 +2329,7 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="16"/>
+      <c r="A69" s="18"/>
       <c r="B69">
         <v>-18</v>
       </c>
@@ -2335,7 +2341,7 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="16"/>
+      <c r="A70" s="18"/>
       <c r="B70">
         <v>-982</v>
       </c>
@@ -2347,7 +2353,7 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="16">
+      <c r="A71" s="18">
         <v>43455</v>
       </c>
       <c r="B71">
@@ -2361,7 +2367,7 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="16"/>
+      <c r="A72" s="18"/>
       <c r="B72">
         <v>-4</v>
       </c>
@@ -2373,7 +2379,7 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="16"/>
+      <c r="A73" s="18"/>
       <c r="B73">
         <v>-4</v>
       </c>
@@ -2385,7 +2391,7 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="16">
+      <c r="A74" s="18">
         <v>43456</v>
       </c>
       <c r="B74">
@@ -2399,7 +2405,7 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="16"/>
+      <c r="A75" s="18"/>
       <c r="B75">
         <v>-13</v>
       </c>
@@ -2411,7 +2417,7 @@
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="16"/>
+      <c r="A76" s="18"/>
       <c r="B76">
         <v>-15</v>
       </c>
@@ -2423,7 +2429,7 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="16"/>
+      <c r="A77" s="18"/>
       <c r="B77">
         <v>-30</v>
       </c>
@@ -2435,7 +2441,7 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="16"/>
+      <c r="A78" s="18"/>
       <c r="B78">
         <v>-15</v>
       </c>
@@ -2447,7 +2453,7 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="16"/>
+      <c r="A79" s="18"/>
       <c r="B79">
         <v>-42</v>
       </c>
@@ -2464,7 +2470,7 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="16">
+      <c r="A81" s="18">
         <v>43458</v>
       </c>
       <c r="B81">
@@ -2478,7 +2484,7 @@
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="16"/>
+      <c r="A82" s="18"/>
       <c r="B82">
         <v>-16</v>
       </c>
@@ -2490,7 +2496,7 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="16">
+      <c r="A83" s="18">
         <v>43459</v>
       </c>
       <c r="B83">
@@ -2504,7 +2510,7 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="16"/>
+      <c r="A84" s="18"/>
       <c r="B84">
         <v>-16</v>
       </c>
@@ -2516,7 +2522,7 @@
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="16">
+      <c r="A85" s="18">
         <v>43460</v>
       </c>
       <c r="B85">
@@ -2530,7 +2536,7 @@
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="16"/>
+      <c r="A86" s="18"/>
       <c r="B86">
         <v>-4</v>
       </c>
@@ -2542,7 +2548,7 @@
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="16"/>
+      <c r="A87" s="18"/>
       <c r="B87">
         <v>-62</v>
       </c>
@@ -2554,7 +2560,7 @@
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="16">
+      <c r="A88" s="18">
         <v>43461</v>
       </c>
       <c r="B88">
@@ -2568,7 +2574,7 @@
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" s="16"/>
+      <c r="A89" s="18"/>
       <c r="B89">
         <v>-16</v>
       </c>
@@ -2580,7 +2586,7 @@
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" s="16"/>
+      <c r="A90" s="18"/>
       <c r="B90">
         <v>-18.8</v>
       </c>
@@ -2592,7 +2598,7 @@
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="16">
+      <c r="A91" s="18">
         <v>43462</v>
       </c>
       <c r="B91">
@@ -2606,7 +2612,7 @@
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" s="16"/>
+      <c r="A92" s="18"/>
       <c r="B92">
         <v>-14</v>
       </c>
@@ -2618,7 +2624,7 @@
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="16"/>
+      <c r="A93" s="18"/>
       <c r="B93">
         <v>-239</v>
       </c>
@@ -2630,7 +2636,7 @@
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="16"/>
+      <c r="A94" s="18"/>
       <c r="B94">
         <v>-12</v>
       </c>
@@ -2642,7 +2648,7 @@
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="16">
+      <c r="A95" s="18">
         <v>43463</v>
       </c>
       <c r="B95">
@@ -2656,7 +2662,7 @@
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" s="16"/>
+      <c r="A96" s="18"/>
       <c r="B96">
         <v>-6</v>
       </c>
@@ -2668,7 +2674,7 @@
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" s="16"/>
+      <c r="A97" s="18"/>
       <c r="B97">
         <v>-4</v>
       </c>
@@ -2680,7 +2686,7 @@
       </c>
     </row>
     <row r="98" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="16"/>
+      <c r="A98" s="18"/>
       <c r="B98">
         <v>-39</v>
       </c>
@@ -2692,7 +2698,7 @@
       </c>
     </row>
     <row r="99" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="16">
+      <c r="A99" s="18">
         <v>43464</v>
       </c>
       <c r="B99">
@@ -2706,7 +2712,7 @@
       </c>
     </row>
     <row r="100" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="16"/>
+      <c r="A100" s="18"/>
       <c r="B100">
         <v>-50.4</v>
       </c>
@@ -2718,7 +2724,7 @@
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A101" s="16"/>
+      <c r="A101" s="18"/>
       <c r="B101">
         <v>-30</v>
       </c>
@@ -2745,6 +2751,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A85:A87"/>
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="A95:A98"/>
+    <mergeCell ref="A74:A79"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="A28:A32"/>
     <mergeCell ref="A99:A101"/>
     <mergeCell ref="A68:A70"/>
     <mergeCell ref="A62:A64"/>
@@ -2761,20 +2781,6 @@
     <mergeCell ref="A59:A61"/>
     <mergeCell ref="A88:A90"/>
     <mergeCell ref="A57:A58"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="A85:A87"/>
-    <mergeCell ref="A71:A73"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="A95:A98"/>
-    <mergeCell ref="A74:A79"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2786,7 +2792,7 @@
   <dimension ref="A1:N96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2801,7 +2807,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
         <v>62</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -2815,7 +2821,7 @@
       <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="21"/>
+      <c r="A2" s="20"/>
       <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
@@ -2828,14 +2834,14 @@
       </c>
       <c r="F2">
         <f ca="1">DATE(2019,2,1)-TODAY()</f>
-        <v>-10</v>
+        <v>-13</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I2">
         <f ca="1">C2/F2</f>
-        <v>260.8010000000001</v>
+        <v>200.61615384615394</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="77" customHeight="1" x14ac:dyDescent="0.2">
@@ -2857,7 +2863,7 @@
       <c r="H3" s="8"/>
       <c r="I3" s="8">
         <f ca="1">C2/(F2-1)</f>
-        <v>237.0918181818183</v>
+        <v>186.28642857142864</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -2880,7 +2886,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="16">
+      <c r="A5" s="18">
         <v>43467</v>
       </c>
       <c r="B5">
@@ -2903,7 +2909,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="16"/>
+      <c r="A6" s="18"/>
       <c r="B6">
         <v>-16</v>
       </c>
@@ -2925,7 +2931,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="16"/>
+      <c r="A7" s="18"/>
       <c r="B7">
         <v>-24</v>
       </c>
@@ -2954,7 +2960,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="16">
+      <c r="A8" s="18">
         <v>43468</v>
       </c>
       <c r="B8">
@@ -2978,7 +2984,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="16"/>
+      <c r="A9" s="18"/>
       <c r="B9">
         <v>-16</v>
       </c>
@@ -3000,7 +3006,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="16"/>
+      <c r="A10" s="18"/>
       <c r="B10">
         <v>-15</v>
       </c>
@@ -3022,7 +3028,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="16">
+      <c r="A11" s="18">
         <v>43469</v>
       </c>
       <c r="B11">
@@ -3037,7 +3043,7 @@
       <c r="I11" s="4"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="16"/>
+      <c r="A12" s="18"/>
       <c r="B12">
         <v>-1453</v>
       </c>
@@ -3049,7 +3055,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="16"/>
+      <c r="A13" s="18"/>
       <c r="B13">
         <v>-4</v>
       </c>
@@ -3061,7 +3067,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="16"/>
+      <c r="A14" s="18"/>
       <c r="B14">
         <v>-55</v>
       </c>
@@ -3073,7 +3079,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="16"/>
+      <c r="A15" s="18"/>
       <c r="B15">
         <v>-11</v>
       </c>
@@ -3238,7 +3244,7 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="16">
+      <c r="A25" s="18">
         <v>43472</v>
       </c>
       <c r="B25">
@@ -3252,7 +3258,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="16"/>
+      <c r="A26" s="18"/>
       <c r="B26">
         <v>-4</v>
       </c>
@@ -3264,7 +3270,7 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="16"/>
+      <c r="A27" s="18"/>
       <c r="B27">
         <v>-218</v>
       </c>
@@ -3276,7 +3282,7 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="16">
+      <c r="A28" s="18">
         <v>43473</v>
       </c>
       <c r="B28">
@@ -3290,7 +3296,7 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="16"/>
+      <c r="A29" s="18"/>
       <c r="B29">
         <v>-16</v>
       </c>
@@ -3302,7 +3308,7 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="16"/>
+      <c r="A30" s="18"/>
       <c r="B30">
         <v>-245</v>
       </c>
@@ -3314,7 +3320,7 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="19">
+      <c r="A31" s="21">
         <v>43474</v>
       </c>
       <c r="B31">
@@ -3328,7 +3334,7 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="19"/>
+      <c r="A32" s="21"/>
       <c r="B32">
         <v>-4</v>
       </c>
@@ -3340,7 +3346,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="19"/>
+      <c r="A33" s="21"/>
       <c r="B33">
         <v>-500</v>
       </c>
@@ -3352,7 +3358,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="19"/>
+      <c r="A34" s="21"/>
       <c r="B34">
         <v>-16</v>
       </c>
@@ -3364,7 +3370,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="16">
+      <c r="A35" s="18">
         <v>43475</v>
       </c>
       <c r="B35">
@@ -3378,7 +3384,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="16"/>
+      <c r="A36" s="18"/>
       <c r="B36">
         <v>-6.5</v>
       </c>
@@ -3390,7 +3396,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="16">
+      <c r="A37" s="18">
         <v>43476</v>
       </c>
       <c r="B37">
@@ -3404,7 +3410,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="16"/>
+      <c r="A38" s="18"/>
       <c r="B38">
         <v>-31</v>
       </c>
@@ -3416,7 +3422,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="16"/>
+      <c r="A39" s="18"/>
       <c r="B39">
         <v>-15</v>
       </c>
@@ -3425,7 +3431,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="16"/>
+      <c r="A40" s="18"/>
       <c r="B40">
         <v>-49</v>
       </c>
@@ -3437,7 +3443,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="16"/>
+      <c r="A41" s="18"/>
       <c r="B41">
         <v>-8</v>
       </c>
@@ -3480,7 +3486,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="16">
+      <c r="A45" s="18">
         <v>43479</v>
       </c>
       <c r="B45">
@@ -3494,7 +3500,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="16"/>
+      <c r="A46" s="18"/>
       <c r="B46">
         <v>-8</v>
       </c>
@@ -3506,7 +3512,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="16"/>
+      <c r="A47" s="18"/>
       <c r="B47">
         <v>-6</v>
       </c>
@@ -3518,7 +3524,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="16">
+      <c r="A48" s="18">
         <v>43480</v>
       </c>
       <c r="B48">
@@ -3532,7 +3538,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="16"/>
+      <c r="A49" s="18"/>
       <c r="B49">
         <v>-8</v>
       </c>
@@ -3544,7 +3550,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="16"/>
+      <c r="A50" s="18"/>
       <c r="B50">
         <v>-2.5</v>
       </c>
@@ -3556,7 +3562,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="16"/>
+      <c r="A51" s="18"/>
       <c r="B51">
         <v>-6</v>
       </c>
@@ -3568,7 +3574,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="16">
+      <c r="A52" s="18">
         <v>43481</v>
       </c>
       <c r="B52">
@@ -3582,7 +3588,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="16"/>
+      <c r="A53" s="18"/>
       <c r="B53">
         <v>-10</v>
       </c>
@@ -3594,7 +3600,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="16"/>
+      <c r="A54" s="18"/>
       <c r="B54">
         <v>-8</v>
       </c>
@@ -3606,7 +3612,7 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="16"/>
+      <c r="A55" s="18"/>
       <c r="B55">
         <v>-23</v>
       </c>
@@ -3618,7 +3624,7 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="16">
+      <c r="A56" s="18">
         <v>43482</v>
       </c>
       <c r="B56">
@@ -3632,7 +3638,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="16"/>
+      <c r="A57" s="18"/>
       <c r="B57">
         <v>-8</v>
       </c>
@@ -3644,7 +3650,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="16"/>
+      <c r="A58" s="18"/>
       <c r="B58">
         <v>-8.6999999999999993</v>
       </c>
@@ -3656,7 +3662,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="16"/>
+      <c r="A59" s="18"/>
       <c r="B59">
         <v>-110</v>
       </c>
@@ -3668,7 +3674,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="16"/>
+      <c r="A60" s="18"/>
       <c r="B60">
         <v>-14.5</v>
       </c>
@@ -3680,7 +3686,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="16">
+      <c r="A61" s="18">
         <v>43483</v>
       </c>
       <c r="B61">
@@ -3694,7 +3700,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="16"/>
+      <c r="A62" s="18"/>
       <c r="B62">
         <v>-16</v>
       </c>
@@ -3770,7 +3776,7 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="16">
+      <c r="A68" s="18">
         <v>43486</v>
       </c>
       <c r="B68">
@@ -3784,7 +3790,7 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="16"/>
+      <c r="A69" s="18"/>
       <c r="B69">
         <v>-4</v>
       </c>
@@ -3796,7 +3802,7 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="16">
+      <c r="A70" s="18">
         <v>43487</v>
       </c>
       <c r="B70">
@@ -3810,7 +3816,7 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="16"/>
+      <c r="A71" s="18"/>
       <c r="B71">
         <v>-12.75</v>
       </c>
@@ -3822,7 +3828,7 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="16">
+      <c r="A72" s="18">
         <v>43488</v>
       </c>
       <c r="B72">
@@ -3836,7 +3842,7 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="16"/>
+      <c r="A73" s="18"/>
       <c r="B73">
         <v>-10</v>
       </c>
@@ -3848,7 +3854,7 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="16"/>
+      <c r="A74" s="18"/>
       <c r="B74">
         <v>-4</v>
       </c>
@@ -3860,7 +3866,7 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="16">
+      <c r="A75" s="18">
         <v>43489</v>
       </c>
       <c r="B75">
@@ -3874,7 +3880,7 @@
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="16"/>
+      <c r="A76" s="18"/>
       <c r="B76">
         <v>-10</v>
       </c>
@@ -3886,7 +3892,7 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="16">
+      <c r="A77" s="18">
         <v>43490</v>
       </c>
       <c r="B77">
@@ -3900,7 +3906,7 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="16"/>
+      <c r="A78" s="18"/>
       <c r="B78">
         <v>-4.8</v>
       </c>
@@ -3909,7 +3915,7 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="16"/>
+      <c r="A79" s="18"/>
       <c r="B79">
         <v>-10</v>
       </c>
@@ -3921,7 +3927,7 @@
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="16"/>
+      <c r="A80" s="18"/>
       <c r="B80">
         <v>-12</v>
       </c>
@@ -3933,7 +3939,7 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="16"/>
+      <c r="A81" s="18"/>
       <c r="B81">
         <v>-6</v>
       </c>
@@ -3985,7 +3991,7 @@
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="16">
+      <c r="A85" s="18">
         <v>43493</v>
       </c>
       <c r="B85">
@@ -3999,7 +4005,7 @@
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="16"/>
+      <c r="A86" s="18"/>
       <c r="B86">
         <v>-4</v>
       </c>
@@ -4011,7 +4017,7 @@
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="16"/>
+      <c r="A87" s="18"/>
       <c r="B87">
         <v>-4.8</v>
       </c>
@@ -4023,7 +4029,7 @@
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="16">
+      <c r="A88" s="18">
         <v>43494</v>
       </c>
       <c r="B88">
@@ -4037,7 +4043,7 @@
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" s="16"/>
+      <c r="A89" s="18"/>
       <c r="B89">
         <v>-4.46</v>
       </c>
@@ -4049,7 +4055,7 @@
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" s="16"/>
+      <c r="A90" s="18"/>
       <c r="B90">
         <v>-16.34</v>
       </c>
@@ -4061,7 +4067,7 @@
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="16"/>
+      <c r="A91" s="18"/>
       <c r="B91">
         <v>-6</v>
       </c>
@@ -4073,7 +4079,7 @@
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" s="16">
+      <c r="A92" s="18">
         <v>43495</v>
       </c>
       <c r="B92">
@@ -4087,7 +4093,7 @@
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="16"/>
+      <c r="A93" s="18"/>
       <c r="B93">
         <v>-4.21</v>
       </c>
@@ -4099,7 +4105,7 @@
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="16"/>
+      <c r="A94" s="18"/>
       <c r="B94">
         <v>-10</v>
       </c>
@@ -4111,7 +4117,7 @@
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="16"/>
+      <c r="A95" s="18"/>
       <c r="B95">
         <v>-1441</v>
       </c>
@@ -4138,6 +4144,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A5:A7"/>
     <mergeCell ref="A85:A87"/>
     <mergeCell ref="A88:A91"/>
     <mergeCell ref="A92:A95"/>
@@ -4154,18 +4172,6 @@
     <mergeCell ref="A56:A60"/>
     <mergeCell ref="A72:A74"/>
     <mergeCell ref="A75:A76"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="A5:A7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4174,10 +4180,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I60"/>
+  <dimension ref="A1:I93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49:A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4192,15 +4198,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
         <v>25</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="5">
-        <f>SUMIF(B4:B51,"&lt;0")</f>
-        <v>-2991.7099999999996</v>
+        <f>SUMIF(B4:B78,"&lt;0")</f>
+        <v>-3092.7099999999996</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>5</v>
@@ -4211,27 +4217,27 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21"/>
+      <c r="A2" s="20"/>
       <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C2">
         <f>3000+C1</f>
-        <v>8.2900000000004184</v>
+        <v>-92.709999999999582</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>18</v>
       </c>
       <c r="F2">
         <f ca="1">DATE(2019,3,1)-TODAY()</f>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I2">
         <f ca="1">C2/F2</f>
-        <v>0.46055555555557881</v>
+        <v>-6.1806666666666388</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -4246,11 +4252,11 @@
       </c>
       <c r="I3">
         <f ca="1">C2/(F2-1)</f>
-        <v>0.48764705882355402</v>
+        <v>-6.6221428571428271</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="23">
+      <c r="A4" s="16">
         <v>43433</v>
       </c>
       <c r="B4">
@@ -4290,7 +4296,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="24">
+      <c r="A8" s="17">
         <v>43448</v>
       </c>
       <c r="B8">
@@ -4298,6 +4304,13 @@
       </c>
       <c r="C8" t="s">
         <v>31</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8">
+        <f>C1</f>
+        <v>-3092.7099999999996</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -4308,18 +4321,18 @@
         <v>-161.9</v>
       </c>
       <c r="C9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H9">
-        <f>SUM(B4:B36)-1000</f>
-        <v>-2980.71</v>
+        <f>SUM(B4:B35)</f>
+        <v>-2980.7099999999996</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="25">
+      <c r="A10" s="26">
         <v>43498</v>
       </c>
       <c r="B10">
@@ -4330,16 +4343,23 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="25"/>
+      <c r="A11" s="26"/>
       <c r="B11">
         <v>-5.4</v>
       </c>
       <c r="C11" t="s">
         <v>94</v>
       </c>
+      <c r="G11" t="s">
+        <v>106</v>
+      </c>
+      <c r="H11">
+        <f>H8-H9</f>
+        <v>-112</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="25"/>
+      <c r="A12" s="26"/>
       <c r="B12">
         <v>-22.5</v>
       </c>
@@ -4348,7 +4368,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="25"/>
+      <c r="A13" s="26"/>
       <c r="B13">
         <v>-83.23</v>
       </c>
@@ -4357,7 +4377,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="25">
+      <c r="A14" s="26">
         <v>43499</v>
       </c>
       <c r="B14">
@@ -4368,7 +4388,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="25"/>
+      <c r="A15" s="26"/>
       <c r="B15">
         <v>-49.8</v>
       </c>
@@ -4377,12 +4397,12 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="23">
+      <c r="A16" s="16">
         <v>43500</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="25">
+      <c r="A17" s="26">
         <v>43501</v>
       </c>
       <c r="B17">
@@ -4393,116 +4413,116 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="25"/>
+      <c r="A18" s="26"/>
       <c r="B18">
-        <v>1000</v>
+        <v>-300</v>
       </c>
       <c r="C18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="25"/>
+      <c r="A19" s="26"/>
       <c r="B19">
-        <v>-300</v>
+        <v>-149</v>
       </c>
       <c r="C19" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="25"/>
+      <c r="A20" s="15">
+        <v>43502</v>
+      </c>
       <c r="B20">
-        <v>-149</v>
+        <v>-258.02999999999997</v>
       </c>
       <c r="C20" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="15">
-        <v>43502</v>
+      <c r="A21" s="22">
+        <v>43503</v>
       </c>
       <c r="B21">
-        <v>-258.02999999999997</v>
+        <v>-4</v>
       </c>
       <c r="C21" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="22">
-        <v>43503</v>
-      </c>
+      <c r="A22" s="22"/>
       <c r="B22">
-        <v>-4</v>
+        <v>-130.27000000000001</v>
       </c>
       <c r="C22" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="22"/>
+      <c r="A23" s="22">
+        <v>43504</v>
+      </c>
       <c r="B23">
-        <v>-130.27000000000001</v>
+        <v>-12</v>
       </c>
       <c r="C23" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="22">
-        <v>43504</v>
-      </c>
+      <c r="A24" s="22"/>
       <c r="B24">
-        <v>-12</v>
+        <v>-15</v>
       </c>
       <c r="C24" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="22"/>
+      <c r="A25" s="22">
+        <v>43505</v>
+      </c>
       <c r="B25">
-        <v>-15</v>
+        <v>-7</v>
       </c>
       <c r="C25" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="22">
-        <v>43505</v>
-      </c>
+      <c r="A26" s="22"/>
       <c r="B26">
-        <v>-7</v>
+        <v>-39</v>
       </c>
       <c r="C26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="22"/>
       <c r="B27">
-        <v>-39</v>
+        <v>-10</v>
       </c>
       <c r="C27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="22"/>
       <c r="B28">
-        <v>-10</v>
+        <v>-17.600000000000001</v>
       </c>
       <c r="C28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="22"/>
       <c r="B29">
-        <v>-17.600000000000001</v>
+        <v>-25</v>
       </c>
       <c r="C29" t="s">
         <v>96</v>
@@ -4511,186 +4531,351 @@
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="22"/>
       <c r="B30">
-        <v>-25</v>
+        <v>-83</v>
       </c>
       <c r="C30" t="s">
-        <v>96</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="22"/>
       <c r="B31">
-        <v>-83</v>
+        <v>-128</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="22"/>
       <c r="B32">
-        <v>-128</v>
+        <v>-28</v>
       </c>
       <c r="C32" t="s">
-        <v>7</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="22"/>
       <c r="B33">
-        <v>-28</v>
+        <v>-65</v>
       </c>
       <c r="C33" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="22"/>
       <c r="B34">
-        <v>-65</v>
+        <v>-127.9</v>
       </c>
       <c r="C34" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="22"/>
-      <c r="B35">
-        <v>-127.9</v>
-      </c>
-      <c r="C35" t="s">
-        <v>94</v>
+      <c r="A35" s="15">
+        <v>43506</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="15">
-        <v>43506</v>
+      <c r="A36" s="18">
+        <v>43507</v>
+      </c>
+      <c r="B36">
+        <v>-6</v>
+      </c>
+      <c r="C36" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
-        <v>43507</v>
-      </c>
+      <c r="A37" s="25"/>
       <c r="B37">
-        <v>-11</v>
+        <v>-12</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
+      <c r="A38" s="18">
         <v>43508</v>
       </c>
+      <c r="B38">
+        <v>-12</v>
+      </c>
+      <c r="C38" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
+      <c r="A39" s="18"/>
+      <c r="B39">
+        <v>-16</v>
+      </c>
+      <c r="C39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="18">
         <v>43509</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="1">
+      <c r="B40">
+        <v>-12</v>
+      </c>
+      <c r="C40" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="18"/>
+      <c r="B41">
+        <v>-12</v>
+      </c>
+      <c r="C41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="18"/>
+      <c r="B42">
+        <v>-4</v>
+      </c>
+      <c r="C42" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="18">
         <v>43510</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="1">
+      <c r="B43">
+        <v>-12</v>
+      </c>
+      <c r="C43" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="18"/>
+      <c r="B44">
+        <v>-14</v>
+      </c>
+      <c r="C44" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="18"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="18">
         <v>43511</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="1">
+      <c r="B46">
+        <v>-12</v>
+      </c>
+      <c r="C46" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="18"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="18"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="22">
         <v>43512</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" s="22"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" s="22"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" s="22">
         <v>43513</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" s="22"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" s="22"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" s="18">
         <v>43514</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" s="18"/>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" s="18"/>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" s="18">
         <v>43515</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" s="18"/>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" s="18"/>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" s="18">
         <v>43516</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="1">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" s="18"/>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" s="18"/>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" s="18">
         <v>43517</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" s="18"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" s="18"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" s="18">
         <v>43518</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" s="1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" s="18"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" s="18"/>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" s="22">
         <v>43519</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" s="1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" s="22"/>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" s="22"/>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" s="22">
         <v>43520</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" s="1">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" s="22"/>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" s="22"/>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" s="18">
         <v>43521</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" s="1">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" s="18"/>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" s="18"/>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" s="18">
         <v>43522</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" s="1">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" s="18"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" s="18"/>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" s="18">
         <v>43523</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" s="1">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" s="18"/>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" s="18"/>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" s="18">
         <v>43524</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55" s="1"/>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56" s="1"/>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57" s="1"/>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A58" s="1"/>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A59" s="1"/>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A60" s="1"/>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" s="18"/>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" s="18"/>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" s="1"/>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" s="1"/>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" s="1"/>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" s="1"/>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" s="1"/>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="26">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A26:A35"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A25:A34"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="A79:A81"/>
+    <mergeCell ref="A82:A84"/>
+    <mergeCell ref="A85:A87"/>
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="A67:A69"/>
+    <mergeCell ref="A70:A72"/>
+    <mergeCell ref="A73:A75"/>
+    <mergeCell ref="A76:A78"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/健忘症患者的账本.xlsx
+++ b/健忘症患者的账本.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="880" yWindow="460" windowWidth="27920" windowHeight="17540" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="880" yWindow="460" windowWidth="27920" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="12月" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="107">
   <si>
     <t>日期</t>
     <rPh sb="0" eb="1">
@@ -1369,7 +1369,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -1414,14 +1414,14 @@
       </c>
       <c r="F2">
         <f ca="1">DATE(2019,1,1)-TODAY()</f>
-        <v>-44</v>
+        <v>-45</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I2">
         <f ca="1">C2/F2</f>
-        <v>59.026363636363634</v>
+        <v>57.714666666666666</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="8" customFormat="1" ht="61" customHeight="1" x14ac:dyDescent="0.2">
@@ -1443,7 +1443,7 @@
       <c r="H3" s="24"/>
       <c r="I3" s="8">
         <f ca="1">C2/(F2-1)</f>
-        <v>57.714666666666666</v>
+        <v>56.459999999999994</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -2834,14 +2834,14 @@
       </c>
       <c r="F2">
         <f ca="1">DATE(2019,2,1)-TODAY()</f>
-        <v>-13</v>
+        <v>-14</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I2">
         <f ca="1">C2/F2</f>
-        <v>200.61615384615394</v>
+        <v>186.28642857142864</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="77" customHeight="1" x14ac:dyDescent="0.2">
@@ -2863,7 +2863,7 @@
       <c r="H3" s="8"/>
       <c r="I3" s="8">
         <f ca="1">C2/(F2-1)</f>
-        <v>186.28642857142864</v>
+        <v>173.86733333333342</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -4180,10 +4180,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I93"/>
+  <dimension ref="A1:I92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49:A51"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4205,8 +4205,8 @@
         <v>15</v>
       </c>
       <c r="C1" s="5">
-        <f>SUMIF(B4:B78,"&lt;0")</f>
-        <v>-3092.7099999999996</v>
+        <f>SUMIF(B4:B77,"&lt;0")</f>
+        <v>-3096.7099999999996</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>5</v>
@@ -4223,21 +4223,21 @@
       </c>
       <c r="C2">
         <f>3000+C1</f>
-        <v>-92.709999999999582</v>
+        <v>-96.709999999999582</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>18</v>
       </c>
       <c r="F2">
         <f ca="1">DATE(2019,3,1)-TODAY()</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I2">
         <f ca="1">C2/F2</f>
-        <v>-6.1806666666666388</v>
+        <v>-6.9078571428571127</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -4252,7 +4252,7 @@
       </c>
       <c r="I3">
         <f ca="1">C2/(F2-1)</f>
-        <v>-6.6221428571428271</v>
+        <v>-7.4392307692307371</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -4310,7 +4310,7 @@
       </c>
       <c r="H8">
         <f>C1</f>
-        <v>-3092.7099999999996</v>
+        <v>-3096.7099999999996</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -4355,7 +4355,7 @@
       </c>
       <c r="H11">
         <f>H8-H9</f>
-        <v>-112</v>
+        <v>-116</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -4668,167 +4668,173 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="18"/>
+      <c r="A45" s="18">
+        <v>43511</v>
+      </c>
+      <c r="B45">
+        <v>-12</v>
+      </c>
+      <c r="C45" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="18">
-        <v>43511</v>
-      </c>
+      <c r="A46" s="18"/>
       <c r="B46">
-        <v>-12</v>
+        <v>-4</v>
       </c>
       <c r="C46" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="18"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="18"/>
+      <c r="A48" s="22">
+        <v>43512</v>
+      </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" s="22">
-        <v>43512</v>
-      </c>
+      <c r="A49" s="22"/>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="22"/>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" s="22"/>
+      <c r="A51" s="22">
+        <v>43513</v>
+      </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" s="22">
-        <v>43513</v>
-      </c>
+      <c r="A52" s="22"/>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" s="22"/>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" s="22"/>
+      <c r="A54" s="18">
+        <v>43514</v>
+      </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55" s="18">
-        <v>43514</v>
-      </c>
+      <c r="A55" s="18"/>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" s="18"/>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57" s="18"/>
+      <c r="A57" s="18">
+        <v>43515</v>
+      </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A58" s="18">
-        <v>43515</v>
-      </c>
+      <c r="A58" s="18"/>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" s="18"/>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A60" s="18"/>
+      <c r="A60" s="18">
+        <v>43516</v>
+      </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A61" s="18">
-        <v>43516</v>
-      </c>
+      <c r="A61" s="18"/>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" s="18"/>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A63" s="18"/>
+      <c r="A63" s="18">
+        <v>43517</v>
+      </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A64" s="18">
-        <v>43517</v>
-      </c>
+      <c r="A64" s="18"/>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" s="18"/>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A66" s="18"/>
+      <c r="A66" s="18">
+        <v>43518</v>
+      </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A67" s="18">
-        <v>43518</v>
-      </c>
+      <c r="A67" s="18"/>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" s="18"/>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A69" s="18"/>
+      <c r="A69" s="22">
+        <v>43519</v>
+      </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A70" s="22">
-        <v>43519</v>
-      </c>
+      <c r="A70" s="22"/>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" s="22"/>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A72" s="22"/>
+      <c r="A72" s="22">
+        <v>43520</v>
+      </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A73" s="22">
-        <v>43520</v>
-      </c>
+      <c r="A73" s="22"/>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" s="22"/>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A75" s="22"/>
+      <c r="A75" s="18">
+        <v>43521</v>
+      </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A76" s="18">
-        <v>43521</v>
-      </c>
+      <c r="A76" s="18"/>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" s="18"/>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A78" s="18"/>
+      <c r="A78" s="18">
+        <v>43522</v>
+      </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A79" s="18">
-        <v>43522</v>
-      </c>
+      <c r="A79" s="18"/>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" s="18"/>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A81" s="18"/>
+      <c r="A81" s="18">
+        <v>43523</v>
+      </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A82" s="18">
-        <v>43523</v>
-      </c>
+      <c r="A82" s="18"/>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" s="18"/>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A84" s="18"/>
+      <c r="A84" s="18">
+        <v>43524</v>
+      </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A85" s="18">
-        <v>43524</v>
-      </c>
+      <c r="A85" s="18"/>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" s="18"/>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A87" s="18"/>
+      <c r="A87" s="1"/>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" s="1"/>
@@ -4844,9 +4850,6 @@
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A93" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="26">
@@ -4861,21 +4864,21 @@
     <mergeCell ref="A36:A37"/>
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="A40:A42"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="A55:A57"/>
-    <mergeCell ref="A58:A60"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="A79:A81"/>
-    <mergeCell ref="A82:A84"/>
-    <mergeCell ref="A85:A87"/>
-    <mergeCell ref="A64:A66"/>
-    <mergeCell ref="A67:A69"/>
-    <mergeCell ref="A70:A72"/>
-    <mergeCell ref="A73:A75"/>
-    <mergeCell ref="A76:A78"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="A78:A80"/>
+    <mergeCell ref="A81:A83"/>
+    <mergeCell ref="A84:A86"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="A66:A68"/>
+    <mergeCell ref="A69:A71"/>
+    <mergeCell ref="A72:A74"/>
+    <mergeCell ref="A75:A77"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/健忘症患者的账本.xlsx
+++ b/健忘症患者的账本.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="880" yWindow="460" windowWidth="27920" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="880" yWindow="460" windowWidth="27920" windowHeight="17540" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="12月" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="109">
   <si>
     <t>日期</t>
     <rPh sb="0" eb="1">
@@ -936,6 +936,20 @@
     </rPh>
     <rPh sb="4" eb="5">
       <t>he'ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>许小树</t>
+    <rPh sb="0" eb="1">
+      <t>xu'xiao'shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>键盘</t>
+    <rPh sb="0" eb="1">
+      <t>jian'pan</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1369,8 +1383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="A103" sqref="A103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1414,14 +1428,14 @@
       </c>
       <c r="F2">
         <f ca="1">DATE(2019,1,1)-TODAY()</f>
-        <v>-45</v>
+        <v>-48</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I2">
         <f ca="1">C2/F2</f>
-        <v>57.714666666666666</v>
+        <v>54.107499999999995</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="8" customFormat="1" ht="61" customHeight="1" x14ac:dyDescent="0.2">
@@ -1443,7 +1457,7 @@
       <c r="H3" s="24"/>
       <c r="I3" s="8">
         <f ca="1">C2/(F2-1)</f>
-        <v>56.459999999999994</v>
+        <v>53.003265306122444</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -2834,14 +2848,14 @@
       </c>
       <c r="F2">
         <f ca="1">DATE(2019,2,1)-TODAY()</f>
-        <v>-14</v>
+        <v>-17</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I2">
         <f ca="1">C2/F2</f>
-        <v>186.28642857142864</v>
+        <v>153.41235294117655</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="77" customHeight="1" x14ac:dyDescent="0.2">
@@ -2863,7 +2877,7 @@
       <c r="H3" s="8"/>
       <c r="I3" s="8">
         <f ca="1">C2/(F2-1)</f>
-        <v>173.86733333333342</v>
+        <v>144.88944444444451</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -4182,8 +4196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I92"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4206,7 +4220,7 @@
       </c>
       <c r="C1" s="5">
         <f>SUMIF(B4:B77,"&lt;0")</f>
-        <v>-3096.7099999999996</v>
+        <v>-3620.8099999999995</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>5</v>
@@ -4223,21 +4237,21 @@
       </c>
       <c r="C2">
         <f>3000+C1</f>
-        <v>-96.709999999999582</v>
+        <v>-620.80999999999949</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>18</v>
       </c>
       <c r="F2">
         <f ca="1">DATE(2019,3,1)-TODAY()</f>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I2">
         <f ca="1">C2/F2</f>
-        <v>-6.9078571428571127</v>
+        <v>-56.437272727272678</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -4252,7 +4266,7 @@
       </c>
       <c r="I3">
         <f ca="1">C2/(F2-1)</f>
-        <v>-7.4392307692307371</v>
+        <v>-62.080999999999946</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -4310,7 +4324,7 @@
       </c>
       <c r="H8">
         <f>C1</f>
-        <v>-3096.7099999999996</v>
+        <v>-3620.8099999999995</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -4355,7 +4369,7 @@
       </c>
       <c r="H11">
         <f>H8-H9</f>
-        <v>-116</v>
+        <v>-640.09999999999991</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -4401,7 +4415,7 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="26">
         <v>43501</v>
       </c>
@@ -4412,7 +4426,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="26"/>
       <c r="B18">
         <v>-300</v>
@@ -4421,7 +4435,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="26"/>
       <c r="B19">
         <v>-149</v>
@@ -4430,7 +4444,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="15">
         <v>43502</v>
       </c>
@@ -4441,7 +4455,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="22">
         <v>43503</v>
       </c>
@@ -4452,7 +4466,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="22"/>
       <c r="B22">
         <v>-130.27000000000001</v>
@@ -4461,7 +4475,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="22">
         <v>43504</v>
       </c>
@@ -4472,7 +4486,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="22"/>
       <c r="B24">
         <v>-15</v>
@@ -4481,7 +4495,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="22">
         <v>43505</v>
       </c>
@@ -4492,7 +4506,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="22"/>
       <c r="B26">
         <v>-39</v>
@@ -4501,7 +4515,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="22"/>
       <c r="B27">
         <v>-10</v>
@@ -4510,7 +4524,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="22"/>
       <c r="B28">
         <v>-17.600000000000001</v>
@@ -4518,8 +4532,11 @@
       <c r="C28" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="22"/>
       <c r="B29">
         <v>-25</v>
@@ -4527,8 +4544,11 @@
       <c r="C29" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="22"/>
       <c r="B30">
         <v>-83</v>
@@ -4537,7 +4557,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="22"/>
       <c r="B31">
         <v>-128</v>
@@ -4546,7 +4566,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="22"/>
       <c r="B32">
         <v>-28</v>
@@ -4555,7 +4575,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="22"/>
       <c r="B33">
         <v>-65</v>
@@ -4563,8 +4583,11 @@
       <c r="C33" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="22"/>
       <c r="B34">
         <v>-127.9</v>
@@ -4573,12 +4596,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="15">
         <v>43506</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="18">
         <v>43507</v>
       </c>
@@ -4588,8 +4611,11 @@
       <c r="C36" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="25"/>
       <c r="B37">
         <v>-12</v>
@@ -4597,8 +4623,11 @@
       <c r="C37" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="18">
         <v>43508</v>
       </c>
@@ -4608,8 +4637,11 @@
       <c r="C38" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="18"/>
       <c r="B39">
         <v>-16</v>
@@ -4617,8 +4649,11 @@
       <c r="C39" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="18">
         <v>43509</v>
       </c>
@@ -4628,8 +4663,11 @@
       <c r="C40" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="18"/>
       <c r="B41">
         <v>-12</v>
@@ -4637,8 +4675,11 @@
       <c r="C41" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="18"/>
       <c r="B42">
         <v>-4</v>
@@ -4646,8 +4687,11 @@
       <c r="C42" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="18">
         <v>43510</v>
       </c>
@@ -4657,100 +4701,193 @@
       <c r="C43" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="18"/>
       <c r="B44">
+        <v>-373</v>
+      </c>
+      <c r="C44" t="s">
+        <v>108</v>
+      </c>
+      <c r="D44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="18"/>
+      <c r="B45">
         <v>-14</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C45" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="18">
+      <c r="D45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="18">
         <v>43511</v>
       </c>
-      <c r="B45">
+      <c r="B46">
         <v>-12</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C46" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="18"/>
-      <c r="B46">
+      <c r="D46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="18"/>
+      <c r="B47">
         <v>-4</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C47" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="18"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="22">
+      <c r="D47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="18"/>
+      <c r="B48">
+        <v>-12</v>
+      </c>
+      <c r="C48" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="22">
         <v>43512</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" s="22"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B49">
+        <v>-50.1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>59</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="22"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B50">
+        <v>-33.5</v>
+      </c>
+      <c r="C50" t="s">
+        <v>107</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="22">
         <v>43513</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B51">
+        <v>-30</v>
+      </c>
+      <c r="C51" t="s">
+        <v>61</v>
+      </c>
+      <c r="D51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="22"/>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B52">
+        <v>-2.5</v>
+      </c>
+      <c r="C52" t="s">
+        <v>78</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="22"/>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B53">
+        <v>-2</v>
+      </c>
+      <c r="C53" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="18">
         <v>43514</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B54">
+        <v>-11</v>
+      </c>
+      <c r="C54" t="s">
+        <v>17</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="18"/>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B55">
+        <v>-10</v>
+      </c>
+      <c r="C55" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="18"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="18">
         <v>43515</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="18"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="18"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="18">
         <v>43516</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="18"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="18"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="18">
         <v>43517</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="18"/>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
@@ -4864,9 +5001,9 @@
     <mergeCell ref="A36:A37"/>
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="A40:A42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="A49:A50"/>
     <mergeCell ref="A51:A53"/>
     <mergeCell ref="A54:A56"/>
     <mergeCell ref="A57:A59"/>

--- a/健忘症患者的账本.xlsx
+++ b/健忘症患者的账本.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="112">
   <si>
     <t>日期</t>
     <rPh sb="0" eb="1">
@@ -947,9 +947,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>键盘</t>
+    <t>果汁</t>
+    <rPh sb="0" eb="1">
+      <t>guo'zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通</t>
+    <rPh sb="0" eb="1">
+      <t>jiao'togn</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>键盘-373已经退了</t>
     <rPh sb="0" eb="1">
       <t>jian'pan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>yi'jing</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>tui'le</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>键盘+妙控板</t>
+    <rPh sb="0" eb="1">
+      <t>jian'pan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>miao'kong'ban</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1428,14 +1458,14 @@
       </c>
       <c r="F2">
         <f ca="1">DATE(2019,1,1)-TODAY()</f>
-        <v>-48</v>
+        <v>-49</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I2">
         <f ca="1">C2/F2</f>
-        <v>54.107499999999995</v>
+        <v>53.003265306122444</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="8" customFormat="1" ht="61" customHeight="1" x14ac:dyDescent="0.2">
@@ -1457,7 +1487,7 @@
       <c r="H3" s="24"/>
       <c r="I3" s="8">
         <f ca="1">C2/(F2-1)</f>
-        <v>53.003265306122444</v>
+        <v>51.943199999999997</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -2848,14 +2878,14 @@
       </c>
       <c r="F2">
         <f ca="1">DATE(2019,2,1)-TODAY()</f>
-        <v>-17</v>
+        <v>-18</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I2">
         <f ca="1">C2/F2</f>
-        <v>153.41235294117655</v>
+        <v>144.88944444444451</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="77" customHeight="1" x14ac:dyDescent="0.2">
@@ -2877,7 +2907,7 @@
       <c r="H3" s="8"/>
       <c r="I3" s="8">
         <f ca="1">C2/(F2-1)</f>
-        <v>144.88944444444451</v>
+        <v>137.26368421052638</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -4194,10 +4224,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I92"/>
+  <dimension ref="A1:I95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4219,8 +4249,8 @@
         <v>15</v>
       </c>
       <c r="C1" s="5">
-        <f>SUMIF(B4:B77,"&lt;0")</f>
-        <v>-3620.8099999999995</v>
+        <f>SUMIF(B4:B80,"&lt;0")</f>
+        <v>-4579.3099999999995</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>5</v>
@@ -4237,21 +4267,21 @@
       </c>
       <c r="C2">
         <f>3000+C1</f>
-        <v>-620.80999999999949</v>
+        <v>-1579.3099999999995</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>18</v>
       </c>
       <c r="F2">
         <f ca="1">DATE(2019,3,1)-TODAY()</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I2">
         <f ca="1">C2/F2</f>
-        <v>-56.437272727272678</v>
+        <v>-157.93099999999995</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -4266,7 +4296,7 @@
       </c>
       <c r="I3">
         <f ca="1">C2/(F2-1)</f>
-        <v>-62.080999999999946</v>
+        <v>-175.47888888888883</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -4324,7 +4354,7 @@
       </c>
       <c r="H8">
         <f>C1</f>
-        <v>-3620.8099999999995</v>
+        <v>-4579.3099999999995</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -4369,7 +4399,7 @@
       </c>
       <c r="H11">
         <f>H8-H9</f>
-        <v>-640.09999999999991</v>
+        <v>-1598.6</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -4708,10 +4738,10 @@
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="18"/>
       <c r="B44">
-        <v>-373</v>
+        <v>0</v>
       </c>
       <c r="C44" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D44">
         <v>3</v>
@@ -4859,98 +4889,186 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="18"/>
+      <c r="B56">
+        <v>-10</v>
+      </c>
+      <c r="C56" t="s">
+        <v>91</v>
+      </c>
+      <c r="D56">
+        <v>3</v>
+      </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="18">
-        <v>43515</v>
+      <c r="A57" s="18"/>
+      <c r="B57">
+        <v>-2.5</v>
+      </c>
+      <c r="C57" t="s">
+        <v>57</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="18"/>
+      <c r="B58">
+        <v>-5</v>
+      </c>
+      <c r="C58" t="s">
+        <v>108</v>
+      </c>
+      <c r="D58">
+        <v>2</v>
+      </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="18"/>
+      <c r="A59" s="18">
+        <v>43515</v>
+      </c>
+      <c r="B59">
+        <v>-4</v>
+      </c>
+      <c r="C59" t="s">
+        <v>108</v>
+      </c>
+      <c r="D59">
+        <v>2</v>
+      </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="18">
-        <v>43516</v>
+      <c r="A60" s="18"/>
+      <c r="B60">
+        <v>-11</v>
+      </c>
+      <c r="C60" t="s">
+        <v>17</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="18"/>
+      <c r="B61">
+        <v>-1250</v>
+      </c>
+      <c r="C61" t="s">
+        <v>111</v>
+      </c>
+      <c r="D61">
+        <v>3</v>
+      </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="18"/>
+      <c r="B62">
+        <v>-16</v>
+      </c>
+      <c r="C62" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62">
+        <v>2</v>
+      </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="18">
-        <v>43517</v>
+        <v>43516</v>
+      </c>
+      <c r="B63">
+        <v>-11</v>
+      </c>
+      <c r="C63" t="s">
+        <v>109</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="18"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="18"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="18">
+        <v>43517</v>
+      </c>
+      <c r="B66">
+        <v>-11</v>
+      </c>
+      <c r="C66" t="s">
+        <v>109</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="18"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="18"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="18">
         <v>43518</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A67" s="18"/>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A68" s="18"/>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A69" s="22">
+      <c r="B69">
+        <v>-11</v>
+      </c>
+      <c r="C69" t="s">
+        <v>17</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="18"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="18"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="22">
         <v>43519</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A70" s="22"/>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A71" s="22"/>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A72" s="22">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="22"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="22"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="22">
         <v>43520</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A73" s="22"/>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A74" s="22"/>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A75" s="18">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="22"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="22"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="18">
         <v>43521</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A76" s="18"/>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A77" s="18"/>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A78" s="18">
-        <v>43522</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="18"/>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="18"/>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" s="18">
-        <v>43523</v>
+        <v>43522</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
@@ -4961,7 +5079,7 @@
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" s="18">
-        <v>43524</v>
+        <v>43523</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
@@ -4971,13 +5089,15 @@
       <c r="A86" s="18"/>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A87" s="1"/>
+      <c r="A87" s="18">
+        <v>43524</v>
+      </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A88" s="1"/>
+      <c r="A88" s="18"/>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A89" s="1"/>
+      <c r="A89" s="18"/>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" s="1"/>
@@ -4987,6 +5107,15 @@
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" s="1"/>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94" s="1"/>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="26">
@@ -5005,17 +5134,17 @@
     <mergeCell ref="A46:A48"/>
     <mergeCell ref="A49:A50"/>
     <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A54:A56"/>
-    <mergeCell ref="A57:A59"/>
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="A78:A80"/>
+    <mergeCell ref="A54:A58"/>
+    <mergeCell ref="A59:A62"/>
+    <mergeCell ref="A63:A65"/>
     <mergeCell ref="A81:A83"/>
     <mergeCell ref="A84:A86"/>
-    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="A87:A89"/>
     <mergeCell ref="A66:A68"/>
     <mergeCell ref="A69:A71"/>
     <mergeCell ref="A72:A74"/>
     <mergeCell ref="A75:A77"/>
+    <mergeCell ref="A78:A80"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/健忘症患者的账本.xlsx
+++ b/健忘症患者的账本.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="112">
   <si>
     <t>日期</t>
     <rPh sb="0" eb="1">
@@ -1110,29 +1110,29 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1431,7 +1431,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="22" t="s">
         <v>26</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -1445,7 +1445,7 @@
       <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20"/>
+      <c r="A2" s="23"/>
       <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
@@ -1478,13 +1478,13 @@
       <c r="C3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
       <c r="I3" s="8">
         <f ca="1">C2/(F2-1)</f>
         <v>51.943199999999997</v>
@@ -1955,7 +1955,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="22">
+      <c r="A36" s="24">
         <v>43444</v>
       </c>
       <c r="B36">
@@ -1969,7 +1969,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="22"/>
+      <c r="A37" s="24"/>
       <c r="B37">
         <v>-4</v>
       </c>
@@ -1981,7 +1981,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="22"/>
+      <c r="A38" s="24"/>
       <c r="B38">
         <v>-14.44</v>
       </c>
@@ -2795,20 +2795,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A85:A87"/>
-    <mergeCell ref="A71:A73"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="A95:A98"/>
-    <mergeCell ref="A74:A79"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="A28:A32"/>
     <mergeCell ref="A99:A101"/>
     <mergeCell ref="A68:A70"/>
     <mergeCell ref="A62:A64"/>
@@ -2825,6 +2811,20 @@
     <mergeCell ref="A59:A61"/>
     <mergeCell ref="A88:A90"/>
     <mergeCell ref="A57:A58"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="A85:A87"/>
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="A95:A98"/>
+    <mergeCell ref="A74:A79"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2851,7 +2851,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="22" t="s">
         <v>62</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -2865,7 +2865,7 @@
       <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="20"/>
+      <c r="A2" s="23"/>
       <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
@@ -3135,7 +3135,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="22">
+      <c r="A16" s="24">
         <v>43470</v>
       </c>
       <c r="B16">
@@ -3149,7 +3149,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="22"/>
+      <c r="A17" s="24"/>
       <c r="B17">
         <v>-6</v>
       </c>
@@ -3161,7 +3161,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="22"/>
+      <c r="A18" s="24"/>
       <c r="B18">
         <v>-30</v>
       </c>
@@ -3173,7 +3173,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="22"/>
+      <c r="A19" s="24"/>
       <c r="B19">
         <v>-18</v>
       </c>
@@ -3191,7 +3191,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="22"/>
+      <c r="A20" s="24"/>
       <c r="B20">
         <v>-3</v>
       </c>
@@ -3210,7 +3210,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="22"/>
+      <c r="A21" s="24"/>
       <c r="B21">
         <v>-10</v>
       </c>
@@ -3229,7 +3229,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="22">
+      <c r="A22" s="24">
         <v>43471</v>
       </c>
       <c r="B22">
@@ -3250,7 +3250,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="22"/>
+      <c r="A23" s="24"/>
       <c r="B23">
         <v>-3</v>
       </c>
@@ -3269,7 +3269,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="22"/>
+      <c r="A24" s="24"/>
       <c r="B24">
         <v>-13</v>
       </c>
@@ -3504,7 +3504,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="22">
+      <c r="A43" s="24">
         <v>43478</v>
       </c>
       <c r="B43">
@@ -3518,7 +3518,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="22"/>
+      <c r="A44" s="24"/>
       <c r="B44">
         <v>-30</v>
       </c>
@@ -3756,7 +3756,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="22">
+      <c r="A63" s="24">
         <v>43484</v>
       </c>
       <c r="B63">
@@ -3770,7 +3770,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="22"/>
+      <c r="A64" s="24"/>
       <c r="B64">
         <v>-62</v>
       </c>
@@ -3782,7 +3782,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="22">
+      <c r="A65" s="24">
         <v>43485</v>
       </c>
       <c r="B65">
@@ -3796,7 +3796,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="22"/>
+      <c r="A66" s="24"/>
       <c r="B66">
         <v>-30</v>
       </c>
@@ -3808,7 +3808,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="22"/>
+      <c r="A67" s="24"/>
       <c r="B67">
         <v>-98</v>
       </c>
@@ -4009,7 +4009,7 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="22">
+      <c r="A83" s="24">
         <v>43492</v>
       </c>
       <c r="B83">
@@ -4023,7 +4023,7 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="22"/>
+      <c r="A84" s="24"/>
       <c r="B84">
         <v>-13.8</v>
       </c>
@@ -4188,18 +4188,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="A5:A7"/>
     <mergeCell ref="A85:A87"/>
     <mergeCell ref="A88:A91"/>
     <mergeCell ref="A92:A95"/>
@@ -4216,6 +4204,18 @@
     <mergeCell ref="A56:A60"/>
     <mergeCell ref="A72:A74"/>
     <mergeCell ref="A75:A76"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A5:A7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4224,10 +4224,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I95"/>
+  <dimension ref="A1:I96"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68"/>
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4242,15 +4242,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="22" t="s">
         <v>25</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="5">
-        <f>SUMIF(B4:B80,"&lt;0")</f>
-        <v>-4579.3099999999995</v>
+        <f>SUMIF(B4:B81,"&lt;0")</f>
+        <v>-4591.3099999999995</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>5</v>
@@ -4261,13 +4261,13 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20"/>
+      <c r="A2" s="23"/>
       <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C2">
         <f>3000+C1</f>
-        <v>-1579.3099999999995</v>
+        <v>-1591.3099999999995</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>18</v>
@@ -4281,7 +4281,7 @@
       </c>
       <c r="I2">
         <f ca="1">C2/F2</f>
-        <v>-157.93099999999995</v>
+        <v>-159.13099999999994</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -4296,7 +4296,7 @@
       </c>
       <c r="I3">
         <f ca="1">C2/(F2-1)</f>
-        <v>-175.47888888888883</v>
+        <v>-176.81222222222218</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -4311,7 +4311,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="22">
+      <c r="A5" s="24">
         <v>43447</v>
       </c>
       <c r="B5">
@@ -4322,7 +4322,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="22"/>
+      <c r="A6" s="24"/>
       <c r="B6">
         <v>-350</v>
       </c>
@@ -4331,7 +4331,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="22"/>
+      <c r="A7" s="24"/>
       <c r="B7">
         <v>-129</v>
       </c>
@@ -4354,7 +4354,7 @@
       </c>
       <c r="H8">
         <f>C1</f>
-        <v>-4579.3099999999995</v>
+        <v>-4591.3099999999995</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -4376,7 +4376,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="26">
+      <c r="A10" s="25">
         <v>43498</v>
       </c>
       <c r="B10">
@@ -4387,7 +4387,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="26"/>
+      <c r="A11" s="25"/>
       <c r="B11">
         <v>-5.4</v>
       </c>
@@ -4399,11 +4399,11 @@
       </c>
       <c r="H11">
         <f>H8-H9</f>
-        <v>-1598.6</v>
+        <v>-1610.6</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="26"/>
+      <c r="A12" s="25"/>
       <c r="B12">
         <v>-22.5</v>
       </c>
@@ -4412,7 +4412,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="26"/>
+      <c r="A13" s="25"/>
       <c r="B13">
         <v>-83.23</v>
       </c>
@@ -4421,7 +4421,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="26">
+      <c r="A14" s="25">
         <v>43499</v>
       </c>
       <c r="B14">
@@ -4432,7 +4432,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="26"/>
+      <c r="A15" s="25"/>
       <c r="B15">
         <v>-49.8</v>
       </c>
@@ -4446,7 +4446,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="26">
+      <c r="A17" s="25">
         <v>43501</v>
       </c>
       <c r="B17">
@@ -4457,7 +4457,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="26"/>
+      <c r="A18" s="25"/>
       <c r="B18">
         <v>-300</v>
       </c>
@@ -4466,7 +4466,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="26"/>
+      <c r="A19" s="25"/>
       <c r="B19">
         <v>-149</v>
       </c>
@@ -4486,7 +4486,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="22">
+      <c r="A21" s="24">
         <v>43503</v>
       </c>
       <c r="B21">
@@ -4497,7 +4497,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="22"/>
+      <c r="A22" s="24"/>
       <c r="B22">
         <v>-130.27000000000001</v>
       </c>
@@ -4506,7 +4506,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="22">
+      <c r="A23" s="24">
         <v>43504</v>
       </c>
       <c r="B23">
@@ -4517,7 +4517,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="22"/>
+      <c r="A24" s="24"/>
       <c r="B24">
         <v>-15</v>
       </c>
@@ -4526,7 +4526,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="22">
+      <c r="A25" s="24">
         <v>43505</v>
       </c>
       <c r="B25">
@@ -4537,7 +4537,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="22"/>
+      <c r="A26" s="24"/>
       <c r="B26">
         <v>-39</v>
       </c>
@@ -4546,7 +4546,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="22"/>
+      <c r="A27" s="24"/>
       <c r="B27">
         <v>-10</v>
       </c>
@@ -4555,7 +4555,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="22"/>
+      <c r="A28" s="24"/>
       <c r="B28">
         <v>-17.600000000000001</v>
       </c>
@@ -4567,7 +4567,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="22"/>
+      <c r="A29" s="24"/>
       <c r="B29">
         <v>-25</v>
       </c>
@@ -4579,7 +4579,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="22"/>
+      <c r="A30" s="24"/>
       <c r="B30">
         <v>-83</v>
       </c>
@@ -4588,7 +4588,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="22"/>
+      <c r="A31" s="24"/>
       <c r="B31">
         <v>-128</v>
       </c>
@@ -4597,7 +4597,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="22"/>
+      <c r="A32" s="24"/>
       <c r="B32">
         <v>-28</v>
       </c>
@@ -4606,7 +4606,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="22"/>
+      <c r="A33" s="24"/>
       <c r="B33">
         <v>-65</v>
       </c>
@@ -4618,7 +4618,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="22"/>
+      <c r="A34" s="24"/>
       <c r="B34">
         <v>-127.9</v>
       </c>
@@ -4646,7 +4646,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="25"/>
+      <c r="A37" s="26"/>
       <c r="B37">
         <v>-12</v>
       </c>
@@ -4798,7 +4798,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="22">
+      <c r="A49" s="24">
         <v>43512</v>
       </c>
       <c r="B49">
@@ -4812,7 +4812,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="22"/>
+      <c r="A50" s="24"/>
       <c r="B50">
         <v>-33.5</v>
       </c>
@@ -4824,7 +4824,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="22">
+      <c r="A51" s="24">
         <v>43513</v>
       </c>
       <c r="B51">
@@ -4838,7 +4838,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="22"/>
+      <c r="A52" s="24"/>
       <c r="B52">
         <v>-2.5</v>
       </c>
@@ -4850,7 +4850,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="22"/>
+      <c r="A53" s="24"/>
       <c r="B53">
         <v>-2</v>
       </c>
@@ -4964,143 +4964,152 @@
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="18"/>
       <c r="B62">
+        <v>-12</v>
+      </c>
+      <c r="C62" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="18"/>
+      <c r="B63">
         <v>-16</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C63" t="s">
         <v>7</v>
       </c>
-      <c r="D62">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="18">
+      <c r="D63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="18">
         <v>43516</v>
       </c>
-      <c r="B63">
+      <c r="B64">
         <v>-11</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C64" t="s">
         <v>109</v>
       </c>
-      <c r="D63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="18"/>
+      <c r="D64">
+        <v>1</v>
+      </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="18"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="18">
+      <c r="A66" s="18"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="18">
         <v>43517</v>
       </c>
-      <c r="B66">
+      <c r="B67">
         <v>-11</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C67" t="s">
         <v>109</v>
       </c>
-      <c r="D66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="18"/>
+      <c r="D67">
+        <v>1</v>
+      </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="18"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="18">
+      <c r="A69" s="18"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="18">
         <v>43518</v>
       </c>
-      <c r="B69">
+      <c r="B70">
         <v>-11</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C70" t="s">
         <v>17</v>
       </c>
-      <c r="D69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="18"/>
+      <c r="D70">
+        <v>1</v>
+      </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="18"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="22">
+      <c r="A72" s="18"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="24">
         <v>43519</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="22"/>
-    </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="22"/>
+      <c r="A74" s="24"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="22">
+      <c r="A75" s="24"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="24">
         <v>43520</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="22"/>
-    </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="22"/>
+      <c r="A77" s="24"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="18">
+      <c r="A78" s="24"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="18">
         <v>43521</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="18"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="18"/>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A81" s="18">
+      <c r="A81" s="18"/>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" s="18">
         <v>43522</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A82" s="18"/>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" s="18"/>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A84" s="18">
+      <c r="A84" s="18"/>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" s="18">
         <v>43523</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A85" s="18"/>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" s="18"/>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A87" s="18">
+      <c r="A87" s="18"/>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" s="18">
         <v>43524</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A88" s="18"/>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" s="18"/>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A90" s="1"/>
+      <c r="A90" s="18"/>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" s="1"/>
@@ -5117,8 +5126,29 @@
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" s="1"/>
     </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A82:A84"/>
+    <mergeCell ref="A85:A87"/>
+    <mergeCell ref="A88:A90"/>
+    <mergeCell ref="A67:A69"/>
+    <mergeCell ref="A70:A72"/>
+    <mergeCell ref="A73:A75"/>
+    <mergeCell ref="A76:A78"/>
+    <mergeCell ref="A79:A81"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A54:A58"/>
+    <mergeCell ref="A59:A63"/>
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A46:A48"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="A14:A15"/>
@@ -5127,24 +5157,6 @@
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A54:A58"/>
-    <mergeCell ref="A59:A62"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="A81:A83"/>
-    <mergeCell ref="A84:A86"/>
-    <mergeCell ref="A87:A89"/>
-    <mergeCell ref="A66:A68"/>
-    <mergeCell ref="A69:A71"/>
-    <mergeCell ref="A72:A74"/>
-    <mergeCell ref="A75:A77"/>
-    <mergeCell ref="A78:A80"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/健忘症患者的账本.xlsx
+++ b/健忘症患者的账本.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="117">
   <si>
     <t>日期</t>
     <rPh sb="0" eb="1">
@@ -980,6 +980,44 @@
     </rPh>
     <rPh sb="3" eb="4">
       <t>miao'kong'ban</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按摩</t>
+    <rPh sb="0" eb="1">
+      <t>an'mo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早饭+橙汁</t>
+    <rPh sb="0" eb="1">
+      <t>zao'fan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>cheng'zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺丰</t>
+    <rPh sb="0" eb="1">
+      <t>shun'feng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/2/24（加班）</t>
+    <rPh sb="10" eb="11">
+      <t>jia'ban</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通</t>
+    <rPh sb="0" eb="1">
+      <t>iao'tong</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1458,14 +1496,14 @@
       </c>
       <c r="F2">
         <f ca="1">DATE(2019,1,1)-TODAY()</f>
-        <v>-49</v>
+        <v>-54</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I2">
         <f ca="1">C2/F2</f>
-        <v>53.003265306122444</v>
+        <v>48.095555555555556</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="8" customFormat="1" ht="61" customHeight="1" x14ac:dyDescent="0.2">
@@ -1487,7 +1525,7 @@
       <c r="H3" s="20"/>
       <c r="I3" s="8">
         <f ca="1">C2/(F2-1)</f>
-        <v>51.943199999999997</v>
+        <v>47.221090909090904</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -2878,14 +2916,14 @@
       </c>
       <c r="F2">
         <f ca="1">DATE(2019,2,1)-TODAY()</f>
-        <v>-18</v>
+        <v>-23</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I2">
         <f ca="1">C2/F2</f>
-        <v>144.88944444444451</v>
+        <v>113.39173913043483</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="77" customHeight="1" x14ac:dyDescent="0.2">
@@ -2907,7 +2945,7 @@
       <c r="H3" s="8"/>
       <c r="I3" s="8">
         <f ca="1">C2/(F2-1)</f>
-        <v>137.26368421052638</v>
+        <v>108.66708333333338</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -4224,10 +4262,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I96"/>
+  <dimension ref="A1:I100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E85" sqref="E85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4237,6 +4275,7 @@
     <col min="3" max="3" width="29.33203125" customWidth="1"/>
     <col min="5" max="5" width="13.6640625" customWidth="1"/>
     <col min="6" max="6" width="10.33203125" customWidth="1"/>
+    <col min="7" max="7" width="18.1640625" customWidth="1"/>
     <col min="8" max="8" width="15.1640625" customWidth="1"/>
     <col min="9" max="9" width="15" customWidth="1"/>
   </cols>
@@ -4249,8 +4288,8 @@
         <v>15</v>
       </c>
       <c r="C1" s="5">
-        <f>SUMIF(B4:B81,"&lt;0")</f>
-        <v>-4591.3099999999995</v>
+        <f>SUMIF(B4:B85,"&lt;0")</f>
+        <v>-4993.9799999999996</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>5</v>
@@ -4267,21 +4306,21 @@
       </c>
       <c r="C2">
         <f>3000+C1</f>
-        <v>-1591.3099999999995</v>
+        <v>-1993.9799999999996</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>18</v>
       </c>
       <c r="F2">
         <f ca="1">DATE(2019,3,1)-TODAY()</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I2">
         <f ca="1">C2/F2</f>
-        <v>-159.13099999999994</v>
+        <v>-398.79599999999994</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -4296,7 +4335,7 @@
       </c>
       <c r="I3">
         <f ca="1">C2/(F2-1)</f>
-        <v>-176.81222222222218</v>
+        <v>-498.49499999999989</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -4354,7 +4393,7 @@
       </c>
       <c r="H8">
         <f>C1</f>
-        <v>-4591.3099999999995</v>
+        <v>-4993.9799999999996</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -4399,7 +4438,7 @@
       </c>
       <c r="H11">
         <f>H8-H9</f>
-        <v>-1610.6</v>
+        <v>-2013.27</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -4712,161 +4751,159 @@
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="18"/>
       <c r="B42">
+        <v>-14</v>
+      </c>
+      <c r="C42" t="s">
+        <v>114</v>
+      </c>
+      <c r="D42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="18"/>
+      <c r="B43">
         <v>-4</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C43" t="s">
         <v>7</v>
       </c>
-      <c r="D42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="18">
+      <c r="D43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="18">
         <v>43510</v>
       </c>
-      <c r="B43">
+      <c r="B44">
         <v>-12</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C44" t="s">
         <v>17</v>
       </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="18"/>
-      <c r="B44">
-        <v>0</v>
-      </c>
-      <c r="C44" t="s">
-        <v>110</v>
-      </c>
       <c r="D44">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="18"/>
       <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45" t="s">
+        <v>110</v>
+      </c>
+      <c r="D45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="18"/>
+      <c r="B46">
         <v>-14</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C46" t="s">
         <v>7</v>
       </c>
-      <c r="D45">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="18">
+      <c r="D46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="18">
         <v>43511</v>
       </c>
-      <c r="B46">
+      <c r="B47">
         <v>-12</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C47" t="s">
         <v>53</v>
       </c>
-      <c r="D46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="18"/>
-      <c r="B47">
-        <v>-4</v>
-      </c>
-      <c r="C47" t="s">
-        <v>66</v>
-      </c>
       <c r="D47">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="18"/>
       <c r="B48">
+        <v>-4</v>
+      </c>
+      <c r="C48" t="s">
+        <v>66</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="18"/>
+      <c r="B49">
         <v>-12</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C49" t="s">
         <v>8</v>
       </c>
-      <c r="D48">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="24">
+      <c r="D49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="24">
         <v>43512</v>
       </c>
-      <c r="B49">
+      <c r="B50">
         <v>-50.1</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C50" t="s">
         <v>59</v>
       </c>
-      <c r="D49">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="24"/>
-      <c r="B50">
+      <c r="D50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="24"/>
+      <c r="B51">
         <v>-33.5</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C51" t="s">
         <v>107</v>
       </c>
-      <c r="D50">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="24">
+      <c r="D51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="24">
         <v>43513</v>
       </c>
-      <c r="B51">
+      <c r="B52">
         <v>-30</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C52" t="s">
         <v>61</v>
       </c>
-      <c r="D51">
+      <c r="D52">
         <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="24"/>
-      <c r="B52">
-        <v>-2.5</v>
-      </c>
-      <c r="C52" t="s">
-        <v>78</v>
-      </c>
-      <c r="D52">
-        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="24"/>
       <c r="B53">
+        <v>-2.5</v>
+      </c>
+      <c r="C53" t="s">
+        <v>78</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="24"/>
+      <c r="B54">
         <v>-2</v>
-      </c>
-      <c r="C53" t="s">
-        <v>17</v>
-      </c>
-      <c r="D53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="18">
-        <v>43514</v>
-      </c>
-      <c r="B54">
-        <v>-11</v>
       </c>
       <c r="C54" t="s">
         <v>17</v>
@@ -4876,15 +4913,17 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="18"/>
+      <c r="A55" s="18">
+        <v>43514</v>
+      </c>
       <c r="B55">
-        <v>-10</v>
+        <v>-11</v>
       </c>
       <c r="C55" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D55">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -4893,42 +4932,40 @@
         <v>-10</v>
       </c>
       <c r="C56" t="s">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="D56">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="18"/>
       <c r="B57">
-        <v>-2.5</v>
+        <v>-10</v>
       </c>
       <c r="C57" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="D57">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="18"/>
       <c r="B58">
+        <v>-2.5</v>
+      </c>
+      <c r="C58" t="s">
+        <v>57</v>
+      </c>
+      <c r="D58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="18"/>
+      <c r="B59">
         <v>-5</v>
-      </c>
-      <c r="C58" t="s">
-        <v>108</v>
-      </c>
-      <c r="D58">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="18">
-        <v>43515</v>
-      </c>
-      <c r="B59">
-        <v>-4</v>
       </c>
       <c r="C59" t="s">
         <v>108</v>
@@ -4938,76 +4975,94 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="18"/>
+      <c r="A60" s="18">
+        <v>43515</v>
+      </c>
       <c r="B60">
-        <v>-11</v>
+        <v>-4</v>
       </c>
       <c r="C60" t="s">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="D60">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="18"/>
       <c r="B61">
-        <v>-1250</v>
+        <v>-11</v>
       </c>
       <c r="C61" t="s">
-        <v>111</v>
+        <v>17</v>
       </c>
       <c r="D61">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="18"/>
       <c r="B62">
-        <v>-12</v>
+        <v>-1250</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>111</v>
       </c>
       <c r="D62">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="18"/>
       <c r="B63">
-        <v>-16</v>
+        <v>-12</v>
       </c>
       <c r="C63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D63">
         <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="18">
-        <v>43516</v>
-      </c>
+      <c r="A64" s="18"/>
       <c r="B64">
-        <v>-11</v>
+        <v>-203</v>
       </c>
       <c r="C64" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D64">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="18"/>
+      <c r="B65">
+        <v>-23</v>
+      </c>
+      <c r="C65" t="s">
+        <v>59</v>
+      </c>
+      <c r="D65">
+        <v>2</v>
+      </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="18"/>
+      <c r="B66">
+        <v>-16</v>
+      </c>
+      <c r="C66" t="s">
+        <v>7</v>
+      </c>
+      <c r="D66">
+        <v>2</v>
+      </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="18">
-        <v>43517</v>
+        <v>43516</v>
       </c>
       <c r="B67">
         <v>-11</v>
@@ -5021,19 +5076,37 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="18"/>
+      <c r="B68">
+        <v>-26</v>
+      </c>
+      <c r="C68" t="s">
+        <v>59</v>
+      </c>
+      <c r="D68">
+        <v>2</v>
+      </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="18"/>
+      <c r="B69">
+        <v>-2.5</v>
+      </c>
+      <c r="C69" t="s">
+        <v>77</v>
+      </c>
+      <c r="D69">
+        <v>2</v>
+      </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="18">
-        <v>43518</v>
+        <v>43517</v>
       </c>
       <c r="B70">
         <v>-11</v>
       </c>
       <c r="C70" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="D70">
         <v>1</v>
@@ -5041,114 +5114,264 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="18"/>
+      <c r="B71">
+        <v>-7</v>
+      </c>
+      <c r="C71" t="s">
+        <v>113</v>
+      </c>
+      <c r="D71">
+        <v>2</v>
+      </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="18"/>
+      <c r="B72">
+        <v>-20</v>
+      </c>
+      <c r="C72" t="s">
+        <v>7</v>
+      </c>
+      <c r="D72">
+        <v>2</v>
+      </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="24">
+      <c r="A73" s="18">
+        <v>43518</v>
+      </c>
+      <c r="B73">
+        <v>-11</v>
+      </c>
+      <c r="C73" t="s">
+        <v>17</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="18"/>
+      <c r="B74">
+        <v>-7.83</v>
+      </c>
+      <c r="C74" t="s">
+        <v>90</v>
+      </c>
+      <c r="D74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="18"/>
+      <c r="B75">
+        <v>-16</v>
+      </c>
+      <c r="C75" t="s">
+        <v>7</v>
+      </c>
+      <c r="D75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="18"/>
+      <c r="B76">
+        <v>-3.5</v>
+      </c>
+      <c r="C76" t="s">
+        <v>4</v>
+      </c>
+      <c r="D76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="24">
         <v>43519</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="24"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="24"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="24">
-        <v>43520</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="24"/>
+      <c r="B77">
+        <v>-2</v>
+      </c>
+      <c r="C77" t="s">
+        <v>17</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="24"/>
+      <c r="B78">
+        <f>-2.8-7.2-9.34-4</f>
+        <v>-23.34</v>
+      </c>
+      <c r="C78" t="s">
+        <v>59</v>
+      </c>
+      <c r="D78">
+        <v>2</v>
+      </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="18">
+      <c r="A79" s="24"/>
+      <c r="B79">
+        <v>-30</v>
+      </c>
+      <c r="C79" t="s">
+        <v>61</v>
+      </c>
+      <c r="D79">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="B80">
+        <v>-11</v>
+      </c>
+      <c r="C80" t="s">
+        <v>17</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="24"/>
+      <c r="B81">
+        <v>-2.5</v>
+      </c>
+      <c r="C81" t="s">
+        <v>4</v>
+      </c>
+      <c r="D81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="24"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="18">
         <v>43521</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="18"/>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A81" s="18"/>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A82" s="18">
+      <c r="B83">
+        <v>-11</v>
+      </c>
+      <c r="C83" t="s">
+        <v>116</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="18"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="18"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="18">
         <v>43522</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A83" s="18"/>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A84" s="18"/>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A85" s="18">
+      <c r="B86">
+        <v>-11</v>
+      </c>
+      <c r="C86" t="s">
+        <v>116</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="18"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="18"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="18">
         <v>43523</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A86" s="18"/>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A87" s="18"/>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A88" s="18">
+      <c r="B89">
+        <v>-11</v>
+      </c>
+      <c r="C89" t="s">
+        <v>116</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="18"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="18"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" s="18">
         <v>43524</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A89" s="18"/>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A90" s="18"/>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A91" s="1"/>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A92" s="1"/>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A93" s="1"/>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A94" s="1"/>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B92">
+        <v>-11</v>
+      </c>
+      <c r="C92" t="s">
+        <v>116</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="18"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="18"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="1"/>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="1"/>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" s="1"/>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" s="1"/>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" s="1"/>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A82:A84"/>
-    <mergeCell ref="A85:A87"/>
-    <mergeCell ref="A88:A90"/>
+    <mergeCell ref="A86:A88"/>
+    <mergeCell ref="A89:A91"/>
+    <mergeCell ref="A92:A94"/>
+    <mergeCell ref="A70:A72"/>
+    <mergeCell ref="A73:A76"/>
+    <mergeCell ref="A77:A79"/>
+    <mergeCell ref="A80:A82"/>
+    <mergeCell ref="A83:A85"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="A55:A59"/>
+    <mergeCell ref="A60:A66"/>
     <mergeCell ref="A67:A69"/>
-    <mergeCell ref="A70:A72"/>
-    <mergeCell ref="A73:A75"/>
-    <mergeCell ref="A76:A78"/>
-    <mergeCell ref="A79:A81"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A54:A58"/>
-    <mergeCell ref="A59:A63"/>
-    <mergeCell ref="A64:A66"/>
     <mergeCell ref="A36:A37"/>
     <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="A47:A49"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="A14:A15"/>

--- a/健忘症患者的账本.xlsx
+++ b/健忘症患者的账本.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="117">
   <si>
     <t>日期</t>
     <rPh sb="0" eb="1">
@@ -1148,29 +1148,29 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1469,7 +1469,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="19" t="s">
         <v>26</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -1483,7 +1483,7 @@
       <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23"/>
+      <c r="A2" s="20"/>
       <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
@@ -1516,13 +1516,13 @@
       <c r="C3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
       <c r="I3" s="8">
         <f ca="1">C2/(F2-1)</f>
         <v>47.221090909090904</v>
@@ -1993,7 +1993,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="24">
+      <c r="A36" s="22">
         <v>43444</v>
       </c>
       <c r="B36">
@@ -2007,7 +2007,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="24"/>
+      <c r="A37" s="22"/>
       <c r="B37">
         <v>-4</v>
       </c>
@@ -2019,7 +2019,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="24"/>
+      <c r="A38" s="22"/>
       <c r="B38">
         <v>-14.44</v>
       </c>
@@ -2833,6 +2833,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A85:A87"/>
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="A95:A98"/>
+    <mergeCell ref="A74:A79"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="A28:A32"/>
     <mergeCell ref="A99:A101"/>
     <mergeCell ref="A68:A70"/>
     <mergeCell ref="A62:A64"/>
@@ -2849,20 +2863,6 @@
     <mergeCell ref="A59:A61"/>
     <mergeCell ref="A88:A90"/>
     <mergeCell ref="A57:A58"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="A85:A87"/>
-    <mergeCell ref="A71:A73"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="A95:A98"/>
-    <mergeCell ref="A74:A79"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2889,7 +2889,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="19" t="s">
         <v>62</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -2903,7 +2903,7 @@
       <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="23"/>
+      <c r="A2" s="20"/>
       <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
@@ -3173,7 +3173,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="24">
+      <c r="A16" s="22">
         <v>43470</v>
       </c>
       <c r="B16">
@@ -3187,7 +3187,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="24"/>
+      <c r="A17" s="22"/>
       <c r="B17">
         <v>-6</v>
       </c>
@@ -3199,7 +3199,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="24"/>
+      <c r="A18" s="22"/>
       <c r="B18">
         <v>-30</v>
       </c>
@@ -3211,7 +3211,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="24"/>
+      <c r="A19" s="22"/>
       <c r="B19">
         <v>-18</v>
       </c>
@@ -3229,7 +3229,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="24"/>
+      <c r="A20" s="22"/>
       <c r="B20">
         <v>-3</v>
       </c>
@@ -3248,7 +3248,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="24"/>
+      <c r="A21" s="22"/>
       <c r="B21">
         <v>-10</v>
       </c>
@@ -3267,7 +3267,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="24">
+      <c r="A22" s="22">
         <v>43471</v>
       </c>
       <c r="B22">
@@ -3288,7 +3288,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="24"/>
+      <c r="A23" s="22"/>
       <c r="B23">
         <v>-3</v>
       </c>
@@ -3307,7 +3307,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="24"/>
+      <c r="A24" s="22"/>
       <c r="B24">
         <v>-13</v>
       </c>
@@ -3542,7 +3542,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="24">
+      <c r="A43" s="22">
         <v>43478</v>
       </c>
       <c r="B43">
@@ -3556,7 +3556,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="24"/>
+      <c r="A44" s="22"/>
       <c r="B44">
         <v>-30</v>
       </c>
@@ -3794,7 +3794,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="24">
+      <c r="A63" s="22">
         <v>43484</v>
       </c>
       <c r="B63">
@@ -3808,7 +3808,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="24"/>
+      <c r="A64" s="22"/>
       <c r="B64">
         <v>-62</v>
       </c>
@@ -3820,7 +3820,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="24">
+      <c r="A65" s="22">
         <v>43485</v>
       </c>
       <c r="B65">
@@ -3834,7 +3834,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="24"/>
+      <c r="A66" s="22"/>
       <c r="B66">
         <v>-30</v>
       </c>
@@ -3846,7 +3846,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="24"/>
+      <c r="A67" s="22"/>
       <c r="B67">
         <v>-98</v>
       </c>
@@ -4047,7 +4047,7 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="24">
+      <c r="A83" s="22">
         <v>43492</v>
       </c>
       <c r="B83">
@@ -4061,7 +4061,7 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="24"/>
+      <c r="A84" s="22"/>
       <c r="B84">
         <v>-13.8</v>
       </c>
@@ -4226,6 +4226,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A5:A7"/>
     <mergeCell ref="A85:A87"/>
     <mergeCell ref="A88:A91"/>
     <mergeCell ref="A92:A95"/>
@@ -4242,18 +4254,6 @@
     <mergeCell ref="A56:A60"/>
     <mergeCell ref="A72:A74"/>
     <mergeCell ref="A75:A76"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="A5:A7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4262,10 +4262,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I100"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E85" sqref="E85"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4281,15 +4281,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="19" t="s">
         <v>25</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="5">
-        <f>SUMIF(B4:B85,"&lt;0")</f>
-        <v>-4993.9799999999996</v>
+        <f>SUMIF(B4:B86,"&lt;0")</f>
+        <v>-5025.9799999999996</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>5</v>
@@ -4300,13 +4300,13 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23"/>
+      <c r="A2" s="20"/>
       <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C2">
         <f>3000+C1</f>
-        <v>-1993.9799999999996</v>
+        <v>-2025.9799999999996</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>18</v>
@@ -4320,7 +4320,7 @@
       </c>
       <c r="I2">
         <f ca="1">C2/F2</f>
-        <v>-398.79599999999994</v>
+        <v>-405.19599999999991</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -4335,7 +4335,7 @@
       </c>
       <c r="I3">
         <f ca="1">C2/(F2-1)</f>
-        <v>-498.49499999999989</v>
+        <v>-506.49499999999989</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -4350,7 +4350,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="24">
+      <c r="A5" s="22">
         <v>43447</v>
       </c>
       <c r="B5">
@@ -4361,7 +4361,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="24"/>
+      <c r="A6" s="22"/>
       <c r="B6">
         <v>-350</v>
       </c>
@@ -4370,7 +4370,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="24"/>
+      <c r="A7" s="22"/>
       <c r="B7">
         <v>-129</v>
       </c>
@@ -4393,7 +4393,7 @@
       </c>
       <c r="H8">
         <f>C1</f>
-        <v>-4993.9799999999996</v>
+        <v>-5025.9799999999996</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -4415,7 +4415,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="25">
+      <c r="A10" s="26">
         <v>43498</v>
       </c>
       <c r="B10">
@@ -4426,7 +4426,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="25"/>
+      <c r="A11" s="26"/>
       <c r="B11">
         <v>-5.4</v>
       </c>
@@ -4438,11 +4438,11 @@
       </c>
       <c r="H11">
         <f>H8-H9</f>
-        <v>-2013.27</v>
+        <v>-2045.27</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="25"/>
+      <c r="A12" s="26"/>
       <c r="B12">
         <v>-22.5</v>
       </c>
@@ -4451,7 +4451,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="25"/>
+      <c r="A13" s="26"/>
       <c r="B13">
         <v>-83.23</v>
       </c>
@@ -4460,7 +4460,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="25">
+      <c r="A14" s="26">
         <v>43499</v>
       </c>
       <c r="B14">
@@ -4471,7 +4471,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="25"/>
+      <c r="A15" s="26"/>
       <c r="B15">
         <v>-49.8</v>
       </c>
@@ -4485,7 +4485,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="25">
+      <c r="A17" s="26">
         <v>43501</v>
       </c>
       <c r="B17">
@@ -4496,7 +4496,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="25"/>
+      <c r="A18" s="26"/>
       <c r="B18">
         <v>-300</v>
       </c>
@@ -4505,7 +4505,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="25"/>
+      <c r="A19" s="26"/>
       <c r="B19">
         <v>-149</v>
       </c>
@@ -4525,7 +4525,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="24">
+      <c r="A21" s="22">
         <v>43503</v>
       </c>
       <c r="B21">
@@ -4536,7 +4536,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="24"/>
+      <c r="A22" s="22"/>
       <c r="B22">
         <v>-130.27000000000001</v>
       </c>
@@ -4545,7 +4545,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="24">
+      <c r="A23" s="22">
         <v>43504</v>
       </c>
       <c r="B23">
@@ -4556,7 +4556,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="24"/>
+      <c r="A24" s="22"/>
       <c r="B24">
         <v>-15</v>
       </c>
@@ -4565,7 +4565,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="24">
+      <c r="A25" s="22">
         <v>43505</v>
       </c>
       <c r="B25">
@@ -4576,7 +4576,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="24"/>
+      <c r="A26" s="22"/>
       <c r="B26">
         <v>-39</v>
       </c>
@@ -4585,7 +4585,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="24"/>
+      <c r="A27" s="22"/>
       <c r="B27">
         <v>-10</v>
       </c>
@@ -4594,7 +4594,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="24"/>
+      <c r="A28" s="22"/>
       <c r="B28">
         <v>-17.600000000000001</v>
       </c>
@@ -4606,7 +4606,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="24"/>
+      <c r="A29" s="22"/>
       <c r="B29">
         <v>-25</v>
       </c>
@@ -4618,7 +4618,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="24"/>
+      <c r="A30" s="22"/>
       <c r="B30">
         <v>-83</v>
       </c>
@@ -4627,7 +4627,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="24"/>
+      <c r="A31" s="22"/>
       <c r="B31">
         <v>-128</v>
       </c>
@@ -4636,7 +4636,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="24"/>
+      <c r="A32" s="22"/>
       <c r="B32">
         <v>-28</v>
       </c>
@@ -4645,7 +4645,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="24"/>
+      <c r="A33" s="22"/>
       <c r="B33">
         <v>-65</v>
       </c>
@@ -4657,7 +4657,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="24"/>
+      <c r="A34" s="22"/>
       <c r="B34">
         <v>-127.9</v>
       </c>
@@ -4685,7 +4685,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="26"/>
+      <c r="A37" s="25"/>
       <c r="B37">
         <v>-12</v>
       </c>
@@ -4849,7 +4849,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="24">
+      <c r="A50" s="22">
         <v>43512</v>
       </c>
       <c r="B50">
@@ -4863,7 +4863,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="24"/>
+      <c r="A51" s="22"/>
       <c r="B51">
         <v>-33.5</v>
       </c>
@@ -4875,7 +4875,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="24">
+      <c r="A52" s="22">
         <v>43513</v>
       </c>
       <c r="B52">
@@ -4889,7 +4889,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="24"/>
+      <c r="A53" s="22"/>
       <c r="B53">
         <v>-2.5</v>
       </c>
@@ -4901,7 +4901,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="24"/>
+      <c r="A54" s="22"/>
       <c r="B54">
         <v>-2</v>
       </c>
@@ -5187,7 +5187,7 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="24">
+      <c r="A77" s="22">
         <v>43519</v>
       </c>
       <c r="B77">
@@ -5201,7 +5201,7 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="24"/>
+      <c r="A78" s="22"/>
       <c r="B78">
         <f>-2.8-7.2-9.34-4</f>
         <v>-23.34</v>
@@ -5214,7 +5214,7 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="24"/>
+      <c r="A79" s="22"/>
       <c r="B79">
         <v>-30</v>
       </c>
@@ -5226,7 +5226,7 @@
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="24" t="s">
+      <c r="A80" s="22" t="s">
         <v>115</v>
       </c>
       <c r="B80">
@@ -5240,102 +5240,120 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="24"/>
+      <c r="A81" s="22"/>
       <c r="B81">
+        <v>-16</v>
+      </c>
+      <c r="C81" t="s">
+        <v>59</v>
+      </c>
+      <c r="D81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="22"/>
+      <c r="B82">
         <v>-2.5</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C82" t="s">
         <v>4</v>
       </c>
-      <c r="D81">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="24"/>
+      <c r="D82">
+        <v>2</v>
+      </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="18">
+      <c r="A83" s="22"/>
+      <c r="B83">
+        <v>-16</v>
+      </c>
+      <c r="C83" t="s">
+        <v>7</v>
+      </c>
+      <c r="D83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="18">
         <v>43521</v>
       </c>
-      <c r="B83">
+      <c r="B84">
         <v>-11</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C84" t="s">
         <v>116</v>
       </c>
-      <c r="D83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="18"/>
+      <c r="D84">
+        <v>1</v>
+      </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="18"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="18">
+      <c r="A86" s="18"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="18">
         <v>43522</v>
       </c>
-      <c r="B86">
+      <c r="B87">
         <v>-11</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C87" t="s">
         <v>116</v>
       </c>
-      <c r="D86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="18"/>
+      <c r="D87">
+        <v>1</v>
+      </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="18"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" s="18">
+      <c r="A89" s="18"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="18">
         <v>43523</v>
       </c>
-      <c r="B89">
+      <c r="B90">
         <v>-11</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C90" t="s">
         <v>116</v>
       </c>
-      <c r="D89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" s="18"/>
+      <c r="D90">
+        <v>1</v>
+      </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="18"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" s="18">
+      <c r="A92" s="18"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="18">
         <v>43524</v>
       </c>
-      <c r="B92">
+      <c r="B93">
         <v>-11</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C93" t="s">
         <v>116</v>
       </c>
-      <c r="D92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="18"/>
+      <c r="D93">
+        <v>1</v>
+      </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="18"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="1"/>
+      <c r="A95" s="18"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="1"/>
@@ -5352,26 +5370,11 @@
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" s="1"/>
     </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A86:A88"/>
-    <mergeCell ref="A89:A91"/>
-    <mergeCell ref="A92:A94"/>
-    <mergeCell ref="A70:A72"/>
-    <mergeCell ref="A73:A76"/>
-    <mergeCell ref="A77:A79"/>
-    <mergeCell ref="A80:A82"/>
-    <mergeCell ref="A83:A85"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="A55:A59"/>
-    <mergeCell ref="A60:A66"/>
-    <mergeCell ref="A67:A69"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="A47:A49"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="A14:A15"/>
@@ -5380,6 +5383,24 @@
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="A55:A59"/>
+    <mergeCell ref="A60:A66"/>
+    <mergeCell ref="A67:A69"/>
+    <mergeCell ref="A87:A89"/>
+    <mergeCell ref="A90:A92"/>
+    <mergeCell ref="A93:A95"/>
+    <mergeCell ref="A70:A72"/>
+    <mergeCell ref="A73:A76"/>
+    <mergeCell ref="A77:A79"/>
+    <mergeCell ref="A80:A83"/>
+    <mergeCell ref="A84:A86"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/健忘症患者的账本.xlsx
+++ b/健忘症患者的账本.xlsx
@@ -9,12 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="880" yWindow="460" windowWidth="27920" windowHeight="17540" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="880" yWindow="460" windowWidth="27920" windowHeight="17540" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="12月" sheetId="1" r:id="rId1"/>
     <sheet name="1月" sheetId="2" r:id="rId2"/>
     <sheet name="2月&amp;过年" sheetId="3" r:id="rId3"/>
+    <sheet name="3月" sheetId="7" r:id="rId4"/>
+    <sheet name="泰国行" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="142">
   <si>
     <t>日期</t>
     <rPh sb="0" eb="1">
@@ -1018,6 +1020,208 @@
     <t>交通</t>
     <rPh sb="0" eb="1">
       <t>iao'tong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苹果</t>
+    <rPh sb="0" eb="1">
+      <t>ping'guo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>证件照</t>
+    <rPh sb="0" eb="1">
+      <t>zheng'jian'zhao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>便携称</t>
+    <rPh sb="0" eb="1">
+      <t>bian'xie</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>cheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/3月</t>
+    <rPh sb="6" eb="7">
+      <t>yue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通</t>
+    <rPh sb="0" eb="1">
+      <t>jiao't'go'n</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行程</t>
+    <rPh sb="0" eb="1">
+      <t>xing'cheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当天合计</t>
+    <rPh sb="0" eb="1">
+      <t>dang'tian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>he'ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规划</t>
+    <rPh sb="0" eb="1">
+      <t>gui'hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18:00--19:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19:56--20:26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京南站(C2089)-&gt;天津站</t>
+    <rPh sb="0" eb="1">
+      <t>bie'jing</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>nan'zhan</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>tian'jin'zhan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20:26--21:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21:30--23:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>值机、托运。。。</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'ji</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>tuo'yun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天津站(2号线)&gt;天津滨海机场(T1TSN)</t>
+    <rPh sb="0" eb="1">
+      <t>tian'jin'zhan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>hao'xian</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>tian'jin</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>bin'hai'ji'chang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泰国狮航 SL963 (廉航)
+经济舱空客330(大)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支出项目</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'chu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xiang'mu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支出金额</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'chu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jin'e</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曼谷廊曼机场T1DMK</t>
+  </si>
+  <si>
+    <t>当地时间</t>
+    <rPh sb="0" eb="1">
+      <t>dang'di</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi'jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科建大厦-&gt;北京南站(13号线-4号线)</t>
+    <rPh sb="0" eb="1">
+      <t>ke'jian'da'hsa</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>bei'jing</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>nan'zhan</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>hao'xian</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>hao'xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚饭</t>
+    <rPh sb="0" eb="1">
+      <t>waf'nan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>照片</t>
+    <rPh sb="0" eb="1">
+      <t>zhao'p</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发油</t>
+    <rPh sb="0" eb="1">
+      <t>fa'you</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机壳</t>
+    <rPh sb="0" eb="1">
+      <t>shou'ji'ke</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1026,10 +1230,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1075,6 +1280,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1102,7 +1315,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1148,6 +1361,56 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1171,6 +1434,21 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1451,7 +1729,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M102"/>
   <sheetViews>
-    <sheetView topLeftCell="A80" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A103" sqref="A103"/>
     </sheetView>
   </sheetViews>
@@ -1469,7 +1747,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="37" t="s">
         <v>26</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -1483,7 +1761,7 @@
       <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20"/>
+      <c r="A2" s="38"/>
       <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
@@ -1496,14 +1774,14 @@
       </c>
       <c r="F2">
         <f ca="1">DATE(2019,1,1)-TODAY()</f>
-        <v>-54</v>
+        <v>-62</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I2">
         <f ca="1">C2/F2</f>
-        <v>48.095555555555556</v>
+        <v>41.88967741935484</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="8" customFormat="1" ht="61" customHeight="1" x14ac:dyDescent="0.2">
@@ -1516,20 +1794,20 @@
       <c r="C3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
       <c r="I3" s="8">
         <f ca="1">C2/(F2-1)</f>
-        <v>47.221090909090904</v>
+        <v>41.224761904761905</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="18">
+      <c r="A4" s="36">
         <v>43435</v>
       </c>
       <c r="B4">
@@ -1543,7 +1821,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="18"/>
+      <c r="A5" s="36"/>
       <c r="B5">
         <v>-20</v>
       </c>
@@ -1569,7 +1847,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="18">
+      <c r="A7" s="36">
         <v>43437</v>
       </c>
       <c r="B7">
@@ -1583,7 +1861,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="18"/>
+      <c r="A8" s="36"/>
       <c r="B8">
         <v>-89</v>
       </c>
@@ -1604,7 +1882,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="18"/>
+      <c r="A9" s="36"/>
       <c r="B9">
         <v>-6</v>
       </c>
@@ -1626,7 +1904,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="18"/>
+      <c r="A10" s="36"/>
       <c r="B10">
         <v>-4</v>
       </c>
@@ -1655,7 +1933,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="21">
+      <c r="A11" s="39">
         <v>43438</v>
       </c>
       <c r="B11">
@@ -1679,7 +1957,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="21"/>
+      <c r="A12" s="39"/>
       <c r="B12">
         <v>18</v>
       </c>
@@ -1698,7 +1976,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="21"/>
+      <c r="A13" s="39"/>
       <c r="B13">
         <v>-7</v>
       </c>
@@ -1720,7 +1998,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="21"/>
+      <c r="A14" s="39"/>
       <c r="B14">
         <v>-8</v>
       </c>
@@ -1732,7 +2010,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="21"/>
+      <c r="A15" s="39"/>
       <c r="B15">
         <v>-6</v>
       </c>
@@ -1744,7 +2022,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="21"/>
+      <c r="A16" s="39"/>
       <c r="B16">
         <v>-34.799999999999997</v>
       </c>
@@ -1756,7 +2034,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="18">
+      <c r="A17" s="36">
         <v>43439</v>
       </c>
       <c r="B17">
@@ -1771,7 +2049,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="18"/>
+      <c r="A18" s="36"/>
       <c r="B18">
         <v>-1468</v>
       </c>
@@ -1783,7 +2061,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="18"/>
+      <c r="A19" s="36"/>
       <c r="B19" s="2">
         <v>-6</v>
       </c>
@@ -1795,7 +2073,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="18"/>
+      <c r="A20" s="36"/>
       <c r="B20">
         <v>7</v>
       </c>
@@ -1804,7 +2082,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="18"/>
+      <c r="A21" s="36"/>
       <c r="B21">
         <v>-4</v>
       </c>
@@ -1816,7 +2094,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="18"/>
+      <c r="A22" s="36"/>
       <c r="B22">
         <v>-29.9</v>
       </c>
@@ -1828,7 +2106,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="21">
+      <c r="A23" s="39">
         <v>43440</v>
       </c>
       <c r="B23">
@@ -1842,7 +2120,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="21"/>
+      <c r="A24" s="39"/>
       <c r="B24">
         <v>-5</v>
       </c>
@@ -1854,7 +2132,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="21"/>
+      <c r="A25" s="39"/>
       <c r="B25">
         <v>-9</v>
       </c>
@@ -1866,7 +2144,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="21"/>
+      <c r="A26" s="39"/>
       <c r="B26">
         <v>-249</v>
       </c>
@@ -1878,7 +2156,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="21"/>
+      <c r="A27" s="39"/>
       <c r="B27">
         <v>-13.88</v>
       </c>
@@ -1890,7 +2168,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="21">
+      <c r="A28" s="39">
         <v>43441</v>
       </c>
       <c r="B28">
@@ -1904,7 +2182,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="21"/>
+      <c r="A29" s="39"/>
       <c r="B29">
         <v>-6</v>
       </c>
@@ -1916,7 +2194,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="21"/>
+      <c r="A30" s="39"/>
       <c r="B30">
         <v>-4</v>
       </c>
@@ -1928,7 +2206,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="21"/>
+      <c r="A31" s="39"/>
       <c r="B31">
         <v>-18</v>
       </c>
@@ -1940,7 +2218,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="21"/>
+      <c r="A32" s="39"/>
       <c r="B32">
         <f>-89-129-119-89</f>
         <v>-426</v>
@@ -1953,7 +2231,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="18">
+      <c r="A33" s="36">
         <v>43442</v>
       </c>
       <c r="B33">
@@ -1967,7 +2245,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="18">
+      <c r="A34" s="36">
         <v>43443</v>
       </c>
       <c r="B34">
@@ -1981,7 +2259,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="18"/>
+      <c r="A35" s="36"/>
       <c r="B35">
         <v>-2</v>
       </c>
@@ -1993,7 +2271,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="22">
+      <c r="A36" s="40">
         <v>43444</v>
       </c>
       <c r="B36">
@@ -2007,7 +2285,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="22"/>
+      <c r="A37" s="40"/>
       <c r="B37">
         <v>-4</v>
       </c>
@@ -2019,7 +2297,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="22"/>
+      <c r="A38" s="40"/>
       <c r="B38">
         <v>-14.44</v>
       </c>
@@ -2031,7 +2309,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="18">
+      <c r="A39" s="36">
         <v>43445</v>
       </c>
       <c r="B39">
@@ -2045,7 +2323,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="18"/>
+      <c r="A40" s="36"/>
       <c r="B40">
         <v>-4</v>
       </c>
@@ -2057,7 +2335,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="18"/>
+      <c r="A41" s="36"/>
       <c r="B41">
         <v>-5</v>
       </c>
@@ -2069,7 +2347,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="18"/>
+      <c r="A42" s="36"/>
       <c r="B42">
         <v>-16</v>
       </c>
@@ -2081,7 +2359,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="18">
+      <c r="A43" s="36">
         <v>43446</v>
       </c>
       <c r="B43">
@@ -2095,7 +2373,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="18"/>
+      <c r="A44" s="36"/>
       <c r="B44">
         <v>-8</v>
       </c>
@@ -2107,7 +2385,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="18"/>
+      <c r="A45" s="36"/>
       <c r="B45">
         <v>-5</v>
       </c>
@@ -2119,7 +2397,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="18"/>
+      <c r="A46" s="36"/>
       <c r="B46">
         <v>-13</v>
       </c>
@@ -2131,7 +2409,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="18">
+      <c r="A47" s="36">
         <v>43447</v>
       </c>
       <c r="B47">
@@ -2145,7 +2423,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="18"/>
+      <c r="A48" s="36"/>
       <c r="B48">
         <v>-6</v>
       </c>
@@ -2157,7 +2435,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="18"/>
+      <c r="A49" s="36"/>
       <c r="B49">
         <v>-16</v>
       </c>
@@ -2169,7 +2447,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="18"/>
+      <c r="A50" s="36"/>
       <c r="B50">
         <v>-13</v>
       </c>
@@ -2181,7 +2459,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="18"/>
+      <c r="A51" s="36"/>
       <c r="B51">
         <v>-99</v>
       </c>
@@ -2193,7 +2471,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="18">
+      <c r="A52" s="36">
         <v>43448</v>
       </c>
       <c r="B52">
@@ -2207,7 +2485,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="18"/>
+      <c r="A53" s="36"/>
       <c r="B53">
         <v>-14</v>
       </c>
@@ -2219,7 +2497,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="18"/>
+      <c r="A54" s="36"/>
       <c r="B54">
         <v>-13</v>
       </c>
@@ -2231,7 +2509,7 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="18">
+      <c r="A55" s="36">
         <v>43449</v>
       </c>
       <c r="B55">
@@ -2245,7 +2523,7 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="18"/>
+      <c r="A56" s="36"/>
       <c r="B56">
         <v>-20</v>
       </c>
@@ -2257,7 +2535,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="18">
+      <c r="A57" s="36">
         <v>43450</v>
       </c>
       <c r="B57">
@@ -2271,7 +2549,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="18"/>
+      <c r="A58" s="36"/>
       <c r="B58">
         <v>-30</v>
       </c>
@@ -2283,7 +2561,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="18">
+      <c r="A59" s="36">
         <v>43451</v>
       </c>
       <c r="B59">
@@ -2297,7 +2575,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="18"/>
+      <c r="A60" s="36"/>
       <c r="B60">
         <v>-4.5</v>
       </c>
@@ -2309,7 +2587,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="18"/>
+      <c r="A61" s="36"/>
       <c r="B61">
         <v>-12</v>
       </c>
@@ -2321,7 +2599,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="18">
+      <c r="A62" s="36">
         <v>43452</v>
       </c>
       <c r="B62">
@@ -2335,7 +2613,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="18"/>
+      <c r="A63" s="36"/>
       <c r="B63">
         <v>-16</v>
       </c>
@@ -2347,7 +2625,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="18"/>
+      <c r="A64" s="36"/>
       <c r="B64">
         <v>-670</v>
       </c>
@@ -2359,7 +2637,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="18">
+      <c r="A65" s="36">
         <v>43453</v>
       </c>
       <c r="B65">
@@ -2373,7 +2651,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="18"/>
+      <c r="A66" s="36"/>
       <c r="B66">
         <v>-16</v>
       </c>
@@ -2385,7 +2663,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="18"/>
+      <c r="A67" s="36"/>
       <c r="B67">
         <v>-12</v>
       </c>
@@ -2397,7 +2675,7 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="18">
+      <c r="A68" s="36">
         <v>43454</v>
       </c>
       <c r="B68">
@@ -2411,7 +2689,7 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="18"/>
+      <c r="A69" s="36"/>
       <c r="B69">
         <v>-18</v>
       </c>
@@ -2423,7 +2701,7 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="18"/>
+      <c r="A70" s="36"/>
       <c r="B70">
         <v>-982</v>
       </c>
@@ -2435,7 +2713,7 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="18">
+      <c r="A71" s="36">
         <v>43455</v>
       </c>
       <c r="B71">
@@ -2449,7 +2727,7 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="18"/>
+      <c r="A72" s="36"/>
       <c r="B72">
         <v>-4</v>
       </c>
@@ -2461,7 +2739,7 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="18"/>
+      <c r="A73" s="36"/>
       <c r="B73">
         <v>-4</v>
       </c>
@@ -2473,7 +2751,7 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="18">
+      <c r="A74" s="36">
         <v>43456</v>
       </c>
       <c r="B74">
@@ -2487,7 +2765,7 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="18"/>
+      <c r="A75" s="36"/>
       <c r="B75">
         <v>-13</v>
       </c>
@@ -2499,7 +2777,7 @@
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="18"/>
+      <c r="A76" s="36"/>
       <c r="B76">
         <v>-15</v>
       </c>
@@ -2511,7 +2789,7 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="18"/>
+      <c r="A77" s="36"/>
       <c r="B77">
         <v>-30</v>
       </c>
@@ -2523,7 +2801,7 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="18"/>
+      <c r="A78" s="36"/>
       <c r="B78">
         <v>-15</v>
       </c>
@@ -2535,7 +2813,7 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="18"/>
+      <c r="A79" s="36"/>
       <c r="B79">
         <v>-42</v>
       </c>
@@ -2552,7 +2830,7 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="18">
+      <c r="A81" s="36">
         <v>43458</v>
       </c>
       <c r="B81">
@@ -2566,7 +2844,7 @@
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="18"/>
+      <c r="A82" s="36"/>
       <c r="B82">
         <v>-16</v>
       </c>
@@ -2578,7 +2856,7 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="18">
+      <c r="A83" s="36">
         <v>43459</v>
       </c>
       <c r="B83">
@@ -2592,7 +2870,7 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="18"/>
+      <c r="A84" s="36"/>
       <c r="B84">
         <v>-16</v>
       </c>
@@ -2604,7 +2882,7 @@
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="18">
+      <c r="A85" s="36">
         <v>43460</v>
       </c>
       <c r="B85">
@@ -2618,7 +2896,7 @@
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="18"/>
+      <c r="A86" s="36"/>
       <c r="B86">
         <v>-4</v>
       </c>
@@ -2630,7 +2908,7 @@
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="18"/>
+      <c r="A87" s="36"/>
       <c r="B87">
         <v>-62</v>
       </c>
@@ -2642,7 +2920,7 @@
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="18">
+      <c r="A88" s="36">
         <v>43461</v>
       </c>
       <c r="B88">
@@ -2656,7 +2934,7 @@
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" s="18"/>
+      <c r="A89" s="36"/>
       <c r="B89">
         <v>-16</v>
       </c>
@@ -2668,7 +2946,7 @@
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" s="18"/>
+      <c r="A90" s="36"/>
       <c r="B90">
         <v>-18.8</v>
       </c>
@@ -2680,7 +2958,7 @@
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="18">
+      <c r="A91" s="36">
         <v>43462</v>
       </c>
       <c r="B91">
@@ -2694,7 +2972,7 @@
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" s="18"/>
+      <c r="A92" s="36"/>
       <c r="B92">
         <v>-14</v>
       </c>
@@ -2706,7 +2984,7 @@
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="18"/>
+      <c r="A93" s="36"/>
       <c r="B93">
         <v>-239</v>
       </c>
@@ -2718,7 +2996,7 @@
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="18"/>
+      <c r="A94" s="36"/>
       <c r="B94">
         <v>-12</v>
       </c>
@@ -2730,7 +3008,7 @@
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="18">
+      <c r="A95" s="36">
         <v>43463</v>
       </c>
       <c r="B95">
@@ -2744,7 +3022,7 @@
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" s="18"/>
+      <c r="A96" s="36"/>
       <c r="B96">
         <v>-6</v>
       </c>
@@ -2756,7 +3034,7 @@
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" s="18"/>
+      <c r="A97" s="36"/>
       <c r="B97">
         <v>-4</v>
       </c>
@@ -2768,7 +3046,7 @@
       </c>
     </row>
     <row r="98" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="18"/>
+      <c r="A98" s="36"/>
       <c r="B98">
         <v>-39</v>
       </c>
@@ -2780,7 +3058,7 @@
       </c>
     </row>
     <row r="99" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="18">
+      <c r="A99" s="36">
         <v>43464</v>
       </c>
       <c r="B99">
@@ -2794,7 +3072,7 @@
       </c>
     </row>
     <row r="100" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="18"/>
+      <c r="A100" s="36"/>
       <c r="B100">
         <v>-50.4</v>
       </c>
@@ -2806,7 +3084,7 @@
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A101" s="18"/>
+      <c r="A101" s="36"/>
       <c r="B101">
         <v>-30</v>
       </c>
@@ -2889,7 +3167,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="37" t="s">
         <v>62</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -2903,7 +3181,7 @@
       <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="20"/>
+      <c r="A2" s="38"/>
       <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
@@ -2916,14 +3194,14 @@
       </c>
       <c r="F2">
         <f ca="1">DATE(2019,2,1)-TODAY()</f>
-        <v>-23</v>
+        <v>-31</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I2">
         <f ca="1">C2/F2</f>
-        <v>113.39173913043483</v>
+        <v>84.129354838709716</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="77" customHeight="1" x14ac:dyDescent="0.2">
@@ -2945,7 +3223,7 @@
       <c r="H3" s="8"/>
       <c r="I3" s="8">
         <f ca="1">C2/(F2-1)</f>
-        <v>108.66708333333338</v>
+        <v>81.500312500000035</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -2968,7 +3246,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="18">
+      <c r="A5" s="36">
         <v>43467</v>
       </c>
       <c r="B5">
@@ -2991,7 +3269,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="18"/>
+      <c r="A6" s="36"/>
       <c r="B6">
         <v>-16</v>
       </c>
@@ -3013,7 +3291,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="18"/>
+      <c r="A7" s="36"/>
       <c r="B7">
         <v>-24</v>
       </c>
@@ -3042,7 +3320,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="18">
+      <c r="A8" s="36">
         <v>43468</v>
       </c>
       <c r="B8">
@@ -3066,7 +3344,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="18"/>
+      <c r="A9" s="36"/>
       <c r="B9">
         <v>-16</v>
       </c>
@@ -3088,7 +3366,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="18"/>
+      <c r="A10" s="36"/>
       <c r="B10">
         <v>-15</v>
       </c>
@@ -3110,7 +3388,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="18">
+      <c r="A11" s="36">
         <v>43469</v>
       </c>
       <c r="B11">
@@ -3125,7 +3403,7 @@
       <c r="I11" s="4"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="18"/>
+      <c r="A12" s="36"/>
       <c r="B12">
         <v>-1453</v>
       </c>
@@ -3137,7 +3415,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="18"/>
+      <c r="A13" s="36"/>
       <c r="B13">
         <v>-4</v>
       </c>
@@ -3149,7 +3427,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="18"/>
+      <c r="A14" s="36"/>
       <c r="B14">
         <v>-55</v>
       </c>
@@ -3161,7 +3439,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="18"/>
+      <c r="A15" s="36"/>
       <c r="B15">
         <v>-11</v>
       </c>
@@ -3173,7 +3451,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="22">
+      <c r="A16" s="40">
         <v>43470</v>
       </c>
       <c r="B16">
@@ -3187,7 +3465,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="22"/>
+      <c r="A17" s="40"/>
       <c r="B17">
         <v>-6</v>
       </c>
@@ -3199,7 +3477,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="22"/>
+      <c r="A18" s="40"/>
       <c r="B18">
         <v>-30</v>
       </c>
@@ -3211,7 +3489,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="22"/>
+      <c r="A19" s="40"/>
       <c r="B19">
         <v>-18</v>
       </c>
@@ -3229,7 +3507,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="22"/>
+      <c r="A20" s="40"/>
       <c r="B20">
         <v>-3</v>
       </c>
@@ -3248,7 +3526,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="22"/>
+      <c r="A21" s="40"/>
       <c r="B21">
         <v>-10</v>
       </c>
@@ -3267,7 +3545,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="22">
+      <c r="A22" s="40">
         <v>43471</v>
       </c>
       <c r="B22">
@@ -3288,7 +3566,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="22"/>
+      <c r="A23" s="40"/>
       <c r="B23">
         <v>-3</v>
       </c>
@@ -3307,7 +3585,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="22"/>
+      <c r="A24" s="40"/>
       <c r="B24">
         <v>-13</v>
       </c>
@@ -3326,7 +3604,7 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="18">
+      <c r="A25" s="36">
         <v>43472</v>
       </c>
       <c r="B25">
@@ -3340,7 +3618,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="18"/>
+      <c r="A26" s="36"/>
       <c r="B26">
         <v>-4</v>
       </c>
@@ -3352,7 +3630,7 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="18"/>
+      <c r="A27" s="36"/>
       <c r="B27">
         <v>-218</v>
       </c>
@@ -3364,7 +3642,7 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="18">
+      <c r="A28" s="36">
         <v>43473</v>
       </c>
       <c r="B28">
@@ -3378,7 +3656,7 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="18"/>
+      <c r="A29" s="36"/>
       <c r="B29">
         <v>-16</v>
       </c>
@@ -3390,7 +3668,7 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="18"/>
+      <c r="A30" s="36"/>
       <c r="B30">
         <v>-245</v>
       </c>
@@ -3402,7 +3680,7 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="21">
+      <c r="A31" s="39">
         <v>43474</v>
       </c>
       <c r="B31">
@@ -3416,7 +3694,7 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="21"/>
+      <c r="A32" s="39"/>
       <c r="B32">
         <v>-4</v>
       </c>
@@ -3428,7 +3706,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="21"/>
+      <c r="A33" s="39"/>
       <c r="B33">
         <v>-500</v>
       </c>
@@ -3440,7 +3718,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="21"/>
+      <c r="A34" s="39"/>
       <c r="B34">
         <v>-16</v>
       </c>
@@ -3452,7 +3730,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="18">
+      <c r="A35" s="36">
         <v>43475</v>
       </c>
       <c r="B35">
@@ -3466,7 +3744,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="18"/>
+      <c r="A36" s="36"/>
       <c r="B36">
         <v>-6.5</v>
       </c>
@@ -3478,7 +3756,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="18">
+      <c r="A37" s="36">
         <v>43476</v>
       </c>
       <c r="B37">
@@ -3492,7 +3770,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="18"/>
+      <c r="A38" s="36"/>
       <c r="B38">
         <v>-31</v>
       </c>
@@ -3504,7 +3782,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="18"/>
+      <c r="A39" s="36"/>
       <c r="B39">
         <v>-15</v>
       </c>
@@ -3513,7 +3791,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="18"/>
+      <c r="A40" s="36"/>
       <c r="B40">
         <v>-49</v>
       </c>
@@ -3525,7 +3803,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="18"/>
+      <c r="A41" s="36"/>
       <c r="B41">
         <v>-8</v>
       </c>
@@ -3542,7 +3820,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="22">
+      <c r="A43" s="40">
         <v>43478</v>
       </c>
       <c r="B43">
@@ -3556,7 +3834,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="22"/>
+      <c r="A44" s="40"/>
       <c r="B44">
         <v>-30</v>
       </c>
@@ -3568,7 +3846,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="18">
+      <c r="A45" s="36">
         <v>43479</v>
       </c>
       <c r="B45">
@@ -3582,7 +3860,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="18"/>
+      <c r="A46" s="36"/>
       <c r="B46">
         <v>-8</v>
       </c>
@@ -3594,7 +3872,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="18"/>
+      <c r="A47" s="36"/>
       <c r="B47">
         <v>-6</v>
       </c>
@@ -3606,7 +3884,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="18">
+      <c r="A48" s="36">
         <v>43480</v>
       </c>
       <c r="B48">
@@ -3620,7 +3898,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="18"/>
+      <c r="A49" s="36"/>
       <c r="B49">
         <v>-8</v>
       </c>
@@ -3632,7 +3910,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="18"/>
+      <c r="A50" s="36"/>
       <c r="B50">
         <v>-2.5</v>
       </c>
@@ -3644,7 +3922,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="18"/>
+      <c r="A51" s="36"/>
       <c r="B51">
         <v>-6</v>
       </c>
@@ -3656,7 +3934,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="18">
+      <c r="A52" s="36">
         <v>43481</v>
       </c>
       <c r="B52">
@@ -3670,7 +3948,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="18"/>
+      <c r="A53" s="36"/>
       <c r="B53">
         <v>-10</v>
       </c>
@@ -3682,7 +3960,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="18"/>
+      <c r="A54" s="36"/>
       <c r="B54">
         <v>-8</v>
       </c>
@@ -3694,7 +3972,7 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="18"/>
+      <c r="A55" s="36"/>
       <c r="B55">
         <v>-23</v>
       </c>
@@ -3706,7 +3984,7 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="18">
+      <c r="A56" s="36">
         <v>43482</v>
       </c>
       <c r="B56">
@@ -3720,7 +3998,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="18"/>
+      <c r="A57" s="36"/>
       <c r="B57">
         <v>-8</v>
       </c>
@@ -3732,7 +4010,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="18"/>
+      <c r="A58" s="36"/>
       <c r="B58">
         <v>-8.6999999999999993</v>
       </c>
@@ -3744,7 +4022,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="18"/>
+      <c r="A59" s="36"/>
       <c r="B59">
         <v>-110</v>
       </c>
@@ -3756,7 +4034,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="18"/>
+      <c r="A60" s="36"/>
       <c r="B60">
         <v>-14.5</v>
       </c>
@@ -3768,7 +4046,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="18">
+      <c r="A61" s="36">
         <v>43483</v>
       </c>
       <c r="B61">
@@ -3782,7 +4060,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="18"/>
+      <c r="A62" s="36"/>
       <c r="B62">
         <v>-16</v>
       </c>
@@ -3794,7 +4072,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="22">
+      <c r="A63" s="40">
         <v>43484</v>
       </c>
       <c r="B63">
@@ -3808,7 +4086,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="22"/>
+      <c r="A64" s="40"/>
       <c r="B64">
         <v>-62</v>
       </c>
@@ -3820,7 +4098,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="22">
+      <c r="A65" s="40">
         <v>43485</v>
       </c>
       <c r="B65">
@@ -3834,7 +4112,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="22"/>
+      <c r="A66" s="40"/>
       <c r="B66">
         <v>-30</v>
       </c>
@@ -3846,7 +4124,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="22"/>
+      <c r="A67" s="40"/>
       <c r="B67">
         <v>-98</v>
       </c>
@@ -3858,7 +4136,7 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="18">
+      <c r="A68" s="36">
         <v>43486</v>
       </c>
       <c r="B68">
@@ -3872,7 +4150,7 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="18"/>
+      <c r="A69" s="36"/>
       <c r="B69">
         <v>-4</v>
       </c>
@@ -3884,7 +4162,7 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="18">
+      <c r="A70" s="36">
         <v>43487</v>
       </c>
       <c r="B70">
@@ -3898,7 +4176,7 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="18"/>
+      <c r="A71" s="36"/>
       <c r="B71">
         <v>-12.75</v>
       </c>
@@ -3910,7 +4188,7 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="18">
+      <c r="A72" s="36">
         <v>43488</v>
       </c>
       <c r="B72">
@@ -3924,7 +4202,7 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="18"/>
+      <c r="A73" s="36"/>
       <c r="B73">
         <v>-10</v>
       </c>
@@ -3936,7 +4214,7 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="18"/>
+      <c r="A74" s="36"/>
       <c r="B74">
         <v>-4</v>
       </c>
@@ -3948,7 +4226,7 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="18">
+      <c r="A75" s="36">
         <v>43489</v>
       </c>
       <c r="B75">
@@ -3962,7 +4240,7 @@
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="18"/>
+      <c r="A76" s="36"/>
       <c r="B76">
         <v>-10</v>
       </c>
@@ -3974,7 +4252,7 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="18">
+      <c r="A77" s="36">
         <v>43490</v>
       </c>
       <c r="B77">
@@ -3988,7 +4266,7 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="18"/>
+      <c r="A78" s="36"/>
       <c r="B78">
         <v>-4.8</v>
       </c>
@@ -3997,7 +4275,7 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="18"/>
+      <c r="A79" s="36"/>
       <c r="B79">
         <v>-10</v>
       </c>
@@ -4009,7 +4287,7 @@
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="18"/>
+      <c r="A80" s="36"/>
       <c r="B80">
         <v>-12</v>
       </c>
@@ -4021,7 +4299,7 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="18"/>
+      <c r="A81" s="36"/>
       <c r="B81">
         <v>-6</v>
       </c>
@@ -4047,7 +4325,7 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="22">
+      <c r="A83" s="40">
         <v>43492</v>
       </c>
       <c r="B83">
@@ -4061,7 +4339,7 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="22"/>
+      <c r="A84" s="40"/>
       <c r="B84">
         <v>-13.8</v>
       </c>
@@ -4073,7 +4351,7 @@
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="18">
+      <c r="A85" s="36">
         <v>43493</v>
       </c>
       <c r="B85">
@@ -4087,7 +4365,7 @@
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="18"/>
+      <c r="A86" s="36"/>
       <c r="B86">
         <v>-4</v>
       </c>
@@ -4099,7 +4377,7 @@
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="18"/>
+      <c r="A87" s="36"/>
       <c r="B87">
         <v>-4.8</v>
       </c>
@@ -4111,7 +4389,7 @@
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="18">
+      <c r="A88" s="36">
         <v>43494</v>
       </c>
       <c r="B88">
@@ -4125,7 +4403,7 @@
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" s="18"/>
+      <c r="A89" s="36"/>
       <c r="B89">
         <v>-4.46</v>
       </c>
@@ -4137,7 +4415,7 @@
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" s="18"/>
+      <c r="A90" s="36"/>
       <c r="B90">
         <v>-16.34</v>
       </c>
@@ -4149,7 +4427,7 @@
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="18"/>
+      <c r="A91" s="36"/>
       <c r="B91">
         <v>-6</v>
       </c>
@@ -4161,7 +4439,7 @@
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" s="18">
+      <c r="A92" s="36">
         <v>43495</v>
       </c>
       <c r="B92">
@@ -4175,7 +4453,7 @@
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="18"/>
+      <c r="A93" s="36"/>
       <c r="B93">
         <v>-4.21</v>
       </c>
@@ -4187,7 +4465,7 @@
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="18"/>
+      <c r="A94" s="36"/>
       <c r="B94">
         <v>-10</v>
       </c>
@@ -4199,7 +4477,7 @@
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="18"/>
+      <c r="A95" s="36"/>
       <c r="B95">
         <v>-1441</v>
       </c>
@@ -4262,10 +4540,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:I106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="D83" sqref="D83"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4281,7 +4559,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="37" t="s">
         <v>25</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -4289,7 +4567,7 @@
       </c>
       <c r="C1" s="5">
         <f>SUMIF(B4:B86,"&lt;0")</f>
-        <v>-5025.9799999999996</v>
+        <v>-5033.9799999999996</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>5</v>
@@ -4300,27 +4578,27 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20"/>
+      <c r="A2" s="38"/>
       <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C2">
         <f>3000+C1</f>
-        <v>-2025.9799999999996</v>
+        <v>-2033.9799999999996</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>18</v>
       </c>
       <c r="F2">
         <f ca="1">DATE(2019,3,1)-TODAY()</f>
-        <v>5</v>
+        <v>-3</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I2">
         <f ca="1">C2/F2</f>
-        <v>-405.19599999999991</v>
+        <v>677.99333333333323</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -4335,7 +4613,7 @@
       </c>
       <c r="I3">
         <f ca="1">C2/(F2-1)</f>
-        <v>-506.49499999999989</v>
+        <v>508.49499999999989</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -4350,7 +4628,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="22">
+      <c r="A5" s="40">
         <v>43447</v>
       </c>
       <c r="B5">
@@ -4361,7 +4639,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="22"/>
+      <c r="A6" s="40"/>
       <c r="B6">
         <v>-350</v>
       </c>
@@ -4370,7 +4648,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="22"/>
+      <c r="A7" s="40"/>
       <c r="B7">
         <v>-129</v>
       </c>
@@ -4393,7 +4671,7 @@
       </c>
       <c r="H8">
         <f>C1</f>
-        <v>-5025.9799999999996</v>
+        <v>-5033.9799999999996</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -4415,7 +4693,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="26">
+      <c r="A10" s="44">
         <v>43498</v>
       </c>
       <c r="B10">
@@ -4426,7 +4704,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="26"/>
+      <c r="A11" s="44"/>
       <c r="B11">
         <v>-5.4</v>
       </c>
@@ -4438,11 +4716,11 @@
       </c>
       <c r="H11">
         <f>H8-H9</f>
-        <v>-2045.27</v>
+        <v>-2053.27</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="26"/>
+      <c r="A12" s="44"/>
       <c r="B12">
         <v>-22.5</v>
       </c>
@@ -4451,7 +4729,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="26"/>
+      <c r="A13" s="44"/>
       <c r="B13">
         <v>-83.23</v>
       </c>
@@ -4460,7 +4738,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="26">
+      <c r="A14" s="44">
         <v>43499</v>
       </c>
       <c r="B14">
@@ -4471,7 +4749,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="26"/>
+      <c r="A15" s="44"/>
       <c r="B15">
         <v>-49.8</v>
       </c>
@@ -4485,7 +4763,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="26">
+      <c r="A17" s="44">
         <v>43501</v>
       </c>
       <c r="B17">
@@ -4496,7 +4774,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="26"/>
+      <c r="A18" s="44"/>
       <c r="B18">
         <v>-300</v>
       </c>
@@ -4505,7 +4783,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="26"/>
+      <c r="A19" s="44"/>
       <c r="B19">
         <v>-149</v>
       </c>
@@ -4525,7 +4803,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="22">
+      <c r="A21" s="40">
         <v>43503</v>
       </c>
       <c r="B21">
@@ -4536,7 +4814,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="22"/>
+      <c r="A22" s="40"/>
       <c r="B22">
         <v>-130.27000000000001</v>
       </c>
@@ -4545,7 +4823,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="22">
+      <c r="A23" s="40">
         <v>43504</v>
       </c>
       <c r="B23">
@@ -4556,7 +4834,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="22"/>
+      <c r="A24" s="40"/>
       <c r="B24">
         <v>-15</v>
       </c>
@@ -4565,7 +4843,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="22">
+      <c r="A25" s="40">
         <v>43505</v>
       </c>
       <c r="B25">
@@ -4576,7 +4854,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="22"/>
+      <c r="A26" s="40"/>
       <c r="B26">
         <v>-39</v>
       </c>
@@ -4585,7 +4863,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="22"/>
+      <c r="A27" s="40"/>
       <c r="B27">
         <v>-10</v>
       </c>
@@ -4594,7 +4872,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="22"/>
+      <c r="A28" s="40"/>
       <c r="B28">
         <v>-17.600000000000001</v>
       </c>
@@ -4606,7 +4884,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="22"/>
+      <c r="A29" s="40"/>
       <c r="B29">
         <v>-25</v>
       </c>
@@ -4618,7 +4896,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="22"/>
+      <c r="A30" s="40"/>
       <c r="B30">
         <v>-83</v>
       </c>
@@ -4627,7 +4905,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="22"/>
+      <c r="A31" s="40"/>
       <c r="B31">
         <v>-128</v>
       </c>
@@ -4636,7 +4914,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="22"/>
+      <c r="A32" s="40"/>
       <c r="B32">
         <v>-28</v>
       </c>
@@ -4645,7 +4923,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="22"/>
+      <c r="A33" s="40"/>
       <c r="B33">
         <v>-65</v>
       </c>
@@ -4657,7 +4935,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="22"/>
+      <c r="A34" s="40"/>
       <c r="B34">
         <v>-127.9</v>
       </c>
@@ -4671,7 +4949,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="18">
+      <c r="A36" s="36">
         <v>43507</v>
       </c>
       <c r="B36">
@@ -4685,7 +4963,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="25"/>
+      <c r="A37" s="43"/>
       <c r="B37">
         <v>-12</v>
       </c>
@@ -4697,7 +4975,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="18">
+      <c r="A38" s="36">
         <v>43508</v>
       </c>
       <c r="B38">
@@ -4711,7 +4989,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="18"/>
+      <c r="A39" s="36"/>
       <c r="B39">
         <v>-16</v>
       </c>
@@ -4723,7 +5001,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="18">
+      <c r="A40" s="36">
         <v>43509</v>
       </c>
       <c r="B40">
@@ -4737,7 +5015,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="18"/>
+      <c r="A41" s="36"/>
       <c r="B41">
         <v>-12</v>
       </c>
@@ -4749,7 +5027,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="18"/>
+      <c r="A42" s="36"/>
       <c r="B42">
         <v>-14</v>
       </c>
@@ -4761,7 +5039,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="18"/>
+      <c r="A43" s="36"/>
       <c r="B43">
         <v>-4</v>
       </c>
@@ -4773,7 +5051,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="18">
+      <c r="A44" s="36">
         <v>43510</v>
       </c>
       <c r="B44">
@@ -4787,7 +5065,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="18"/>
+      <c r="A45" s="36"/>
       <c r="B45">
         <v>0</v>
       </c>
@@ -4799,7 +5077,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="18"/>
+      <c r="A46" s="36"/>
       <c r="B46">
         <v>-14</v>
       </c>
@@ -4811,7 +5089,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="18">
+      <c r="A47" s="36">
         <v>43511</v>
       </c>
       <c r="B47">
@@ -4825,7 +5103,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="18"/>
+      <c r="A48" s="36"/>
       <c r="B48">
         <v>-4</v>
       </c>
@@ -4837,7 +5115,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="18"/>
+      <c r="A49" s="36"/>
       <c r="B49">
         <v>-12</v>
       </c>
@@ -4849,7 +5127,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="22">
+      <c r="A50" s="40">
         <v>43512</v>
       </c>
       <c r="B50">
@@ -4863,7 +5141,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="22"/>
+      <c r="A51" s="40"/>
       <c r="B51">
         <v>-33.5</v>
       </c>
@@ -4875,7 +5153,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="22">
+      <c r="A52" s="40">
         <v>43513</v>
       </c>
       <c r="B52">
@@ -4889,7 +5167,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="22"/>
+      <c r="A53" s="40"/>
       <c r="B53">
         <v>-2.5</v>
       </c>
@@ -4901,7 +5179,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="22"/>
+      <c r="A54" s="40"/>
       <c r="B54">
         <v>-2</v>
       </c>
@@ -4913,7 +5191,7 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="18">
+      <c r="A55" s="36">
         <v>43514</v>
       </c>
       <c r="B55">
@@ -4927,7 +5205,7 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="18"/>
+      <c r="A56" s="36"/>
       <c r="B56">
         <v>-10</v>
       </c>
@@ -4939,7 +5217,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="18"/>
+      <c r="A57" s="36"/>
       <c r="B57">
         <v>-10</v>
       </c>
@@ -4951,7 +5229,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="18"/>
+      <c r="A58" s="36"/>
       <c r="B58">
         <v>-2.5</v>
       </c>
@@ -4963,7 +5241,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="18"/>
+      <c r="A59" s="36"/>
       <c r="B59">
         <v>-5</v>
       </c>
@@ -4975,7 +5253,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="18">
+      <c r="A60" s="36">
         <v>43515</v>
       </c>
       <c r="B60">
@@ -4989,7 +5267,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="18"/>
+      <c r="A61" s="36"/>
       <c r="B61">
         <v>-11</v>
       </c>
@@ -5001,7 +5279,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="18"/>
+      <c r="A62" s="36"/>
       <c r="B62">
         <v>-1250</v>
       </c>
@@ -5013,7 +5291,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="18"/>
+      <c r="A63" s="36"/>
       <c r="B63">
         <v>-12</v>
       </c>
@@ -5025,7 +5303,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="18"/>
+      <c r="A64" s="36"/>
       <c r="B64">
         <v>-203</v>
       </c>
@@ -5037,7 +5315,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="18"/>
+      <c r="A65" s="36"/>
       <c r="B65">
         <v>-23</v>
       </c>
@@ -5049,7 +5327,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="18"/>
+      <c r="A66" s="36"/>
       <c r="B66">
         <v>-16</v>
       </c>
@@ -5061,7 +5339,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="18">
+      <c r="A67" s="36">
         <v>43516</v>
       </c>
       <c r="B67">
@@ -5075,7 +5353,7 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="18"/>
+      <c r="A68" s="36"/>
       <c r="B68">
         <v>-26</v>
       </c>
@@ -5087,7 +5365,7 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="18"/>
+      <c r="A69" s="36"/>
       <c r="B69">
         <v>-2.5</v>
       </c>
@@ -5099,7 +5377,7 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="18">
+      <c r="A70" s="36">
         <v>43517</v>
       </c>
       <c r="B70">
@@ -5113,7 +5391,7 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="18"/>
+      <c r="A71" s="36"/>
       <c r="B71">
         <v>-7</v>
       </c>
@@ -5125,7 +5403,7 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="18"/>
+      <c r="A72" s="36"/>
       <c r="B72">
         <v>-20</v>
       </c>
@@ -5137,7 +5415,7 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="18">
+      <c r="A73" s="36">
         <v>43518</v>
       </c>
       <c r="B73">
@@ -5151,7 +5429,7 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="18"/>
+      <c r="A74" s="36"/>
       <c r="B74">
         <v>-7.83</v>
       </c>
@@ -5163,7 +5441,7 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="18"/>
+      <c r="A75" s="36"/>
       <c r="B75">
         <v>-16</v>
       </c>
@@ -5175,7 +5453,7 @@
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="18"/>
+      <c r="A76" s="36"/>
       <c r="B76">
         <v>-3.5</v>
       </c>
@@ -5187,7 +5465,7 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="22">
+      <c r="A77" s="40">
         <v>43519</v>
       </c>
       <c r="B77">
@@ -5201,7 +5479,7 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="22"/>
+      <c r="A78" s="40"/>
       <c r="B78">
         <f>-2.8-7.2-9.34-4</f>
         <v>-23.34</v>
@@ -5214,7 +5492,7 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="22"/>
+      <c r="A79" s="40"/>
       <c r="B79">
         <v>-30</v>
       </c>
@@ -5226,7 +5504,7 @@
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="22" t="s">
+      <c r="A80" s="40" t="s">
         <v>115</v>
       </c>
       <c r="B80">
@@ -5240,7 +5518,7 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="22"/>
+      <c r="A81" s="40"/>
       <c r="B81">
         <v>-16</v>
       </c>
@@ -5252,7 +5530,7 @@
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="22"/>
+      <c r="A82" s="40"/>
       <c r="B82">
         <v>-2.5</v>
       </c>
@@ -5264,7 +5542,7 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="22"/>
+      <c r="A83" s="40"/>
       <c r="B83">
         <v>-16</v>
       </c>
@@ -5276,7 +5554,7 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="18">
+      <c r="A84" s="36">
         <v>43521</v>
       </c>
       <c r="B84">
@@ -5290,13 +5568,31 @@
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="18"/>
+      <c r="A85" s="36"/>
+      <c r="B85">
+        <v>-4</v>
+      </c>
+      <c r="C85" t="s">
+        <v>7</v>
+      </c>
+      <c r="D85">
+        <v>2</v>
+      </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="18"/>
+      <c r="A86" s="36"/>
+      <c r="B86">
+        <v>-4</v>
+      </c>
+      <c r="C86" t="s">
+        <v>59</v>
+      </c>
+      <c r="D86">
+        <v>2</v>
+      </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="18">
+      <c r="A87" s="36">
         <v>43522</v>
       </c>
       <c r="B87">
@@ -5310,68 +5606,182 @@
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="18"/>
+      <c r="A88" s="36"/>
+      <c r="B88">
+        <v>-3.8</v>
+      </c>
+      <c r="C88" t="s">
+        <v>90</v>
+      </c>
+      <c r="D88">
+        <v>2</v>
+      </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" s="18"/>
+      <c r="A89" s="36"/>
+      <c r="B89">
+        <v>-10.84</v>
+      </c>
+      <c r="C89" t="s">
+        <v>117</v>
+      </c>
+      <c r="D89">
+        <v>2</v>
+      </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" s="18">
+      <c r="A90" s="36"/>
+      <c r="B90">
+        <v>-18</v>
+      </c>
+      <c r="C90" t="s">
+        <v>7</v>
+      </c>
+      <c r="D90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="36">
         <v>43523</v>
       </c>
-      <c r="B90">
+      <c r="B91">
         <v>-11</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C91" t="s">
         <v>116</v>
       </c>
-      <c r="D90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="18"/>
+      <c r="D91">
+        <v>1</v>
+      </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" s="18"/>
+      <c r="A92" s="36"/>
+      <c r="B92">
+        <v>-4</v>
+      </c>
+      <c r="C92" t="s">
+        <v>7</v>
+      </c>
+      <c r="D92">
+        <v>2</v>
+      </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="18">
+      <c r="A93" s="36"/>
+      <c r="B93">
+        <v>-4.4000000000000004</v>
+      </c>
+      <c r="C93" t="s">
+        <v>118</v>
+      </c>
+      <c r="D93">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="36"/>
+      <c r="B94">
+        <v>-9.5399999999999991</v>
+      </c>
+      <c r="C94" t="s">
+        <v>59</v>
+      </c>
+      <c r="D94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="36">
         <v>43524</v>
       </c>
-      <c r="B93">
+      <c r="B95">
         <v>-11</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C95" t="s">
         <v>116</v>
       </c>
-      <c r="D93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="18"/>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="18"/>
+      <c r="D95">
+        <v>1</v>
+      </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" s="1"/>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A97" s="1"/>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A98" s="1"/>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A99" s="1"/>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A100" s="1"/>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" s="36"/>
+      <c r="B96">
+        <v>-16</v>
+      </c>
+      <c r="C96" t="s">
+        <v>7</v>
+      </c>
+      <c r="D96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="36"/>
+      <c r="B97">
+        <v>-4</v>
+      </c>
+      <c r="C97" t="s">
+        <v>90</v>
+      </c>
+      <c r="D97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="36"/>
+      <c r="B98">
+        <v>-3</v>
+      </c>
+      <c r="C98" t="s">
+        <v>57</v>
+      </c>
+      <c r="D98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" s="36"/>
+      <c r="B99">
+        <v>-7.9</v>
+      </c>
+      <c r="C99" t="s">
+        <v>119</v>
+      </c>
+      <c r="D99">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" s="36"/>
+      <c r="B100">
+        <v>-16</v>
+      </c>
+      <c r="C100" t="s">
+        <v>59</v>
+      </c>
+      <c r="D100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="1"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" s="1"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" s="1"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" s="1"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" s="1"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="26">
@@ -5393,9 +5803,9 @@
     <mergeCell ref="A55:A59"/>
     <mergeCell ref="A60:A66"/>
     <mergeCell ref="A67:A69"/>
-    <mergeCell ref="A87:A89"/>
-    <mergeCell ref="A90:A92"/>
-    <mergeCell ref="A93:A95"/>
+    <mergeCell ref="A87:A90"/>
+    <mergeCell ref="A91:A94"/>
+    <mergeCell ref="A95:A100"/>
     <mergeCell ref="A70:A72"/>
     <mergeCell ref="A73:A76"/>
     <mergeCell ref="A77:A79"/>
@@ -5405,4 +5815,999 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N113"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.1640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="8" max="8" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.33203125" customWidth="1"/>
+    <col min="12" max="12" width="5.33203125" customWidth="1"/>
+    <col min="13" max="13" width="17.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="45" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="5">
+        <f>SUMIF(B8:B178,"&lt;0")</f>
+        <v>-1715.75</v>
+      </c>
+      <c r="E1" s="4"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="46"/>
+      <c r="B2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2">
+        <f>3000+C1</f>
+        <v>1284.25</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2">
+        <f ca="1">DATE(2019,4,1)-TODAY()</f>
+        <v>28</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2">
+        <f ca="1">C2/F2</f>
+        <v>45.866071428571431</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="77" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8">
+        <f ca="1">C2/(F2-1)</f>
+        <v>47.564814814814817</v>
+      </c>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+    </row>
+    <row r="4" spans="1:14" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="36">
+        <v>43525</v>
+      </c>
+      <c r="B4" s="8">
+        <v>-11</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4" s="12">
+        <v>1</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+    </row>
+    <row r="5" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="36"/>
+      <c r="B5" s="8">
+        <v>-17</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="12">
+        <v>2</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+    </row>
+    <row r="6" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="36"/>
+      <c r="B6" s="8">
+        <v>-10</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6" s="12">
+        <v>3</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+    </row>
+    <row r="7" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="36"/>
+      <c r="B7" s="8">
+        <v>-10</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D7" s="12">
+        <v>2</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="36"/>
+      <c r="B8">
+        <v>-11.75</v>
+      </c>
+      <c r="C8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="35">
+        <v>43526</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="40">
+        <v>43527</v>
+      </c>
+      <c r="B10">
+        <v>-30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J10">
+        <f>SUMIF($D$8:$D204,H10,$B$8:$B$204)</f>
+        <v>-208</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="40"/>
+      <c r="B11">
+        <v>-2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>4</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J11">
+        <f ca="1">SUMIF($D$8:$D205,H11,$B$8:$B$204)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="40"/>
+      <c r="B12">
+        <v>-49</v>
+      </c>
+      <c r="C12" t="s">
+        <v>141</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="40"/>
+      <c r="B13">
+        <v>-129</v>
+      </c>
+      <c r="C13" t="s">
+        <v>140</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="H13">
+        <v>5</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J13">
+        <f ca="1">SUMIF($D$8:$D206,H13,$B$8:$B$204)</f>
+        <v>-1439</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="36">
+        <v>43528</v>
+      </c>
+      <c r="B14">
+        <v>-11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="36"/>
+      <c r="B15">
+        <v>-1439</v>
+      </c>
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="36"/>
+      <c r="I16" s="4"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="36">
+        <v>43529</v>
+      </c>
+      <c r="B17">
+        <v>-11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="36"/>
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="36"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="36">
+        <v>43530</v>
+      </c>
+      <c r="B20">
+        <v>-11</v>
+      </c>
+      <c r="C20" t="s">
+        <v>121</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="36"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="36"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="36">
+        <v>43531</v>
+      </c>
+      <c r="B23">
+        <v>-11</v>
+      </c>
+      <c r="C23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="36"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="36"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="36">
+        <v>43532</v>
+      </c>
+      <c r="B26">
+        <v>-11</v>
+      </c>
+      <c r="C26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="36"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="36"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="40">
+        <v>43533</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="40"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="40"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="40">
+        <v>43534</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="40"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="40"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="18">
+        <v>43535</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="18">
+        <v>43536</v>
+      </c>
+      <c r="H36" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I36" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="18">
+        <v>43537</v>
+      </c>
+      <c r="H37" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I37" s="13">
+        <f>COUNTIFS($D$8:$D$202,#REF!)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="18">
+        <v>43538</v>
+      </c>
+      <c r="H38" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="I38" s="13">
+        <f>COUNTIFS($D$8:$D$202,#REF!)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="18">
+        <v>43539</v>
+      </c>
+      <c r="H39" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="I39" s="13">
+        <f>COUNTIFS($D$8:$D$202,H10)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="18">
+        <v>43540</v>
+      </c>
+      <c r="H40" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="I40" s="13">
+        <f>COUNTIFS($D$8:$D$202,H11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="18">
+        <v>43541</v>
+      </c>
+      <c r="H41" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="I41" s="13">
+        <f>COUNTIFS($D$8:$D$202,H13)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="18">
+        <v>43542</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="18">
+        <v>43543</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="18">
+        <v>43544</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="18">
+        <v>43545</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="18">
+        <v>43546</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="18">
+        <v>43547</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="18">
+        <v>43548</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="18">
+        <v>43549</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" s="18">
+        <v>43550</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" s="18">
+        <v>43551</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" s="18">
+        <v>43552</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" s="18">
+        <v>43553</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" s="18">
+        <v>43554</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" s="18">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" s="18"/>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" s="18"/>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" s="18"/>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" s="18"/>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" s="18"/>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" s="18"/>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" s="18"/>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" s="18"/>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" s="18"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" s="18"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" s="18"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" s="18"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" s="18"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" s="18"/>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" s="18"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" s="18"/>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" s="18"/>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" s="18"/>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" s="18"/>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" s="18"/>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" s="18"/>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" s="18"/>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" s="18"/>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" s="18"/>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" s="18"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" s="18"/>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" s="18"/>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" s="18"/>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" s="18"/>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" s="18"/>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" s="18"/>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" s="18"/>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" s="18"/>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" s="18"/>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" s="18"/>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" s="18"/>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" s="18"/>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" s="18"/>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94" s="18"/>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95" s="18"/>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" s="18"/>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" s="18"/>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" s="18"/>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" s="18"/>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" s="18"/>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101" s="18"/>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102" s="18"/>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A103" s="18"/>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A104" s="18"/>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A105" s="36"/>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A106" s="36"/>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A107" s="36"/>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A108" s="36"/>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A109" s="36"/>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A110" s="36"/>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A111" s="36"/>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A112" s="36"/>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A113" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A105:A108"/>
+    <mergeCell ref="A109:A112"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A20:A22"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AX20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="2" style="4" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" style="23" customWidth="1"/>
+    <col min="4" max="4" width="24.5" style="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.1640625" style="20" customWidth="1"/>
+    <col min="6" max="6" width="2.1640625" style="29" customWidth="1"/>
+    <col min="7" max="7" width="26.33203125" style="8" customWidth="1"/>
+    <col min="8" max="8" width="23.5" style="8" customWidth="1"/>
+    <col min="9" max="9" width="16.5" style="8" customWidth="1"/>
+    <col min="10" max="10" width="1.83203125" style="28" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="B1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="J1"/>
+    </row>
+    <row r="2" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="B2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="J2"/>
+    </row>
+    <row r="3" spans="1:50" ht="5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F3" s="8"/>
+      <c r="J3"/>
+    </row>
+    <row r="4" spans="1:50" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C4" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="48" t="s">
+        <v>122</v>
+      </c>
+      <c r="E4" s="48"/>
+      <c r="G4" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:50" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="47"/>
+      <c r="D5" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+    </row>
+    <row r="6" spans="1:50" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C6" s="49">
+        <v>43585</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="I6" s="42"/>
+      <c r="J6" s="29"/>
+    </row>
+    <row r="7" spans="1:50" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="49"/>
+      <c r="D7" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="I7" s="42"/>
+      <c r="J7" s="29"/>
+    </row>
+    <row r="8" spans="1:50" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C8" s="49"/>
+      <c r="D8" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="I8" s="42"/>
+      <c r="J8" s="29"/>
+    </row>
+    <row r="9" spans="1:50" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C9" s="49"/>
+      <c r="D9" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="I9" s="42"/>
+      <c r="J9" s="29"/>
+    </row>
+    <row r="10" spans="1:50" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="49"/>
+      <c r="D10" s="31">
+        <v>0.99305555555555547</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="F10" s="33"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="29"/>
+    </row>
+    <row r="11" spans="1:50" s="4" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="8"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11"/>
+      <c r="R11"/>
+      <c r="S11"/>
+      <c r="T11"/>
+      <c r="U11"/>
+      <c r="V11"/>
+      <c r="W11"/>
+      <c r="X11"/>
+      <c r="Y11"/>
+      <c r="Z11"/>
+      <c r="AA11"/>
+      <c r="AB11"/>
+      <c r="AC11"/>
+      <c r="AD11"/>
+      <c r="AE11"/>
+      <c r="AF11"/>
+      <c r="AG11"/>
+      <c r="AH11"/>
+      <c r="AI11"/>
+      <c r="AJ11"/>
+      <c r="AK11"/>
+      <c r="AL11"/>
+      <c r="AM11"/>
+      <c r="AN11"/>
+      <c r="AO11"/>
+      <c r="AP11"/>
+      <c r="AQ11"/>
+      <c r="AR11"/>
+      <c r="AS11"/>
+      <c r="AT11"/>
+      <c r="AU11"/>
+      <c r="AV11"/>
+      <c r="AW11"/>
+      <c r="AX11"/>
+    </row>
+    <row r="12" spans="1:50" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C12" s="49">
+        <v>43586</v>
+      </c>
+      <c r="D12" s="31">
+        <v>0.14930555555555555</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13" spans="1:50" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C13" s="49"/>
+    </row>
+    <row r="14" spans="1:50" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C14" s="49"/>
+    </row>
+    <row r="15" spans="1:50" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C15" s="49"/>
+    </row>
+    <row r="16" spans="1:50" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C16" s="49"/>
+    </row>
+    <row r="17" spans="1:12" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C17" s="25">
+        <v>43587</v>
+      </c>
+      <c r="E17" s="24"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+    </row>
+    <row r="18" spans="1:12" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="27"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="25">
+        <v>43588</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C19" s="25">
+        <v>43589</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C20" s="25">
+        <v>43590</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="C6:C10"/>
+    <mergeCell ref="I6:I10"/>
+    <mergeCell ref="C12:C16"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/健忘症患者的账本.xlsx
+++ b/健忘症患者的账本.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="145">
   <si>
     <t>日期</t>
     <rPh sb="0" eb="1">
@@ -1222,6 +1222,33 @@
     <t>手机壳</t>
     <rPh sb="0" eb="1">
       <t>shou'ji'ke</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-必须交通</t>
+    <rPh sb="2" eb="3">
+      <t>bi'xu'gou'wu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jiao'tong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-必须吃喝</t>
+    <rPh sb="2" eb="3">
+      <t>bi'xu'gou'wu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>chi'he</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计</t>
+    <rPh sb="0" eb="1">
+      <t>he'ji</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1411,29 +1438,29 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1747,7 +1774,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="40" t="s">
         <v>26</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -1761,7 +1788,7 @@
       <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38"/>
+      <c r="A2" s="41"/>
       <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
@@ -1774,14 +1801,14 @@
       </c>
       <c r="F2">
         <f ca="1">DATE(2019,1,1)-TODAY()</f>
-        <v>-62</v>
+        <v>-63</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I2">
         <f ca="1">C2/F2</f>
-        <v>41.88967741935484</v>
+        <v>41.224761904761905</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="8" customFormat="1" ht="61" customHeight="1" x14ac:dyDescent="0.2">
@@ -1794,16 +1821,16 @@
       <c r="C3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
       <c r="I3" s="8">
         <f ca="1">C2/(F2-1)</f>
-        <v>41.224761904761905</v>
+        <v>40.580624999999998</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -2271,7 +2298,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="40">
+      <c r="A36" s="42">
         <v>43444</v>
       </c>
       <c r="B36">
@@ -2285,7 +2312,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="40"/>
+      <c r="A37" s="42"/>
       <c r="B37">
         <v>-4</v>
       </c>
@@ -2297,7 +2324,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="40"/>
+      <c r="A38" s="42"/>
       <c r="B38">
         <v>-14.44</v>
       </c>
@@ -3111,20 +3138,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A85:A87"/>
-    <mergeCell ref="A71:A73"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="A95:A98"/>
-    <mergeCell ref="A74:A79"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="A28:A32"/>
     <mergeCell ref="A99:A101"/>
     <mergeCell ref="A68:A70"/>
     <mergeCell ref="A62:A64"/>
@@ -3141,6 +3154,20 @@
     <mergeCell ref="A59:A61"/>
     <mergeCell ref="A88:A90"/>
     <mergeCell ref="A57:A58"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="A85:A87"/>
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="A95:A98"/>
+    <mergeCell ref="A74:A79"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3167,7 +3194,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="40" t="s">
         <v>62</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -3181,7 +3208,7 @@
       <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="38"/>
+      <c r="A2" s="41"/>
       <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
@@ -3194,14 +3221,14 @@
       </c>
       <c r="F2">
         <f ca="1">DATE(2019,2,1)-TODAY()</f>
-        <v>-31</v>
+        <v>-32</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I2">
         <f ca="1">C2/F2</f>
-        <v>84.129354838709716</v>
+        <v>81.500312500000035</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="77" customHeight="1" x14ac:dyDescent="0.2">
@@ -3223,7 +3250,7 @@
       <c r="H3" s="8"/>
       <c r="I3" s="8">
         <f ca="1">C2/(F2-1)</f>
-        <v>81.500312500000035</v>
+        <v>79.03060606060609</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -3451,7 +3478,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="40">
+      <c r="A16" s="42">
         <v>43470</v>
       </c>
       <c r="B16">
@@ -3465,7 +3492,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="40"/>
+      <c r="A17" s="42"/>
       <c r="B17">
         <v>-6</v>
       </c>
@@ -3477,7 +3504,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="40"/>
+      <c r="A18" s="42"/>
       <c r="B18">
         <v>-30</v>
       </c>
@@ -3489,7 +3516,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="40"/>
+      <c r="A19" s="42"/>
       <c r="B19">
         <v>-18</v>
       </c>
@@ -3507,7 +3534,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="40"/>
+      <c r="A20" s="42"/>
       <c r="B20">
         <v>-3</v>
       </c>
@@ -3526,7 +3553,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="40"/>
+      <c r="A21" s="42"/>
       <c r="B21">
         <v>-10</v>
       </c>
@@ -3545,7 +3572,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="40">
+      <c r="A22" s="42">
         <v>43471</v>
       </c>
       <c r="B22">
@@ -3566,7 +3593,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="40"/>
+      <c r="A23" s="42"/>
       <c r="B23">
         <v>-3</v>
       </c>
@@ -3585,7 +3612,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="40"/>
+      <c r="A24" s="42"/>
       <c r="B24">
         <v>-13</v>
       </c>
@@ -3820,7 +3847,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="40">
+      <c r="A43" s="42">
         <v>43478</v>
       </c>
       <c r="B43">
@@ -3834,7 +3861,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="40"/>
+      <c r="A44" s="42"/>
       <c r="B44">
         <v>-30</v>
       </c>
@@ -4072,7 +4099,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="40">
+      <c r="A63" s="42">
         <v>43484</v>
       </c>
       <c r="B63">
@@ -4086,7 +4113,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="40"/>
+      <c r="A64" s="42"/>
       <c r="B64">
         <v>-62</v>
       </c>
@@ -4098,7 +4125,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="40">
+      <c r="A65" s="42">
         <v>43485</v>
       </c>
       <c r="B65">
@@ -4112,7 +4139,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="40"/>
+      <c r="A66" s="42"/>
       <c r="B66">
         <v>-30</v>
       </c>
@@ -4124,7 +4151,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="40"/>
+      <c r="A67" s="42"/>
       <c r="B67">
         <v>-98</v>
       </c>
@@ -4325,7 +4352,7 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="40">
+      <c r="A83" s="42">
         <v>43492</v>
       </c>
       <c r="B83">
@@ -4339,7 +4366,7 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="40"/>
+      <c r="A84" s="42"/>
       <c r="B84">
         <v>-13.8</v>
       </c>
@@ -4504,18 +4531,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="A5:A7"/>
     <mergeCell ref="A85:A87"/>
     <mergeCell ref="A88:A91"/>
     <mergeCell ref="A92:A95"/>
@@ -4532,6 +4547,18 @@
     <mergeCell ref="A56:A60"/>
     <mergeCell ref="A72:A74"/>
     <mergeCell ref="A75:A76"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A5:A7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4559,7 +4586,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="40" t="s">
         <v>25</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -4578,7 +4605,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38"/>
+      <c r="A2" s="41"/>
       <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
@@ -4591,14 +4618,14 @@
       </c>
       <c r="F2">
         <f ca="1">DATE(2019,3,1)-TODAY()</f>
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I2">
         <f ca="1">C2/F2</f>
-        <v>677.99333333333323</v>
+        <v>508.49499999999989</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -4613,7 +4640,7 @@
       </c>
       <c r="I3">
         <f ca="1">C2/(F2-1)</f>
-        <v>508.49499999999989</v>
+        <v>406.79599999999994</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -4628,7 +4655,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="40">
+      <c r="A5" s="42">
         <v>43447</v>
       </c>
       <c r="B5">
@@ -4639,7 +4666,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="40"/>
+      <c r="A6" s="42"/>
       <c r="B6">
         <v>-350</v>
       </c>
@@ -4648,7 +4675,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="40"/>
+      <c r="A7" s="42"/>
       <c r="B7">
         <v>-129</v>
       </c>
@@ -4693,7 +4720,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="44">
+      <c r="A10" s="43">
         <v>43498</v>
       </c>
       <c r="B10">
@@ -4704,7 +4731,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="44"/>
+      <c r="A11" s="43"/>
       <c r="B11">
         <v>-5.4</v>
       </c>
@@ -4720,7 +4747,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="44"/>
+      <c r="A12" s="43"/>
       <c r="B12">
         <v>-22.5</v>
       </c>
@@ -4729,7 +4756,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="44"/>
+      <c r="A13" s="43"/>
       <c r="B13">
         <v>-83.23</v>
       </c>
@@ -4738,7 +4765,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="44">
+      <c r="A14" s="43">
         <v>43499</v>
       </c>
       <c r="B14">
@@ -4749,7 +4776,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="44"/>
+      <c r="A15" s="43"/>
       <c r="B15">
         <v>-49.8</v>
       </c>
@@ -4763,7 +4790,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="44">
+      <c r="A17" s="43">
         <v>43501</v>
       </c>
       <c r="B17">
@@ -4774,7 +4801,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="44"/>
+      <c r="A18" s="43"/>
       <c r="B18">
         <v>-300</v>
       </c>
@@ -4783,7 +4810,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="44"/>
+      <c r="A19" s="43"/>
       <c r="B19">
         <v>-149</v>
       </c>
@@ -4803,7 +4830,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="40">
+      <c r="A21" s="42">
         <v>43503</v>
       </c>
       <c r="B21">
@@ -4814,7 +4841,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="40"/>
+      <c r="A22" s="42"/>
       <c r="B22">
         <v>-130.27000000000001</v>
       </c>
@@ -4823,7 +4850,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="40">
+      <c r="A23" s="42">
         <v>43504</v>
       </c>
       <c r="B23">
@@ -4834,7 +4861,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="40"/>
+      <c r="A24" s="42"/>
       <c r="B24">
         <v>-15</v>
       </c>
@@ -4843,7 +4870,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="40">
+      <c r="A25" s="42">
         <v>43505</v>
       </c>
       <c r="B25">
@@ -4854,7 +4881,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="40"/>
+      <c r="A26" s="42"/>
       <c r="B26">
         <v>-39</v>
       </c>
@@ -4863,7 +4890,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="40"/>
+      <c r="A27" s="42"/>
       <c r="B27">
         <v>-10</v>
       </c>
@@ -4872,7 +4899,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="40"/>
+      <c r="A28" s="42"/>
       <c r="B28">
         <v>-17.600000000000001</v>
       </c>
@@ -4884,7 +4911,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="40"/>
+      <c r="A29" s="42"/>
       <c r="B29">
         <v>-25</v>
       </c>
@@ -4896,7 +4923,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="40"/>
+      <c r="A30" s="42"/>
       <c r="B30">
         <v>-83</v>
       </c>
@@ -4905,7 +4932,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="40"/>
+      <c r="A31" s="42"/>
       <c r="B31">
         <v>-128</v>
       </c>
@@ -4914,7 +4941,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="40"/>
+      <c r="A32" s="42"/>
       <c r="B32">
         <v>-28</v>
       </c>
@@ -4923,7 +4950,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="40"/>
+      <c r="A33" s="42"/>
       <c r="B33">
         <v>-65</v>
       </c>
@@ -4935,7 +4962,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="40"/>
+      <c r="A34" s="42"/>
       <c r="B34">
         <v>-127.9</v>
       </c>
@@ -4963,7 +4990,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="43"/>
+      <c r="A37" s="44"/>
       <c r="B37">
         <v>-12</v>
       </c>
@@ -5127,7 +5154,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="40">
+      <c r="A50" s="42">
         <v>43512</v>
       </c>
       <c r="B50">
@@ -5141,7 +5168,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="40"/>
+      <c r="A51" s="42"/>
       <c r="B51">
         <v>-33.5</v>
       </c>
@@ -5153,7 +5180,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="40">
+      <c r="A52" s="42">
         <v>43513</v>
       </c>
       <c r="B52">
@@ -5167,7 +5194,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="40"/>
+      <c r="A53" s="42"/>
       <c r="B53">
         <v>-2.5</v>
       </c>
@@ -5179,7 +5206,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="40"/>
+      <c r="A54" s="42"/>
       <c r="B54">
         <v>-2</v>
       </c>
@@ -5465,7 +5492,7 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="40">
+      <c r="A77" s="42">
         <v>43519</v>
       </c>
       <c r="B77">
@@ -5479,7 +5506,7 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="40"/>
+      <c r="A78" s="42"/>
       <c r="B78">
         <f>-2.8-7.2-9.34-4</f>
         <v>-23.34</v>
@@ -5492,7 +5519,7 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="40"/>
+      <c r="A79" s="42"/>
       <c r="B79">
         <v>-30</v>
       </c>
@@ -5504,7 +5531,7 @@
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="40" t="s">
+      <c r="A80" s="42" t="s">
         <v>115</v>
       </c>
       <c r="B80">
@@ -5518,7 +5545,7 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="40"/>
+      <c r="A81" s="42"/>
       <c r="B81">
         <v>-16</v>
       </c>
@@ -5530,7 +5557,7 @@
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="40"/>
+      <c r="A82" s="42"/>
       <c r="B82">
         <v>-2.5</v>
       </c>
@@ -5542,7 +5569,7 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="40"/>
+      <c r="A83" s="42"/>
       <c r="B83">
         <v>-16</v>
       </c>
@@ -5785,6 +5812,24 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A87:A90"/>
+    <mergeCell ref="A91:A94"/>
+    <mergeCell ref="A95:A100"/>
+    <mergeCell ref="A70:A72"/>
+    <mergeCell ref="A73:A76"/>
+    <mergeCell ref="A77:A79"/>
+    <mergeCell ref="A80:A83"/>
+    <mergeCell ref="A84:A86"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="A55:A59"/>
+    <mergeCell ref="A60:A66"/>
+    <mergeCell ref="A67:A69"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="A47:A49"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="A14:A15"/>
@@ -5793,24 +5838,6 @@
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="A55:A59"/>
-    <mergeCell ref="A60:A66"/>
-    <mergeCell ref="A67:A69"/>
-    <mergeCell ref="A87:A90"/>
-    <mergeCell ref="A91:A94"/>
-    <mergeCell ref="A95:A100"/>
-    <mergeCell ref="A70:A72"/>
-    <mergeCell ref="A73:A76"/>
-    <mergeCell ref="A77:A79"/>
-    <mergeCell ref="A80:A83"/>
-    <mergeCell ref="A84:A86"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5819,10 +5846,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N113"/>
+  <dimension ref="A1:N114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5844,8 +5871,8 @@
         <v>15</v>
       </c>
       <c r="C1" s="5">
-        <f>SUMIF(B8:B178,"&lt;0")</f>
-        <v>-1715.75</v>
+        <f>SUMIF(B4:B179,"&lt;0")</f>
+        <v>-1785.01</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="5"/>
@@ -5857,21 +5884,21 @@
       </c>
       <c r="C2">
         <f>3000+C1</f>
-        <v>1284.25</v>
+        <v>1214.99</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>18</v>
       </c>
       <c r="F2">
         <f ca="1">DATE(2019,4,1)-TODAY()</f>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I2">
         <f ca="1">C2/F2</f>
-        <v>45.866071428571431</v>
+        <v>44.999629629629631</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="77" customHeight="1" x14ac:dyDescent="0.2">
@@ -5893,7 +5920,7 @@
       <c r="H3" s="8"/>
       <c r="I3" s="8">
         <f ca="1">C2/(F2-1)</f>
-        <v>47.564814814814817</v>
+        <v>46.730384615384615</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -6018,7 +6045,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="40">
+      <c r="A10" s="42">
         <v>43527</v>
       </c>
       <c r="B10">
@@ -6031,18 +6058,18 @@
         <v>3</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>45</v>
+        <v>142</v>
       </c>
       <c r="J10">
-        <f>SUMIF($D$8:$D204,H10,$B$8:$B$204)</f>
-        <v>-208</v>
+        <f>SUMIF($D$4:$D205,H10,$B$4:$B$205)</f>
+        <v>-68</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="40"/>
+      <c r="A11" s="42"/>
       <c r="B11">
         <v>-2</v>
       </c>
@@ -6053,18 +6080,18 @@
         <v>1</v>
       </c>
       <c r="H11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>46</v>
+        <v>143</v>
       </c>
       <c r="J11">
-        <f ca="1">SUMIF($D$8:$D205,H11,$B$8:$B$204)</f>
-        <v>0</v>
+        <f ca="1">SUMIF($D$4:$D206,H11,$B$4:$B$205)</f>
+        <v>-80.010000000000005</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="40"/>
+      <c r="A12" s="42"/>
       <c r="B12">
         <v>-49</v>
       </c>
@@ -6074,12 +6101,21 @@
       <c r="D12">
         <v>3</v>
       </c>
-      <c r="I12" s="4"/>
+      <c r="H12">
+        <v>3</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J12">
+        <f ca="1">SUMIF($D$4:$D207,H12,$B$4:$B$205)</f>
+        <v>-198</v>
+      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="40"/>
+      <c r="A13" s="42"/>
       <c r="B13">
-        <v>-129</v>
+        <v>-109</v>
       </c>
       <c r="C13" t="s">
         <v>140</v>
@@ -6088,14 +6124,14 @@
         <v>3</v>
       </c>
       <c r="H13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="J13">
-        <f ca="1">SUMIF($D$8:$D206,H13,$B$8:$B$204)</f>
-        <v>-1439</v>
+        <f ca="1">SUMIF($D$4:$D208,H13,$B$4:$B$205)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
@@ -6111,7 +6147,16 @@
       <c r="D14">
         <v>1</v>
       </c>
-      <c r="I14" s="4"/>
+      <c r="H14">
+        <v>5</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J14">
+        <f ca="1">SUMIF($D$4:$D209,H14,$B$4:$B$205)</f>
+        <v>-1439</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="36"/>
@@ -6128,257 +6173,274 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="36"/>
+      <c r="B16">
+        <v>-16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="36">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="36"/>
+      <c r="B17">
+        <v>-3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="36">
         <v>43529</v>
       </c>
-      <c r="B17">
+      <c r="B18">
         <v>-11</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>17</v>
       </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="I17" s="4"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="36"/>
+      <c r="D18">
+        <v>1</v>
+      </c>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="36"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="36">
+      <c r="B19">
+        <v>-16.260000000000002</v>
+      </c>
+      <c r="C19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="J19">
+        <f ca="1">SUM(J10:J14)</f>
+        <v>-1785.01</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="36"/>
+      <c r="B20">
+        <v>-6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="36">
         <v>43530</v>
       </c>
-      <c r="B20">
+      <c r="B21">
         <v>-11</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>121</v>
       </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="36"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="36"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="36">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="36"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="36">
         <v>43531</v>
       </c>
-      <c r="B23">
+      <c r="B24">
         <v>-11</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C24" t="s">
         <v>17</v>
       </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="36"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="36"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="36">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="36"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="36">
         <v>43532</v>
       </c>
-      <c r="B26">
+      <c r="B27">
         <v>-11</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C27" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="36"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="36"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="40">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="36"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="42">
         <v>43533</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="40"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="40"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="40">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="42"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="42"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="42">
         <v>43534</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="40"/>
-    </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="40"/>
+      <c r="A34" s="42"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="18">
-        <v>43535</v>
-      </c>
+      <c r="A35" s="42"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="18">
-        <v>43536</v>
-      </c>
-      <c r="H36" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="I36" s="13" t="s">
-        <v>82</v>
+        <v>43535</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="18">
-        <v>43537</v>
-      </c>
-      <c r="H37" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I37" s="13">
-        <f>COUNTIFS($D$8:$D$202,#REF!)</f>
-        <v>0</v>
-      </c>
+        <v>43536</v>
+      </c>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="18">
-        <v>43538</v>
-      </c>
-      <c r="H38" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="I38" s="13">
-        <f>COUNTIFS($D$8:$D$202,#REF!)</f>
-        <v>0</v>
-      </c>
+        <v>43537</v>
+      </c>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="18">
-        <v>43539</v>
-      </c>
-      <c r="H39" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="I39" s="13">
-        <f>COUNTIFS($D$8:$D$202,H10)</f>
-        <v>3</v>
-      </c>
+        <v>43538</v>
+      </c>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="18">
-        <v>43540</v>
-      </c>
-      <c r="H40" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="I40" s="13">
-        <f>COUNTIFS($D$8:$D$202,H11)</f>
-        <v>0</v>
-      </c>
+        <v>43539</v>
+      </c>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="18">
-        <v>43541</v>
-      </c>
-      <c r="H41" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="I41" s="13">
-        <f>COUNTIFS($D$8:$D$202,H13)</f>
-        <v>1</v>
-      </c>
+        <v>43540</v>
+      </c>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="18">
-        <v>43542</v>
-      </c>
+        <v>43541</v>
+      </c>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="18">
-        <v>43543</v>
+        <v>43542</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="18">
-        <v>43544</v>
+        <v>43543</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="18">
-        <v>43545</v>
+        <v>43544</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="18">
-        <v>43546</v>
+        <v>43545</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="18">
-        <v>43547</v>
+        <v>43546</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="18">
-        <v>43548</v>
+        <v>43547</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="18">
-        <v>43549</v>
+        <v>43548</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="18">
-        <v>43550</v>
+        <v>43549</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" s="18">
-        <v>43551</v>
+        <v>43550</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="18">
-        <v>43552</v>
+        <v>43551</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" s="18">
-        <v>43553</v>
+        <v>43552</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" s="18">
-        <v>43554</v>
+        <v>43553</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="18">
+        <v>43554</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" s="18">
         <v>43555</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56" s="18"/>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" s="18"/>
@@ -6525,7 +6587,7 @@
       <c r="A104" s="18"/>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A105" s="36"/>
+      <c r="A105" s="18"/>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" s="36"/>
@@ -6549,22 +6611,25 @@
       <c r="A112" s="36"/>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A113" s="18"/>
+      <c r="A113" s="36"/>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A114" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A105:A108"/>
-    <mergeCell ref="A109:A112"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="A32:A34"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="A4:A8"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A106:A109"/>
+    <mergeCell ref="A110:A113"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A33:A35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6646,7 +6711,7 @@
       <c r="E6" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="I6" s="42"/>
+      <c r="I6" s="38"/>
       <c r="J6" s="29"/>
     </row>
     <row r="7" spans="1:50" ht="43" customHeight="1" x14ac:dyDescent="0.2">
@@ -6657,7 +6722,7 @@
       <c r="E7" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="I7" s="42"/>
+      <c r="I7" s="38"/>
       <c r="J7" s="29"/>
     </row>
     <row r="8" spans="1:50" ht="43" customHeight="1" x14ac:dyDescent="0.2">
@@ -6668,7 +6733,7 @@
       <c r="E8" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="I8" s="42"/>
+      <c r="I8" s="38"/>
       <c r="J8" s="29"/>
     </row>
     <row r="9" spans="1:50" ht="43" customHeight="1" x14ac:dyDescent="0.2">
@@ -6679,7 +6744,7 @@
       <c r="E9" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="I9" s="42"/>
+      <c r="I9" s="38"/>
       <c r="J9" s="29"/>
     </row>
     <row r="10" spans="1:50" ht="43" customHeight="1" x14ac:dyDescent="0.2">
@@ -6691,7 +6756,7 @@
         <v>132</v>
       </c>
       <c r="F10" s="33"/>
-      <c r="I10" s="42"/>
+      <c r="I10" s="38"/>
       <c r="J10" s="29"/>
     </row>
     <row r="11" spans="1:50" s="4" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">

--- a/健忘症患者的账本.xlsx
+++ b/健忘症患者的账本.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="147">
   <si>
     <t>日期</t>
     <rPh sb="0" eb="1">
@@ -1249,6 +1249,26 @@
     <t>合计</t>
     <rPh sb="0" eb="1">
       <t>he'ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>难吃的辣条</t>
+    <rPh sb="0" eb="1">
+      <t>nan'chi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>la'tiao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超市</t>
+    <rPh sb="0" eb="1">
+      <t>chao'hsi</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1801,14 +1821,14 @@
       </c>
       <c r="F2">
         <f ca="1">DATE(2019,1,1)-TODAY()</f>
-        <v>-63</v>
+        <v>-65</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I2">
         <f ca="1">C2/F2</f>
-        <v>41.224761904761905</v>
+        <v>39.956307692307689</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="8" customFormat="1" ht="61" customHeight="1" x14ac:dyDescent="0.2">
@@ -1830,7 +1850,7 @@
       <c r="H3" s="38"/>
       <c r="I3" s="8">
         <f ca="1">C2/(F2-1)</f>
-        <v>40.580624999999998</v>
+        <v>39.350909090909092</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -3221,14 +3241,14 @@
       </c>
       <c r="F2">
         <f ca="1">DATE(2019,2,1)-TODAY()</f>
-        <v>-32</v>
+        <v>-34</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I2">
         <f ca="1">C2/F2</f>
-        <v>81.500312500000035</v>
+        <v>76.706176470588275</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="77" customHeight="1" x14ac:dyDescent="0.2">
@@ -3250,7 +3270,7 @@
       <c r="H3" s="8"/>
       <c r="I3" s="8">
         <f ca="1">C2/(F2-1)</f>
-        <v>79.03060606060609</v>
+        <v>74.514571428571458</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -4618,14 +4638,14 @@
       </c>
       <c r="F2">
         <f ca="1">DATE(2019,3,1)-TODAY()</f>
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I2">
         <f ca="1">C2/F2</f>
-        <v>508.49499999999989</v>
+        <v>338.99666666666661</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -4640,7 +4660,7 @@
       </c>
       <c r="I3">
         <f ca="1">C2/(F2-1)</f>
-        <v>406.79599999999994</v>
+        <v>290.56857142857137</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -5848,8 +5868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5872,7 +5892,7 @@
       </c>
       <c r="C1" s="5">
         <f>SUMIF(B4:B179,"&lt;0")</f>
-        <v>-1785.01</v>
+        <v>-1829.62</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="5"/>
@@ -5884,21 +5904,21 @@
       </c>
       <c r="C2">
         <f>3000+C1</f>
-        <v>1214.99</v>
+        <v>1170.3800000000001</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>18</v>
       </c>
       <c r="F2">
         <f ca="1">DATE(2019,4,1)-TODAY()</f>
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I2">
         <f ca="1">C2/F2</f>
-        <v>44.999629629629631</v>
+        <v>46.815200000000004</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="77" customHeight="1" x14ac:dyDescent="0.2">
@@ -5920,7 +5940,7 @@
       <c r="H3" s="8"/>
       <c r="I3" s="8">
         <f ca="1">C2/(F2-1)</f>
-        <v>46.730384615384615</v>
+        <v>48.76583333333334</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -6087,7 +6107,7 @@
       </c>
       <c r="J11">
         <f ca="1">SUMIF($D$4:$D206,H11,$B$4:$B$205)</f>
-        <v>-80.010000000000005</v>
+        <v>-124.62</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
@@ -6228,7 +6248,7 @@
       </c>
       <c r="J19">
         <f ca="1">SUM(J10:J14)</f>
-        <v>-1785.01</v>
+        <v>-1829.62</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -6259,9 +6279,27 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="36"/>
+      <c r="B22">
+        <v>-16</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="36"/>
+      <c r="B23">
+        <v>-3.5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>145</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="36">
@@ -6279,9 +6317,27 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="36"/>
+      <c r="B25">
+        <v>-14</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="36"/>
+      <c r="B26">
+        <v>-11.11</v>
+      </c>
+      <c r="C26" t="s">
+        <v>146</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="36">

--- a/健忘症患者的账本.xlsx
+++ b/健忘症患者的账本.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="169">
   <si>
     <t>日期</t>
     <rPh sb="0" eb="1">
@@ -1269,6 +1269,169 @@
     <t>超市</t>
     <rPh sb="0" eb="1">
       <t>chao'hsi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饮料</t>
+    <rPh sb="0" eb="1">
+      <t>yin'l</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>充电宝</t>
+    <rPh sb="0" eb="1">
+      <t>c'd'b</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来回机票</t>
+    <rPh sb="0" eb="1">
+      <t>lai'hui</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ji'p</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酒店</t>
+    <rPh sb="0" eb="1">
+      <t>jiu'd</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉堡王</t>
+    <rPh sb="0" eb="1">
+      <t>han'bao'w</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故宫门票</t>
+    <rPh sb="0" eb="1">
+      <t>gu'gong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>men'p</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>榴莲</t>
+    <rPh sb="0" eb="1">
+      <t>liu'lian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚饭+午饭</t>
+    <rPh sb="0" eb="1">
+      <t>wan'fan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>wu'fan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苹果</t>
+    <rPh sb="0" eb="1">
+      <t>p'g</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语书</t>
+    <rPh sb="0" eb="1">
+      <t>ying'yu'shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>麻花</t>
+    <rPh sb="0" eb="1">
+      <t>ma'hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大麦若叶</t>
+    <rPh sb="0" eb="1">
+      <t>da'mai'ruo'ye</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烧烤</t>
+    <rPh sb="0" eb="1">
+      <t>shao'kao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水</t>
+    <rPh sb="0" eb="1">
+      <t>shui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桂圆</t>
+    <rPh sb="0" eb="1">
+      <t>gui'yuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>豆腐</t>
+    <rPh sb="0" eb="1">
+      <t>dou'fu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泡菜</t>
+    <rPh sb="0" eb="1">
+      <t>pao'cai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓜子</t>
+    <rPh sb="0" eb="1">
+      <t>gua'zi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芝麻糊</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'ma'hu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快递费</t>
+    <rPh sb="0" eb="1">
+      <t>kuai'di'fei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改机票</t>
+    <rPh sb="0" eb="1">
+      <t>xiu'gai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ji'piao</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1405,9 +1568,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1429,9 +1589,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1452,10 +1609,32 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1464,29 +1643,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1794,7 +1955,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="39" t="s">
         <v>26</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -1808,7 +1969,7 @@
       <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41"/>
+      <c r="A2" s="40"/>
       <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
@@ -1821,14 +1982,14 @@
       </c>
       <c r="F2">
         <f ca="1">DATE(2019,1,1)-TODAY()</f>
-        <v>-65</v>
+        <v>-87</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I2">
         <f ca="1">C2/F2</f>
-        <v>39.956307692307689</v>
+        <v>29.852413793103448</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="8" customFormat="1" ht="61" customHeight="1" x14ac:dyDescent="0.2">
@@ -1841,20 +2002,20 @@
       <c r="C3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
       <c r="I3" s="8">
         <f ca="1">C2/(F2-1)</f>
-        <v>39.350909090909092</v>
+        <v>29.513181818181817</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="36">
+      <c r="A4" s="38">
         <v>43435</v>
       </c>
       <c r="B4">
@@ -1868,7 +2029,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="36"/>
+      <c r="A5" s="38"/>
       <c r="B5">
         <v>-20</v>
       </c>
@@ -1894,7 +2055,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="36">
+      <c r="A7" s="38">
         <v>43437</v>
       </c>
       <c r="B7">
@@ -1908,7 +2069,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="36"/>
+      <c r="A8" s="38"/>
       <c r="B8">
         <v>-89</v>
       </c>
@@ -1929,7 +2090,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="36"/>
+      <c r="A9" s="38"/>
       <c r="B9">
         <v>-6</v>
       </c>
@@ -1951,7 +2112,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="36"/>
+      <c r="A10" s="38"/>
       <c r="B10">
         <v>-4</v>
       </c>
@@ -1980,7 +2141,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="39">
+      <c r="A11" s="41">
         <v>43438</v>
       </c>
       <c r="B11">
@@ -2004,7 +2165,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="39"/>
+      <c r="A12" s="41"/>
       <c r="B12">
         <v>18</v>
       </c>
@@ -2023,7 +2184,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="39"/>
+      <c r="A13" s="41"/>
       <c r="B13">
         <v>-7</v>
       </c>
@@ -2045,7 +2206,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="39"/>
+      <c r="A14" s="41"/>
       <c r="B14">
         <v>-8</v>
       </c>
@@ -2057,7 +2218,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="39"/>
+      <c r="A15" s="41"/>
       <c r="B15">
         <v>-6</v>
       </c>
@@ -2069,7 +2230,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="39"/>
+      <c r="A16" s="41"/>
       <c r="B16">
         <v>-34.799999999999997</v>
       </c>
@@ -2081,7 +2242,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="36">
+      <c r="A17" s="38">
         <v>43439</v>
       </c>
       <c r="B17">
@@ -2096,7 +2257,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="36"/>
+      <c r="A18" s="38"/>
       <c r="B18">
         <v>-1468</v>
       </c>
@@ -2108,7 +2269,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="36"/>
+      <c r="A19" s="38"/>
       <c r="B19" s="2">
         <v>-6</v>
       </c>
@@ -2120,7 +2281,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="36"/>
+      <c r="A20" s="38"/>
       <c r="B20">
         <v>7</v>
       </c>
@@ -2129,7 +2290,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="36"/>
+      <c r="A21" s="38"/>
       <c r="B21">
         <v>-4</v>
       </c>
@@ -2141,7 +2302,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="36"/>
+      <c r="A22" s="38"/>
       <c r="B22">
         <v>-29.9</v>
       </c>
@@ -2153,7 +2314,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="39">
+      <c r="A23" s="41">
         <v>43440</v>
       </c>
       <c r="B23">
@@ -2167,7 +2328,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="39"/>
+      <c r="A24" s="41"/>
       <c r="B24">
         <v>-5</v>
       </c>
@@ -2179,7 +2340,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="39"/>
+      <c r="A25" s="41"/>
       <c r="B25">
         <v>-9</v>
       </c>
@@ -2191,7 +2352,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="39"/>
+      <c r="A26" s="41"/>
       <c r="B26">
         <v>-249</v>
       </c>
@@ -2203,7 +2364,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="39"/>
+      <c r="A27" s="41"/>
       <c r="B27">
         <v>-13.88</v>
       </c>
@@ -2215,7 +2376,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="39">
+      <c r="A28" s="41">
         <v>43441</v>
       </c>
       <c r="B28">
@@ -2229,7 +2390,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="39"/>
+      <c r="A29" s="41"/>
       <c r="B29">
         <v>-6</v>
       </c>
@@ -2241,7 +2402,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="39"/>
+      <c r="A30" s="41"/>
       <c r="B30">
         <v>-4</v>
       </c>
@@ -2253,7 +2414,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="39"/>
+      <c r="A31" s="41"/>
       <c r="B31">
         <v>-18</v>
       </c>
@@ -2265,7 +2426,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="39"/>
+      <c r="A32" s="41"/>
       <c r="B32">
         <f>-89-129-119-89</f>
         <v>-426</v>
@@ -2278,7 +2439,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="36">
+      <c r="A33" s="38">
         <v>43442</v>
       </c>
       <c r="B33">
@@ -2292,7 +2453,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="36">
+      <c r="A34" s="38">
         <v>43443</v>
       </c>
       <c r="B34">
@@ -2306,7 +2467,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="36"/>
+      <c r="A35" s="38"/>
       <c r="B35">
         <v>-2</v>
       </c>
@@ -2356,7 +2517,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="36">
+      <c r="A39" s="38">
         <v>43445</v>
       </c>
       <c r="B39">
@@ -2370,7 +2531,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="36"/>
+      <c r="A40" s="38"/>
       <c r="B40">
         <v>-4</v>
       </c>
@@ -2382,7 +2543,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="36"/>
+      <c r="A41" s="38"/>
       <c r="B41">
         <v>-5</v>
       </c>
@@ -2394,7 +2555,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="36"/>
+      <c r="A42" s="38"/>
       <c r="B42">
         <v>-16</v>
       </c>
@@ -2406,7 +2567,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="36">
+      <c r="A43" s="38">
         <v>43446</v>
       </c>
       <c r="B43">
@@ -2420,7 +2581,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="36"/>
+      <c r="A44" s="38"/>
       <c r="B44">
         <v>-8</v>
       </c>
@@ -2432,7 +2593,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="36"/>
+      <c r="A45" s="38"/>
       <c r="B45">
         <v>-5</v>
       </c>
@@ -2444,7 +2605,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="36"/>
+      <c r="A46" s="38"/>
       <c r="B46">
         <v>-13</v>
       </c>
@@ -2456,7 +2617,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="36">
+      <c r="A47" s="38">
         <v>43447</v>
       </c>
       <c r="B47">
@@ -2470,7 +2631,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="36"/>
+      <c r="A48" s="38"/>
       <c r="B48">
         <v>-6</v>
       </c>
@@ -2482,7 +2643,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="36"/>
+      <c r="A49" s="38"/>
       <c r="B49">
         <v>-16</v>
       </c>
@@ -2494,7 +2655,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="36"/>
+      <c r="A50" s="38"/>
       <c r="B50">
         <v>-13</v>
       </c>
@@ -2506,7 +2667,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="36"/>
+      <c r="A51" s="38"/>
       <c r="B51">
         <v>-99</v>
       </c>
@@ -2518,7 +2679,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="36">
+      <c r="A52" s="38">
         <v>43448</v>
       </c>
       <c r="B52">
@@ -2532,7 +2693,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="36"/>
+      <c r="A53" s="38"/>
       <c r="B53">
         <v>-14</v>
       </c>
@@ -2544,7 +2705,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="36"/>
+      <c r="A54" s="38"/>
       <c r="B54">
         <v>-13</v>
       </c>
@@ -2556,7 +2717,7 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="36">
+      <c r="A55" s="38">
         <v>43449</v>
       </c>
       <c r="B55">
@@ -2570,7 +2731,7 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="36"/>
+      <c r="A56" s="38"/>
       <c r="B56">
         <v>-20</v>
       </c>
@@ -2582,7 +2743,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="36">
+      <c r="A57" s="38">
         <v>43450</v>
       </c>
       <c r="B57">
@@ -2596,7 +2757,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="36"/>
+      <c r="A58" s="38"/>
       <c r="B58">
         <v>-30</v>
       </c>
@@ -2608,7 +2769,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="36">
+      <c r="A59" s="38">
         <v>43451</v>
       </c>
       <c r="B59">
@@ -2622,7 +2783,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="36"/>
+      <c r="A60" s="38"/>
       <c r="B60">
         <v>-4.5</v>
       </c>
@@ -2634,7 +2795,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="36"/>
+      <c r="A61" s="38"/>
       <c r="B61">
         <v>-12</v>
       </c>
@@ -2646,7 +2807,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="36">
+      <c r="A62" s="38">
         <v>43452</v>
       </c>
       <c r="B62">
@@ -2660,7 +2821,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="36"/>
+      <c r="A63" s="38"/>
       <c r="B63">
         <v>-16</v>
       </c>
@@ -2672,7 +2833,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="36"/>
+      <c r="A64" s="38"/>
       <c r="B64">
         <v>-670</v>
       </c>
@@ -2684,7 +2845,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="36">
+      <c r="A65" s="38">
         <v>43453</v>
       </c>
       <c r="B65">
@@ -2698,7 +2859,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="36"/>
+      <c r="A66" s="38"/>
       <c r="B66">
         <v>-16</v>
       </c>
@@ -2710,7 +2871,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="36"/>
+      <c r="A67" s="38"/>
       <c r="B67">
         <v>-12</v>
       </c>
@@ -2722,7 +2883,7 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="36">
+      <c r="A68" s="38">
         <v>43454</v>
       </c>
       <c r="B68">
@@ -2736,7 +2897,7 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="36"/>
+      <c r="A69" s="38"/>
       <c r="B69">
         <v>-18</v>
       </c>
@@ -2748,7 +2909,7 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="36"/>
+      <c r="A70" s="38"/>
       <c r="B70">
         <v>-982</v>
       </c>
@@ -2760,7 +2921,7 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="36">
+      <c r="A71" s="38">
         <v>43455</v>
       </c>
       <c r="B71">
@@ -2774,7 +2935,7 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="36"/>
+      <c r="A72" s="38"/>
       <c r="B72">
         <v>-4</v>
       </c>
@@ -2786,7 +2947,7 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="36"/>
+      <c r="A73" s="38"/>
       <c r="B73">
         <v>-4</v>
       </c>
@@ -2798,7 +2959,7 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="36">
+      <c r="A74" s="38">
         <v>43456</v>
       </c>
       <c r="B74">
@@ -2812,7 +2973,7 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="36"/>
+      <c r="A75" s="38"/>
       <c r="B75">
         <v>-13</v>
       </c>
@@ -2824,7 +2985,7 @@
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="36"/>
+      <c r="A76" s="38"/>
       <c r="B76">
         <v>-15</v>
       </c>
@@ -2836,7 +2997,7 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="36"/>
+      <c r="A77" s="38"/>
       <c r="B77">
         <v>-30</v>
       </c>
@@ -2848,7 +3009,7 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="36"/>
+      <c r="A78" s="38"/>
       <c r="B78">
         <v>-15</v>
       </c>
@@ -2860,7 +3021,7 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="36"/>
+      <c r="A79" s="38"/>
       <c r="B79">
         <v>-42</v>
       </c>
@@ -2877,7 +3038,7 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="36">
+      <c r="A81" s="38">
         <v>43458</v>
       </c>
       <c r="B81">
@@ -2891,7 +3052,7 @@
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="36"/>
+      <c r="A82" s="38"/>
       <c r="B82">
         <v>-16</v>
       </c>
@@ -2903,7 +3064,7 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="36">
+      <c r="A83" s="38">
         <v>43459</v>
       </c>
       <c r="B83">
@@ -2917,7 +3078,7 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="36"/>
+      <c r="A84" s="38"/>
       <c r="B84">
         <v>-16</v>
       </c>
@@ -2929,7 +3090,7 @@
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="36">
+      <c r="A85" s="38">
         <v>43460</v>
       </c>
       <c r="B85">
@@ -2943,7 +3104,7 @@
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="36"/>
+      <c r="A86" s="38"/>
       <c r="B86">
         <v>-4</v>
       </c>
@@ -2955,7 +3116,7 @@
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="36"/>
+      <c r="A87" s="38"/>
       <c r="B87">
         <v>-62</v>
       </c>
@@ -2967,7 +3128,7 @@
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="36">
+      <c r="A88" s="38">
         <v>43461</v>
       </c>
       <c r="B88">
@@ -2981,7 +3142,7 @@
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" s="36"/>
+      <c r="A89" s="38"/>
       <c r="B89">
         <v>-16</v>
       </c>
@@ -2993,7 +3154,7 @@
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" s="36"/>
+      <c r="A90" s="38"/>
       <c r="B90">
         <v>-18.8</v>
       </c>
@@ -3005,7 +3166,7 @@
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="36">
+      <c r="A91" s="38">
         <v>43462</v>
       </c>
       <c r="B91">
@@ -3019,7 +3180,7 @@
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" s="36"/>
+      <c r="A92" s="38"/>
       <c r="B92">
         <v>-14</v>
       </c>
@@ -3031,7 +3192,7 @@
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="36"/>
+      <c r="A93" s="38"/>
       <c r="B93">
         <v>-239</v>
       </c>
@@ -3043,7 +3204,7 @@
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="36"/>
+      <c r="A94" s="38"/>
       <c r="B94">
         <v>-12</v>
       </c>
@@ -3055,7 +3216,7 @@
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="36">
+      <c r="A95" s="38">
         <v>43463</v>
       </c>
       <c r="B95">
@@ -3069,7 +3230,7 @@
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" s="36"/>
+      <c r="A96" s="38"/>
       <c r="B96">
         <v>-6</v>
       </c>
@@ -3081,7 +3242,7 @@
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" s="36"/>
+      <c r="A97" s="38"/>
       <c r="B97">
         <v>-4</v>
       </c>
@@ -3093,7 +3254,7 @@
       </c>
     </row>
     <row r="98" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="36"/>
+      <c r="A98" s="38"/>
       <c r="B98">
         <v>-39</v>
       </c>
@@ -3105,7 +3266,7 @@
       </c>
     </row>
     <row r="99" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="36">
+      <c r="A99" s="38">
         <v>43464</v>
       </c>
       <c r="B99">
@@ -3119,7 +3280,7 @@
       </c>
     </row>
     <row r="100" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="36"/>
+      <c r="A100" s="38"/>
       <c r="B100">
         <v>-50.4</v>
       </c>
@@ -3131,7 +3292,7 @@
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A101" s="36"/>
+      <c r="A101" s="38"/>
       <c r="B101">
         <v>-30</v>
       </c>
@@ -3158,6 +3319,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A85:A87"/>
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="A95:A98"/>
+    <mergeCell ref="A74:A79"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="A28:A32"/>
     <mergeCell ref="A99:A101"/>
     <mergeCell ref="A68:A70"/>
     <mergeCell ref="A62:A64"/>
@@ -3174,20 +3349,6 @@
     <mergeCell ref="A59:A61"/>
     <mergeCell ref="A88:A90"/>
     <mergeCell ref="A57:A58"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="A85:A87"/>
-    <mergeCell ref="A71:A73"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="A95:A98"/>
-    <mergeCell ref="A74:A79"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3214,7 +3375,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="39" t="s">
         <v>62</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -3228,7 +3389,7 @@
       <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="41"/>
+      <c r="A2" s="40"/>
       <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
@@ -3241,14 +3402,14 @@
       </c>
       <c r="F2">
         <f ca="1">DATE(2019,2,1)-TODAY()</f>
-        <v>-34</v>
+        <v>-56</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I2">
         <f ca="1">C2/F2</f>
-        <v>76.706176470588275</v>
+        <v>46.571607142857161</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="77" customHeight="1" x14ac:dyDescent="0.2">
@@ -3270,7 +3431,7 @@
       <c r="H3" s="8"/>
       <c r="I3" s="8">
         <f ca="1">C2/(F2-1)</f>
-        <v>74.514571428571458</v>
+        <v>45.754561403508795</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -3293,7 +3454,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="36">
+      <c r="A5" s="38">
         <v>43467</v>
       </c>
       <c r="B5">
@@ -3316,7 +3477,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="36"/>
+      <c r="A6" s="38"/>
       <c r="B6">
         <v>-16</v>
       </c>
@@ -3338,7 +3499,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="36"/>
+      <c r="A7" s="38"/>
       <c r="B7">
         <v>-24</v>
       </c>
@@ -3367,7 +3528,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="36">
+      <c r="A8" s="38">
         <v>43468</v>
       </c>
       <c r="B8">
@@ -3391,7 +3552,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="36"/>
+      <c r="A9" s="38"/>
       <c r="B9">
         <v>-16</v>
       </c>
@@ -3413,7 +3574,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="36"/>
+      <c r="A10" s="38"/>
       <c r="B10">
         <v>-15</v>
       </c>
@@ -3435,7 +3596,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="36">
+      <c r="A11" s="38">
         <v>43469</v>
       </c>
       <c r="B11">
@@ -3450,7 +3611,7 @@
       <c r="I11" s="4"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="36"/>
+      <c r="A12" s="38"/>
       <c r="B12">
         <v>-1453</v>
       </c>
@@ -3462,7 +3623,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="36"/>
+      <c r="A13" s="38"/>
       <c r="B13">
         <v>-4</v>
       </c>
@@ -3474,7 +3635,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="36"/>
+      <c r="A14" s="38"/>
       <c r="B14">
         <v>-55</v>
       </c>
@@ -3486,7 +3647,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="36"/>
+      <c r="A15" s="38"/>
       <c r="B15">
         <v>-11</v>
       </c>
@@ -3651,7 +3812,7 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="36">
+      <c r="A25" s="38">
         <v>43472</v>
       </c>
       <c r="B25">
@@ -3665,7 +3826,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="36"/>
+      <c r="A26" s="38"/>
       <c r="B26">
         <v>-4</v>
       </c>
@@ -3677,7 +3838,7 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="36"/>
+      <c r="A27" s="38"/>
       <c r="B27">
         <v>-218</v>
       </c>
@@ -3689,7 +3850,7 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="36">
+      <c r="A28" s="38">
         <v>43473</v>
       </c>
       <c r="B28">
@@ -3703,7 +3864,7 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="36"/>
+      <c r="A29" s="38"/>
       <c r="B29">
         <v>-16</v>
       </c>
@@ -3715,7 +3876,7 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="36"/>
+      <c r="A30" s="38"/>
       <c r="B30">
         <v>-245</v>
       </c>
@@ -3727,7 +3888,7 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="39">
+      <c r="A31" s="41">
         <v>43474</v>
       </c>
       <c r="B31">
@@ -3741,7 +3902,7 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="39"/>
+      <c r="A32" s="41"/>
       <c r="B32">
         <v>-4</v>
       </c>
@@ -3753,7 +3914,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="39"/>
+      <c r="A33" s="41"/>
       <c r="B33">
         <v>-500</v>
       </c>
@@ -3765,7 +3926,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="39"/>
+      <c r="A34" s="41"/>
       <c r="B34">
         <v>-16</v>
       </c>
@@ -3777,7 +3938,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="36">
+      <c r="A35" s="38">
         <v>43475</v>
       </c>
       <c r="B35">
@@ -3791,7 +3952,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="36"/>
+      <c r="A36" s="38"/>
       <c r="B36">
         <v>-6.5</v>
       </c>
@@ -3803,7 +3964,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="36">
+      <c r="A37" s="38">
         <v>43476</v>
       </c>
       <c r="B37">
@@ -3817,7 +3978,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="36"/>
+      <c r="A38" s="38"/>
       <c r="B38">
         <v>-31</v>
       </c>
@@ -3829,7 +3990,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="36"/>
+      <c r="A39" s="38"/>
       <c r="B39">
         <v>-15</v>
       </c>
@@ -3838,7 +3999,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="36"/>
+      <c r="A40" s="38"/>
       <c r="B40">
         <v>-49</v>
       </c>
@@ -3850,7 +4011,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="36"/>
+      <c r="A41" s="38"/>
       <c r="B41">
         <v>-8</v>
       </c>
@@ -3893,7 +4054,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="36">
+      <c r="A45" s="38">
         <v>43479</v>
       </c>
       <c r="B45">
@@ -3907,7 +4068,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="36"/>
+      <c r="A46" s="38"/>
       <c r="B46">
         <v>-8</v>
       </c>
@@ -3919,7 +4080,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="36"/>
+      <c r="A47" s="38"/>
       <c r="B47">
         <v>-6</v>
       </c>
@@ -3931,7 +4092,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="36">
+      <c r="A48" s="38">
         <v>43480</v>
       </c>
       <c r="B48">
@@ -3945,7 +4106,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="36"/>
+      <c r="A49" s="38"/>
       <c r="B49">
         <v>-8</v>
       </c>
@@ -3957,7 +4118,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="36"/>
+      <c r="A50" s="38"/>
       <c r="B50">
         <v>-2.5</v>
       </c>
@@ -3969,7 +4130,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="36"/>
+      <c r="A51" s="38"/>
       <c r="B51">
         <v>-6</v>
       </c>
@@ -3981,7 +4142,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="36">
+      <c r="A52" s="38">
         <v>43481</v>
       </c>
       <c r="B52">
@@ -3995,7 +4156,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="36"/>
+      <c r="A53" s="38"/>
       <c r="B53">
         <v>-10</v>
       </c>
@@ -4007,7 +4168,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="36"/>
+      <c r="A54" s="38"/>
       <c r="B54">
         <v>-8</v>
       </c>
@@ -4019,7 +4180,7 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="36"/>
+      <c r="A55" s="38"/>
       <c r="B55">
         <v>-23</v>
       </c>
@@ -4031,7 +4192,7 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="36">
+      <c r="A56" s="38">
         <v>43482</v>
       </c>
       <c r="B56">
@@ -4045,7 +4206,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="36"/>
+      <c r="A57" s="38"/>
       <c r="B57">
         <v>-8</v>
       </c>
@@ -4057,7 +4218,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="36"/>
+      <c r="A58" s="38"/>
       <c r="B58">
         <v>-8.6999999999999993</v>
       </c>
@@ -4069,7 +4230,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="36"/>
+      <c r="A59" s="38"/>
       <c r="B59">
         <v>-110</v>
       </c>
@@ -4081,7 +4242,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="36"/>
+      <c r="A60" s="38"/>
       <c r="B60">
         <v>-14.5</v>
       </c>
@@ -4093,7 +4254,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="36">
+      <c r="A61" s="38">
         <v>43483</v>
       </c>
       <c r="B61">
@@ -4107,7 +4268,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="36"/>
+      <c r="A62" s="38"/>
       <c r="B62">
         <v>-16</v>
       </c>
@@ -4183,7 +4344,7 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="36">
+      <c r="A68" s="38">
         <v>43486</v>
       </c>
       <c r="B68">
@@ -4197,7 +4358,7 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="36"/>
+      <c r="A69" s="38"/>
       <c r="B69">
         <v>-4</v>
       </c>
@@ -4209,7 +4370,7 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="36">
+      <c r="A70" s="38">
         <v>43487</v>
       </c>
       <c r="B70">
@@ -4223,7 +4384,7 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="36"/>
+      <c r="A71" s="38"/>
       <c r="B71">
         <v>-12.75</v>
       </c>
@@ -4235,7 +4396,7 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="36">
+      <c r="A72" s="38">
         <v>43488</v>
       </c>
       <c r="B72">
@@ -4249,7 +4410,7 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="36"/>
+      <c r="A73" s="38"/>
       <c r="B73">
         <v>-10</v>
       </c>
@@ -4261,7 +4422,7 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="36"/>
+      <c r="A74" s="38"/>
       <c r="B74">
         <v>-4</v>
       </c>
@@ -4273,7 +4434,7 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="36">
+      <c r="A75" s="38">
         <v>43489</v>
       </c>
       <c r="B75">
@@ -4287,7 +4448,7 @@
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="36"/>
+      <c r="A76" s="38"/>
       <c r="B76">
         <v>-10</v>
       </c>
@@ -4299,7 +4460,7 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="36">
+      <c r="A77" s="38">
         <v>43490</v>
       </c>
       <c r="B77">
@@ -4313,7 +4474,7 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="36"/>
+      <c r="A78" s="38"/>
       <c r="B78">
         <v>-4.8</v>
       </c>
@@ -4322,7 +4483,7 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="36"/>
+      <c r="A79" s="38"/>
       <c r="B79">
         <v>-10</v>
       </c>
@@ -4334,7 +4495,7 @@
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="36"/>
+      <c r="A80" s="38"/>
       <c r="B80">
         <v>-12</v>
       </c>
@@ -4346,7 +4507,7 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="36"/>
+      <c r="A81" s="38"/>
       <c r="B81">
         <v>-6</v>
       </c>
@@ -4398,7 +4559,7 @@
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="36">
+      <c r="A85" s="38">
         <v>43493</v>
       </c>
       <c r="B85">
@@ -4412,7 +4573,7 @@
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="36"/>
+      <c r="A86" s="38"/>
       <c r="B86">
         <v>-4</v>
       </c>
@@ -4424,7 +4585,7 @@
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="36"/>
+      <c r="A87" s="38"/>
       <c r="B87">
         <v>-4.8</v>
       </c>
@@ -4436,7 +4597,7 @@
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="36">
+      <c r="A88" s="38">
         <v>43494</v>
       </c>
       <c r="B88">
@@ -4450,7 +4611,7 @@
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" s="36"/>
+      <c r="A89" s="38"/>
       <c r="B89">
         <v>-4.46</v>
       </c>
@@ -4462,7 +4623,7 @@
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" s="36"/>
+      <c r="A90" s="38"/>
       <c r="B90">
         <v>-16.34</v>
       </c>
@@ -4474,7 +4635,7 @@
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="36"/>
+      <c r="A91" s="38"/>
       <c r="B91">
         <v>-6</v>
       </c>
@@ -4486,7 +4647,7 @@
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" s="36">
+      <c r="A92" s="38">
         <v>43495</v>
       </c>
       <c r="B92">
@@ -4500,7 +4661,7 @@
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="36"/>
+      <c r="A93" s="38"/>
       <c r="B93">
         <v>-4.21</v>
       </c>
@@ -4512,7 +4673,7 @@
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="36"/>
+      <c r="A94" s="38"/>
       <c r="B94">
         <v>-10</v>
       </c>
@@ -4524,7 +4685,7 @@
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="36"/>
+      <c r="A95" s="38"/>
       <c r="B95">
         <v>-1441</v>
       </c>
@@ -4551,6 +4712,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A5:A7"/>
     <mergeCell ref="A85:A87"/>
     <mergeCell ref="A88:A91"/>
     <mergeCell ref="A92:A95"/>
@@ -4567,18 +4740,6 @@
     <mergeCell ref="A56:A60"/>
     <mergeCell ref="A72:A74"/>
     <mergeCell ref="A75:A76"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="A5:A7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4606,7 +4767,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="39" t="s">
         <v>25</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -4625,7 +4786,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41"/>
+      <c r="A2" s="40"/>
       <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
@@ -4638,14 +4799,14 @@
       </c>
       <c r="F2">
         <f ca="1">DATE(2019,3,1)-TODAY()</f>
-        <v>-6</v>
+        <v>-28</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I2">
         <f ca="1">C2/F2</f>
-        <v>338.99666666666661</v>
+        <v>72.642142857142844</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -4660,7 +4821,7 @@
       </c>
       <c r="I3">
         <f ca="1">C2/(F2-1)</f>
-        <v>290.56857142857137</v>
+        <v>70.137241379310325</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -4740,7 +4901,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="43">
+      <c r="A10" s="46">
         <v>43498</v>
       </c>
       <c r="B10">
@@ -4751,7 +4912,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="43"/>
+      <c r="A11" s="46"/>
       <c r="B11">
         <v>-5.4</v>
       </c>
@@ -4767,7 +4928,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="43"/>
+      <c r="A12" s="46"/>
       <c r="B12">
         <v>-22.5</v>
       </c>
@@ -4776,7 +4937,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="43"/>
+      <c r="A13" s="46"/>
       <c r="B13">
         <v>-83.23</v>
       </c>
@@ -4785,7 +4946,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="43">
+      <c r="A14" s="46">
         <v>43499</v>
       </c>
       <c r="B14">
@@ -4796,7 +4957,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="43"/>
+      <c r="A15" s="46"/>
       <c r="B15">
         <v>-49.8</v>
       </c>
@@ -4810,7 +4971,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="43">
+      <c r="A17" s="46">
         <v>43501</v>
       </c>
       <c r="B17">
@@ -4821,7 +4982,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="43"/>
+      <c r="A18" s="46"/>
       <c r="B18">
         <v>-300</v>
       </c>
@@ -4830,7 +4991,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="43"/>
+      <c r="A19" s="46"/>
       <c r="B19">
         <v>-149</v>
       </c>
@@ -4996,7 +5157,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="36">
+      <c r="A36" s="38">
         <v>43507</v>
       </c>
       <c r="B36">
@@ -5010,7 +5171,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="44"/>
+      <c r="A37" s="45"/>
       <c r="B37">
         <v>-12</v>
       </c>
@@ -5022,7 +5183,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="36">
+      <c r="A38" s="38">
         <v>43508</v>
       </c>
       <c r="B38">
@@ -5036,7 +5197,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="36"/>
+      <c r="A39" s="38"/>
       <c r="B39">
         <v>-16</v>
       </c>
@@ -5048,7 +5209,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="36">
+      <c r="A40" s="38">
         <v>43509</v>
       </c>
       <c r="B40">
@@ -5062,7 +5223,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="36"/>
+      <c r="A41" s="38"/>
       <c r="B41">
         <v>-12</v>
       </c>
@@ -5074,7 +5235,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="36"/>
+      <c r="A42" s="38"/>
       <c r="B42">
         <v>-14</v>
       </c>
@@ -5086,7 +5247,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="36"/>
+      <c r="A43" s="38"/>
       <c r="B43">
         <v>-4</v>
       </c>
@@ -5098,7 +5259,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="36">
+      <c r="A44" s="38">
         <v>43510</v>
       </c>
       <c r="B44">
@@ -5112,7 +5273,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="36"/>
+      <c r="A45" s="38"/>
       <c r="B45">
         <v>0</v>
       </c>
@@ -5124,7 +5285,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="36"/>
+      <c r="A46" s="38"/>
       <c r="B46">
         <v>-14</v>
       </c>
@@ -5136,7 +5297,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="36">
+      <c r="A47" s="38">
         <v>43511</v>
       </c>
       <c r="B47">
@@ -5150,7 +5311,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="36"/>
+      <c r="A48" s="38"/>
       <c r="B48">
         <v>-4</v>
       </c>
@@ -5162,7 +5323,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="36"/>
+      <c r="A49" s="38"/>
       <c r="B49">
         <v>-12</v>
       </c>
@@ -5238,7 +5399,7 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="36">
+      <c r="A55" s="38">
         <v>43514</v>
       </c>
       <c r="B55">
@@ -5252,7 +5413,7 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="36"/>
+      <c r="A56" s="38"/>
       <c r="B56">
         <v>-10</v>
       </c>
@@ -5264,7 +5425,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="36"/>
+      <c r="A57" s="38"/>
       <c r="B57">
         <v>-10</v>
       </c>
@@ -5276,7 +5437,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="36"/>
+      <c r="A58" s="38"/>
       <c r="B58">
         <v>-2.5</v>
       </c>
@@ -5288,7 +5449,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="36"/>
+      <c r="A59" s="38"/>
       <c r="B59">
         <v>-5</v>
       </c>
@@ -5300,7 +5461,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="36">
+      <c r="A60" s="38">
         <v>43515</v>
       </c>
       <c r="B60">
@@ -5314,7 +5475,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="36"/>
+      <c r="A61" s="38"/>
       <c r="B61">
         <v>-11</v>
       </c>
@@ -5326,7 +5487,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="36"/>
+      <c r="A62" s="38"/>
       <c r="B62">
         <v>-1250</v>
       </c>
@@ -5338,7 +5499,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="36"/>
+      <c r="A63" s="38"/>
       <c r="B63">
         <v>-12</v>
       </c>
@@ -5350,7 +5511,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="36"/>
+      <c r="A64" s="38"/>
       <c r="B64">
         <v>-203</v>
       </c>
@@ -5362,7 +5523,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="36"/>
+      <c r="A65" s="38"/>
       <c r="B65">
         <v>-23</v>
       </c>
@@ -5374,7 +5535,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="36"/>
+      <c r="A66" s="38"/>
       <c r="B66">
         <v>-16</v>
       </c>
@@ -5386,7 +5547,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="36">
+      <c r="A67" s="38">
         <v>43516</v>
       </c>
       <c r="B67">
@@ -5400,7 +5561,7 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="36"/>
+      <c r="A68" s="38"/>
       <c r="B68">
         <v>-26</v>
       </c>
@@ -5412,7 +5573,7 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="36"/>
+      <c r="A69" s="38"/>
       <c r="B69">
         <v>-2.5</v>
       </c>
@@ -5424,7 +5585,7 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="36">
+      <c r="A70" s="38">
         <v>43517</v>
       </c>
       <c r="B70">
@@ -5438,7 +5599,7 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="36"/>
+      <c r="A71" s="38"/>
       <c r="B71">
         <v>-7</v>
       </c>
@@ -5450,7 +5611,7 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="36"/>
+      <c r="A72" s="38"/>
       <c r="B72">
         <v>-20</v>
       </c>
@@ -5462,7 +5623,7 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="36">
+      <c r="A73" s="38">
         <v>43518</v>
       </c>
       <c r="B73">
@@ -5476,7 +5637,7 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="36"/>
+      <c r="A74" s="38"/>
       <c r="B74">
         <v>-7.83</v>
       </c>
@@ -5488,7 +5649,7 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="36"/>
+      <c r="A75" s="38"/>
       <c r="B75">
         <v>-16</v>
       </c>
@@ -5500,7 +5661,7 @@
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="36"/>
+      <c r="A76" s="38"/>
       <c r="B76">
         <v>-3.5</v>
       </c>
@@ -5601,7 +5762,7 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="36">
+      <c r="A84" s="38">
         <v>43521</v>
       </c>
       <c r="B84">
@@ -5615,7 +5776,7 @@
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="36"/>
+      <c r="A85" s="38"/>
       <c r="B85">
         <v>-4</v>
       </c>
@@ -5627,7 +5788,7 @@
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="36"/>
+      <c r="A86" s="38"/>
       <c r="B86">
         <v>-4</v>
       </c>
@@ -5639,7 +5800,7 @@
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="36">
+      <c r="A87" s="38">
         <v>43522</v>
       </c>
       <c r="B87">
@@ -5653,7 +5814,7 @@
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="36"/>
+      <c r="A88" s="38"/>
       <c r="B88">
         <v>-3.8</v>
       </c>
@@ -5665,7 +5826,7 @@
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" s="36"/>
+      <c r="A89" s="38"/>
       <c r="B89">
         <v>-10.84</v>
       </c>
@@ -5677,7 +5838,7 @@
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" s="36"/>
+      <c r="A90" s="38"/>
       <c r="B90">
         <v>-18</v>
       </c>
@@ -5689,7 +5850,7 @@
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="36">
+      <c r="A91" s="38">
         <v>43523</v>
       </c>
       <c r="B91">
@@ -5703,7 +5864,7 @@
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" s="36"/>
+      <c r="A92" s="38"/>
       <c r="B92">
         <v>-4</v>
       </c>
@@ -5715,7 +5876,7 @@
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="36"/>
+      <c r="A93" s="38"/>
       <c r="B93">
         <v>-4.4000000000000004</v>
       </c>
@@ -5727,7 +5888,7 @@
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="36"/>
+      <c r="A94" s="38"/>
       <c r="B94">
         <v>-9.5399999999999991</v>
       </c>
@@ -5739,7 +5900,7 @@
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="36">
+      <c r="A95" s="38">
         <v>43524</v>
       </c>
       <c r="B95">
@@ -5753,7 +5914,7 @@
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" s="36"/>
+      <c r="A96" s="38"/>
       <c r="B96">
         <v>-16</v>
       </c>
@@ -5765,7 +5926,7 @@
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" s="36"/>
+      <c r="A97" s="38"/>
       <c r="B97">
         <v>-4</v>
       </c>
@@ -5777,7 +5938,7 @@
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98" s="36"/>
+      <c r="A98" s="38"/>
       <c r="B98">
         <v>-3</v>
       </c>
@@ -5789,7 +5950,7 @@
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99" s="36"/>
+      <c r="A99" s="38"/>
       <c r="B99">
         <v>-7.9</v>
       </c>
@@ -5801,7 +5962,7 @@
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100" s="36"/>
+      <c r="A100" s="38"/>
       <c r="B100">
         <v>-16</v>
       </c>
@@ -5832,6 +5993,24 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A25:A34"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="A55:A59"/>
+    <mergeCell ref="A60:A66"/>
+    <mergeCell ref="A67:A69"/>
     <mergeCell ref="A87:A90"/>
     <mergeCell ref="A91:A94"/>
     <mergeCell ref="A95:A100"/>
@@ -5840,24 +6019,6 @@
     <mergeCell ref="A77:A79"/>
     <mergeCell ref="A80:A83"/>
     <mergeCell ref="A84:A86"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="A55:A59"/>
-    <mergeCell ref="A60:A66"/>
-    <mergeCell ref="A67:A69"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A25:A34"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5866,69 +6027,71 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N114"/>
+  <dimension ref="A1:N169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="D105" sqref="D105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.1640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.1640625" style="36" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="13"/>
     <col min="4" max="4" width="23.33203125" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
     <col min="8" max="8" width="23.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="25.33203125" customWidth="1"/>
     <col min="12" max="12" width="5.33203125" customWidth="1"/>
     <col min="13" max="13" width="17.6640625" customWidth="1"/>
+    <col min="34" max="34" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="39" t="s">
         <v>120</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="5">
-        <f>SUMIF(B4:B179,"&lt;0")</f>
-        <v>-1829.62</v>
+      <c r="C1" s="37">
+        <f>SUMIF(B4:B234,"&lt;0")</f>
+        <v>-3556.8400000000006</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="46"/>
+      <c r="A2" s="40"/>
       <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="13">
         <f>3000+C1</f>
-        <v>1170.3800000000001</v>
+        <v>-556.8400000000006</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>18</v>
       </c>
       <c r="F2">
         <f ca="1">DATE(2019,4,1)-TODAY()</f>
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I2">
         <f ca="1">C2/F2</f>
-        <v>46.815200000000004</v>
+        <v>-185.61333333333354</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="77" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="34" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="12" t="s">
@@ -5940,7 +6103,7 @@
       <c r="H3" s="8"/>
       <c r="I3" s="8">
         <f ca="1">C2/(F2-1)</f>
-        <v>48.76583333333334</v>
+        <v>-278.4200000000003</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -5949,13 +6112,13 @@
       <c r="N3" s="8"/>
     </row>
     <row r="4" spans="1:14" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="36">
+      <c r="A4" s="41">
         <v>43525</v>
       </c>
       <c r="B4" s="8">
         <v>-11</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="34" t="s">
         <v>116</v>
       </c>
       <c r="D4" s="12">
@@ -5973,11 +6136,11 @@
       <c r="N4" s="8"/>
     </row>
     <row r="5" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="36"/>
+      <c r="A5" s="41"/>
       <c r="B5" s="8">
         <v>-17</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="34" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="12">
@@ -5995,11 +6158,11 @@
       <c r="N5" s="8"/>
     </row>
     <row r="6" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="36"/>
+      <c r="A6" s="41"/>
       <c r="B6" s="8">
         <v>-10</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="34" t="s">
         <v>139</v>
       </c>
       <c r="D6" s="12">
@@ -6017,11 +6180,11 @@
       <c r="N6" s="8"/>
     </row>
     <row r="7" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="36"/>
+      <c r="A7" s="41"/>
       <c r="B7" s="8">
         <v>-10</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="34" t="s">
         <v>138</v>
       </c>
       <c r="D7" s="12">
@@ -6039,11 +6202,11 @@
       <c r="N7" s="8"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="36"/>
+      <c r="A8" s="41"/>
       <c r="B8">
         <v>-11.75</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="13" t="s">
         <v>59</v>
       </c>
       <c r="D8">
@@ -6065,13 +6228,13 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="42">
+      <c r="A10" s="46">
         <v>43527</v>
       </c>
       <c r="B10">
         <v>-30</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="13" t="s">
         <v>36</v>
       </c>
       <c r="D10">
@@ -6084,16 +6247,16 @@
         <v>142</v>
       </c>
       <c r="J10">
-        <f>SUMIF($D$4:$D205,H10,$B$4:$B$205)</f>
-        <v>-68</v>
+        <f>SUMIF($D$4:$D260,H10,$B$4:$B$260)</f>
+        <v>-244</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="42"/>
+      <c r="A11" s="46"/>
       <c r="B11">
         <v>-2</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="13" t="s">
         <v>17</v>
       </c>
       <c r="D11">
@@ -6106,16 +6269,16 @@
         <v>143</v>
       </c>
       <c r="J11">
-        <f ca="1">SUMIF($D$4:$D206,H11,$B$4:$B$205)</f>
-        <v>-124.62</v>
+        <f ca="1">SUMIF($D$4:$D261,H11,$B$4:$B$260)</f>
+        <v>-866.54999999999984</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="42"/>
+      <c r="A12" s="46"/>
       <c r="B12">
         <v>-49</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="13" t="s">
         <v>141</v>
       </c>
       <c r="D12">
@@ -6128,16 +6291,16 @@
         <v>45</v>
       </c>
       <c r="J12">
-        <f ca="1">SUMIF($D$4:$D207,H12,$B$4:$B$205)</f>
-        <v>-198</v>
+        <f ca="1">SUMIF($D$4:$D262,H12,$B$4:$B$260)</f>
+        <v>-1003.2900000000001</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="42"/>
+      <c r="A13" s="46"/>
       <c r="B13">
         <v>-109</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="13" t="s">
         <v>140</v>
       </c>
       <c r="D13">
@@ -6150,18 +6313,18 @@
         <v>46</v>
       </c>
       <c r="J13">
-        <f ca="1">SUMIF($D$4:$D208,H13,$B$4:$B$205)</f>
+        <f ca="1">SUMIF($D$4:$D263,H13,$B$4:$B$260)</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="36">
+      <c r="A14" s="41">
         <v>43528</v>
       </c>
       <c r="B14">
         <v>-11</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="13" t="s">
         <v>17</v>
       </c>
       <c r="D14">
@@ -6174,16 +6337,16 @@
         <v>40</v>
       </c>
       <c r="J14">
-        <f ca="1">SUMIF($D$4:$D209,H14,$B$4:$B$205)</f>
+        <f ca="1">SUMIF($D$4:$D264,H14,$B$4:$B$260)</f>
         <v>-1439</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="36"/>
+      <c r="A15" s="41"/>
       <c r="B15">
         <v>-1439</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="13" t="s">
         <v>3</v>
       </c>
       <c r="D15">
@@ -6192,11 +6355,11 @@
       <c r="I15" s="4"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="36"/>
+      <c r="A16" s="41"/>
       <c r="B16">
         <v>-16</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="13" t="s">
         <v>7</v>
       </c>
       <c r="D16">
@@ -6205,11 +6368,11 @@
       <c r="I16" s="4"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="36"/>
+      <c r="A17" s="41"/>
       <c r="B17">
         <v>-3</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D17">
@@ -6218,13 +6381,13 @@
       <c r="I17" s="4"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="36">
+      <c r="A18" s="41">
         <v>43529</v>
       </c>
       <c r="B18">
         <v>-11</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="13" t="s">
         <v>17</v>
       </c>
       <c r="D18">
@@ -6233,11 +6396,11 @@
       <c r="I18" s="4"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="36"/>
+      <c r="A19" s="41"/>
       <c r="B19">
         <v>-16.260000000000002</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="13" t="s">
         <v>59</v>
       </c>
       <c r="D19">
@@ -6248,15 +6411,15 @@
       </c>
       <c r="J19">
         <f ca="1">SUM(J10:J14)</f>
-        <v>-1829.62</v>
+        <v>-3552.8399999999997</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="36"/>
+      <c r="A20" s="41"/>
       <c r="B20">
         <v>-6</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="13" t="s">
         <v>4</v>
       </c>
       <c r="D20">
@@ -6264,13 +6427,13 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="36">
+      <c r="A21" s="41">
         <v>43530</v>
       </c>
       <c r="B21">
         <v>-11</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="13" t="s">
         <v>121</v>
       </c>
       <c r="D21">
@@ -6278,11 +6441,11 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="36"/>
+      <c r="A22" s="41"/>
       <c r="B22">
         <v>-16</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="13" t="s">
         <v>7</v>
       </c>
       <c r="D22">
@@ -6290,11 +6453,11 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="36"/>
+      <c r="A23" s="41"/>
       <c r="B23">
         <v>-3.5</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="13" t="s">
         <v>145</v>
       </c>
       <c r="D23">
@@ -6302,13 +6465,13 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="36">
+      <c r="A24" s="41">
         <v>43531</v>
       </c>
       <c r="B24">
         <v>-11</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="13" t="s">
         <v>17</v>
       </c>
       <c r="D24">
@@ -6316,11 +6479,11 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="36"/>
+      <c r="A25" s="41"/>
       <c r="B25">
         <v>-14</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="13" t="s">
         <v>7</v>
       </c>
       <c r="D25">
@@ -6328,364 +6491,1275 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="36"/>
+      <c r="A26" s="41"/>
       <c r="B26">
+        <v>-24</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="41"/>
+      <c r="B27">
+        <v>-19.899999999999999</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="41"/>
+      <c r="B28">
         <v>-11.11</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C28" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="D26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="36">
+      <c r="D28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="41">
         <v>43532</v>
       </c>
-      <c r="B27">
+      <c r="B29">
         <v>-11</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C29" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="36"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="36"/>
+      <c r="D29">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="42">
+      <c r="A30" s="41"/>
+      <c r="B30">
+        <v>-22</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="41"/>
+      <c r="B31">
+        <v>-3</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="41"/>
+      <c r="B32">
+        <v>-1</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="D32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="46">
         <v>43533</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="42"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="42"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="42">
+      <c r="B33">
+        <v>-46.5</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="46"/>
+      <c r="B34">
+        <v>-32.6</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="46"/>
+      <c r="B35">
+        <v>-51</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="46"/>
+      <c r="B36">
+        <v>-36.9</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="46">
         <v>43534</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="42"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="42"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="18">
+      <c r="B37">
+        <v>-2.8</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="46"/>
+      <c r="B38">
+        <v>-6</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="46"/>
+      <c r="B39">
+        <v>-30</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="35"/>
+      <c r="B40">
+        <v>-36</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="41">
         <v>43535</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="18">
+      <c r="B41">
+        <v>-11</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="41"/>
+      <c r="B42">
+        <v>-4</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="41"/>
+      <c r="B43">
+        <v>-14.76</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="41">
         <v>43536</v>
       </c>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="18">
+      <c r="B44">
+        <v>-11</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="41"/>
+      <c r="B45">
+        <v>-22</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="41"/>
+      <c r="B46">
+        <v>-8.4</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="H46" s="13"/>
+      <c r="I46" s="13"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="41">
         <v>43537</v>
       </c>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="18">
+      <c r="B47">
+        <v>-11</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="H47" s="13"/>
+      <c r="I47" s="13"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="41"/>
+      <c r="B48">
+        <v>-10</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="H48" s="13"/>
+      <c r="I48" s="13"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" s="41">
         <v>43538</v>
       </c>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="18">
+      <c r="B49">
+        <v>-11</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="H49" s="13"/>
+      <c r="I49" s="13"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" s="41"/>
+      <c r="B50">
+        <v>-18</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="H50" s="13"/>
+      <c r="I50" s="13"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="41"/>
+      <c r="B51">
+        <v>-10</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="H51" s="13"/>
+      <c r="I51" s="13"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" s="41"/>
+      <c r="B52">
+        <v>-65.55</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="H52" s="13"/>
+      <c r="I52" s="13"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" s="41"/>
+      <c r="B53">
+        <v>-2.5</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+      <c r="H53" s="13"/>
+      <c r="I53" s="13"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" s="41">
         <v>43539</v>
       </c>
-      <c r="H40" s="13"/>
-      <c r="I40" s="13"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="18">
+      <c r="B54">
+        <v>-11</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="H54" s="13"/>
+      <c r="I54" s="13"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" s="41"/>
+      <c r="B55">
+        <v>-4</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H55" s="13"/>
+      <c r="I55" s="13"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" s="41"/>
+      <c r="H56" s="13"/>
+      <c r="I56" s="13"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" s="46">
         <v>43540</v>
       </c>
-      <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="18">
+      <c r="B57">
+        <v>-475</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D57">
+        <v>3</v>
+      </c>
+      <c r="H57" s="13"/>
+      <c r="I57" s="13"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" s="46"/>
+      <c r="B58">
+        <v>-35</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58">
+        <v>2</v>
+      </c>
+      <c r="H58" s="13"/>
+      <c r="I58" s="13"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59" s="46"/>
+      <c r="B59">
+        <v>-21</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="D59">
+        <v>2</v>
+      </c>
+      <c r="H59" s="13"/>
+      <c r="I59" s="13"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60" s="46">
         <v>43541</v>
       </c>
-      <c r="H42" s="13"/>
-      <c r="I42" s="13"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="18">
+      <c r="B60">
+        <v>-15.8</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="D60">
+        <v>2</v>
+      </c>
+      <c r="H60" s="13"/>
+      <c r="I60" s="13"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61" s="46"/>
+      <c r="B61">
+        <v>-13</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D61">
+        <v>2</v>
+      </c>
+      <c r="H61" s="13"/>
+      <c r="I61" s="13"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62" s="46"/>
+      <c r="B62">
+        <v>-3</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="D62">
+        <v>2</v>
+      </c>
+      <c r="H62" s="13"/>
+      <c r="I62" s="13"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63" s="41">
         <v>43542</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="18">
+      <c r="B63">
+        <v>-11</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="H63" s="13"/>
+      <c r="I63" s="13"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64" s="41"/>
+      <c r="B64">
+        <v>-4</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D64">
+        <v>2</v>
+      </c>
+      <c r="H64" s="13"/>
+      <c r="I64" s="13"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="41"/>
+      <c r="B65">
+        <v>-2.4</v>
+      </c>
+      <c r="C65" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="41">
         <v>43543</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="18">
+      <c r="B66">
+        <v>-11</v>
+      </c>
+      <c r="C66" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="41"/>
+      <c r="B67">
+        <v>-16</v>
+      </c>
+      <c r="C67" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="41"/>
+      <c r="B68">
+        <v>-17</v>
+      </c>
+      <c r="C68" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="41">
         <v>43544</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="18">
+      <c r="B69">
+        <v>-11</v>
+      </c>
+      <c r="C69" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="41"/>
+      <c r="B70">
+        <v>-16</v>
+      </c>
+      <c r="C70" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="41"/>
+      <c r="B71">
+        <v>-7</v>
+      </c>
+      <c r="C71" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="41">
         <v>43545</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="18">
+      <c r="B72">
+        <v>-11</v>
+      </c>
+      <c r="C72" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="41"/>
+      <c r="B73">
+        <v>-14</v>
+      </c>
+      <c r="C73" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="41"/>
+      <c r="B74">
+        <v>-1.5</v>
+      </c>
+      <c r="C74" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="D74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="41"/>
+      <c r="B75">
+        <v>-7.8</v>
+      </c>
+      <c r="C75" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="41"/>
+      <c r="B76">
+        <v>-3.5</v>
+      </c>
+      <c r="C76" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="D76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="41">
         <v>43546</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="18">
+      <c r="B77">
+        <v>-11</v>
+      </c>
+      <c r="C77" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="41"/>
+      <c r="B78">
+        <v>-17.399999999999999</v>
+      </c>
+      <c r="C78" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="D78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="41"/>
+      <c r="B79">
+        <v>-20.100000000000001</v>
+      </c>
+      <c r="C79" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="D79">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="41"/>
+      <c r="B80">
+        <v>-44.7</v>
+      </c>
+      <c r="C80" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="D80">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="41"/>
+      <c r="B81">
+        <v>-2.1</v>
+      </c>
+      <c r="C81" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D81">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="41"/>
+      <c r="B82">
+        <v>-16</v>
+      </c>
+      <c r="C82" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="46">
         <v>43547</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" s="18">
+      <c r="B83">
+        <v>-6</v>
+      </c>
+      <c r="C83" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="46"/>
+      <c r="B84">
+        <v>-62</v>
+      </c>
+      <c r="C84" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="46">
         <v>43548</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" s="18">
+      <c r="B85">
+        <v>-30</v>
+      </c>
+      <c r="C85" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D85">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="46"/>
+      <c r="B86">
+        <v>-10.75</v>
+      </c>
+      <c r="C86" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D86">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="46"/>
+      <c r="B87">
+        <v>-37.119999999999997</v>
+      </c>
+      <c r="C87" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D87">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="41">
         <v>43549</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" s="18">
+      <c r="B88">
+        <v>-11</v>
+      </c>
+      <c r="C88" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="41"/>
+      <c r="B89">
+        <v>-4</v>
+      </c>
+      <c r="C89" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="41"/>
+      <c r="B90">
+        <v>-40</v>
+      </c>
+      <c r="C90" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D90">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="41"/>
+      <c r="B91">
+        <v>-16.02</v>
+      </c>
+      <c r="C91" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D91">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" s="41"/>
+      <c r="B92">
+        <v>-4</v>
+      </c>
+      <c r="C92" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="D92">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="41">
         <v>43550</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" s="18">
+      <c r="B93">
+        <v>-11</v>
+      </c>
+      <c r="C93" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="41"/>
+      <c r="B94">
+        <v>-24</v>
+      </c>
+      <c r="C94" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="41"/>
+      <c r="B95">
+        <v>-3</v>
+      </c>
+      <c r="C95" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D95">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="41">
         <v>43551</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" s="18">
+      <c r="B96">
+        <v>-11</v>
+      </c>
+      <c r="C96" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="41"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="41"/>
+      <c r="B98">
+        <v>-10</v>
+      </c>
+      <c r="C98" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" s="41">
         <v>43552</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" s="18">
+      <c r="B99">
+        <v>-11</v>
+      </c>
+      <c r="C99" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" s="41"/>
+      <c r="B100">
+        <v>-6.72</v>
+      </c>
+      <c r="C100" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="D100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" s="41"/>
+      <c r="B101">
+        <v>-2</v>
+      </c>
+      <c r="C101" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" s="41"/>
+      <c r="B102">
+        <v>-9</v>
+      </c>
+      <c r="C102" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D102">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" s="41">
         <v>43553</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55" s="18">
+      <c r="B103">
+        <v>-11</v>
+      </c>
+      <c r="C103" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" s="41"/>
+      <c r="B104">
+        <v>-3.4</v>
+      </c>
+      <c r="C104" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" s="41"/>
+      <c r="B105">
+        <v>-30</v>
+      </c>
+      <c r="C105" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" s="46">
         <v>43554</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56" s="18">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" s="46"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" s="46"/>
+      <c r="B108">
+        <v>-30</v>
+      </c>
+      <c r="C108" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D108">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" s="41">
         <v>43555</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57" s="18"/>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A58" s="18"/>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A59" s="18"/>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A60" s="18"/>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A61" s="18"/>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A62" s="18"/>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A63" s="18"/>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A64" s="18"/>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A65" s="18"/>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A66" s="18"/>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A67" s="18"/>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A68" s="18"/>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A69" s="18"/>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A70" s="18"/>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A71" s="18"/>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A72" s="18"/>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A73" s="18"/>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A74" s="18"/>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A75" s="18"/>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A76" s="18"/>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A77" s="18"/>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A78" s="18"/>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A79" s="18"/>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A80" s="18"/>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A81" s="18"/>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A82" s="18"/>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A83" s="18"/>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A84" s="18"/>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A85" s="18"/>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A86" s="18"/>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A87" s="18"/>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A88" s="18"/>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A89" s="18"/>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A90" s="18"/>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A91" s="18"/>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A92" s="18"/>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A93" s="18"/>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A94" s="18"/>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A95" s="18"/>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A96" s="18"/>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A97" s="18"/>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A98" s="18"/>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A99" s="18"/>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A100" s="18"/>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A101" s="18"/>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A102" s="18"/>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A103" s="18"/>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A104" s="18"/>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A105" s="18"/>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A106" s="36"/>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A107" s="36"/>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A108" s="36"/>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A109" s="36"/>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A110" s="36"/>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A111" s="36"/>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A112" s="36"/>
+      <c r="B109">
+        <v>-11</v>
+      </c>
+      <c r="C109" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" s="41"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" s="41"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" s="33"/>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A113" s="36"/>
+      <c r="A113" s="33"/>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A114" s="18"/>
+      <c r="A114" s="33"/>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A115" s="33"/>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A116" s="33"/>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A117" s="33"/>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A118" s="33"/>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A119" s="33"/>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A120" s="33"/>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A121" s="33"/>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A122" s="33"/>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A123" s="33"/>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A124" s="33"/>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A125" s="33"/>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A126" s="33"/>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A127" s="33"/>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A128" s="33"/>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A129" s="33"/>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A130" s="33"/>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A131" s="33"/>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A132" s="33"/>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A133" s="33"/>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A134" s="33"/>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A135" s="33"/>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A136" s="33"/>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A137" s="33"/>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A138" s="33"/>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A139" s="33"/>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A140" s="33"/>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A141" s="33"/>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A142" s="33"/>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A143" s="33"/>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A144" s="33"/>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A145" s="33"/>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A146" s="33"/>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A147" s="33"/>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A148" s="33"/>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A149" s="33"/>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A150" s="33"/>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A151" s="33"/>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A152" s="33"/>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A153" s="33"/>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A154" s="33"/>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A155" s="33"/>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A156" s="33"/>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A157" s="33"/>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A158" s="33"/>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A159" s="33"/>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A160" s="33"/>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A161" s="41"/>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A162" s="41"/>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A163" s="41"/>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A164" s="41"/>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A165" s="41"/>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A166" s="41"/>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A167" s="41"/>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A168" s="41"/>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A169" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="33">
+    <mergeCell ref="A161:A164"/>
+    <mergeCell ref="A165:A168"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="A33:A36"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A49:A53"/>
+    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="A109:A111"/>
+    <mergeCell ref="A106:A108"/>
+    <mergeCell ref="A103:A105"/>
+    <mergeCell ref="A99:A102"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="A4:A8"/>
-    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A24:A28"/>
     <mergeCell ref="A14:A17"/>
     <mergeCell ref="A18:A20"/>
     <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A106:A109"/>
-    <mergeCell ref="A110:A113"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="A96:A98"/>
+    <mergeCell ref="A93:A95"/>
+    <mergeCell ref="A88:A92"/>
+    <mergeCell ref="A85:A87"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="A77:A82"/>
+    <mergeCell ref="A72:A76"/>
+    <mergeCell ref="A69:A71"/>
+    <mergeCell ref="A66:A68"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6697,20 +7771,20 @@
   <dimension ref="A1:AX20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="2" style="4" customWidth="1"/>
-    <col min="3" max="3" width="20.1640625" style="23" customWidth="1"/>
-    <col min="4" max="4" width="24.5" style="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.1640625" style="20" customWidth="1"/>
-    <col min="6" max="6" width="2.1640625" style="29" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" style="22" customWidth="1"/>
+    <col min="4" max="4" width="24.5" style="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.1640625" style="19" customWidth="1"/>
+    <col min="6" max="6" width="2.1640625" style="27" customWidth="1"/>
     <col min="7" max="7" width="26.33203125" style="8" customWidth="1"/>
     <col min="8" max="8" width="23.5" style="8" customWidth="1"/>
     <col min="9" max="9" width="16.5" style="8" customWidth="1"/>
-    <col min="10" max="10" width="1.83203125" style="28" customWidth="1"/>
+    <col min="10" max="10" width="1.83203125" style="26" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.2">
@@ -6735,97 +7809,109 @@
         <v>122</v>
       </c>
       <c r="E4" s="48"/>
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="H4" s="28" t="s">
+      <c r="H4" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="I4" s="28" t="s">
+      <c r="I4" s="26" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:50" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="47"/>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="M5" t="s">
+        <v>149</v>
+      </c>
+      <c r="N5">
+        <v>-2239</v>
+      </c>
     </row>
     <row r="6" spans="1:50" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="49">
         <v>43585</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="I6" s="38"/>
-      <c r="J6" s="29"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="27"/>
+      <c r="M6" t="s">
+        <v>150</v>
+      </c>
+      <c r="N6">
+        <v>-600</v>
+      </c>
     </row>
     <row r="7" spans="1:50" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="49"/>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="I7" s="38"/>
-      <c r="J7" s="29"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="27"/>
     </row>
     <row r="8" spans="1:50" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="49"/>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="I8" s="38"/>
-      <c r="J8" s="29"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="27"/>
     </row>
     <row r="9" spans="1:50" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="49"/>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="I9" s="38"/>
-      <c r="J9" s="29"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="27"/>
     </row>
     <row r="10" spans="1:50" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="49"/>
-      <c r="D10" s="31">
+      <c r="D10" s="29">
         <v>0.99305555555555547</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="F10" s="33"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="29"/>
+      <c r="F10" s="31"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="27"/>
     </row>
     <row r="11" spans="1:50" s="4" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
       <c r="K11"/>
       <c r="L11"/>
       <c r="M11"/>
@@ -6871,10 +7957,10 @@
       <c r="C12" s="49">
         <v>43586</v>
       </c>
-      <c r="D12" s="31">
+      <c r="D12" s="29">
         <v>0.14930555555555555</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="19" t="s">
         <v>135</v>
       </c>
     </row>
@@ -6891,32 +7977,32 @@
       <c r="C16" s="49"/>
     </row>
     <row r="17" spans="1:12" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C17" s="25">
+      <c r="C17" s="24">
         <v>43587</v>
       </c>
-      <c r="E17" s="24"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="22"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
     </row>
     <row r="18" spans="1:12" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="27"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="25">
+      <c r="A18" s="25"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="24">
         <v>43588</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C19" s="25">
+      <c r="C19" s="24">
         <v>43589</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C20" s="25">
+      <c r="C20" s="24">
         <v>43590</v>
       </c>
     </row>

--- a/健忘症患者的账本.xlsx
+++ b/健忘症患者的账本.xlsx
@@ -9,14 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="880" yWindow="460" windowWidth="27920" windowHeight="17540" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="880" yWindow="460" windowWidth="27920" windowHeight="17540" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="12月" sheetId="1" r:id="rId1"/>
     <sheet name="1月" sheetId="2" r:id="rId2"/>
     <sheet name="2月&amp;过年" sheetId="3" r:id="rId3"/>
     <sheet name="3月" sheetId="7" r:id="rId4"/>
-    <sheet name="泰国行" sheetId="8" r:id="rId5"/>
+    <sheet name="4月" sheetId="10" r:id="rId5"/>
+    <sheet name="泰国行" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="187">
   <si>
     <t>日期</t>
     <rPh sb="0" eb="1">
@@ -1287,151 +1288,292 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>来回机票</t>
+    <t>酒店</t>
+    <rPh sb="0" eb="1">
+      <t>jiu'd</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉堡王</t>
+    <rPh sb="0" eb="1">
+      <t>han'bao'w</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故宫门票</t>
+    <rPh sb="0" eb="1">
+      <t>gu'gong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>men'p</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>榴莲</t>
+    <rPh sb="0" eb="1">
+      <t>liu'lian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚饭+午饭</t>
+    <rPh sb="0" eb="1">
+      <t>wan'fan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>wu'fan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苹果</t>
+    <rPh sb="0" eb="1">
+      <t>p'g</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语书</t>
+    <rPh sb="0" eb="1">
+      <t>ying'yu'shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>麻花</t>
+    <rPh sb="0" eb="1">
+      <t>ma'hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大麦若叶</t>
+    <rPh sb="0" eb="1">
+      <t>da'mai'ruo'ye</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烧烤</t>
+    <rPh sb="0" eb="1">
+      <t>shao'kao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水</t>
+    <rPh sb="0" eb="1">
+      <t>shui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桂圆</t>
+    <rPh sb="0" eb="1">
+      <t>gui'yuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>豆腐</t>
+    <rPh sb="0" eb="1">
+      <t>dou'fu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泡菜</t>
+    <rPh sb="0" eb="1">
+      <t>pao'cai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓜子</t>
+    <rPh sb="0" eb="1">
+      <t>gua'zi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芝麻糊</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'ma'hu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快递费</t>
+    <rPh sb="0" eb="1">
+      <t>kuai'di'fei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医院</t>
+    <rPh sb="0" eb="1">
+      <t>yi'yuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/4月</t>
+    <rPh sb="6" eb="7">
+      <t>yue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午饭</t>
+    <rPh sb="0" eb="1">
+      <t>wu fan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超市</t>
+    <rPh sb="0" eb="1">
+      <t>c s</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚饭</t>
+    <rPh sb="0" eb="1">
+      <t>wan fan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天津酒店</t>
+    <rPh sb="0" eb="1">
+      <t>tian jin</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jiu dian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来回火车票</t>
+    <rPh sb="0" eb="1">
+      <t>lai hui</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>huo che p</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香奈儿小样</t>
+    <rPh sb="0" eb="1">
+      <t>xiang nai er</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xiao yang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汗蒸</t>
+    <rPh sb="0" eb="1">
+      <t>han zheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>裤子</t>
+    <rPh sb="0" eb="1">
+      <t>ku zi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房租</t>
+    <rPh sb="0" eb="1">
+      <t>fang zu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早饭</t>
+    <rPh sb="0" eb="1">
+      <t>zao fan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>豆腐</t>
+    <rPh sb="0" eb="1">
+      <t>dou fu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计</t>
+    <rPh sb="0" eb="1">
+      <t>he ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来回机票+签证</t>
     <rPh sb="0" eb="1">
       <t>lai'hui</t>
     </rPh>
     <rPh sb="2" eb="3">
       <t>ji'p</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>酒店</t>
-    <rPh sb="0" eb="1">
-      <t>jiu'd</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汉堡王</t>
-    <rPh sb="0" eb="1">
-      <t>han'bao'w</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>故宫门票</t>
-    <rPh sb="0" eb="1">
-      <t>gu'gong</t>
+    <rPh sb="5" eb="6">
+      <t>qian zheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妙英：</t>
+    <rPh sb="0" eb="1">
+      <t>miao ying</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ying</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我：</t>
+    <rPh sb="0" eb="1">
+      <t>w</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辣白菜</t>
+    <rPh sb="0" eb="1">
+      <t>la bai cai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超市</t>
+    <rPh sb="0" eb="1">
+      <t>chao shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改机票</t>
+    <rPh sb="0" eb="1">
+      <t>xiu g</t>
     </rPh>
     <rPh sb="2" eb="3">
-      <t>men'p</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>榴莲</t>
-    <rPh sb="0" eb="1">
-      <t>liu'lian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晚饭+午饭</t>
-    <rPh sb="0" eb="1">
-      <t>wan'fan</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>wu'fan</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>苹果</t>
-    <rPh sb="0" eb="1">
-      <t>p'g</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英语书</t>
-    <rPh sb="0" eb="1">
-      <t>ying'yu'shu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>麻花</t>
-    <rPh sb="0" eb="1">
-      <t>ma'hua</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大麦若叶</t>
-    <rPh sb="0" eb="1">
-      <t>da'mai'ruo'ye</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>烧烤</t>
-    <rPh sb="0" eb="1">
-      <t>shao'kao</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水</t>
-    <rPh sb="0" eb="1">
-      <t>shui</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>桂圆</t>
-    <rPh sb="0" eb="1">
-      <t>gui'yuan</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>豆腐</t>
-    <rPh sb="0" eb="1">
-      <t>dou'fu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>泡菜</t>
-    <rPh sb="0" eb="1">
-      <t>pao'cai</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>瓜子</t>
-    <rPh sb="0" eb="1">
-      <t>gua'zi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>芝麻糊</t>
-    <rPh sb="0" eb="1">
-      <t>zhi'ma'hu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>快递费</t>
-    <rPh sb="0" eb="1">
-      <t>kuai'di'fei</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改机票</t>
-    <rPh sb="0" eb="1">
-      <t>xiu'gai</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ji'piao</t>
+      <t>ji piao</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1525,7 +1667,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1623,12 +1765,12 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1637,17 +1779,35 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1955,7 +2115,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="48" t="s">
         <v>26</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -1969,7 +2129,7 @@
       <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
+      <c r="A2" s="49"/>
       <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
@@ -1982,14 +2142,14 @@
       </c>
       <c r="F2">
         <f ca="1">DATE(2019,1,1)-TODAY()</f>
-        <v>-87</v>
+        <v>-98</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I2">
         <f ca="1">C2/F2</f>
-        <v>29.852413793103448</v>
+        <v>26.501632653061222</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="8" customFormat="1" ht="61" customHeight="1" x14ac:dyDescent="0.2">
@@ -2002,20 +2162,20 @@
       <c r="C3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="D3" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
       <c r="I3" s="8">
         <f ca="1">C2/(F2-1)</f>
-        <v>29.513181818181817</v>
+        <v>26.233939393939391</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="38">
+      <c r="A4" s="44">
         <v>43435</v>
       </c>
       <c r="B4">
@@ -2029,7 +2189,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="38"/>
+      <c r="A5" s="44"/>
       <c r="B5">
         <v>-20</v>
       </c>
@@ -2055,7 +2215,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="38">
+      <c r="A7" s="44">
         <v>43437</v>
       </c>
       <c r="B7">
@@ -2069,7 +2229,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="38"/>
+      <c r="A8" s="44"/>
       <c r="B8">
         <v>-89</v>
       </c>
@@ -2090,7 +2250,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="38"/>
+      <c r="A9" s="44"/>
       <c r="B9">
         <v>-6</v>
       </c>
@@ -2112,7 +2272,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="38"/>
+      <c r="A10" s="44"/>
       <c r="B10">
         <v>-4</v>
       </c>
@@ -2141,7 +2301,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="41">
+      <c r="A11" s="47">
         <v>43438</v>
       </c>
       <c r="B11">
@@ -2165,7 +2325,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="41"/>
+      <c r="A12" s="47"/>
       <c r="B12">
         <v>18</v>
       </c>
@@ -2184,7 +2344,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="41"/>
+      <c r="A13" s="47"/>
       <c r="B13">
         <v>-7</v>
       </c>
@@ -2206,7 +2366,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="41"/>
+      <c r="A14" s="47"/>
       <c r="B14">
         <v>-8</v>
       </c>
@@ -2218,7 +2378,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="41"/>
+      <c r="A15" s="47"/>
       <c r="B15">
         <v>-6</v>
       </c>
@@ -2230,7 +2390,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="41"/>
+      <c r="A16" s="47"/>
       <c r="B16">
         <v>-34.799999999999997</v>
       </c>
@@ -2242,7 +2402,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="38">
+      <c r="A17" s="44">
         <v>43439</v>
       </c>
       <c r="B17">
@@ -2257,7 +2417,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="38"/>
+      <c r="A18" s="44"/>
       <c r="B18">
         <v>-1468</v>
       </c>
@@ -2269,7 +2429,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="38"/>
+      <c r="A19" s="44"/>
       <c r="B19" s="2">
         <v>-6</v>
       </c>
@@ -2281,7 +2441,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="38"/>
+      <c r="A20" s="44"/>
       <c r="B20">
         <v>7</v>
       </c>
@@ -2290,7 +2450,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="38"/>
+      <c r="A21" s="44"/>
       <c r="B21">
         <v>-4</v>
       </c>
@@ -2302,7 +2462,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="38"/>
+      <c r="A22" s="44"/>
       <c r="B22">
         <v>-29.9</v>
       </c>
@@ -2314,7 +2474,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="41">
+      <c r="A23" s="47">
         <v>43440</v>
       </c>
       <c r="B23">
@@ -2328,7 +2488,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="41"/>
+      <c r="A24" s="47"/>
       <c r="B24">
         <v>-5</v>
       </c>
@@ -2340,7 +2500,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="41"/>
+      <c r="A25" s="47"/>
       <c r="B25">
         <v>-9</v>
       </c>
@@ -2352,7 +2512,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="41"/>
+      <c r="A26" s="47"/>
       <c r="B26">
         <v>-249</v>
       </c>
@@ -2364,7 +2524,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="41"/>
+      <c r="A27" s="47"/>
       <c r="B27">
         <v>-13.88</v>
       </c>
@@ -2376,7 +2536,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="41">
+      <c r="A28" s="47">
         <v>43441</v>
       </c>
       <c r="B28">
@@ -2390,7 +2550,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="41"/>
+      <c r="A29" s="47"/>
       <c r="B29">
         <v>-6</v>
       </c>
@@ -2402,7 +2562,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="41"/>
+      <c r="A30" s="47"/>
       <c r="B30">
         <v>-4</v>
       </c>
@@ -2414,7 +2574,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="41"/>
+      <c r="A31" s="47"/>
       <c r="B31">
         <v>-18</v>
       </c>
@@ -2426,7 +2586,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="41"/>
+      <c r="A32" s="47"/>
       <c r="B32">
         <f>-89-129-119-89</f>
         <v>-426</v>
@@ -2439,7 +2599,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="38">
+      <c r="A33" s="44">
         <v>43442</v>
       </c>
       <c r="B33">
@@ -2453,7 +2613,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="38">
+      <c r="A34" s="44">
         <v>43443</v>
       </c>
       <c r="B34">
@@ -2467,7 +2627,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="38"/>
+      <c r="A35" s="44"/>
       <c r="B35">
         <v>-2</v>
       </c>
@@ -2479,7 +2639,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="42">
+      <c r="A36" s="50">
         <v>43444</v>
       </c>
       <c r="B36">
@@ -2493,7 +2653,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="42"/>
+      <c r="A37" s="50"/>
       <c r="B37">
         <v>-4</v>
       </c>
@@ -2505,7 +2665,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="42"/>
+      <c r="A38" s="50"/>
       <c r="B38">
         <v>-14.44</v>
       </c>
@@ -2517,7 +2677,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="38">
+      <c r="A39" s="44">
         <v>43445</v>
       </c>
       <c r="B39">
@@ -2531,7 +2691,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="38"/>
+      <c r="A40" s="44"/>
       <c r="B40">
         <v>-4</v>
       </c>
@@ -2543,7 +2703,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="38"/>
+      <c r="A41" s="44"/>
       <c r="B41">
         <v>-5</v>
       </c>
@@ -2555,7 +2715,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="38"/>
+      <c r="A42" s="44"/>
       <c r="B42">
         <v>-16</v>
       </c>
@@ -2567,7 +2727,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="38">
+      <c r="A43" s="44">
         <v>43446</v>
       </c>
       <c r="B43">
@@ -2581,7 +2741,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="38"/>
+      <c r="A44" s="44"/>
       <c r="B44">
         <v>-8</v>
       </c>
@@ -2593,7 +2753,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="38"/>
+      <c r="A45" s="44"/>
       <c r="B45">
         <v>-5</v>
       </c>
@@ -2605,7 +2765,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="38"/>
+      <c r="A46" s="44"/>
       <c r="B46">
         <v>-13</v>
       </c>
@@ -2617,7 +2777,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="38">
+      <c r="A47" s="44">
         <v>43447</v>
       </c>
       <c r="B47">
@@ -2631,7 +2791,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="38"/>
+      <c r="A48" s="44"/>
       <c r="B48">
         <v>-6</v>
       </c>
@@ -2643,7 +2803,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="38"/>
+      <c r="A49" s="44"/>
       <c r="B49">
         <v>-16</v>
       </c>
@@ -2655,7 +2815,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="38"/>
+      <c r="A50" s="44"/>
       <c r="B50">
         <v>-13</v>
       </c>
@@ -2667,7 +2827,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="38"/>
+      <c r="A51" s="44"/>
       <c r="B51">
         <v>-99</v>
       </c>
@@ -2679,7 +2839,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="38">
+      <c r="A52" s="44">
         <v>43448</v>
       </c>
       <c r="B52">
@@ -2693,7 +2853,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="38"/>
+      <c r="A53" s="44"/>
       <c r="B53">
         <v>-14</v>
       </c>
@@ -2705,7 +2865,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="38"/>
+      <c r="A54" s="44"/>
       <c r="B54">
         <v>-13</v>
       </c>
@@ -2717,7 +2877,7 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="38">
+      <c r="A55" s="44">
         <v>43449</v>
       </c>
       <c r="B55">
@@ -2731,7 +2891,7 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="38"/>
+      <c r="A56" s="44"/>
       <c r="B56">
         <v>-20</v>
       </c>
@@ -2743,7 +2903,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="38">
+      <c r="A57" s="44">
         <v>43450</v>
       </c>
       <c r="B57">
@@ -2757,7 +2917,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="38"/>
+      <c r="A58" s="44"/>
       <c r="B58">
         <v>-30</v>
       </c>
@@ -2769,7 +2929,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="38">
+      <c r="A59" s="44">
         <v>43451</v>
       </c>
       <c r="B59">
@@ -2783,7 +2943,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="38"/>
+      <c r="A60" s="44"/>
       <c r="B60">
         <v>-4.5</v>
       </c>
@@ -2795,7 +2955,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="38"/>
+      <c r="A61" s="44"/>
       <c r="B61">
         <v>-12</v>
       </c>
@@ -2807,7 +2967,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="38">
+      <c r="A62" s="44">
         <v>43452</v>
       </c>
       <c r="B62">
@@ -2821,7 +2981,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="38"/>
+      <c r="A63" s="44"/>
       <c r="B63">
         <v>-16</v>
       </c>
@@ -2833,7 +2993,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="38"/>
+      <c r="A64" s="44"/>
       <c r="B64">
         <v>-670</v>
       </c>
@@ -2845,7 +3005,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="38">
+      <c r="A65" s="44">
         <v>43453</v>
       </c>
       <c r="B65">
@@ -2859,7 +3019,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="38"/>
+      <c r="A66" s="44"/>
       <c r="B66">
         <v>-16</v>
       </c>
@@ -2871,7 +3031,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="38"/>
+      <c r="A67" s="44"/>
       <c r="B67">
         <v>-12</v>
       </c>
@@ -2883,7 +3043,7 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="38">
+      <c r="A68" s="44">
         <v>43454</v>
       </c>
       <c r="B68">
@@ -2897,7 +3057,7 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="38"/>
+      <c r="A69" s="44"/>
       <c r="B69">
         <v>-18</v>
       </c>
@@ -2909,7 +3069,7 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="38"/>
+      <c r="A70" s="44"/>
       <c r="B70">
         <v>-982</v>
       </c>
@@ -2921,7 +3081,7 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="38">
+      <c r="A71" s="44">
         <v>43455</v>
       </c>
       <c r="B71">
@@ -2935,7 +3095,7 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="38"/>
+      <c r="A72" s="44"/>
       <c r="B72">
         <v>-4</v>
       </c>
@@ -2947,7 +3107,7 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="38"/>
+      <c r="A73" s="44"/>
       <c r="B73">
         <v>-4</v>
       </c>
@@ -2959,7 +3119,7 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="38">
+      <c r="A74" s="44">
         <v>43456</v>
       </c>
       <c r="B74">
@@ -2973,7 +3133,7 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="38"/>
+      <c r="A75" s="44"/>
       <c r="B75">
         <v>-13</v>
       </c>
@@ -2985,7 +3145,7 @@
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="38"/>
+      <c r="A76" s="44"/>
       <c r="B76">
         <v>-15</v>
       </c>
@@ -2997,7 +3157,7 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="38"/>
+      <c r="A77" s="44"/>
       <c r="B77">
         <v>-30</v>
       </c>
@@ -3009,7 +3169,7 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="38"/>
+      <c r="A78" s="44"/>
       <c r="B78">
         <v>-15</v>
       </c>
@@ -3021,7 +3181,7 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="38"/>
+      <c r="A79" s="44"/>
       <c r="B79">
         <v>-42</v>
       </c>
@@ -3038,7 +3198,7 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="38">
+      <c r="A81" s="44">
         <v>43458</v>
       </c>
       <c r="B81">
@@ -3052,7 +3212,7 @@
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="38"/>
+      <c r="A82" s="44"/>
       <c r="B82">
         <v>-16</v>
       </c>
@@ -3064,7 +3224,7 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="38">
+      <c r="A83" s="44">
         <v>43459</v>
       </c>
       <c r="B83">
@@ -3078,7 +3238,7 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="38"/>
+      <c r="A84" s="44"/>
       <c r="B84">
         <v>-16</v>
       </c>
@@ -3090,7 +3250,7 @@
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="38">
+      <c r="A85" s="44">
         <v>43460</v>
       </c>
       <c r="B85">
@@ -3104,7 +3264,7 @@
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="38"/>
+      <c r="A86" s="44"/>
       <c r="B86">
         <v>-4</v>
       </c>
@@ -3116,7 +3276,7 @@
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="38"/>
+      <c r="A87" s="44"/>
       <c r="B87">
         <v>-62</v>
       </c>
@@ -3128,7 +3288,7 @@
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="38">
+      <c r="A88" s="44">
         <v>43461</v>
       </c>
       <c r="B88">
@@ -3142,7 +3302,7 @@
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" s="38"/>
+      <c r="A89" s="44"/>
       <c r="B89">
         <v>-16</v>
       </c>
@@ -3154,7 +3314,7 @@
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" s="38"/>
+      <c r="A90" s="44"/>
       <c r="B90">
         <v>-18.8</v>
       </c>
@@ -3166,7 +3326,7 @@
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="38">
+      <c r="A91" s="44">
         <v>43462</v>
       </c>
       <c r="B91">
@@ -3180,7 +3340,7 @@
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" s="38"/>
+      <c r="A92" s="44"/>
       <c r="B92">
         <v>-14</v>
       </c>
@@ -3192,7 +3352,7 @@
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="38"/>
+      <c r="A93" s="44"/>
       <c r="B93">
         <v>-239</v>
       </c>
@@ -3204,7 +3364,7 @@
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="38"/>
+      <c r="A94" s="44"/>
       <c r="B94">
         <v>-12</v>
       </c>
@@ -3216,7 +3376,7 @@
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="38">
+      <c r="A95" s="44">
         <v>43463</v>
       </c>
       <c r="B95">
@@ -3230,7 +3390,7 @@
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" s="38"/>
+      <c r="A96" s="44"/>
       <c r="B96">
         <v>-6</v>
       </c>
@@ -3242,7 +3402,7 @@
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" s="38"/>
+      <c r="A97" s="44"/>
       <c r="B97">
         <v>-4</v>
       </c>
@@ -3254,7 +3414,7 @@
       </c>
     </row>
     <row r="98" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="38"/>
+      <c r="A98" s="44"/>
       <c r="B98">
         <v>-39</v>
       </c>
@@ -3266,7 +3426,7 @@
       </c>
     </row>
     <row r="99" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="38">
+      <c r="A99" s="44">
         <v>43464</v>
       </c>
       <c r="B99">
@@ -3280,7 +3440,7 @@
       </c>
     </row>
     <row r="100" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="38"/>
+      <c r="A100" s="44"/>
       <c r="B100">
         <v>-50.4</v>
       </c>
@@ -3292,7 +3452,7 @@
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A101" s="38"/>
+      <c r="A101" s="44"/>
       <c r="B101">
         <v>-30</v>
       </c>
@@ -3319,20 +3479,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A85:A87"/>
-    <mergeCell ref="A71:A73"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="A95:A98"/>
-    <mergeCell ref="A74:A79"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="A28:A32"/>
     <mergeCell ref="A99:A101"/>
     <mergeCell ref="A68:A70"/>
     <mergeCell ref="A62:A64"/>
@@ -3349,6 +3495,20 @@
     <mergeCell ref="A59:A61"/>
     <mergeCell ref="A88:A90"/>
     <mergeCell ref="A57:A58"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="A85:A87"/>
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="A95:A98"/>
+    <mergeCell ref="A74:A79"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3375,7 +3535,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="48" t="s">
         <v>62</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -3389,7 +3549,7 @@
       <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
+      <c r="A2" s="49"/>
       <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
@@ -3402,14 +3562,14 @@
       </c>
       <c r="F2">
         <f ca="1">DATE(2019,2,1)-TODAY()</f>
-        <v>-56</v>
+        <v>-67</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I2">
         <f ca="1">C2/F2</f>
-        <v>46.571607142857161</v>
+        <v>38.925522388059719</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="77" customHeight="1" x14ac:dyDescent="0.2">
@@ -3431,7 +3591,7 @@
       <c r="H3" s="8"/>
       <c r="I3" s="8">
         <f ca="1">C2/(F2-1)</f>
-        <v>45.754561403508795</v>
+        <v>38.353088235294138</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -3454,7 +3614,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="38">
+      <c r="A5" s="44">
         <v>43467</v>
       </c>
       <c r="B5">
@@ -3477,7 +3637,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="38"/>
+      <c r="A6" s="44"/>
       <c r="B6">
         <v>-16</v>
       </c>
@@ -3499,7 +3659,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="38"/>
+      <c r="A7" s="44"/>
       <c r="B7">
         <v>-24</v>
       </c>
@@ -3528,7 +3688,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="38">
+      <c r="A8" s="44">
         <v>43468</v>
       </c>
       <c r="B8">
@@ -3552,7 +3712,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="38"/>
+      <c r="A9" s="44"/>
       <c r="B9">
         <v>-16</v>
       </c>
@@ -3574,7 +3734,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="38"/>
+      <c r="A10" s="44"/>
       <c r="B10">
         <v>-15</v>
       </c>
@@ -3596,7 +3756,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="38">
+      <c r="A11" s="44">
         <v>43469</v>
       </c>
       <c r="B11">
@@ -3611,7 +3771,7 @@
       <c r="I11" s="4"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="38"/>
+      <c r="A12" s="44"/>
       <c r="B12">
         <v>-1453</v>
       </c>
@@ -3623,7 +3783,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="38"/>
+      <c r="A13" s="44"/>
       <c r="B13">
         <v>-4</v>
       </c>
@@ -3635,7 +3795,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="38"/>
+      <c r="A14" s="44"/>
       <c r="B14">
         <v>-55</v>
       </c>
@@ -3647,7 +3807,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="38"/>
+      <c r="A15" s="44"/>
       <c r="B15">
         <v>-11</v>
       </c>
@@ -3659,7 +3819,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="42">
+      <c r="A16" s="50">
         <v>43470</v>
       </c>
       <c r="B16">
@@ -3673,7 +3833,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="42"/>
+      <c r="A17" s="50"/>
       <c r="B17">
         <v>-6</v>
       </c>
@@ -3685,7 +3845,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="42"/>
+      <c r="A18" s="50"/>
       <c r="B18">
         <v>-30</v>
       </c>
@@ -3697,7 +3857,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="42"/>
+      <c r="A19" s="50"/>
       <c r="B19">
         <v>-18</v>
       </c>
@@ -3715,7 +3875,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="42"/>
+      <c r="A20" s="50"/>
       <c r="B20">
         <v>-3</v>
       </c>
@@ -3734,7 +3894,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="42"/>
+      <c r="A21" s="50"/>
       <c r="B21">
         <v>-10</v>
       </c>
@@ -3753,7 +3913,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="42">
+      <c r="A22" s="50">
         <v>43471</v>
       </c>
       <c r="B22">
@@ -3774,7 +3934,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="42"/>
+      <c r="A23" s="50"/>
       <c r="B23">
         <v>-3</v>
       </c>
@@ -3793,7 +3953,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="42"/>
+      <c r="A24" s="50"/>
       <c r="B24">
         <v>-13</v>
       </c>
@@ -3812,7 +3972,7 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="38">
+      <c r="A25" s="44">
         <v>43472</v>
       </c>
       <c r="B25">
@@ -3826,7 +3986,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="38"/>
+      <c r="A26" s="44"/>
       <c r="B26">
         <v>-4</v>
       </c>
@@ -3838,7 +3998,7 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="38"/>
+      <c r="A27" s="44"/>
       <c r="B27">
         <v>-218</v>
       </c>
@@ -3850,7 +4010,7 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="38">
+      <c r="A28" s="44">
         <v>43473</v>
       </c>
       <c r="B28">
@@ -3864,7 +4024,7 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="38"/>
+      <c r="A29" s="44"/>
       <c r="B29">
         <v>-16</v>
       </c>
@@ -3876,7 +4036,7 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="38"/>
+      <c r="A30" s="44"/>
       <c r="B30">
         <v>-245</v>
       </c>
@@ -3888,7 +4048,7 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="41">
+      <c r="A31" s="47">
         <v>43474</v>
       </c>
       <c r="B31">
@@ -3902,7 +4062,7 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="41"/>
+      <c r="A32" s="47"/>
       <c r="B32">
         <v>-4</v>
       </c>
@@ -3914,7 +4074,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="41"/>
+      <c r="A33" s="47"/>
       <c r="B33">
         <v>-500</v>
       </c>
@@ -3926,7 +4086,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="41"/>
+      <c r="A34" s="47"/>
       <c r="B34">
         <v>-16</v>
       </c>
@@ -3938,7 +4098,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="38">
+      <c r="A35" s="44">
         <v>43475</v>
       </c>
       <c r="B35">
@@ -3952,7 +4112,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="38"/>
+      <c r="A36" s="44"/>
       <c r="B36">
         <v>-6.5</v>
       </c>
@@ -3964,7 +4124,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="38">
+      <c r="A37" s="44">
         <v>43476</v>
       </c>
       <c r="B37">
@@ -3978,7 +4138,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="38"/>
+      <c r="A38" s="44"/>
       <c r="B38">
         <v>-31</v>
       </c>
@@ -3990,7 +4150,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="38"/>
+      <c r="A39" s="44"/>
       <c r="B39">
         <v>-15</v>
       </c>
@@ -3999,7 +4159,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="38"/>
+      <c r="A40" s="44"/>
       <c r="B40">
         <v>-49</v>
       </c>
@@ -4011,7 +4171,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="38"/>
+      <c r="A41" s="44"/>
       <c r="B41">
         <v>-8</v>
       </c>
@@ -4028,7 +4188,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="42">
+      <c r="A43" s="50">
         <v>43478</v>
       </c>
       <c r="B43">
@@ -4042,7 +4202,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="42"/>
+      <c r="A44" s="50"/>
       <c r="B44">
         <v>-30</v>
       </c>
@@ -4054,7 +4214,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="38">
+      <c r="A45" s="44">
         <v>43479</v>
       </c>
       <c r="B45">
@@ -4068,7 +4228,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="38"/>
+      <c r="A46" s="44"/>
       <c r="B46">
         <v>-8</v>
       </c>
@@ -4080,7 +4240,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="38"/>
+      <c r="A47" s="44"/>
       <c r="B47">
         <v>-6</v>
       </c>
@@ -4092,7 +4252,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="38">
+      <c r="A48" s="44">
         <v>43480</v>
       </c>
       <c r="B48">
@@ -4106,7 +4266,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="38"/>
+      <c r="A49" s="44"/>
       <c r="B49">
         <v>-8</v>
       </c>
@@ -4118,7 +4278,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="38"/>
+      <c r="A50" s="44"/>
       <c r="B50">
         <v>-2.5</v>
       </c>
@@ -4130,7 +4290,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="38"/>
+      <c r="A51" s="44"/>
       <c r="B51">
         <v>-6</v>
       </c>
@@ -4142,7 +4302,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="38">
+      <c r="A52" s="44">
         <v>43481</v>
       </c>
       <c r="B52">
@@ -4156,7 +4316,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="38"/>
+      <c r="A53" s="44"/>
       <c r="B53">
         <v>-10</v>
       </c>
@@ -4168,7 +4328,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="38"/>
+      <c r="A54" s="44"/>
       <c r="B54">
         <v>-8</v>
       </c>
@@ -4180,7 +4340,7 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="38"/>
+      <c r="A55" s="44"/>
       <c r="B55">
         <v>-23</v>
       </c>
@@ -4192,7 +4352,7 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="38">
+      <c r="A56" s="44">
         <v>43482</v>
       </c>
       <c r="B56">
@@ -4206,7 +4366,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="38"/>
+      <c r="A57" s="44"/>
       <c r="B57">
         <v>-8</v>
       </c>
@@ -4218,7 +4378,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="38"/>
+      <c r="A58" s="44"/>
       <c r="B58">
         <v>-8.6999999999999993</v>
       </c>
@@ -4230,7 +4390,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="38"/>
+      <c r="A59" s="44"/>
       <c r="B59">
         <v>-110</v>
       </c>
@@ -4242,7 +4402,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="38"/>
+      <c r="A60" s="44"/>
       <c r="B60">
         <v>-14.5</v>
       </c>
@@ -4254,7 +4414,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="38">
+      <c r="A61" s="44">
         <v>43483</v>
       </c>
       <c r="B61">
@@ -4268,7 +4428,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="38"/>
+      <c r="A62" s="44"/>
       <c r="B62">
         <v>-16</v>
       </c>
@@ -4280,7 +4440,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="42">
+      <c r="A63" s="50">
         <v>43484</v>
       </c>
       <c r="B63">
@@ -4294,7 +4454,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="42"/>
+      <c r="A64" s="50"/>
       <c r="B64">
         <v>-62</v>
       </c>
@@ -4306,7 +4466,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="42">
+      <c r="A65" s="50">
         <v>43485</v>
       </c>
       <c r="B65">
@@ -4320,7 +4480,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="42"/>
+      <c r="A66" s="50"/>
       <c r="B66">
         <v>-30</v>
       </c>
@@ -4332,7 +4492,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="42"/>
+      <c r="A67" s="50"/>
       <c r="B67">
         <v>-98</v>
       </c>
@@ -4344,7 +4504,7 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="38">
+      <c r="A68" s="44">
         <v>43486</v>
       </c>
       <c r="B68">
@@ -4358,7 +4518,7 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="38"/>
+      <c r="A69" s="44"/>
       <c r="B69">
         <v>-4</v>
       </c>
@@ -4370,7 +4530,7 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="38">
+      <c r="A70" s="44">
         <v>43487</v>
       </c>
       <c r="B70">
@@ -4384,7 +4544,7 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="38"/>
+      <c r="A71" s="44"/>
       <c r="B71">
         <v>-12.75</v>
       </c>
@@ -4396,7 +4556,7 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="38">
+      <c r="A72" s="44">
         <v>43488</v>
       </c>
       <c r="B72">
@@ -4410,7 +4570,7 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="38"/>
+      <c r="A73" s="44"/>
       <c r="B73">
         <v>-10</v>
       </c>
@@ -4422,7 +4582,7 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="38"/>
+      <c r="A74" s="44"/>
       <c r="B74">
         <v>-4</v>
       </c>
@@ -4434,7 +4594,7 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="38">
+      <c r="A75" s="44">
         <v>43489</v>
       </c>
       <c r="B75">
@@ -4448,7 +4608,7 @@
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="38"/>
+      <c r="A76" s="44"/>
       <c r="B76">
         <v>-10</v>
       </c>
@@ -4460,7 +4620,7 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="38">
+      <c r="A77" s="44">
         <v>43490</v>
       </c>
       <c r="B77">
@@ -4474,7 +4634,7 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="38"/>
+      <c r="A78" s="44"/>
       <c r="B78">
         <v>-4.8</v>
       </c>
@@ -4483,7 +4643,7 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="38"/>
+      <c r="A79" s="44"/>
       <c r="B79">
         <v>-10</v>
       </c>
@@ -4495,7 +4655,7 @@
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="38"/>
+      <c r="A80" s="44"/>
       <c r="B80">
         <v>-12</v>
       </c>
@@ -4507,7 +4667,7 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="38"/>
+      <c r="A81" s="44"/>
       <c r="B81">
         <v>-6</v>
       </c>
@@ -4533,7 +4693,7 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="42">
+      <c r="A83" s="50">
         <v>43492</v>
       </c>
       <c r="B83">
@@ -4547,7 +4707,7 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="42"/>
+      <c r="A84" s="50"/>
       <c r="B84">
         <v>-13.8</v>
       </c>
@@ -4559,7 +4719,7 @@
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="38">
+      <c r="A85" s="44">
         <v>43493</v>
       </c>
       <c r="B85">
@@ -4573,7 +4733,7 @@
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="38"/>
+      <c r="A86" s="44"/>
       <c r="B86">
         <v>-4</v>
       </c>
@@ -4585,7 +4745,7 @@
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="38"/>
+      <c r="A87" s="44"/>
       <c r="B87">
         <v>-4.8</v>
       </c>
@@ -4597,7 +4757,7 @@
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="38">
+      <c r="A88" s="44">
         <v>43494</v>
       </c>
       <c r="B88">
@@ -4611,7 +4771,7 @@
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" s="38"/>
+      <c r="A89" s="44"/>
       <c r="B89">
         <v>-4.46</v>
       </c>
@@ -4623,7 +4783,7 @@
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" s="38"/>
+      <c r="A90" s="44"/>
       <c r="B90">
         <v>-16.34</v>
       </c>
@@ -4635,7 +4795,7 @@
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="38"/>
+      <c r="A91" s="44"/>
       <c r="B91">
         <v>-6</v>
       </c>
@@ -4647,7 +4807,7 @@
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" s="38">
+      <c r="A92" s="44">
         <v>43495</v>
       </c>
       <c r="B92">
@@ -4661,7 +4821,7 @@
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="38"/>
+      <c r="A93" s="44"/>
       <c r="B93">
         <v>-4.21</v>
       </c>
@@ -4673,7 +4833,7 @@
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="38"/>
+      <c r="A94" s="44"/>
       <c r="B94">
         <v>-10</v>
       </c>
@@ -4685,7 +4845,7 @@
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="38"/>
+      <c r="A95" s="44"/>
       <c r="B95">
         <v>-1441</v>
       </c>
@@ -4712,18 +4872,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="A5:A7"/>
     <mergeCell ref="A85:A87"/>
     <mergeCell ref="A88:A91"/>
     <mergeCell ref="A92:A95"/>
@@ -4740,6 +4888,18 @@
     <mergeCell ref="A56:A60"/>
     <mergeCell ref="A72:A74"/>
     <mergeCell ref="A75:A76"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A5:A7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4767,7 +4927,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="48" t="s">
         <v>25</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -4786,7 +4946,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
+      <c r="A2" s="49"/>
       <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
@@ -4799,14 +4959,14 @@
       </c>
       <c r="F2">
         <f ca="1">DATE(2019,3,1)-TODAY()</f>
-        <v>-28</v>
+        <v>-39</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I2">
         <f ca="1">C2/F2</f>
-        <v>72.642142857142844</v>
+        <v>52.153333333333322</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -4821,7 +4981,7 @@
       </c>
       <c r="I3">
         <f ca="1">C2/(F2-1)</f>
-        <v>70.137241379310325</v>
+        <v>50.849499999999992</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -4836,7 +4996,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="42">
+      <c r="A5" s="50">
         <v>43447</v>
       </c>
       <c r="B5">
@@ -4847,7 +5007,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="42"/>
+      <c r="A6" s="50"/>
       <c r="B6">
         <v>-350</v>
       </c>
@@ -4856,7 +5016,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="42"/>
+      <c r="A7" s="50"/>
       <c r="B7">
         <v>-129</v>
       </c>
@@ -4901,7 +5061,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="46">
+      <c r="A10" s="51">
         <v>43498</v>
       </c>
       <c r="B10">
@@ -4912,7 +5072,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="46"/>
+      <c r="A11" s="51"/>
       <c r="B11">
         <v>-5.4</v>
       </c>
@@ -4928,7 +5088,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="46"/>
+      <c r="A12" s="51"/>
       <c r="B12">
         <v>-22.5</v>
       </c>
@@ -4937,7 +5097,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="46"/>
+      <c r="A13" s="51"/>
       <c r="B13">
         <v>-83.23</v>
       </c>
@@ -4946,7 +5106,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="46">
+      <c r="A14" s="51">
         <v>43499</v>
       </c>
       <c r="B14">
@@ -4957,7 +5117,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="46"/>
+      <c r="A15" s="51"/>
       <c r="B15">
         <v>-49.8</v>
       </c>
@@ -4971,7 +5131,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="46">
+      <c r="A17" s="51">
         <v>43501</v>
       </c>
       <c r="B17">
@@ -4982,7 +5142,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="46"/>
+      <c r="A18" s="51"/>
       <c r="B18">
         <v>-300</v>
       </c>
@@ -4991,7 +5151,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="46"/>
+      <c r="A19" s="51"/>
       <c r="B19">
         <v>-149</v>
       </c>
@@ -5011,7 +5171,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="42">
+      <c r="A21" s="50">
         <v>43503</v>
       </c>
       <c r="B21">
@@ -5022,7 +5182,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="42"/>
+      <c r="A22" s="50"/>
       <c r="B22">
         <v>-130.27000000000001</v>
       </c>
@@ -5031,7 +5191,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="42">
+      <c r="A23" s="50">
         <v>43504</v>
       </c>
       <c r="B23">
@@ -5042,7 +5202,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="42"/>
+      <c r="A24" s="50"/>
       <c r="B24">
         <v>-15</v>
       </c>
@@ -5051,7 +5211,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="42">
+      <c r="A25" s="50">
         <v>43505</v>
       </c>
       <c r="B25">
@@ -5062,7 +5222,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="42"/>
+      <c r="A26" s="50"/>
       <c r="B26">
         <v>-39</v>
       </c>
@@ -5071,7 +5231,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="42"/>
+      <c r="A27" s="50"/>
       <c r="B27">
         <v>-10</v>
       </c>
@@ -5080,7 +5240,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="42"/>
+      <c r="A28" s="50"/>
       <c r="B28">
         <v>-17.600000000000001</v>
       </c>
@@ -5092,7 +5252,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="42"/>
+      <c r="A29" s="50"/>
       <c r="B29">
         <v>-25</v>
       </c>
@@ -5104,7 +5264,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="42"/>
+      <c r="A30" s="50"/>
       <c r="B30">
         <v>-83</v>
       </c>
@@ -5113,7 +5273,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="42"/>
+      <c r="A31" s="50"/>
       <c r="B31">
         <v>-128</v>
       </c>
@@ -5122,7 +5282,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="42"/>
+      <c r="A32" s="50"/>
       <c r="B32">
         <v>-28</v>
       </c>
@@ -5131,7 +5291,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="42"/>
+      <c r="A33" s="50"/>
       <c r="B33">
         <v>-65</v>
       </c>
@@ -5143,7 +5303,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="42"/>
+      <c r="A34" s="50"/>
       <c r="B34">
         <v>-127.9</v>
       </c>
@@ -5157,7 +5317,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="38">
+      <c r="A36" s="44">
         <v>43507</v>
       </c>
       <c r="B36">
@@ -5171,7 +5331,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="45"/>
+      <c r="A37" s="52"/>
       <c r="B37">
         <v>-12</v>
       </c>
@@ -5183,7 +5343,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="38">
+      <c r="A38" s="44">
         <v>43508</v>
       </c>
       <c r="B38">
@@ -5197,7 +5357,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="38"/>
+      <c r="A39" s="44"/>
       <c r="B39">
         <v>-16</v>
       </c>
@@ -5209,7 +5369,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="38">
+      <c r="A40" s="44">
         <v>43509</v>
       </c>
       <c r="B40">
@@ -5223,7 +5383,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="38"/>
+      <c r="A41" s="44"/>
       <c r="B41">
         <v>-12</v>
       </c>
@@ -5235,7 +5395,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="38"/>
+      <c r="A42" s="44"/>
       <c r="B42">
         <v>-14</v>
       </c>
@@ -5247,7 +5407,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="38"/>
+      <c r="A43" s="44"/>
       <c r="B43">
         <v>-4</v>
       </c>
@@ -5259,7 +5419,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="38">
+      <c r="A44" s="44">
         <v>43510</v>
       </c>
       <c r="B44">
@@ -5273,7 +5433,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="38"/>
+      <c r="A45" s="44"/>
       <c r="B45">
         <v>0</v>
       </c>
@@ -5285,7 +5445,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="38"/>
+      <c r="A46" s="44"/>
       <c r="B46">
         <v>-14</v>
       </c>
@@ -5297,7 +5457,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="38">
+      <c r="A47" s="44">
         <v>43511</v>
       </c>
       <c r="B47">
@@ -5311,7 +5471,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="38"/>
+      <c r="A48" s="44"/>
       <c r="B48">
         <v>-4</v>
       </c>
@@ -5323,7 +5483,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="38"/>
+      <c r="A49" s="44"/>
       <c r="B49">
         <v>-12</v>
       </c>
@@ -5335,7 +5495,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="42">
+      <c r="A50" s="50">
         <v>43512</v>
       </c>
       <c r="B50">
@@ -5349,7 +5509,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="42"/>
+      <c r="A51" s="50"/>
       <c r="B51">
         <v>-33.5</v>
       </c>
@@ -5361,7 +5521,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="42">
+      <c r="A52" s="50">
         <v>43513</v>
       </c>
       <c r="B52">
@@ -5375,7 +5535,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="42"/>
+      <c r="A53" s="50"/>
       <c r="B53">
         <v>-2.5</v>
       </c>
@@ -5387,7 +5547,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="42"/>
+      <c r="A54" s="50"/>
       <c r="B54">
         <v>-2</v>
       </c>
@@ -5399,7 +5559,7 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="38">
+      <c r="A55" s="44">
         <v>43514</v>
       </c>
       <c r="B55">
@@ -5413,7 +5573,7 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="38"/>
+      <c r="A56" s="44"/>
       <c r="B56">
         <v>-10</v>
       </c>
@@ -5425,7 +5585,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="38"/>
+      <c r="A57" s="44"/>
       <c r="B57">
         <v>-10</v>
       </c>
@@ -5437,7 +5597,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="38"/>
+      <c r="A58" s="44"/>
       <c r="B58">
         <v>-2.5</v>
       </c>
@@ -5449,7 +5609,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="38"/>
+      <c r="A59" s="44"/>
       <c r="B59">
         <v>-5</v>
       </c>
@@ -5461,7 +5621,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="38">
+      <c r="A60" s="44">
         <v>43515</v>
       </c>
       <c r="B60">
@@ -5475,7 +5635,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="38"/>
+      <c r="A61" s="44"/>
       <c r="B61">
         <v>-11</v>
       </c>
@@ -5487,7 +5647,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="38"/>
+      <c r="A62" s="44"/>
       <c r="B62">
         <v>-1250</v>
       </c>
@@ -5499,7 +5659,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="38"/>
+      <c r="A63" s="44"/>
       <c r="B63">
         <v>-12</v>
       </c>
@@ -5511,7 +5671,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="38"/>
+      <c r="A64" s="44"/>
       <c r="B64">
         <v>-203</v>
       </c>
@@ -5523,7 +5683,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="38"/>
+      <c r="A65" s="44"/>
       <c r="B65">
         <v>-23</v>
       </c>
@@ -5535,7 +5695,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="38"/>
+      <c r="A66" s="44"/>
       <c r="B66">
         <v>-16</v>
       </c>
@@ -5547,7 +5707,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="38">
+      <c r="A67" s="44">
         <v>43516</v>
       </c>
       <c r="B67">
@@ -5561,7 +5721,7 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="38"/>
+      <c r="A68" s="44"/>
       <c r="B68">
         <v>-26</v>
       </c>
@@ -5573,7 +5733,7 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="38"/>
+      <c r="A69" s="44"/>
       <c r="B69">
         <v>-2.5</v>
       </c>
@@ -5585,7 +5745,7 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="38">
+      <c r="A70" s="44">
         <v>43517</v>
       </c>
       <c r="B70">
@@ -5599,7 +5759,7 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="38"/>
+      <c r="A71" s="44"/>
       <c r="B71">
         <v>-7</v>
       </c>
@@ -5611,7 +5771,7 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="38"/>
+      <c r="A72" s="44"/>
       <c r="B72">
         <v>-20</v>
       </c>
@@ -5623,7 +5783,7 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="38">
+      <c r="A73" s="44">
         <v>43518</v>
       </c>
       <c r="B73">
@@ -5637,7 +5797,7 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="38"/>
+      <c r="A74" s="44"/>
       <c r="B74">
         <v>-7.83</v>
       </c>
@@ -5649,7 +5809,7 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="38"/>
+      <c r="A75" s="44"/>
       <c r="B75">
         <v>-16</v>
       </c>
@@ -5661,7 +5821,7 @@
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="38"/>
+      <c r="A76" s="44"/>
       <c r="B76">
         <v>-3.5</v>
       </c>
@@ -5673,7 +5833,7 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="42">
+      <c r="A77" s="50">
         <v>43519</v>
       </c>
       <c r="B77">
@@ -5687,7 +5847,7 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="42"/>
+      <c r="A78" s="50"/>
       <c r="B78">
         <f>-2.8-7.2-9.34-4</f>
         <v>-23.34</v>
@@ -5700,7 +5860,7 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="42"/>
+      <c r="A79" s="50"/>
       <c r="B79">
         <v>-30</v>
       </c>
@@ -5712,7 +5872,7 @@
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="42" t="s">
+      <c r="A80" s="50" t="s">
         <v>115</v>
       </c>
       <c r="B80">
@@ -5726,7 +5886,7 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="42"/>
+      <c r="A81" s="50"/>
       <c r="B81">
         <v>-16</v>
       </c>
@@ -5738,7 +5898,7 @@
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="42"/>
+      <c r="A82" s="50"/>
       <c r="B82">
         <v>-2.5</v>
       </c>
@@ -5750,7 +5910,7 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="42"/>
+      <c r="A83" s="50"/>
       <c r="B83">
         <v>-16</v>
       </c>
@@ -5762,7 +5922,7 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="38">
+      <c r="A84" s="44">
         <v>43521</v>
       </c>
       <c r="B84">
@@ -5776,7 +5936,7 @@
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="38"/>
+      <c r="A85" s="44"/>
       <c r="B85">
         <v>-4</v>
       </c>
@@ -5788,7 +5948,7 @@
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="38"/>
+      <c r="A86" s="44"/>
       <c r="B86">
         <v>-4</v>
       </c>
@@ -5800,7 +5960,7 @@
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="38">
+      <c r="A87" s="44">
         <v>43522</v>
       </c>
       <c r="B87">
@@ -5814,7 +5974,7 @@
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="38"/>
+      <c r="A88" s="44"/>
       <c r="B88">
         <v>-3.8</v>
       </c>
@@ -5826,7 +5986,7 @@
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" s="38"/>
+      <c r="A89" s="44"/>
       <c r="B89">
         <v>-10.84</v>
       </c>
@@ -5838,7 +5998,7 @@
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" s="38"/>
+      <c r="A90" s="44"/>
       <c r="B90">
         <v>-18</v>
       </c>
@@ -5850,7 +6010,7 @@
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="38">
+      <c r="A91" s="44">
         <v>43523</v>
       </c>
       <c r="B91">
@@ -5864,7 +6024,7 @@
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" s="38"/>
+      <c r="A92" s="44"/>
       <c r="B92">
         <v>-4</v>
       </c>
@@ -5876,7 +6036,7 @@
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="38"/>
+      <c r="A93" s="44"/>
       <c r="B93">
         <v>-4.4000000000000004</v>
       </c>
@@ -5888,7 +6048,7 @@
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="38"/>
+      <c r="A94" s="44"/>
       <c r="B94">
         <v>-9.5399999999999991</v>
       </c>
@@ -5900,7 +6060,7 @@
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="38">
+      <c r="A95" s="44">
         <v>43524</v>
       </c>
       <c r="B95">
@@ -5914,7 +6074,7 @@
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" s="38"/>
+      <c r="A96" s="44"/>
       <c r="B96">
         <v>-16</v>
       </c>
@@ -5926,7 +6086,7 @@
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" s="38"/>
+      <c r="A97" s="44"/>
       <c r="B97">
         <v>-4</v>
       </c>
@@ -5938,7 +6098,7 @@
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98" s="38"/>
+      <c r="A98" s="44"/>
       <c r="B98">
         <v>-3</v>
       </c>
@@ -5950,7 +6110,7 @@
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99" s="38"/>
+      <c r="A99" s="44"/>
       <c r="B99">
         <v>-7.9</v>
       </c>
@@ -5962,7 +6122,7 @@
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100" s="38"/>
+      <c r="A100" s="44"/>
       <c r="B100">
         <v>-16</v>
       </c>
@@ -5993,6 +6153,24 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A87:A90"/>
+    <mergeCell ref="A91:A94"/>
+    <mergeCell ref="A95:A100"/>
+    <mergeCell ref="A70:A72"/>
+    <mergeCell ref="A73:A76"/>
+    <mergeCell ref="A77:A79"/>
+    <mergeCell ref="A80:A83"/>
+    <mergeCell ref="A84:A86"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="A55:A59"/>
+    <mergeCell ref="A60:A66"/>
+    <mergeCell ref="A67:A69"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="A47:A49"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="A14:A15"/>
@@ -6001,24 +6179,6 @@
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="A55:A59"/>
-    <mergeCell ref="A60:A66"/>
-    <mergeCell ref="A67:A69"/>
-    <mergeCell ref="A87:A90"/>
-    <mergeCell ref="A91:A94"/>
-    <mergeCell ref="A95:A100"/>
-    <mergeCell ref="A70:A72"/>
-    <mergeCell ref="A73:A76"/>
-    <mergeCell ref="A77:A79"/>
-    <mergeCell ref="A80:A83"/>
-    <mergeCell ref="A84:A86"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6027,10 +6187,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N169"/>
+  <dimension ref="A1:N168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="D105" sqref="D105"/>
+    <sheetView topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6047,41 +6207,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="48" t="s">
         <v>120</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="37">
-        <f>SUMIF(B4:B234,"&lt;0")</f>
-        <v>-3556.8400000000006</v>
+        <f>SUMIF(B4:B233,"&lt;0")</f>
+        <v>-3615.8400000000006</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
+      <c r="A2" s="49"/>
       <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="13">
         <f>3000+C1</f>
-        <v>-556.8400000000006</v>
+        <v>-615.8400000000006</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>18</v>
       </c>
       <c r="F2">
         <f ca="1">DATE(2019,4,1)-TODAY()</f>
-        <v>3</v>
+        <v>-8</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I2">
         <f ca="1">C2/F2</f>
-        <v>-185.61333333333354</v>
+        <v>76.980000000000075</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="77" customHeight="1" x14ac:dyDescent="0.2">
@@ -6103,7 +6263,7 @@
       <c r="H3" s="8"/>
       <c r="I3" s="8">
         <f ca="1">C2/(F2-1)</f>
-        <v>-278.4200000000003</v>
+        <v>68.426666666666733</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -6112,7 +6272,7 @@
       <c r="N3" s="8"/>
     </row>
     <row r="4" spans="1:14" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="41">
+      <c r="A4" s="47">
         <v>43525</v>
       </c>
       <c r="B4" s="8">
@@ -6136,7 +6296,7 @@
       <c r="N4" s="8"/>
     </row>
     <row r="5" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="41"/>
+      <c r="A5" s="47"/>
       <c r="B5" s="8">
         <v>-17</v>
       </c>
@@ -6158,7 +6318,7 @@
       <c r="N5" s="8"/>
     </row>
     <row r="6" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="41"/>
+      <c r="A6" s="47"/>
       <c r="B6" s="8">
         <v>-10</v>
       </c>
@@ -6180,7 +6340,7 @@
       <c r="N6" s="8"/>
     </row>
     <row r="7" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="41"/>
+      <c r="A7" s="47"/>
       <c r="B7" s="8">
         <v>-10</v>
       </c>
@@ -6202,7 +6362,7 @@
       <c r="N7" s="8"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="41"/>
+      <c r="A8" s="47"/>
       <c r="B8">
         <v>-11.75</v>
       </c>
@@ -6228,7 +6388,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="46">
+      <c r="A10" s="51">
         <v>43527</v>
       </c>
       <c r="B10">
@@ -6247,12 +6407,12 @@
         <v>142</v>
       </c>
       <c r="J10">
-        <f>SUMIF($D$4:$D260,H10,$B$4:$B$260)</f>
+        <f>SUMIF($D$4:$D259,H10,$B$4:$B$259)</f>
         <v>-244</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="46"/>
+      <c r="A11" s="51"/>
       <c r="B11">
         <v>-2</v>
       </c>
@@ -6269,12 +6429,12 @@
         <v>143</v>
       </c>
       <c r="J11">
-        <f ca="1">SUMIF($D$4:$D261,H11,$B$4:$B$260)</f>
-        <v>-866.54999999999984</v>
+        <f ca="1">SUMIF($D$4:$D260,H11,$B$4:$B$259)</f>
+        <v>-927.54999999999984</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="46"/>
+      <c r="A12" s="51"/>
       <c r="B12">
         <v>-49</v>
       </c>
@@ -6291,12 +6451,12 @@
         <v>45</v>
       </c>
       <c r="J12">
-        <f ca="1">SUMIF($D$4:$D262,H12,$B$4:$B$260)</f>
-        <v>-1003.2900000000001</v>
+        <f ca="1">SUMIF($D$4:$D261,H12,$B$4:$B$259)</f>
+        <v>-1001.2900000000001</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="46"/>
+      <c r="A13" s="51"/>
       <c r="B13">
         <v>-109</v>
       </c>
@@ -6313,12 +6473,12 @@
         <v>46</v>
       </c>
       <c r="J13">
-        <f ca="1">SUMIF($D$4:$D263,H13,$B$4:$B$260)</f>
+        <f ca="1">SUMIF($D$4:$D262,H13,$B$4:$B$259)</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="41">
+      <c r="A14" s="47">
         <v>43528</v>
       </c>
       <c r="B14">
@@ -6337,12 +6497,12 @@
         <v>40</v>
       </c>
       <c r="J14">
-        <f ca="1">SUMIF($D$4:$D264,H14,$B$4:$B$260)</f>
+        <f ca="1">SUMIF($D$4:$D263,H14,$B$4:$B$259)</f>
         <v>-1439</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="41"/>
+      <c r="A15" s="47"/>
       <c r="B15">
         <v>-1439</v>
       </c>
@@ -6355,7 +6515,7 @@
       <c r="I15" s="4"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="41"/>
+      <c r="A16" s="47"/>
       <c r="B16">
         <v>-16</v>
       </c>
@@ -6368,7 +6528,7 @@
       <c r="I16" s="4"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="41"/>
+      <c r="A17" s="47"/>
       <c r="B17">
         <v>-3</v>
       </c>
@@ -6381,7 +6541,7 @@
       <c r="I17" s="4"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="41">
+      <c r="A18" s="47">
         <v>43529</v>
       </c>
       <c r="B18">
@@ -6396,7 +6556,7 @@
       <c r="I18" s="4"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="41"/>
+      <c r="A19" s="47"/>
       <c r="B19">
         <v>-16.260000000000002</v>
       </c>
@@ -6411,11 +6571,11 @@
       </c>
       <c r="J19">
         <f ca="1">SUM(J10:J14)</f>
-        <v>-3552.8399999999997</v>
+        <v>-3611.8399999999997</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="41"/>
+      <c r="A20" s="47"/>
       <c r="B20">
         <v>-6</v>
       </c>
@@ -6427,7 +6587,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="41">
+      <c r="A21" s="47">
         <v>43530</v>
       </c>
       <c r="B21">
@@ -6441,7 +6601,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="41"/>
+      <c r="A22" s="47"/>
       <c r="B22">
         <v>-16</v>
       </c>
@@ -6453,7 +6613,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="41"/>
+      <c r="A23" s="47"/>
       <c r="B23">
         <v>-3.5</v>
       </c>
@@ -6465,7 +6625,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="41">
+      <c r="A24" s="47">
         <v>43531</v>
       </c>
       <c r="B24">
@@ -6479,7 +6639,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="41"/>
+      <c r="A25" s="47"/>
       <c r="B25">
         <v>-14</v>
       </c>
@@ -6491,31 +6651,31 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="41"/>
+      <c r="A26" s="47"/>
       <c r="B26">
         <v>-24</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D26">
         <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="41"/>
+      <c r="A27" s="47"/>
       <c r="B27">
         <v>-19.899999999999999</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D27">
         <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="41"/>
+      <c r="A28" s="47"/>
       <c r="B28">
         <v>-11.11</v>
       </c>
@@ -6527,7 +6687,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="41">
+      <c r="A29" s="47">
         <v>43532</v>
       </c>
       <c r="B29">
@@ -6541,7 +6701,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="41"/>
+      <c r="A30" s="47"/>
       <c r="B30">
         <v>-22</v>
       </c>
@@ -6553,7 +6713,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="41"/>
+      <c r="A31" s="47"/>
       <c r="B31">
         <v>-3</v>
       </c>
@@ -6565,7 +6725,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="41"/>
+      <c r="A32" s="47"/>
       <c r="B32">
         <v>-1</v>
       </c>
@@ -6577,33 +6737,33 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="46">
+      <c r="A33" s="51">
         <v>43533</v>
       </c>
       <c r="B33">
         <v>-46.5</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D33">
         <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="46"/>
+      <c r="A34" s="51"/>
       <c r="B34">
         <v>-32.6</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D34">
         <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="46"/>
+      <c r="A35" s="51"/>
       <c r="B35">
         <v>-51</v>
       </c>
@@ -6615,19 +6775,19 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="46"/>
+      <c r="A36" s="51"/>
       <c r="B36">
         <v>-36.9</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D36">
         <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="46">
+      <c r="A37" s="51">
         <v>43534</v>
       </c>
       <c r="B37">
@@ -6641,7 +6801,7 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="46"/>
+      <c r="A38" s="51"/>
       <c r="B38">
         <v>-6</v>
       </c>
@@ -6653,7 +6813,7 @@
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="46"/>
+      <c r="A39" s="51"/>
       <c r="B39">
         <v>-30</v>
       </c>
@@ -6670,14 +6830,14 @@
         <v>-36</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D40">
         <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="41">
+      <c r="A41" s="47">
         <v>43535</v>
       </c>
       <c r="B41">
@@ -6691,7 +6851,7 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="41"/>
+      <c r="A42" s="47"/>
       <c r="B42">
         <v>-4</v>
       </c>
@@ -6703,19 +6863,19 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="41"/>
+      <c r="A43" s="47"/>
       <c r="B43">
         <v>-14.76</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D43">
         <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="41">
+      <c r="A44" s="47">
         <v>43536</v>
       </c>
       <c r="B44">
@@ -6729,7 +6889,7 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="41"/>
+      <c r="A45" s="47"/>
       <c r="B45">
         <v>-22</v>
       </c>
@@ -6741,7 +6901,7 @@
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="41"/>
+      <c r="A46" s="47"/>
       <c r="B46">
         <v>-8.4</v>
       </c>
@@ -6755,7 +6915,7 @@
       <c r="I46" s="13"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="41">
+      <c r="A47" s="47">
         <v>43537</v>
       </c>
       <c r="B47">
@@ -6771,7 +6931,7 @@
       <c r="I47" s="13"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="41"/>
+      <c r="A48" s="47"/>
       <c r="B48">
         <v>-10</v>
       </c>
@@ -6785,7 +6945,7 @@
       <c r="I48" s="13"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="41">
+      <c r="A49" s="47">
         <v>43538</v>
       </c>
       <c r="B49">
@@ -6801,7 +6961,7 @@
       <c r="I49" s="13"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="41"/>
+      <c r="A50" s="47"/>
       <c r="B50">
         <v>-18</v>
       </c>
@@ -6815,7 +6975,7 @@
       <c r="I50" s="13"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="41"/>
+      <c r="A51" s="47"/>
       <c r="B51">
         <v>-10</v>
       </c>
@@ -6829,12 +6989,12 @@
       <c r="I51" s="13"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="41"/>
+      <c r="A52" s="47"/>
       <c r="B52">
         <v>-65.55</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D52">
         <v>2</v>
@@ -6843,7 +7003,7 @@
       <c r="I52" s="13"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="41"/>
+      <c r="A53" s="47"/>
       <c r="B53">
         <v>-2.5</v>
       </c>
@@ -6857,7 +7017,7 @@
       <c r="I53" s="13"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="41">
+      <c r="A54" s="47">
         <v>43539</v>
       </c>
       <c r="B54">
@@ -6873,7 +7033,7 @@
       <c r="I54" s="13"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="41"/>
+      <c r="A55" s="47"/>
       <c r="B55">
         <v>-4</v>
       </c>
@@ -6884,12 +7044,12 @@
       <c r="I55" s="13"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="41"/>
+      <c r="A56" s="47"/>
       <c r="H56" s="13"/>
       <c r="I56" s="13"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="46">
+      <c r="A57" s="51">
         <v>43540</v>
       </c>
       <c r="B57">
@@ -6905,7 +7065,7 @@
       <c r="I57" s="13"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="46"/>
+      <c r="A58" s="51"/>
       <c r="B58">
         <v>-35</v>
       </c>
@@ -6919,12 +7079,12 @@
       <c r="I58" s="13"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="46"/>
+      <c r="A59" s="51"/>
       <c r="B59">
         <v>-21</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D59">
         <v>2</v>
@@ -6933,14 +7093,14 @@
       <c r="I59" s="13"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="46">
+      <c r="A60" s="51">
         <v>43541</v>
       </c>
       <c r="B60">
         <v>-15.8</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D60">
         <v>2</v>
@@ -6949,7 +7109,7 @@
       <c r="I60" s="13"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" s="46"/>
+      <c r="A61" s="51"/>
       <c r="B61">
         <v>-13</v>
       </c>
@@ -6963,12 +7123,12 @@
       <c r="I61" s="13"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" s="46"/>
+      <c r="A62" s="51"/>
       <c r="B62">
         <v>-3</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D62">
         <v>2</v>
@@ -6977,7 +7137,7 @@
       <c r="I62" s="13"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A63" s="41">
+      <c r="A63" s="47">
         <v>43542</v>
       </c>
       <c r="B63">
@@ -6993,7 +7153,7 @@
       <c r="I63" s="13"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A64" s="41"/>
+      <c r="A64" s="47"/>
       <c r="B64">
         <v>-4</v>
       </c>
@@ -7007,7 +7167,7 @@
       <c r="I64" s="13"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="41"/>
+      <c r="A65" s="47"/>
       <c r="B65">
         <v>-2.4</v>
       </c>
@@ -7019,7 +7179,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="41">
+      <c r="A66" s="47">
         <v>43543</v>
       </c>
       <c r="B66">
@@ -7033,7 +7193,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="41"/>
+      <c r="A67" s="47"/>
       <c r="B67">
         <v>-16</v>
       </c>
@@ -7045,7 +7205,7 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="41"/>
+      <c r="A68" s="47"/>
       <c r="B68">
         <v>-17</v>
       </c>
@@ -7057,7 +7217,7 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="41">
+      <c r="A69" s="47">
         <v>43544</v>
       </c>
       <c r="B69">
@@ -7071,7 +7231,7 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="41"/>
+      <c r="A70" s="47"/>
       <c r="B70">
         <v>-16</v>
       </c>
@@ -7083,7 +7243,7 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="41"/>
+      <c r="A71" s="47"/>
       <c r="B71">
         <v>-7</v>
       </c>
@@ -7095,7 +7255,7 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="41">
+      <c r="A72" s="47">
         <v>43545</v>
       </c>
       <c r="B72">
@@ -7109,7 +7269,7 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="41"/>
+      <c r="A73" s="47"/>
       <c r="B73">
         <v>-14</v>
       </c>
@@ -7121,19 +7281,19 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="41"/>
+      <c r="A74" s="47"/>
       <c r="B74">
         <v>-1.5</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D74">
         <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="41"/>
+      <c r="A75" s="47"/>
       <c r="B75">
         <v>-7.8</v>
       </c>
@@ -7145,19 +7305,19 @@
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="41"/>
+      <c r="A76" s="47"/>
       <c r="B76">
         <v>-3.5</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D76">
         <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="41">
+      <c r="A77" s="47">
         <v>43546</v>
       </c>
       <c r="B77">
@@ -7171,43 +7331,43 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="41"/>
+      <c r="A78" s="47"/>
       <c r="B78">
         <v>-17.399999999999999</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D78">
         <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="41"/>
+      <c r="A79" s="47"/>
       <c r="B79">
         <v>-20.100000000000001</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D79">
         <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="41"/>
+      <c r="A80" s="47"/>
       <c r="B80">
         <v>-44.7</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D80">
         <v>3</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="41"/>
+      <c r="A81" s="47"/>
       <c r="B81">
         <v>-2.1</v>
       </c>
@@ -7219,7 +7379,7 @@
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="41"/>
+      <c r="A82" s="47"/>
       <c r="B82">
         <v>-16</v>
       </c>
@@ -7231,7 +7391,7 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="46">
+      <c r="A83" s="51">
         <v>43547</v>
       </c>
       <c r="B83">
@@ -7245,7 +7405,7 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="46"/>
+      <c r="A84" s="51"/>
       <c r="B84">
         <v>-62</v>
       </c>
@@ -7257,7 +7417,7 @@
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="46">
+      <c r="A85" s="51">
         <v>43548</v>
       </c>
       <c r="B85">
@@ -7271,7 +7431,7 @@
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="46"/>
+      <c r="A86" s="51"/>
       <c r="B86">
         <v>-10.75</v>
       </c>
@@ -7283,7 +7443,7 @@
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="46"/>
+      <c r="A87" s="51"/>
       <c r="B87">
         <v>-37.119999999999997</v>
       </c>
@@ -7295,7 +7455,7 @@
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="41">
+      <c r="A88" s="47">
         <v>43549</v>
       </c>
       <c r="B88">
@@ -7309,7 +7469,7 @@
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" s="41"/>
+      <c r="A89" s="47"/>
       <c r="B89">
         <v>-4</v>
       </c>
@@ -7321,235 +7481,271 @@
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" s="41"/>
+      <c r="A90" s="47"/>
       <c r="B90">
-        <v>-40</v>
+        <v>-16.02</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>168</v>
+        <v>59</v>
       </c>
       <c r="D90">
         <v>3</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="41"/>
+      <c r="A91" s="47"/>
       <c r="B91">
-        <v>-16.02</v>
+        <v>-4</v>
       </c>
       <c r="C91" s="13" t="s">
-        <v>59</v>
+        <v>166</v>
       </c>
       <c r="D91">
         <v>3</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" s="41"/>
+      <c r="A92" s="47">
+        <v>43550</v>
+      </c>
       <c r="B92">
-        <v>-4</v>
+        <v>-11</v>
       </c>
       <c r="C92" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="47"/>
+      <c r="B93">
+        <v>-24</v>
+      </c>
+      <c r="C93" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="47"/>
+      <c r="B94">
+        <v>-3</v>
+      </c>
+      <c r="C94" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D94">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="47">
+        <v>43551</v>
+      </c>
+      <c r="B95">
+        <v>-11</v>
+      </c>
+      <c r="C95" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="47"/>
+      <c r="B96">
+        <v>-10</v>
+      </c>
+      <c r="C96" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="47">
+        <v>43552</v>
+      </c>
+      <c r="B97">
+        <v>-11</v>
+      </c>
+      <c r="C97" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="47"/>
+      <c r="B98">
+        <v>-6.72</v>
+      </c>
+      <c r="C98" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="D98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" s="47"/>
+      <c r="B99">
+        <v>-2</v>
+      </c>
+      <c r="C99" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" s="47"/>
+      <c r="B100">
+        <v>-9</v>
+      </c>
+      <c r="C100" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D100">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" s="47">
+        <v>43553</v>
+      </c>
+      <c r="B101">
+        <v>-11</v>
+      </c>
+      <c r="C101" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" s="47"/>
+      <c r="B102">
+        <v>-3.4</v>
+      </c>
+      <c r="C102" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" s="47"/>
+      <c r="B103">
+        <v>-30</v>
+      </c>
+      <c r="C103" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" s="51">
+        <v>43554</v>
+      </c>
+      <c r="B104">
+        <v>-23</v>
+      </c>
+      <c r="C104" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" s="51"/>
+      <c r="B105">
+        <v>-8</v>
+      </c>
+      <c r="C105" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" s="51"/>
+      <c r="B106">
+        <v>-30</v>
+      </c>
+      <c r="C106" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" s="47">
+        <v>43555</v>
+      </c>
+      <c r="B107">
+        <v>-11</v>
+      </c>
+      <c r="C107" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" s="47"/>
+      <c r="B108">
+        <v>-21</v>
+      </c>
+      <c r="C108" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" s="47"/>
+      <c r="B109">
+        <v>-9</v>
+      </c>
+      <c r="C109" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" s="47"/>
+      <c r="B110">
+        <v>-38</v>
+      </c>
+      <c r="C110" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="D92">
+      <c r="D110">
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="41">
-        <v>43550</v>
-      </c>
-      <c r="B93">
-        <v>-11</v>
-      </c>
-      <c r="C93" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="D93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="41"/>
-      <c r="B94">
-        <v>-24</v>
-      </c>
-      <c r="C94" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D94">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="41"/>
-      <c r="B95">
-        <v>-3</v>
-      </c>
-      <c r="C95" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D95">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" s="41">
-        <v>43551</v>
-      </c>
-      <c r="B96">
-        <v>-11</v>
-      </c>
-      <c r="C96" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="D96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" s="41"/>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98" s="41"/>
-      <c r="B98">
-        <v>-10</v>
-      </c>
-      <c r="C98" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D98">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99" s="41">
-        <v>43552</v>
-      </c>
-      <c r="B99">
-        <v>-11</v>
-      </c>
-      <c r="C99" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="D99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100" s="41"/>
-      <c r="B100">
-        <v>-6.72</v>
-      </c>
-      <c r="C100" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="D100">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A101" s="41"/>
-      <c r="B101">
-        <v>-2</v>
-      </c>
-      <c r="C101" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D101">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A102" s="41"/>
-      <c r="B102">
-        <v>-9</v>
-      </c>
-      <c r="C102" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D102">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A103" s="41">
-        <v>43553</v>
-      </c>
-      <c r="B103">
-        <v>-11</v>
-      </c>
-      <c r="C103" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="D103">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A104" s="41"/>
-      <c r="B104">
-        <v>-3.4</v>
-      </c>
-      <c r="C104" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D104">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A105" s="41"/>
-      <c r="B105">
-        <v>-30</v>
-      </c>
-      <c r="C105" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D105">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A106" s="46">
-        <v>43554</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A107" s="46"/>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A108" s="46"/>
-      <c r="B108">
-        <v>-30</v>
-      </c>
-      <c r="C108" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D108">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A109" s="41">
-        <v>43555</v>
-      </c>
-      <c r="B109">
-        <v>-11</v>
-      </c>
-      <c r="C109" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="D109">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A110" s="41"/>
-    </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A111" s="41"/>
+      <c r="A111" s="33"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="33"/>
@@ -7696,39 +7892,53 @@
       <c r="A159" s="33"/>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A160" s="33"/>
+      <c r="A160" s="47"/>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A161" s="41"/>
+      <c r="A161" s="47"/>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A162" s="41"/>
+      <c r="A162" s="47"/>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A163" s="41"/>
+      <c r="A163" s="47"/>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A164" s="41"/>
+      <c r="A164" s="47"/>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A165" s="41"/>
+      <c r="A165" s="47"/>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A166" s="41"/>
+      <c r="A166" s="47"/>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A167" s="41"/>
+      <c r="A167" s="47"/>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A168" s="41"/>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A169" s="33"/>
+      <c r="A168" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A161:A164"/>
-    <mergeCell ref="A165:A168"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="A77:A82"/>
+    <mergeCell ref="A72:A76"/>
+    <mergeCell ref="A69:A71"/>
+    <mergeCell ref="A66:A68"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="A92:A94"/>
+    <mergeCell ref="A88:A91"/>
+    <mergeCell ref="A85:A87"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A160:A163"/>
+    <mergeCell ref="A164:A167"/>
     <mergeCell ref="A29:A32"/>
     <mergeCell ref="A33:A36"/>
     <mergeCell ref="A37:A39"/>
@@ -7739,27 +7949,10 @@
     <mergeCell ref="A54:A56"/>
     <mergeCell ref="A57:A59"/>
     <mergeCell ref="A60:A62"/>
-    <mergeCell ref="A109:A111"/>
-    <mergeCell ref="A106:A108"/>
-    <mergeCell ref="A103:A105"/>
-    <mergeCell ref="A99:A102"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A96:A98"/>
-    <mergeCell ref="A93:A95"/>
-    <mergeCell ref="A88:A92"/>
-    <mergeCell ref="A85:A87"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="A77:A82"/>
-    <mergeCell ref="A72:A76"/>
-    <mergeCell ref="A69:A71"/>
-    <mergeCell ref="A66:A68"/>
+    <mergeCell ref="A107:A110"/>
+    <mergeCell ref="A104:A106"/>
+    <mergeCell ref="A101:A103"/>
+    <mergeCell ref="A97:A100"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7768,10 +7961,1761 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N213"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:A29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.1640625" style="36" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="13"/>
+    <col min="4" max="4" width="23.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="8" max="8" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.33203125" customWidth="1"/>
+    <col min="12" max="12" width="5.33203125" customWidth="1"/>
+    <col min="13" max="13" width="17.6640625" customWidth="1"/>
+    <col min="34" max="34" width="16.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="48" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="37">
+        <f>SUMIF(B4:B255,"&lt;0")</f>
+        <v>-2362.9500000000003</v>
+      </c>
+      <c r="E1" s="4"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="49"/>
+      <c r="B2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="13">
+        <f>3000+C1</f>
+        <v>637.04999999999973</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2">
+        <f ca="1">DATE(2019,4,1)-TODAY()</f>
+        <v>-8</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2">
+        <f ca="1">C2/F2</f>
+        <v>-79.631249999999966</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="77" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8">
+        <f ca="1">C2/(F2-1)</f>
+        <v>-70.783333333333303</v>
+      </c>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+    </row>
+    <row r="4" spans="1:14" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="38">
+        <v>43556</v>
+      </c>
+      <c r="B4" s="8">
+        <v>-11</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="12">
+        <v>1</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+    </row>
+    <row r="5" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="38">
+        <v>43557</v>
+      </c>
+      <c r="B5" s="8">
+        <v>-11</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="12">
+        <v>1</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+    </row>
+    <row r="6" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="44">
+        <v>43558</v>
+      </c>
+      <c r="B6" s="8">
+        <v>-22</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D6" s="12">
+        <v>2</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+    </row>
+    <row r="7" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="44"/>
+      <c r="B7" s="8">
+        <v>-7.3</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="D7" s="12">
+        <v>2</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+    </row>
+    <row r="8" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="44"/>
+      <c r="B8" s="8">
+        <v>-11</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="12">
+        <v>1</v>
+      </c>
+      <c r="E8" s="12"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+    </row>
+    <row r="9" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="44">
+        <v>43559</v>
+      </c>
+      <c r="B9" s="8">
+        <v>-9</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D9" s="12">
+        <v>2</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+    </row>
+    <row r="10" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="44"/>
+      <c r="B10" s="8">
+        <v>-11</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="12">
+        <v>1</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+    </row>
+    <row r="11" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="44"/>
+      <c r="B11" s="8">
+        <v>-1420</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D11" s="12">
+        <v>5</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+    </row>
+    <row r="12" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="44"/>
+      <c r="B12" s="8">
+        <v>-89</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="D12" s="12">
+        <v>2</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+    </row>
+    <row r="13" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="50">
+        <v>43560</v>
+      </c>
+      <c r="B13" s="8">
+        <v>-139</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="12">
+        <v>3</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="50"/>
+      <c r="B14" s="8">
+        <v>-199</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="D14" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="50"/>
+      <c r="B15" s="8">
+        <v>-6</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="D15" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="50"/>
+      <c r="B16" s="8">
+        <v>-5</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="D16" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="42">
+        <v>43561</v>
+      </c>
+      <c r="B17" s="8">
+        <v>-3</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="D17" s="12">
+        <v>2</v>
+      </c>
+      <c r="H17" s="9"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="50">
+        <v>43562</v>
+      </c>
+      <c r="B18" s="8">
+        <v>-48</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="D18" s="12">
+        <v>3</v>
+      </c>
+      <c r="H18" s="9"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="50"/>
+      <c r="B19" s="8">
+        <v>-30</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="D19" s="12">
+        <v>3</v>
+      </c>
+      <c r="H19" s="9"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="50"/>
+      <c r="B20" s="8">
+        <v>-42.5</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D20" s="12">
+        <v>2</v>
+      </c>
+      <c r="H20" s="9"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="50"/>
+      <c r="B21" s="8">
+        <v>-2.5</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="D21" s="12">
+        <v>2</v>
+      </c>
+      <c r="H21" s="9"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="50"/>
+      <c r="B22" s="8">
+        <v>-5.3</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D22" s="12">
+        <v>2</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="50"/>
+      <c r="B23" s="8">
+        <v>-3.33</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="D23" s="12">
+        <v>2</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="J23">
+        <f>SUMIF($D$4:$D281,H23,$B$4:$B$281)</f>
+        <v>-253</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="44">
+        <v>43563</v>
+      </c>
+      <c r="B24" s="8">
+        <v>-11</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="12">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>2</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="J24">
+        <f ca="1">SUMIF($D$4:$D282,H24,$B$4:$B$281)</f>
+        <v>-273.95000000000005</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="44"/>
+      <c r="B25" s="8">
+        <v>-58.52</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="D25" s="12">
+        <v>2</v>
+      </c>
+      <c r="I25" s="4"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="44"/>
+      <c r="B26" s="8">
+        <v>-6.3</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D26" s="12">
+        <v>2</v>
+      </c>
+      <c r="I26" s="4"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="44"/>
+      <c r="B27" s="8">
+        <v>-4</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D27" s="12">
+        <v>2</v>
+      </c>
+      <c r="I27" s="4"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="44">
+        <v>43564</v>
+      </c>
+      <c r="B28" s="8">
+        <v>-11</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="12">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>3</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J28">
+        <f ca="1">SUMIF($D$4:$D283,H28,$B$4:$B$281)</f>
+        <v>-416</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="44"/>
+      <c r="B29" s="8">
+        <v>-10.199999999999999</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D29" s="12">
+        <v>2</v>
+      </c>
+      <c r="I29" s="4"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="38">
+        <v>43565</v>
+      </c>
+      <c r="B30" s="8">
+        <v>-11</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" s="12">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>4</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J30">
+        <f ca="1">SUMIF($D$4:$D284,H30,$B$4:$B$281)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="41"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="12"/>
+      <c r="I31" s="4"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="38">
+        <v>43566</v>
+      </c>
+      <c r="B32" s="8">
+        <v>-11</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" s="12">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>5</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J32">
+        <f ca="1">SUMIF($D$4:$D285,H32,$B$4:$B$281)</f>
+        <v>-1420</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="41"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="12"/>
+      <c r="I33" s="4"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="41"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="12"/>
+      <c r="I34" s="4"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="43"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="12"/>
+      <c r="I35" s="4"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="38">
+        <v>43567</v>
+      </c>
+      <c r="B36" s="8">
+        <v>-11</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D36" s="12">
+        <v>1</v>
+      </c>
+      <c r="I36" s="4"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="40">
+        <v>43568</v>
+      </c>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="12"/>
+      <c r="I37" s="4"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" s="40">
+        <v>43569</v>
+      </c>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="12"/>
+      <c r="I38" s="4"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="38">
+        <v>43570</v>
+      </c>
+      <c r="B39" s="8">
+        <v>-11</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D39" s="12">
+        <v>1</v>
+      </c>
+      <c r="I39" s="4"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="38">
+        <v>43571</v>
+      </c>
+      <c r="B40" s="8">
+        <v>-11</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D40" s="12">
+        <v>1</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="J40">
+        <f ca="1">SUM(J23:J32)</f>
+        <v>-2362.9499999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="38">
+        <v>43572</v>
+      </c>
+      <c r="B41" s="8">
+        <v>-11</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D41" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="38">
+        <v>43573</v>
+      </c>
+      <c r="B42" s="8">
+        <v>-11</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D42" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="38">
+        <v>43574</v>
+      </c>
+      <c r="B43" s="8">
+        <v>-11</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D43" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="40">
+        <v>43575</v>
+      </c>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="12"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" s="40">
+        <v>43576</v>
+      </c>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="12"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" s="38">
+        <v>43577</v>
+      </c>
+      <c r="B46" s="8">
+        <v>-11</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D46" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" s="38">
+        <v>43578</v>
+      </c>
+      <c r="B47" s="8">
+        <v>-11</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D47" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" s="38">
+        <v>43579</v>
+      </c>
+      <c r="B48" s="8">
+        <v>-11</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D48" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="38">
+        <v>43580</v>
+      </c>
+      <c r="B49" s="8">
+        <v>-11</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D49" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="38">
+        <v>43581</v>
+      </c>
+      <c r="B50" s="8">
+        <v>-11</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D50" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="38">
+        <v>43582</v>
+      </c>
+      <c r="B51" s="8">
+        <v>-11</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D51" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="38">
+        <v>43583</v>
+      </c>
+      <c r="B52" s="8">
+        <v>-11</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D52" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="38">
+        <v>43584</v>
+      </c>
+      <c r="B53" s="8">
+        <v>-11</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D53" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="38">
+        <v>43585</v>
+      </c>
+      <c r="B54" s="8">
+        <v>-11</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D54" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="38"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="8"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="8"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="8"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="8"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="8"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="8"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="8"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="8"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="8"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="8"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="8"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="8"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65" s="8"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="8"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66" s="8"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="8"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67" s="8"/>
+      <c r="B67" s="8"/>
+      <c r="C67" s="8"/>
+      <c r="H67" s="13"/>
+      <c r="I67" s="13"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A68" s="8"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="8"/>
+      <c r="H68" s="13"/>
+      <c r="I68" s="13"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A69" s="8"/>
+      <c r="B69" s="8"/>
+      <c r="C69" s="8"/>
+      <c r="H69" s="13"/>
+      <c r="I69" s="13"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70" s="8"/>
+      <c r="B70" s="8"/>
+      <c r="C70" s="8"/>
+      <c r="H70" s="13"/>
+      <c r="I70" s="13"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A71" s="8"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="8"/>
+      <c r="H71" s="13"/>
+      <c r="I71" s="13"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A72" s="8"/>
+      <c r="B72" s="8"/>
+      <c r="C72" s="8"/>
+      <c r="H72" s="13"/>
+      <c r="I72" s="13"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A73" s="8"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="8"/>
+      <c r="H73" s="13"/>
+      <c r="I73" s="13"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A74" s="8"/>
+      <c r="B74" s="8"/>
+      <c r="C74" s="8"/>
+      <c r="H74" s="13"/>
+      <c r="I74" s="13"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A75" s="8"/>
+      <c r="B75" s="8"/>
+      <c r="C75" s="8"/>
+      <c r="H75" s="13"/>
+      <c r="I75" s="13"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A76" s="8"/>
+      <c r="B76" s="8"/>
+      <c r="C76" s="8"/>
+      <c r="H76" s="13"/>
+      <c r="I76" s="13"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A77" s="8"/>
+      <c r="B77" s="8"/>
+      <c r="C77" s="8"/>
+      <c r="H77" s="13"/>
+      <c r="I77" s="13"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A78" s="8"/>
+      <c r="B78" s="8"/>
+      <c r="C78" s="8"/>
+      <c r="H78" s="13"/>
+      <c r="I78" s="13"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A79" s="8"/>
+      <c r="B79" s="8"/>
+      <c r="C79" s="8"/>
+      <c r="H79" s="13"/>
+      <c r="I79" s="13"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A80" s="8"/>
+      <c r="B80" s="8"/>
+      <c r="C80" s="8"/>
+      <c r="H80" s="13"/>
+      <c r="I80" s="13"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A81" s="8"/>
+      <c r="B81" s="8"/>
+      <c r="C81" s="8"/>
+      <c r="H81" s="13"/>
+      <c r="I81" s="13"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A82" s="8"/>
+      <c r="B82" s="8"/>
+      <c r="C82" s="8"/>
+      <c r="H82" s="13"/>
+      <c r="I82" s="13"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A83" s="8"/>
+      <c r="B83" s="8"/>
+      <c r="C83" s="8"/>
+      <c r="H83" s="13"/>
+      <c r="I83" s="13"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A84" s="8"/>
+      <c r="B84" s="8"/>
+      <c r="C84" s="8"/>
+      <c r="H84" s="13"/>
+      <c r="I84" s="13"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A85" s="8"/>
+      <c r="B85" s="8"/>
+      <c r="C85" s="8"/>
+      <c r="H85" s="13"/>
+      <c r="I85" s="13"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A86" s="8"/>
+      <c r="B86" s="8"/>
+      <c r="C86" s="8"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A87" s="8"/>
+      <c r="B87" s="8"/>
+      <c r="C87" s="8"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A88" s="8"/>
+      <c r="B88" s="8"/>
+      <c r="C88" s="8"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A89" s="8"/>
+      <c r="B89" s="8"/>
+      <c r="C89" s="8"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A90" s="8"/>
+      <c r="B90" s="8"/>
+      <c r="C90" s="8"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A91" s="8"/>
+      <c r="B91" s="8"/>
+      <c r="C91" s="8"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A92" s="8"/>
+      <c r="B92" s="8"/>
+      <c r="C92" s="8"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A93" s="8"/>
+      <c r="B93" s="8"/>
+      <c r="C93" s="8"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A94" s="8"/>
+      <c r="B94" s="8"/>
+      <c r="C94" s="8"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A95" s="8"/>
+      <c r="B95" s="8"/>
+      <c r="C95" s="8"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A96" s="8"/>
+      <c r="B96" s="8"/>
+      <c r="C96" s="8"/>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" s="8"/>
+      <c r="B97" s="8"/>
+      <c r="C97" s="8"/>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" s="8"/>
+      <c r="B98" s="8"/>
+      <c r="C98" s="8"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" s="8"/>
+      <c r="B99" s="8"/>
+      <c r="C99" s="8"/>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" s="8"/>
+      <c r="B100" s="8"/>
+      <c r="C100" s="8"/>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" s="8"/>
+      <c r="B101" s="8"/>
+      <c r="C101" s="8"/>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" s="8"/>
+      <c r="B102" s="8"/>
+      <c r="C102" s="8"/>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" s="8"/>
+      <c r="B103" s="8"/>
+      <c r="C103" s="8"/>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" s="8"/>
+      <c r="B104" s="8"/>
+      <c r="C104" s="8"/>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" s="8"/>
+      <c r="B105" s="8"/>
+      <c r="C105" s="8"/>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" s="8"/>
+      <c r="B106" s="8"/>
+      <c r="C106" s="8"/>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" s="8"/>
+      <c r="B107" s="8"/>
+      <c r="C107" s="8"/>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" s="8"/>
+      <c r="B108" s="8"/>
+      <c r="C108" s="8"/>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" s="8"/>
+      <c r="B109" s="8"/>
+      <c r="C109" s="8"/>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" s="8"/>
+      <c r="B110" s="8"/>
+      <c r="C110" s="8"/>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" s="8"/>
+      <c r="B111" s="8"/>
+      <c r="C111" s="8"/>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" s="8"/>
+      <c r="B112" s="8"/>
+      <c r="C112" s="8"/>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" s="8"/>
+      <c r="B113" s="8"/>
+      <c r="C113" s="8"/>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" s="8"/>
+      <c r="B114" s="8"/>
+      <c r="C114" s="8"/>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" s="8"/>
+      <c r="B115" s="8"/>
+      <c r="C115" s="8"/>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" s="8"/>
+      <c r="B116" s="8"/>
+      <c r="C116" s="8"/>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" s="8"/>
+      <c r="B117" s="8"/>
+      <c r="C117" s="8"/>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" s="8"/>
+      <c r="B118" s="8"/>
+      <c r="C118" s="8"/>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" s="8"/>
+      <c r="B119" s="8"/>
+      <c r="C119" s="8"/>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" s="8"/>
+      <c r="B120" s="8"/>
+      <c r="C120" s="8"/>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" s="8"/>
+      <c r="B121" s="8"/>
+      <c r="C121" s="8"/>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" s="8"/>
+      <c r="B122" s="8"/>
+      <c r="C122" s="8"/>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" s="8"/>
+      <c r="B123" s="8"/>
+      <c r="C123" s="8"/>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" s="8"/>
+      <c r="B124" s="8"/>
+      <c r="C124" s="8"/>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" s="8"/>
+      <c r="B125" s="8"/>
+      <c r="C125" s="8"/>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" s="8"/>
+      <c r="B126" s="8"/>
+      <c r="C126" s="8"/>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" s="8"/>
+      <c r="B127" s="8"/>
+      <c r="C127" s="8"/>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" s="8"/>
+      <c r="B128" s="8"/>
+      <c r="C128" s="8"/>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" s="8"/>
+      <c r="B129" s="8"/>
+      <c r="C129" s="8"/>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" s="8"/>
+      <c r="B130" s="8"/>
+      <c r="C130" s="8"/>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" s="8"/>
+      <c r="B131" s="8"/>
+      <c r="C131" s="8"/>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" s="8"/>
+      <c r="B132" s="8"/>
+      <c r="C132" s="8"/>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" s="8"/>
+      <c r="B133" s="8"/>
+      <c r="C133" s="8"/>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" s="8"/>
+      <c r="B134" s="8"/>
+      <c r="C134" s="8"/>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" s="8"/>
+      <c r="B135" s="8"/>
+      <c r="C135" s="8"/>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" s="8"/>
+      <c r="B136" s="8"/>
+      <c r="C136" s="8"/>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" s="8"/>
+      <c r="B137" s="8"/>
+      <c r="C137" s="8"/>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" s="8"/>
+      <c r="B138" s="8"/>
+      <c r="C138" s="8"/>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139" s="8"/>
+      <c r="B139" s="8"/>
+      <c r="C139" s="8"/>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140" s="8"/>
+      <c r="B140" s="8"/>
+      <c r="C140" s="8"/>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141" s="8"/>
+      <c r="B141" s="8"/>
+      <c r="C141" s="8"/>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142" s="8"/>
+      <c r="B142" s="8"/>
+      <c r="C142" s="8"/>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143" s="8"/>
+      <c r="B143" s="8"/>
+      <c r="C143" s="8"/>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144" s="8"/>
+      <c r="B144" s="8"/>
+      <c r="C144" s="8"/>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145" s="8"/>
+      <c r="B145" s="8"/>
+      <c r="C145" s="8"/>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146" s="8"/>
+      <c r="B146" s="8"/>
+      <c r="C146" s="8"/>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147" s="8"/>
+      <c r="B147" s="8"/>
+      <c r="C147" s="8"/>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148" s="8"/>
+      <c r="B148" s="8"/>
+      <c r="C148" s="8"/>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149" s="8"/>
+      <c r="B149" s="8"/>
+      <c r="C149" s="8"/>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150" s="8"/>
+      <c r="B150" s="8"/>
+      <c r="C150" s="8"/>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151" s="8"/>
+      <c r="B151" s="8"/>
+      <c r="C151" s="8"/>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152" s="8"/>
+      <c r="B152" s="8"/>
+      <c r="C152" s="8"/>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153" s="8"/>
+      <c r="B153" s="8"/>
+      <c r="C153" s="8"/>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154" s="8"/>
+      <c r="B154" s="8"/>
+      <c r="C154" s="8"/>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155" s="8"/>
+      <c r="B155" s="8"/>
+      <c r="C155" s="8"/>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156" s="8"/>
+      <c r="B156" s="8"/>
+      <c r="C156" s="8"/>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A157" s="8"/>
+      <c r="B157" s="8"/>
+      <c r="C157" s="8"/>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158" s="8"/>
+      <c r="B158" s="8"/>
+      <c r="C158" s="8"/>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159" s="8"/>
+      <c r="B159" s="8"/>
+      <c r="C159" s="8"/>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160" s="8"/>
+      <c r="B160" s="8"/>
+      <c r="C160" s="8"/>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A161" s="8"/>
+      <c r="B161" s="8"/>
+      <c r="C161" s="8"/>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162" s="8"/>
+      <c r="B162" s="8"/>
+      <c r="C162" s="8"/>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A163" s="8"/>
+      <c r="B163" s="8"/>
+      <c r="C163" s="8"/>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A164" s="8"/>
+      <c r="B164" s="8"/>
+      <c r="C164" s="8"/>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A165" s="8"/>
+      <c r="B165" s="8"/>
+      <c r="C165" s="8"/>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A166" s="8"/>
+      <c r="B166" s="8"/>
+      <c r="C166" s="8"/>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A167" s="8"/>
+      <c r="B167" s="8"/>
+      <c r="C167" s="8"/>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A168" s="8"/>
+      <c r="B168" s="8"/>
+      <c r="C168" s="8"/>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A169" s="8"/>
+      <c r="B169" s="8"/>
+      <c r="C169" s="8"/>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A170" s="8"/>
+      <c r="B170" s="8"/>
+      <c r="C170" s="8"/>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A171" s="8"/>
+      <c r="B171" s="8"/>
+      <c r="C171" s="8"/>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A172" s="8"/>
+      <c r="B172" s="8"/>
+      <c r="C172" s="8"/>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A173" s="8"/>
+      <c r="B173" s="8"/>
+      <c r="C173" s="8"/>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A174" s="8"/>
+      <c r="B174" s="8"/>
+      <c r="C174" s="8"/>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A175" s="8"/>
+      <c r="B175" s="8"/>
+      <c r="C175" s="8"/>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A176" s="8"/>
+      <c r="B176" s="8"/>
+      <c r="C176" s="8"/>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A177" s="8"/>
+      <c r="B177" s="8"/>
+      <c r="C177" s="8"/>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A178" s="8"/>
+      <c r="B178" s="8"/>
+      <c r="C178" s="8"/>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A179" s="8"/>
+      <c r="B179" s="8"/>
+      <c r="C179" s="8"/>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A180" s="8"/>
+      <c r="B180" s="8"/>
+      <c r="C180" s="8"/>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A181" s="8"/>
+      <c r="B181" s="8"/>
+      <c r="C181" s="8"/>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A182" s="8"/>
+      <c r="B182" s="8"/>
+      <c r="C182" s="8"/>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A183" s="8"/>
+      <c r="B183" s="8"/>
+      <c r="C183" s="8"/>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A184" s="8"/>
+      <c r="B184" s="8"/>
+      <c r="C184" s="8"/>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A185" s="8"/>
+      <c r="B185" s="8"/>
+      <c r="C185" s="8"/>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A186" s="8"/>
+      <c r="B186" s="8"/>
+      <c r="C186" s="8"/>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A187" s="8"/>
+      <c r="B187" s="8"/>
+      <c r="C187" s="8"/>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A188" s="8"/>
+      <c r="B188" s="8"/>
+      <c r="C188" s="8"/>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A189" s="8"/>
+      <c r="B189" s="8"/>
+      <c r="C189" s="8"/>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A190" s="8"/>
+      <c r="B190" s="8"/>
+      <c r="C190" s="8"/>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A191" s="8"/>
+      <c r="B191" s="8"/>
+      <c r="C191" s="8"/>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A192" s="8"/>
+      <c r="B192" s="8"/>
+      <c r="C192" s="8"/>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A193" s="8"/>
+      <c r="B193" s="8"/>
+      <c r="C193" s="8"/>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A194" s="8"/>
+      <c r="B194" s="8"/>
+      <c r="C194" s="8"/>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A195" s="8"/>
+      <c r="B195" s="8"/>
+      <c r="C195" s="8"/>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A196" s="8"/>
+      <c r="B196" s="8"/>
+      <c r="C196" s="8"/>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A197" s="8"/>
+      <c r="B197" s="8"/>
+      <c r="C197" s="8"/>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A198" s="8"/>
+      <c r="B198" s="8"/>
+      <c r="C198" s="8"/>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A199" s="8"/>
+      <c r="B199" s="8"/>
+      <c r="C199" s="8"/>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A200" s="8"/>
+      <c r="B200" s="8"/>
+      <c r="C200" s="8"/>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A201" s="8"/>
+      <c r="B201" s="8"/>
+      <c r="C201" s="8"/>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A202" s="8"/>
+      <c r="B202" s="8"/>
+      <c r="C202" s="8"/>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A203" s="8"/>
+      <c r="B203" s="8"/>
+      <c r="C203" s="8"/>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A204" s="8"/>
+      <c r="B204" s="8"/>
+      <c r="C204" s="8"/>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A205" s="8"/>
+      <c r="B205" s="8"/>
+      <c r="C205" s="8"/>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A206" s="8"/>
+      <c r="B206" s="8"/>
+      <c r="C206" s="8"/>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A207" s="8"/>
+      <c r="B207" s="8"/>
+      <c r="C207" s="8"/>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A208" s="8"/>
+      <c r="B208" s="8"/>
+      <c r="C208" s="8"/>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A209" s="8"/>
+      <c r="B209" s="8"/>
+      <c r="C209" s="8"/>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A210" s="8"/>
+      <c r="B210" s="8"/>
+      <c r="C210" s="8"/>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A211" s="8"/>
+      <c r="B211" s="8"/>
+      <c r="C211" s="8"/>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A212" s="8"/>
+      <c r="B212" s="8"/>
+      <c r="C212" s="8"/>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A213" s="8"/>
+      <c r="B213" s="8"/>
+      <c r="C213" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A18:A23"/>
+    <mergeCell ref="A13:A16"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7785,6 +9729,7 @@
     <col min="8" max="8" width="23.5" style="8" customWidth="1"/>
     <col min="9" max="9" width="16.5" style="8" customWidth="1"/>
     <col min="10" max="10" width="1.83203125" style="26" customWidth="1"/>
+    <col min="13" max="13" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.2">
@@ -7802,13 +9747,13 @@
       <c r="J3"/>
     </row>
     <row r="4" spans="1:50" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="48" t="s">
+      <c r="D4" s="54" t="s">
         <v>122</v>
       </c>
-      <c r="E4" s="48"/>
+      <c r="E4" s="54"/>
       <c r="G4" s="26" t="s">
         <v>133</v>
       </c>
@@ -7818,9 +9763,16 @@
       <c r="I4" s="26" t="s">
         <v>123</v>
       </c>
+      <c r="M4" t="s">
+        <v>180</v>
+      </c>
+      <c r="N4">
+        <f>SUM(N5:N32)</f>
+        <v>-5007.3599999999997</v>
+      </c>
     </row>
     <row r="5" spans="1:50" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="47"/>
+      <c r="C5" s="53"/>
       <c r="D5" s="28" t="s">
         <v>136</v>
       </c>
@@ -7831,14 +9783,14 @@
       <c r="H5" s="26"/>
       <c r="I5" s="26"/>
       <c r="M5" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="N5">
         <v>-2239</v>
       </c>
     </row>
     <row r="6" spans="1:50" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="49">
+      <c r="C6" s="55">
         <v>43585</v>
       </c>
       <c r="D6" s="29" t="s">
@@ -7847,50 +9799,69 @@
       <c r="E6" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="I6" s="44"/>
+      <c r="I6" s="46"/>
       <c r="J6" s="27"/>
       <c r="M6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N6">
         <v>-600</v>
       </c>
     </row>
     <row r="7" spans="1:50" ht="43" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="49"/>
+      <c r="C7" s="55"/>
       <c r="D7" s="29" t="s">
         <v>126</v>
       </c>
       <c r="E7" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="I7" s="44"/>
+      <c r="I7" s="46"/>
       <c r="J7" s="27"/>
+      <c r="M7" t="s">
+        <v>172</v>
+      </c>
+      <c r="N7">
+        <f>-99/2</f>
+        <v>-49.5</v>
+      </c>
     </row>
     <row r="8" spans="1:50" ht="43" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C8" s="49"/>
+      <c r="C8" s="55"/>
       <c r="D8" s="29" t="s">
         <v>128</v>
       </c>
       <c r="E8" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="I8" s="44"/>
+      <c r="I8" s="46"/>
       <c r="J8" s="27"/>
+      <c r="M8" t="s">
+        <v>173</v>
+      </c>
+      <c r="N8">
+        <v>-75</v>
+      </c>
     </row>
     <row r="9" spans="1:50" ht="43" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C9" s="49"/>
+      <c r="C9" s="55"/>
       <c r="D9" s="29" t="s">
         <v>129</v>
       </c>
       <c r="E9" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="I9" s="44"/>
+      <c r="I9" s="46"/>
       <c r="J9" s="27"/>
+      <c r="M9" t="s">
+        <v>186</v>
+      </c>
+      <c r="N9">
+        <v>-40</v>
+      </c>
     </row>
     <row r="10" spans="1:50" ht="43" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="49"/>
+      <c r="C10" s="55"/>
       <c r="D10" s="29">
         <v>0.99305555555555547</v>
       </c>
@@ -7898,7 +9869,7 @@
         <v>132</v>
       </c>
       <c r="F10" s="31"/>
-      <c r="I10" s="44"/>
+      <c r="I10" s="46"/>
       <c r="J10" s="27"/>
     </row>
     <row r="11" spans="1:50" s="4" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
@@ -7954,7 +9925,7 @@
       <c r="AX11"/>
     </row>
     <row r="12" spans="1:50" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="49">
+      <c r="C12" s="55">
         <v>43586</v>
       </c>
       <c r="D12" s="29">
@@ -7963,18 +9934,47 @@
       <c r="E12" s="19" t="s">
         <v>135</v>
       </c>
+      <c r="M12" t="s">
+        <v>182</v>
+      </c>
+      <c r="N12" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="13" spans="1:50" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="49"/>
+      <c r="C13" s="55"/>
+      <c r="M13">
+        <v>-1547.46</v>
+      </c>
+      <c r="N13">
+        <v>-656.28</v>
+      </c>
     </row>
     <row r="14" spans="1:50" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="49"/>
+      <c r="C14" s="55"/>
+      <c r="M14">
+        <v>-972.48</v>
+      </c>
+      <c r="N14">
+        <v>-345.65</v>
+      </c>
     </row>
     <row r="15" spans="1:50" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="49"/>
+      <c r="C15" s="55"/>
     </row>
     <row r="16" spans="1:50" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="49"/>
+      <c r="C16" s="55"/>
+      <c r="L16" t="s">
+        <v>180</v>
+      </c>
+      <c r="M16">
+        <f>SUM(M13:M15)</f>
+        <v>-2519.94</v>
+      </c>
+      <c r="N16">
+        <f>SUM(N13:N15)</f>
+        <v>-1001.93</v>
+      </c>
     </row>
     <row r="17" spans="1:12" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="24">

--- a/健忘症患者的账本.xlsx
+++ b/健忘症患者的账本.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="880" yWindow="460" windowWidth="27920" windowHeight="17540" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="880" yWindow="460" windowWidth="27920" windowHeight="17540" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="12月" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="3月" sheetId="7" r:id="rId4"/>
     <sheet name="4月" sheetId="10" r:id="rId5"/>
     <sheet name="泰国行" sheetId="8" r:id="rId6"/>
+    <sheet name="5月" sheetId="11" r:id="rId7"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="191">
   <si>
     <t>日期</t>
     <rPh sb="0" eb="1">
@@ -1489,13 +1490,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>裤子</t>
-    <rPh sb="0" eb="1">
-      <t>ku zi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>房租</t>
     <rPh sb="0" eb="1">
       <t>fang zu</t>
@@ -1574,6 +1568,44 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>ji piao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>换泰铢</t>
+    <rPh sb="0" eb="1">
+      <t>huan</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>tai zhu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西红柿</t>
+    <rPh sb="0" eb="1">
+      <t>xi hong shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛肉</t>
+    <rPh sb="0" eb="1">
+      <t>niu rou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话卡</t>
+    <rPh sb="0" eb="1">
+      <t>dian hua ka</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/5月</t>
+    <rPh sb="6" eb="7">
+      <t>yue</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1667,7 +1699,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1780,6 +1812,18 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -2115,7 +2159,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="52" t="s">
         <v>26</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -2129,7 +2173,7 @@
       <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="49"/>
+      <c r="A2" s="53"/>
       <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
@@ -2142,14 +2186,14 @@
       </c>
       <c r="F2">
         <f ca="1">DATE(2019,1,1)-TODAY()</f>
-        <v>-98</v>
+        <v>-100</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I2">
         <f ca="1">C2/F2</f>
-        <v>26.501632653061222</v>
+        <v>25.971599999999999</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="8" customFormat="1" ht="61" customHeight="1" x14ac:dyDescent="0.2">
@@ -2162,20 +2206,20 @@
       <c r="C3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="45" t="s">
+      <c r="D3" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
       <c r="I3" s="8">
         <f ca="1">C2/(F2-1)</f>
-        <v>26.233939393939391</v>
+        <v>25.714455445544552</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="44">
+      <c r="A4" s="48">
         <v>43435</v>
       </c>
       <c r="B4">
@@ -2189,7 +2233,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="44"/>
+      <c r="A5" s="48"/>
       <c r="B5">
         <v>-20</v>
       </c>
@@ -2215,7 +2259,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="44">
+      <c r="A7" s="48">
         <v>43437</v>
       </c>
       <c r="B7">
@@ -2229,7 +2273,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="44"/>
+      <c r="A8" s="48"/>
       <c r="B8">
         <v>-89</v>
       </c>
@@ -2250,7 +2294,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="44"/>
+      <c r="A9" s="48"/>
       <c r="B9">
         <v>-6</v>
       </c>
@@ -2272,7 +2316,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="44"/>
+      <c r="A10" s="48"/>
       <c r="B10">
         <v>-4</v>
       </c>
@@ -2301,7 +2345,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="47">
+      <c r="A11" s="51">
         <v>43438</v>
       </c>
       <c r="B11">
@@ -2325,7 +2369,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="47"/>
+      <c r="A12" s="51"/>
       <c r="B12">
         <v>18</v>
       </c>
@@ -2344,7 +2388,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="47"/>
+      <c r="A13" s="51"/>
       <c r="B13">
         <v>-7</v>
       </c>
@@ -2366,7 +2410,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="47"/>
+      <c r="A14" s="51"/>
       <c r="B14">
         <v>-8</v>
       </c>
@@ -2378,7 +2422,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="47"/>
+      <c r="A15" s="51"/>
       <c r="B15">
         <v>-6</v>
       </c>
@@ -2390,7 +2434,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="47"/>
+      <c r="A16" s="51"/>
       <c r="B16">
         <v>-34.799999999999997</v>
       </c>
@@ -2402,7 +2446,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="44">
+      <c r="A17" s="48">
         <v>43439</v>
       </c>
       <c r="B17">
@@ -2417,7 +2461,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="44"/>
+      <c r="A18" s="48"/>
       <c r="B18">
         <v>-1468</v>
       </c>
@@ -2429,7 +2473,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="44"/>
+      <c r="A19" s="48"/>
       <c r="B19" s="2">
         <v>-6</v>
       </c>
@@ -2441,7 +2485,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="44"/>
+      <c r="A20" s="48"/>
       <c r="B20">
         <v>7</v>
       </c>
@@ -2450,7 +2494,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="44"/>
+      <c r="A21" s="48"/>
       <c r="B21">
         <v>-4</v>
       </c>
@@ -2462,7 +2506,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="44"/>
+      <c r="A22" s="48"/>
       <c r="B22">
         <v>-29.9</v>
       </c>
@@ -2474,7 +2518,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="47">
+      <c r="A23" s="51">
         <v>43440</v>
       </c>
       <c r="B23">
@@ -2488,7 +2532,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="47"/>
+      <c r="A24" s="51"/>
       <c r="B24">
         <v>-5</v>
       </c>
@@ -2500,7 +2544,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="47"/>
+      <c r="A25" s="51"/>
       <c r="B25">
         <v>-9</v>
       </c>
@@ -2512,7 +2556,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="47"/>
+      <c r="A26" s="51"/>
       <c r="B26">
         <v>-249</v>
       </c>
@@ -2524,7 +2568,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="47"/>
+      <c r="A27" s="51"/>
       <c r="B27">
         <v>-13.88</v>
       </c>
@@ -2536,7 +2580,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="47">
+      <c r="A28" s="51">
         <v>43441</v>
       </c>
       <c r="B28">
@@ -2550,7 +2594,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="47"/>
+      <c r="A29" s="51"/>
       <c r="B29">
         <v>-6</v>
       </c>
@@ -2562,7 +2606,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="47"/>
+      <c r="A30" s="51"/>
       <c r="B30">
         <v>-4</v>
       </c>
@@ -2574,7 +2618,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="47"/>
+      <c r="A31" s="51"/>
       <c r="B31">
         <v>-18</v>
       </c>
@@ -2586,7 +2630,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="47"/>
+      <c r="A32" s="51"/>
       <c r="B32">
         <f>-89-129-119-89</f>
         <v>-426</v>
@@ -2599,7 +2643,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="44">
+      <c r="A33" s="48">
         <v>43442</v>
       </c>
       <c r="B33">
@@ -2613,7 +2657,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="44">
+      <c r="A34" s="48">
         <v>43443</v>
       </c>
       <c r="B34">
@@ -2627,7 +2671,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="44"/>
+      <c r="A35" s="48"/>
       <c r="B35">
         <v>-2</v>
       </c>
@@ -2639,7 +2683,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="50">
+      <c r="A36" s="54">
         <v>43444</v>
       </c>
       <c r="B36">
@@ -2653,7 +2697,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="50"/>
+      <c r="A37" s="54"/>
       <c r="B37">
         <v>-4</v>
       </c>
@@ -2665,7 +2709,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="50"/>
+      <c r="A38" s="54"/>
       <c r="B38">
         <v>-14.44</v>
       </c>
@@ -2677,7 +2721,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="44">
+      <c r="A39" s="48">
         <v>43445</v>
       </c>
       <c r="B39">
@@ -2691,7 +2735,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="44"/>
+      <c r="A40" s="48"/>
       <c r="B40">
         <v>-4</v>
       </c>
@@ -2703,7 +2747,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="44"/>
+      <c r="A41" s="48"/>
       <c r="B41">
         <v>-5</v>
       </c>
@@ -2715,7 +2759,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="44"/>
+      <c r="A42" s="48"/>
       <c r="B42">
         <v>-16</v>
       </c>
@@ -2727,7 +2771,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="44">
+      <c r="A43" s="48">
         <v>43446</v>
       </c>
       <c r="B43">
@@ -2741,7 +2785,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="44"/>
+      <c r="A44" s="48"/>
       <c r="B44">
         <v>-8</v>
       </c>
@@ -2753,7 +2797,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="44"/>
+      <c r="A45" s="48"/>
       <c r="B45">
         <v>-5</v>
       </c>
@@ -2765,7 +2809,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="44"/>
+      <c r="A46" s="48"/>
       <c r="B46">
         <v>-13</v>
       </c>
@@ -2777,7 +2821,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="44">
+      <c r="A47" s="48">
         <v>43447</v>
       </c>
       <c r="B47">
@@ -2791,7 +2835,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="44"/>
+      <c r="A48" s="48"/>
       <c r="B48">
         <v>-6</v>
       </c>
@@ -2803,7 +2847,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="44"/>
+      <c r="A49" s="48"/>
       <c r="B49">
         <v>-16</v>
       </c>
@@ -2815,7 +2859,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="44"/>
+      <c r="A50" s="48"/>
       <c r="B50">
         <v>-13</v>
       </c>
@@ -2827,7 +2871,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="44"/>
+      <c r="A51" s="48"/>
       <c r="B51">
         <v>-99</v>
       </c>
@@ -2839,7 +2883,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="44">
+      <c r="A52" s="48">
         <v>43448</v>
       </c>
       <c r="B52">
@@ -2853,7 +2897,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="44"/>
+      <c r="A53" s="48"/>
       <c r="B53">
         <v>-14</v>
       </c>
@@ -2865,7 +2909,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="44"/>
+      <c r="A54" s="48"/>
       <c r="B54">
         <v>-13</v>
       </c>
@@ -2877,7 +2921,7 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="44">
+      <c r="A55" s="48">
         <v>43449</v>
       </c>
       <c r="B55">
@@ -2891,7 +2935,7 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="44"/>
+      <c r="A56" s="48"/>
       <c r="B56">
         <v>-20</v>
       </c>
@@ -2903,7 +2947,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="44">
+      <c r="A57" s="48">
         <v>43450</v>
       </c>
       <c r="B57">
@@ -2917,7 +2961,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="44"/>
+      <c r="A58" s="48"/>
       <c r="B58">
         <v>-30</v>
       </c>
@@ -2929,7 +2973,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="44">
+      <c r="A59" s="48">
         <v>43451</v>
       </c>
       <c r="B59">
@@ -2943,7 +2987,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="44"/>
+      <c r="A60" s="48"/>
       <c r="B60">
         <v>-4.5</v>
       </c>
@@ -2955,7 +2999,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="44"/>
+      <c r="A61" s="48"/>
       <c r="B61">
         <v>-12</v>
       </c>
@@ -2967,7 +3011,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="44">
+      <c r="A62" s="48">
         <v>43452</v>
       </c>
       <c r="B62">
@@ -2981,7 +3025,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="44"/>
+      <c r="A63" s="48"/>
       <c r="B63">
         <v>-16</v>
       </c>
@@ -2993,7 +3037,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="44"/>
+      <c r="A64" s="48"/>
       <c r="B64">
         <v>-670</v>
       </c>
@@ -3005,7 +3049,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="44">
+      <c r="A65" s="48">
         <v>43453</v>
       </c>
       <c r="B65">
@@ -3019,7 +3063,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="44"/>
+      <c r="A66" s="48"/>
       <c r="B66">
         <v>-16</v>
       </c>
@@ -3031,7 +3075,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="44"/>
+      <c r="A67" s="48"/>
       <c r="B67">
         <v>-12</v>
       </c>
@@ -3043,7 +3087,7 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="44">
+      <c r="A68" s="48">
         <v>43454</v>
       </c>
       <c r="B68">
@@ -3057,7 +3101,7 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="44"/>
+      <c r="A69" s="48"/>
       <c r="B69">
         <v>-18</v>
       </c>
@@ -3069,7 +3113,7 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="44"/>
+      <c r="A70" s="48"/>
       <c r="B70">
         <v>-982</v>
       </c>
@@ -3081,7 +3125,7 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="44">
+      <c r="A71" s="48">
         <v>43455</v>
       </c>
       <c r="B71">
@@ -3095,7 +3139,7 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="44"/>
+      <c r="A72" s="48"/>
       <c r="B72">
         <v>-4</v>
       </c>
@@ -3107,7 +3151,7 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="44"/>
+      <c r="A73" s="48"/>
       <c r="B73">
         <v>-4</v>
       </c>
@@ -3119,7 +3163,7 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="44">
+      <c r="A74" s="48">
         <v>43456</v>
       </c>
       <c r="B74">
@@ -3133,7 +3177,7 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="44"/>
+      <c r="A75" s="48"/>
       <c r="B75">
         <v>-13</v>
       </c>
@@ -3145,7 +3189,7 @@
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="44"/>
+      <c r="A76" s="48"/>
       <c r="B76">
         <v>-15</v>
       </c>
@@ -3157,7 +3201,7 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="44"/>
+      <c r="A77" s="48"/>
       <c r="B77">
         <v>-30</v>
       </c>
@@ -3169,7 +3213,7 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="44"/>
+      <c r="A78" s="48"/>
       <c r="B78">
         <v>-15</v>
       </c>
@@ -3181,7 +3225,7 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="44"/>
+      <c r="A79" s="48"/>
       <c r="B79">
         <v>-42</v>
       </c>
@@ -3198,7 +3242,7 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="44">
+      <c r="A81" s="48">
         <v>43458</v>
       </c>
       <c r="B81">
@@ -3212,7 +3256,7 @@
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="44"/>
+      <c r="A82" s="48"/>
       <c r="B82">
         <v>-16</v>
       </c>
@@ -3224,7 +3268,7 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="44">
+      <c r="A83" s="48">
         <v>43459</v>
       </c>
       <c r="B83">
@@ -3238,7 +3282,7 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="44"/>
+      <c r="A84" s="48"/>
       <c r="B84">
         <v>-16</v>
       </c>
@@ -3250,7 +3294,7 @@
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="44">
+      <c r="A85" s="48">
         <v>43460</v>
       </c>
       <c r="B85">
@@ -3264,7 +3308,7 @@
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="44"/>
+      <c r="A86" s="48"/>
       <c r="B86">
         <v>-4</v>
       </c>
@@ -3276,7 +3320,7 @@
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="44"/>
+      <c r="A87" s="48"/>
       <c r="B87">
         <v>-62</v>
       </c>
@@ -3288,7 +3332,7 @@
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="44">
+      <c r="A88" s="48">
         <v>43461</v>
       </c>
       <c r="B88">
@@ -3302,7 +3346,7 @@
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" s="44"/>
+      <c r="A89" s="48"/>
       <c r="B89">
         <v>-16</v>
       </c>
@@ -3314,7 +3358,7 @@
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" s="44"/>
+      <c r="A90" s="48"/>
       <c r="B90">
         <v>-18.8</v>
       </c>
@@ -3326,7 +3370,7 @@
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="44">
+      <c r="A91" s="48">
         <v>43462</v>
       </c>
       <c r="B91">
@@ -3340,7 +3384,7 @@
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" s="44"/>
+      <c r="A92" s="48"/>
       <c r="B92">
         <v>-14</v>
       </c>
@@ -3352,7 +3396,7 @@
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="44"/>
+      <c r="A93" s="48"/>
       <c r="B93">
         <v>-239</v>
       </c>
@@ -3364,7 +3408,7 @@
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="44"/>
+      <c r="A94" s="48"/>
       <c r="B94">
         <v>-12</v>
       </c>
@@ -3376,7 +3420,7 @@
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="44">
+      <c r="A95" s="48">
         <v>43463</v>
       </c>
       <c r="B95">
@@ -3390,7 +3434,7 @@
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" s="44"/>
+      <c r="A96" s="48"/>
       <c r="B96">
         <v>-6</v>
       </c>
@@ -3402,7 +3446,7 @@
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" s="44"/>
+      <c r="A97" s="48"/>
       <c r="B97">
         <v>-4</v>
       </c>
@@ -3414,7 +3458,7 @@
       </c>
     </row>
     <row r="98" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="44"/>
+      <c r="A98" s="48"/>
       <c r="B98">
         <v>-39</v>
       </c>
@@ -3426,7 +3470,7 @@
       </c>
     </row>
     <row r="99" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="44">
+      <c r="A99" s="48">
         <v>43464</v>
       </c>
       <c r="B99">
@@ -3440,7 +3484,7 @@
       </c>
     </row>
     <row r="100" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="44"/>
+      <c r="A100" s="48"/>
       <c r="B100">
         <v>-50.4</v>
       </c>
@@ -3452,7 +3496,7 @@
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A101" s="44"/>
+      <c r="A101" s="48"/>
       <c r="B101">
         <v>-30</v>
       </c>
@@ -3535,7 +3579,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="52" t="s">
         <v>62</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -3549,7 +3593,7 @@
       <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="49"/>
+      <c r="A2" s="53"/>
       <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
@@ -3562,14 +3606,14 @@
       </c>
       <c r="F2">
         <f ca="1">DATE(2019,2,1)-TODAY()</f>
-        <v>-67</v>
+        <v>-69</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I2">
         <f ca="1">C2/F2</f>
-        <v>38.925522388059719</v>
+        <v>37.797246376811607</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="77" customHeight="1" x14ac:dyDescent="0.2">
@@ -3591,7 +3635,7 @@
       <c r="H3" s="8"/>
       <c r="I3" s="8">
         <f ca="1">C2/(F2-1)</f>
-        <v>38.353088235294138</v>
+        <v>37.257285714285729</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -3614,7 +3658,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="44">
+      <c r="A5" s="48">
         <v>43467</v>
       </c>
       <c r="B5">
@@ -3637,7 +3681,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="44"/>
+      <c r="A6" s="48"/>
       <c r="B6">
         <v>-16</v>
       </c>
@@ -3659,7 +3703,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="44"/>
+      <c r="A7" s="48"/>
       <c r="B7">
         <v>-24</v>
       </c>
@@ -3688,7 +3732,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="44">
+      <c r="A8" s="48">
         <v>43468</v>
       </c>
       <c r="B8">
@@ -3712,7 +3756,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="44"/>
+      <c r="A9" s="48"/>
       <c r="B9">
         <v>-16</v>
       </c>
@@ -3734,7 +3778,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="44"/>
+      <c r="A10" s="48"/>
       <c r="B10">
         <v>-15</v>
       </c>
@@ -3756,7 +3800,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="44">
+      <c r="A11" s="48">
         <v>43469</v>
       </c>
       <c r="B11">
@@ -3771,7 +3815,7 @@
       <c r="I11" s="4"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="44"/>
+      <c r="A12" s="48"/>
       <c r="B12">
         <v>-1453</v>
       </c>
@@ -3783,7 +3827,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="44"/>
+      <c r="A13" s="48"/>
       <c r="B13">
         <v>-4</v>
       </c>
@@ -3795,7 +3839,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="44"/>
+      <c r="A14" s="48"/>
       <c r="B14">
         <v>-55</v>
       </c>
@@ -3807,7 +3851,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="44"/>
+      <c r="A15" s="48"/>
       <c r="B15">
         <v>-11</v>
       </c>
@@ -3819,7 +3863,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="50">
+      <c r="A16" s="54">
         <v>43470</v>
       </c>
       <c r="B16">
@@ -3833,7 +3877,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="50"/>
+      <c r="A17" s="54"/>
       <c r="B17">
         <v>-6</v>
       </c>
@@ -3845,7 +3889,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="50"/>
+      <c r="A18" s="54"/>
       <c r="B18">
         <v>-30</v>
       </c>
@@ -3857,7 +3901,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="50"/>
+      <c r="A19" s="54"/>
       <c r="B19">
         <v>-18</v>
       </c>
@@ -3875,7 +3919,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="50"/>
+      <c r="A20" s="54"/>
       <c r="B20">
         <v>-3</v>
       </c>
@@ -3894,7 +3938,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="50"/>
+      <c r="A21" s="54"/>
       <c r="B21">
         <v>-10</v>
       </c>
@@ -3913,7 +3957,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="50">
+      <c r="A22" s="54">
         <v>43471</v>
       </c>
       <c r="B22">
@@ -3934,7 +3978,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="50"/>
+      <c r="A23" s="54"/>
       <c r="B23">
         <v>-3</v>
       </c>
@@ -3953,7 +3997,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="50"/>
+      <c r="A24" s="54"/>
       <c r="B24">
         <v>-13</v>
       </c>
@@ -3972,7 +4016,7 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="44">
+      <c r="A25" s="48">
         <v>43472</v>
       </c>
       <c r="B25">
@@ -3986,7 +4030,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="44"/>
+      <c r="A26" s="48"/>
       <c r="B26">
         <v>-4</v>
       </c>
@@ -3998,7 +4042,7 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="44"/>
+      <c r="A27" s="48"/>
       <c r="B27">
         <v>-218</v>
       </c>
@@ -4010,7 +4054,7 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="44">
+      <c r="A28" s="48">
         <v>43473</v>
       </c>
       <c r="B28">
@@ -4024,7 +4068,7 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="44"/>
+      <c r="A29" s="48"/>
       <c r="B29">
         <v>-16</v>
       </c>
@@ -4036,7 +4080,7 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="44"/>
+      <c r="A30" s="48"/>
       <c r="B30">
         <v>-245</v>
       </c>
@@ -4048,7 +4092,7 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="47">
+      <c r="A31" s="51">
         <v>43474</v>
       </c>
       <c r="B31">
@@ -4062,7 +4106,7 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="47"/>
+      <c r="A32" s="51"/>
       <c r="B32">
         <v>-4</v>
       </c>
@@ -4074,7 +4118,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="47"/>
+      <c r="A33" s="51"/>
       <c r="B33">
         <v>-500</v>
       </c>
@@ -4086,7 +4130,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="47"/>
+      <c r="A34" s="51"/>
       <c r="B34">
         <v>-16</v>
       </c>
@@ -4098,7 +4142,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="44">
+      <c r="A35" s="48">
         <v>43475</v>
       </c>
       <c r="B35">
@@ -4112,7 +4156,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="44"/>
+      <c r="A36" s="48"/>
       <c r="B36">
         <v>-6.5</v>
       </c>
@@ -4124,7 +4168,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="44">
+      <c r="A37" s="48">
         <v>43476</v>
       </c>
       <c r="B37">
@@ -4138,7 +4182,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="44"/>
+      <c r="A38" s="48"/>
       <c r="B38">
         <v>-31</v>
       </c>
@@ -4150,7 +4194,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="44"/>
+      <c r="A39" s="48"/>
       <c r="B39">
         <v>-15</v>
       </c>
@@ -4159,7 +4203,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="44"/>
+      <c r="A40" s="48"/>
       <c r="B40">
         <v>-49</v>
       </c>
@@ -4171,7 +4215,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="44"/>
+      <c r="A41" s="48"/>
       <c r="B41">
         <v>-8</v>
       </c>
@@ -4188,7 +4232,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="50">
+      <c r="A43" s="54">
         <v>43478</v>
       </c>
       <c r="B43">
@@ -4202,7 +4246,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="50"/>
+      <c r="A44" s="54"/>
       <c r="B44">
         <v>-30</v>
       </c>
@@ -4214,7 +4258,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="44">
+      <c r="A45" s="48">
         <v>43479</v>
       </c>
       <c r="B45">
@@ -4228,7 +4272,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="44"/>
+      <c r="A46" s="48"/>
       <c r="B46">
         <v>-8</v>
       </c>
@@ -4240,7 +4284,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="44"/>
+      <c r="A47" s="48"/>
       <c r="B47">
         <v>-6</v>
       </c>
@@ -4252,7 +4296,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="44">
+      <c r="A48" s="48">
         <v>43480</v>
       </c>
       <c r="B48">
@@ -4266,7 +4310,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="44"/>
+      <c r="A49" s="48"/>
       <c r="B49">
         <v>-8</v>
       </c>
@@ -4278,7 +4322,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="44"/>
+      <c r="A50" s="48"/>
       <c r="B50">
         <v>-2.5</v>
       </c>
@@ -4290,7 +4334,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="44"/>
+      <c r="A51" s="48"/>
       <c r="B51">
         <v>-6</v>
       </c>
@@ -4302,7 +4346,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="44">
+      <c r="A52" s="48">
         <v>43481</v>
       </c>
       <c r="B52">
@@ -4316,7 +4360,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="44"/>
+      <c r="A53" s="48"/>
       <c r="B53">
         <v>-10</v>
       </c>
@@ -4328,7 +4372,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="44"/>
+      <c r="A54" s="48"/>
       <c r="B54">
         <v>-8</v>
       </c>
@@ -4340,7 +4384,7 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="44"/>
+      <c r="A55" s="48"/>
       <c r="B55">
         <v>-23</v>
       </c>
@@ -4352,7 +4396,7 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="44">
+      <c r="A56" s="48">
         <v>43482</v>
       </c>
       <c r="B56">
@@ -4366,7 +4410,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="44"/>
+      <c r="A57" s="48"/>
       <c r="B57">
         <v>-8</v>
       </c>
@@ -4378,7 +4422,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="44"/>
+      <c r="A58" s="48"/>
       <c r="B58">
         <v>-8.6999999999999993</v>
       </c>
@@ -4390,7 +4434,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="44"/>
+      <c r="A59" s="48"/>
       <c r="B59">
         <v>-110</v>
       </c>
@@ -4402,7 +4446,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="44"/>
+      <c r="A60" s="48"/>
       <c r="B60">
         <v>-14.5</v>
       </c>
@@ -4414,7 +4458,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="44">
+      <c r="A61" s="48">
         <v>43483</v>
       </c>
       <c r="B61">
@@ -4428,7 +4472,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="44"/>
+      <c r="A62" s="48"/>
       <c r="B62">
         <v>-16</v>
       </c>
@@ -4440,7 +4484,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="50">
+      <c r="A63" s="54">
         <v>43484</v>
       </c>
       <c r="B63">
@@ -4454,7 +4498,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="50"/>
+      <c r="A64" s="54"/>
       <c r="B64">
         <v>-62</v>
       </c>
@@ -4466,7 +4510,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="50">
+      <c r="A65" s="54">
         <v>43485</v>
       </c>
       <c r="B65">
@@ -4480,7 +4524,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="50"/>
+      <c r="A66" s="54"/>
       <c r="B66">
         <v>-30</v>
       </c>
@@ -4492,7 +4536,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="50"/>
+      <c r="A67" s="54"/>
       <c r="B67">
         <v>-98</v>
       </c>
@@ -4504,7 +4548,7 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="44">
+      <c r="A68" s="48">
         <v>43486</v>
       </c>
       <c r="B68">
@@ -4518,7 +4562,7 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="44"/>
+      <c r="A69" s="48"/>
       <c r="B69">
         <v>-4</v>
       </c>
@@ -4530,7 +4574,7 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="44">
+      <c r="A70" s="48">
         <v>43487</v>
       </c>
       <c r="B70">
@@ -4544,7 +4588,7 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="44"/>
+      <c r="A71" s="48"/>
       <c r="B71">
         <v>-12.75</v>
       </c>
@@ -4556,7 +4600,7 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="44">
+      <c r="A72" s="48">
         <v>43488</v>
       </c>
       <c r="B72">
@@ -4570,7 +4614,7 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="44"/>
+      <c r="A73" s="48"/>
       <c r="B73">
         <v>-10</v>
       </c>
@@ -4582,7 +4626,7 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="44"/>
+      <c r="A74" s="48"/>
       <c r="B74">
         <v>-4</v>
       </c>
@@ -4594,7 +4638,7 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="44">
+      <c r="A75" s="48">
         <v>43489</v>
       </c>
       <c r="B75">
@@ -4608,7 +4652,7 @@
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="44"/>
+      <c r="A76" s="48"/>
       <c r="B76">
         <v>-10</v>
       </c>
@@ -4620,7 +4664,7 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="44">
+      <c r="A77" s="48">
         <v>43490</v>
       </c>
       <c r="B77">
@@ -4634,7 +4678,7 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="44"/>
+      <c r="A78" s="48"/>
       <c r="B78">
         <v>-4.8</v>
       </c>
@@ -4643,7 +4687,7 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="44"/>
+      <c r="A79" s="48"/>
       <c r="B79">
         <v>-10</v>
       </c>
@@ -4655,7 +4699,7 @@
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="44"/>
+      <c r="A80" s="48"/>
       <c r="B80">
         <v>-12</v>
       </c>
@@ -4667,7 +4711,7 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="44"/>
+      <c r="A81" s="48"/>
       <c r="B81">
         <v>-6</v>
       </c>
@@ -4693,7 +4737,7 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="50">
+      <c r="A83" s="54">
         <v>43492</v>
       </c>
       <c r="B83">
@@ -4707,7 +4751,7 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="50"/>
+      <c r="A84" s="54"/>
       <c r="B84">
         <v>-13.8</v>
       </c>
@@ -4719,7 +4763,7 @@
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="44">
+      <c r="A85" s="48">
         <v>43493</v>
       </c>
       <c r="B85">
@@ -4733,7 +4777,7 @@
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="44"/>
+      <c r="A86" s="48"/>
       <c r="B86">
         <v>-4</v>
       </c>
@@ -4745,7 +4789,7 @@
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="44"/>
+      <c r="A87" s="48"/>
       <c r="B87">
         <v>-4.8</v>
       </c>
@@ -4757,7 +4801,7 @@
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="44">
+      <c r="A88" s="48">
         <v>43494</v>
       </c>
       <c r="B88">
@@ -4771,7 +4815,7 @@
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" s="44"/>
+      <c r="A89" s="48"/>
       <c r="B89">
         <v>-4.46</v>
       </c>
@@ -4783,7 +4827,7 @@
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" s="44"/>
+      <c r="A90" s="48"/>
       <c r="B90">
         <v>-16.34</v>
       </c>
@@ -4795,7 +4839,7 @@
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="44"/>
+      <c r="A91" s="48"/>
       <c r="B91">
         <v>-6</v>
       </c>
@@ -4807,7 +4851,7 @@
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" s="44">
+      <c r="A92" s="48">
         <v>43495</v>
       </c>
       <c r="B92">
@@ -4821,7 +4865,7 @@
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="44"/>
+      <c r="A93" s="48"/>
       <c r="B93">
         <v>-4.21</v>
       </c>
@@ -4833,7 +4877,7 @@
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="44"/>
+      <c r="A94" s="48"/>
       <c r="B94">
         <v>-10</v>
       </c>
@@ -4845,7 +4889,7 @@
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="44"/>
+      <c r="A95" s="48"/>
       <c r="B95">
         <v>-1441</v>
       </c>
@@ -4927,7 +4971,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="52" t="s">
         <v>25</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -4946,7 +4990,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="49"/>
+      <c r="A2" s="53"/>
       <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
@@ -4959,14 +5003,14 @@
       </c>
       <c r="F2">
         <f ca="1">DATE(2019,3,1)-TODAY()</f>
-        <v>-39</v>
+        <v>-41</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I2">
         <f ca="1">C2/F2</f>
-        <v>52.153333333333322</v>
+        <v>49.609268292682913</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -4981,7 +5025,7 @@
       </c>
       <c r="I3">
         <f ca="1">C2/(F2-1)</f>
-        <v>50.849499999999992</v>
+        <v>48.428095238095224</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -4996,7 +5040,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="50">
+      <c r="A5" s="54">
         <v>43447</v>
       </c>
       <c r="B5">
@@ -5007,7 +5051,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="50"/>
+      <c r="A6" s="54"/>
       <c r="B6">
         <v>-350</v>
       </c>
@@ -5016,7 +5060,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="50"/>
+      <c r="A7" s="54"/>
       <c r="B7">
         <v>-129</v>
       </c>
@@ -5061,7 +5105,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="51">
+      <c r="A10" s="55">
         <v>43498</v>
       </c>
       <c r="B10">
@@ -5072,7 +5116,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="51"/>
+      <c r="A11" s="55"/>
       <c r="B11">
         <v>-5.4</v>
       </c>
@@ -5088,7 +5132,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="51"/>
+      <c r="A12" s="55"/>
       <c r="B12">
         <v>-22.5</v>
       </c>
@@ -5097,7 +5141,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="51"/>
+      <c r="A13" s="55"/>
       <c r="B13">
         <v>-83.23</v>
       </c>
@@ -5106,7 +5150,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="51">
+      <c r="A14" s="55">
         <v>43499</v>
       </c>
       <c r="B14">
@@ -5117,7 +5161,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="51"/>
+      <c r="A15" s="55"/>
       <c r="B15">
         <v>-49.8</v>
       </c>
@@ -5131,7 +5175,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="51">
+      <c r="A17" s="55">
         <v>43501</v>
       </c>
       <c r="B17">
@@ -5142,7 +5186,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="51"/>
+      <c r="A18" s="55"/>
       <c r="B18">
         <v>-300</v>
       </c>
@@ -5151,7 +5195,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="51"/>
+      <c r="A19" s="55"/>
       <c r="B19">
         <v>-149</v>
       </c>
@@ -5171,7 +5215,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="50">
+      <c r="A21" s="54">
         <v>43503</v>
       </c>
       <c r="B21">
@@ -5182,7 +5226,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="50"/>
+      <c r="A22" s="54"/>
       <c r="B22">
         <v>-130.27000000000001</v>
       </c>
@@ -5191,7 +5235,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="50">
+      <c r="A23" s="54">
         <v>43504</v>
       </c>
       <c r="B23">
@@ -5202,7 +5246,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="50"/>
+      <c r="A24" s="54"/>
       <c r="B24">
         <v>-15</v>
       </c>
@@ -5211,7 +5255,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="50">
+      <c r="A25" s="54">
         <v>43505</v>
       </c>
       <c r="B25">
@@ -5222,7 +5266,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="50"/>
+      <c r="A26" s="54"/>
       <c r="B26">
         <v>-39</v>
       </c>
@@ -5231,7 +5275,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="50"/>
+      <c r="A27" s="54"/>
       <c r="B27">
         <v>-10</v>
       </c>
@@ -5240,7 +5284,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="50"/>
+      <c r="A28" s="54"/>
       <c r="B28">
         <v>-17.600000000000001</v>
       </c>
@@ -5252,7 +5296,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="50"/>
+      <c r="A29" s="54"/>
       <c r="B29">
         <v>-25</v>
       </c>
@@ -5264,7 +5308,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="50"/>
+      <c r="A30" s="54"/>
       <c r="B30">
         <v>-83</v>
       </c>
@@ -5273,7 +5317,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="50"/>
+      <c r="A31" s="54"/>
       <c r="B31">
         <v>-128</v>
       </c>
@@ -5282,7 +5326,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="50"/>
+      <c r="A32" s="54"/>
       <c r="B32">
         <v>-28</v>
       </c>
@@ -5291,7 +5335,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="50"/>
+      <c r="A33" s="54"/>
       <c r="B33">
         <v>-65</v>
       </c>
@@ -5303,7 +5347,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="50"/>
+      <c r="A34" s="54"/>
       <c r="B34">
         <v>-127.9</v>
       </c>
@@ -5317,7 +5361,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="44">
+      <c r="A36" s="48">
         <v>43507</v>
       </c>
       <c r="B36">
@@ -5331,7 +5375,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="52"/>
+      <c r="A37" s="56"/>
       <c r="B37">
         <v>-12</v>
       </c>
@@ -5343,7 +5387,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="44">
+      <c r="A38" s="48">
         <v>43508</v>
       </c>
       <c r="B38">
@@ -5357,7 +5401,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="44"/>
+      <c r="A39" s="48"/>
       <c r="B39">
         <v>-16</v>
       </c>
@@ -5369,7 +5413,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="44">
+      <c r="A40" s="48">
         <v>43509</v>
       </c>
       <c r="B40">
@@ -5383,7 +5427,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="44"/>
+      <c r="A41" s="48"/>
       <c r="B41">
         <v>-12</v>
       </c>
@@ -5395,7 +5439,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="44"/>
+      <c r="A42" s="48"/>
       <c r="B42">
         <v>-14</v>
       </c>
@@ -5407,7 +5451,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="44"/>
+      <c r="A43" s="48"/>
       <c r="B43">
         <v>-4</v>
       </c>
@@ -5419,7 +5463,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="44">
+      <c r="A44" s="48">
         <v>43510</v>
       </c>
       <c r="B44">
@@ -5433,7 +5477,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="44"/>
+      <c r="A45" s="48"/>
       <c r="B45">
         <v>0</v>
       </c>
@@ -5445,7 +5489,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="44"/>
+      <c r="A46" s="48"/>
       <c r="B46">
         <v>-14</v>
       </c>
@@ -5457,7 +5501,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="44">
+      <c r="A47" s="48">
         <v>43511</v>
       </c>
       <c r="B47">
@@ -5471,7 +5515,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="44"/>
+      <c r="A48" s="48"/>
       <c r="B48">
         <v>-4</v>
       </c>
@@ -5483,7 +5527,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="44"/>
+      <c r="A49" s="48"/>
       <c r="B49">
         <v>-12</v>
       </c>
@@ -5495,7 +5539,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="50">
+      <c r="A50" s="54">
         <v>43512</v>
       </c>
       <c r="B50">
@@ -5509,7 +5553,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="50"/>
+      <c r="A51" s="54"/>
       <c r="B51">
         <v>-33.5</v>
       </c>
@@ -5521,7 +5565,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="50">
+      <c r="A52" s="54">
         <v>43513</v>
       </c>
       <c r="B52">
@@ -5535,7 +5579,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="50"/>
+      <c r="A53" s="54"/>
       <c r="B53">
         <v>-2.5</v>
       </c>
@@ -5547,7 +5591,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="50"/>
+      <c r="A54" s="54"/>
       <c r="B54">
         <v>-2</v>
       </c>
@@ -5559,7 +5603,7 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="44">
+      <c r="A55" s="48">
         <v>43514</v>
       </c>
       <c r="B55">
@@ -5573,7 +5617,7 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="44"/>
+      <c r="A56" s="48"/>
       <c r="B56">
         <v>-10</v>
       </c>
@@ -5585,7 +5629,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="44"/>
+      <c r="A57" s="48"/>
       <c r="B57">
         <v>-10</v>
       </c>
@@ -5597,7 +5641,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="44"/>
+      <c r="A58" s="48"/>
       <c r="B58">
         <v>-2.5</v>
       </c>
@@ -5609,7 +5653,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="44"/>
+      <c r="A59" s="48"/>
       <c r="B59">
         <v>-5</v>
       </c>
@@ -5621,7 +5665,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="44">
+      <c r="A60" s="48">
         <v>43515</v>
       </c>
       <c r="B60">
@@ -5635,7 +5679,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="44"/>
+      <c r="A61" s="48"/>
       <c r="B61">
         <v>-11</v>
       </c>
@@ -5647,7 +5691,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="44"/>
+      <c r="A62" s="48"/>
       <c r="B62">
         <v>-1250</v>
       </c>
@@ -5659,7 +5703,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="44"/>
+      <c r="A63" s="48"/>
       <c r="B63">
         <v>-12</v>
       </c>
@@ -5671,7 +5715,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="44"/>
+      <c r="A64" s="48"/>
       <c r="B64">
         <v>-203</v>
       </c>
@@ -5683,7 +5727,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="44"/>
+      <c r="A65" s="48"/>
       <c r="B65">
         <v>-23</v>
       </c>
@@ -5695,7 +5739,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="44"/>
+      <c r="A66" s="48"/>
       <c r="B66">
         <v>-16</v>
       </c>
@@ -5707,7 +5751,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="44">
+      <c r="A67" s="48">
         <v>43516</v>
       </c>
       <c r="B67">
@@ -5721,7 +5765,7 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="44"/>
+      <c r="A68" s="48"/>
       <c r="B68">
         <v>-26</v>
       </c>
@@ -5733,7 +5777,7 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="44"/>
+      <c r="A69" s="48"/>
       <c r="B69">
         <v>-2.5</v>
       </c>
@@ -5745,7 +5789,7 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="44">
+      <c r="A70" s="48">
         <v>43517</v>
       </c>
       <c r="B70">
@@ -5759,7 +5803,7 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="44"/>
+      <c r="A71" s="48"/>
       <c r="B71">
         <v>-7</v>
       </c>
@@ -5771,7 +5815,7 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="44"/>
+      <c r="A72" s="48"/>
       <c r="B72">
         <v>-20</v>
       </c>
@@ -5783,7 +5827,7 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="44">
+      <c r="A73" s="48">
         <v>43518</v>
       </c>
       <c r="B73">
@@ -5797,7 +5841,7 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="44"/>
+      <c r="A74" s="48"/>
       <c r="B74">
         <v>-7.83</v>
       </c>
@@ -5809,7 +5853,7 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="44"/>
+      <c r="A75" s="48"/>
       <c r="B75">
         <v>-16</v>
       </c>
@@ -5821,7 +5865,7 @@
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="44"/>
+      <c r="A76" s="48"/>
       <c r="B76">
         <v>-3.5</v>
       </c>
@@ -5833,7 +5877,7 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="50">
+      <c r="A77" s="54">
         <v>43519</v>
       </c>
       <c r="B77">
@@ -5847,7 +5891,7 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="50"/>
+      <c r="A78" s="54"/>
       <c r="B78">
         <f>-2.8-7.2-9.34-4</f>
         <v>-23.34</v>
@@ -5860,7 +5904,7 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="50"/>
+      <c r="A79" s="54"/>
       <c r="B79">
         <v>-30</v>
       </c>
@@ -5872,7 +5916,7 @@
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="50" t="s">
+      <c r="A80" s="54" t="s">
         <v>115</v>
       </c>
       <c r="B80">
@@ -5886,7 +5930,7 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="50"/>
+      <c r="A81" s="54"/>
       <c r="B81">
         <v>-16</v>
       </c>
@@ -5898,7 +5942,7 @@
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="50"/>
+      <c r="A82" s="54"/>
       <c r="B82">
         <v>-2.5</v>
       </c>
@@ -5910,7 +5954,7 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="50"/>
+      <c r="A83" s="54"/>
       <c r="B83">
         <v>-16</v>
       </c>
@@ -5922,7 +5966,7 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="44">
+      <c r="A84" s="48">
         <v>43521</v>
       </c>
       <c r="B84">
@@ -5936,7 +5980,7 @@
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="44"/>
+      <c r="A85" s="48"/>
       <c r="B85">
         <v>-4</v>
       </c>
@@ -5948,7 +5992,7 @@
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="44"/>
+      <c r="A86" s="48"/>
       <c r="B86">
         <v>-4</v>
       </c>
@@ -5960,7 +6004,7 @@
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="44">
+      <c r="A87" s="48">
         <v>43522</v>
       </c>
       <c r="B87">
@@ -5974,7 +6018,7 @@
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="44"/>
+      <c r="A88" s="48"/>
       <c r="B88">
         <v>-3.8</v>
       </c>
@@ -5986,7 +6030,7 @@
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" s="44"/>
+      <c r="A89" s="48"/>
       <c r="B89">
         <v>-10.84</v>
       </c>
@@ -5998,7 +6042,7 @@
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" s="44"/>
+      <c r="A90" s="48"/>
       <c r="B90">
         <v>-18</v>
       </c>
@@ -6010,7 +6054,7 @@
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="44">
+      <c r="A91" s="48">
         <v>43523</v>
       </c>
       <c r="B91">
@@ -6024,7 +6068,7 @@
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" s="44"/>
+      <c r="A92" s="48"/>
       <c r="B92">
         <v>-4</v>
       </c>
@@ -6036,7 +6080,7 @@
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="44"/>
+      <c r="A93" s="48"/>
       <c r="B93">
         <v>-4.4000000000000004</v>
       </c>
@@ -6048,7 +6092,7 @@
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="44"/>
+      <c r="A94" s="48"/>
       <c r="B94">
         <v>-9.5399999999999991</v>
       </c>
@@ -6060,7 +6104,7 @@
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="44">
+      <c r="A95" s="48">
         <v>43524</v>
       </c>
       <c r="B95">
@@ -6074,7 +6118,7 @@
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" s="44"/>
+      <c r="A96" s="48"/>
       <c r="B96">
         <v>-16</v>
       </c>
@@ -6086,7 +6130,7 @@
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" s="44"/>
+      <c r="A97" s="48"/>
       <c r="B97">
         <v>-4</v>
       </c>
@@ -6098,7 +6142,7 @@
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98" s="44"/>
+      <c r="A98" s="48"/>
       <c r="B98">
         <v>-3</v>
       </c>
@@ -6110,7 +6154,7 @@
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99" s="44"/>
+      <c r="A99" s="48"/>
       <c r="B99">
         <v>-7.9</v>
       </c>
@@ -6122,7 +6166,7 @@
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100" s="44"/>
+      <c r="A100" s="48"/>
       <c r="B100">
         <v>-16</v>
       </c>
@@ -6207,7 +6251,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="52" t="s">
         <v>120</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -6221,7 +6265,7 @@
       <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="49"/>
+      <c r="A2" s="53"/>
       <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
@@ -6234,14 +6278,14 @@
       </c>
       <c r="F2">
         <f ca="1">DATE(2019,4,1)-TODAY()</f>
-        <v>-8</v>
+        <v>-10</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I2">
         <f ca="1">C2/F2</f>
-        <v>76.980000000000075</v>
+        <v>61.58400000000006</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="77" customHeight="1" x14ac:dyDescent="0.2">
@@ -6263,7 +6307,7 @@
       <c r="H3" s="8"/>
       <c r="I3" s="8">
         <f ca="1">C2/(F2-1)</f>
-        <v>68.426666666666733</v>
+        <v>55.985454545454601</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -6272,7 +6316,7 @@
       <c r="N3" s="8"/>
     </row>
     <row r="4" spans="1:14" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="47">
+      <c r="A4" s="51">
         <v>43525</v>
       </c>
       <c r="B4" s="8">
@@ -6296,7 +6340,7 @@
       <c r="N4" s="8"/>
     </row>
     <row r="5" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="47"/>
+      <c r="A5" s="51"/>
       <c r="B5" s="8">
         <v>-17</v>
       </c>
@@ -6318,7 +6362,7 @@
       <c r="N5" s="8"/>
     </row>
     <row r="6" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="47"/>
+      <c r="A6" s="51"/>
       <c r="B6" s="8">
         <v>-10</v>
       </c>
@@ -6340,7 +6384,7 @@
       <c r="N6" s="8"/>
     </row>
     <row r="7" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="47"/>
+      <c r="A7" s="51"/>
       <c r="B7" s="8">
         <v>-10</v>
       </c>
@@ -6362,7 +6406,7 @@
       <c r="N7" s="8"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="47"/>
+      <c r="A8" s="51"/>
       <c r="B8">
         <v>-11.75</v>
       </c>
@@ -6388,7 +6432,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="51">
+      <c r="A10" s="55">
         <v>43527</v>
       </c>
       <c r="B10">
@@ -6412,7 +6456,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="51"/>
+      <c r="A11" s="55"/>
       <c r="B11">
         <v>-2</v>
       </c>
@@ -6434,7 +6478,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="51"/>
+      <c r="A12" s="55"/>
       <c r="B12">
         <v>-49</v>
       </c>
@@ -6456,7 +6500,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="51"/>
+      <c r="A13" s="55"/>
       <c r="B13">
         <v>-109</v>
       </c>
@@ -6478,7 +6522,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="47">
+      <c r="A14" s="51">
         <v>43528</v>
       </c>
       <c r="B14">
@@ -6502,7 +6546,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="47"/>
+      <c r="A15" s="51"/>
       <c r="B15">
         <v>-1439</v>
       </c>
@@ -6515,7 +6559,7 @@
       <c r="I15" s="4"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="47"/>
+      <c r="A16" s="51"/>
       <c r="B16">
         <v>-16</v>
       </c>
@@ -6528,7 +6572,7 @@
       <c r="I16" s="4"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="47"/>
+      <c r="A17" s="51"/>
       <c r="B17">
         <v>-3</v>
       </c>
@@ -6541,7 +6585,7 @@
       <c r="I17" s="4"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="47">
+      <c r="A18" s="51">
         <v>43529</v>
       </c>
       <c r="B18">
@@ -6556,7 +6600,7 @@
       <c r="I18" s="4"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="47"/>
+      <c r="A19" s="51"/>
       <c r="B19">
         <v>-16.260000000000002</v>
       </c>
@@ -6575,7 +6619,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="47"/>
+      <c r="A20" s="51"/>
       <c r="B20">
         <v>-6</v>
       </c>
@@ -6587,7 +6631,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="47">
+      <c r="A21" s="51">
         <v>43530</v>
       </c>
       <c r="B21">
@@ -6601,7 +6645,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="47"/>
+      <c r="A22" s="51"/>
       <c r="B22">
         <v>-16</v>
       </c>
@@ -6613,7 +6657,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="47"/>
+      <c r="A23" s="51"/>
       <c r="B23">
         <v>-3.5</v>
       </c>
@@ -6625,7 +6669,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="47">
+      <c r="A24" s="51">
         <v>43531</v>
       </c>
       <c r="B24">
@@ -6639,7 +6683,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="47"/>
+      <c r="A25" s="51"/>
       <c r="B25">
         <v>-14</v>
       </c>
@@ -6651,7 +6695,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="47"/>
+      <c r="A26" s="51"/>
       <c r="B26">
         <v>-24</v>
       </c>
@@ -6663,7 +6707,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="47"/>
+      <c r="A27" s="51"/>
       <c r="B27">
         <v>-19.899999999999999</v>
       </c>
@@ -6675,7 +6719,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="47"/>
+      <c r="A28" s="51"/>
       <c r="B28">
         <v>-11.11</v>
       </c>
@@ -6687,7 +6731,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="47">
+      <c r="A29" s="51">
         <v>43532</v>
       </c>
       <c r="B29">
@@ -6701,7 +6745,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="47"/>
+      <c r="A30" s="51"/>
       <c r="B30">
         <v>-22</v>
       </c>
@@ -6713,7 +6757,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="47"/>
+      <c r="A31" s="51"/>
       <c r="B31">
         <v>-3</v>
       </c>
@@ -6725,7 +6769,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="47"/>
+      <c r="A32" s="51"/>
       <c r="B32">
         <v>-1</v>
       </c>
@@ -6737,7 +6781,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="51">
+      <c r="A33" s="55">
         <v>43533</v>
       </c>
       <c r="B33">
@@ -6751,7 +6795,7 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="51"/>
+      <c r="A34" s="55"/>
       <c r="B34">
         <v>-32.6</v>
       </c>
@@ -6763,7 +6807,7 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="51"/>
+      <c r="A35" s="55"/>
       <c r="B35">
         <v>-51</v>
       </c>
@@ -6775,7 +6819,7 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="51"/>
+      <c r="A36" s="55"/>
       <c r="B36">
         <v>-36.9</v>
       </c>
@@ -6787,7 +6831,7 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="51">
+      <c r="A37" s="55">
         <v>43534</v>
       </c>
       <c r="B37">
@@ -6801,7 +6845,7 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="51"/>
+      <c r="A38" s="55"/>
       <c r="B38">
         <v>-6</v>
       </c>
@@ -6813,7 +6857,7 @@
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="51"/>
+      <c r="A39" s="55"/>
       <c r="B39">
         <v>-30</v>
       </c>
@@ -6837,7 +6881,7 @@
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="47">
+      <c r="A41" s="51">
         <v>43535</v>
       </c>
       <c r="B41">
@@ -6851,7 +6895,7 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="47"/>
+      <c r="A42" s="51"/>
       <c r="B42">
         <v>-4</v>
       </c>
@@ -6863,7 +6907,7 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="47"/>
+      <c r="A43" s="51"/>
       <c r="B43">
         <v>-14.76</v>
       </c>
@@ -6875,7 +6919,7 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="47">
+      <c r="A44" s="51">
         <v>43536</v>
       </c>
       <c r="B44">
@@ -6889,7 +6933,7 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="47"/>
+      <c r="A45" s="51"/>
       <c r="B45">
         <v>-22</v>
       </c>
@@ -6901,7 +6945,7 @@
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="47"/>
+      <c r="A46" s="51"/>
       <c r="B46">
         <v>-8.4</v>
       </c>
@@ -6915,7 +6959,7 @@
       <c r="I46" s="13"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="47">
+      <c r="A47" s="51">
         <v>43537</v>
       </c>
       <c r="B47">
@@ -6931,7 +6975,7 @@
       <c r="I47" s="13"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="47"/>
+      <c r="A48" s="51"/>
       <c r="B48">
         <v>-10</v>
       </c>
@@ -6945,7 +6989,7 @@
       <c r="I48" s="13"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="47">
+      <c r="A49" s="51">
         <v>43538</v>
       </c>
       <c r="B49">
@@ -6961,7 +7005,7 @@
       <c r="I49" s="13"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="47"/>
+      <c r="A50" s="51"/>
       <c r="B50">
         <v>-18</v>
       </c>
@@ -6975,7 +7019,7 @@
       <c r="I50" s="13"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="47"/>
+      <c r="A51" s="51"/>
       <c r="B51">
         <v>-10</v>
       </c>
@@ -6989,7 +7033,7 @@
       <c r="I51" s="13"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="47"/>
+      <c r="A52" s="51"/>
       <c r="B52">
         <v>-65.55</v>
       </c>
@@ -7003,7 +7047,7 @@
       <c r="I52" s="13"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="47"/>
+      <c r="A53" s="51"/>
       <c r="B53">
         <v>-2.5</v>
       </c>
@@ -7017,7 +7061,7 @@
       <c r="I53" s="13"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="47">
+      <c r="A54" s="51">
         <v>43539</v>
       </c>
       <c r="B54">
@@ -7033,7 +7077,7 @@
       <c r="I54" s="13"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="47"/>
+      <c r="A55" s="51"/>
       <c r="B55">
         <v>-4</v>
       </c>
@@ -7044,12 +7088,12 @@
       <c r="I55" s="13"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="47"/>
+      <c r="A56" s="51"/>
       <c r="H56" s="13"/>
       <c r="I56" s="13"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="51">
+      <c r="A57" s="55">
         <v>43540</v>
       </c>
       <c r="B57">
@@ -7065,7 +7109,7 @@
       <c r="I57" s="13"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="51"/>
+      <c r="A58" s="55"/>
       <c r="B58">
         <v>-35</v>
       </c>
@@ -7079,7 +7123,7 @@
       <c r="I58" s="13"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="51"/>
+      <c r="A59" s="55"/>
       <c r="B59">
         <v>-21</v>
       </c>
@@ -7093,7 +7137,7 @@
       <c r="I59" s="13"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="51">
+      <c r="A60" s="55">
         <v>43541</v>
       </c>
       <c r="B60">
@@ -7109,7 +7153,7 @@
       <c r="I60" s="13"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" s="51"/>
+      <c r="A61" s="55"/>
       <c r="B61">
         <v>-13</v>
       </c>
@@ -7123,7 +7167,7 @@
       <c r="I61" s="13"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" s="51"/>
+      <c r="A62" s="55"/>
       <c r="B62">
         <v>-3</v>
       </c>
@@ -7137,7 +7181,7 @@
       <c r="I62" s="13"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A63" s="47">
+      <c r="A63" s="51">
         <v>43542</v>
       </c>
       <c r="B63">
@@ -7153,7 +7197,7 @@
       <c r="I63" s="13"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A64" s="47"/>
+      <c r="A64" s="51"/>
       <c r="B64">
         <v>-4</v>
       </c>
@@ -7167,7 +7211,7 @@
       <c r="I64" s="13"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="47"/>
+      <c r="A65" s="51"/>
       <c r="B65">
         <v>-2.4</v>
       </c>
@@ -7179,7 +7223,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="47">
+      <c r="A66" s="51">
         <v>43543</v>
       </c>
       <c r="B66">
@@ -7193,7 +7237,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="47"/>
+      <c r="A67" s="51"/>
       <c r="B67">
         <v>-16</v>
       </c>
@@ -7205,7 +7249,7 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="47"/>
+      <c r="A68" s="51"/>
       <c r="B68">
         <v>-17</v>
       </c>
@@ -7217,7 +7261,7 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="47">
+      <c r="A69" s="51">
         <v>43544</v>
       </c>
       <c r="B69">
@@ -7231,7 +7275,7 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="47"/>
+      <c r="A70" s="51"/>
       <c r="B70">
         <v>-16</v>
       </c>
@@ -7243,7 +7287,7 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="47"/>
+      <c r="A71" s="51"/>
       <c r="B71">
         <v>-7</v>
       </c>
@@ -7255,7 +7299,7 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="47">
+      <c r="A72" s="51">
         <v>43545</v>
       </c>
       <c r="B72">
@@ -7269,7 +7313,7 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="47"/>
+      <c r="A73" s="51"/>
       <c r="B73">
         <v>-14</v>
       </c>
@@ -7281,7 +7325,7 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="47"/>
+      <c r="A74" s="51"/>
       <c r="B74">
         <v>-1.5</v>
       </c>
@@ -7293,7 +7337,7 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="47"/>
+      <c r="A75" s="51"/>
       <c r="B75">
         <v>-7.8</v>
       </c>
@@ -7305,7 +7349,7 @@
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="47"/>
+      <c r="A76" s="51"/>
       <c r="B76">
         <v>-3.5</v>
       </c>
@@ -7317,7 +7361,7 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="47">
+      <c r="A77" s="51">
         <v>43546</v>
       </c>
       <c r="B77">
@@ -7331,7 +7375,7 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="47"/>
+      <c r="A78" s="51"/>
       <c r="B78">
         <v>-17.399999999999999</v>
       </c>
@@ -7343,7 +7387,7 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="47"/>
+      <c r="A79" s="51"/>
       <c r="B79">
         <v>-20.100000000000001</v>
       </c>
@@ -7355,7 +7399,7 @@
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="47"/>
+      <c r="A80" s="51"/>
       <c r="B80">
         <v>-44.7</v>
       </c>
@@ -7367,7 +7411,7 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="47"/>
+      <c r="A81" s="51"/>
       <c r="B81">
         <v>-2.1</v>
       </c>
@@ -7379,7 +7423,7 @@
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="47"/>
+      <c r="A82" s="51"/>
       <c r="B82">
         <v>-16</v>
       </c>
@@ -7391,7 +7435,7 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="51">
+      <c r="A83" s="55">
         <v>43547</v>
       </c>
       <c r="B83">
@@ -7405,7 +7449,7 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="51"/>
+      <c r="A84" s="55"/>
       <c r="B84">
         <v>-62</v>
       </c>
@@ -7417,7 +7461,7 @@
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="51">
+      <c r="A85" s="55">
         <v>43548</v>
       </c>
       <c r="B85">
@@ -7431,7 +7475,7 @@
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="51"/>
+      <c r="A86" s="55"/>
       <c r="B86">
         <v>-10.75</v>
       </c>
@@ -7443,7 +7487,7 @@
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="51"/>
+      <c r="A87" s="55"/>
       <c r="B87">
         <v>-37.119999999999997</v>
       </c>
@@ -7455,7 +7499,7 @@
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="47">
+      <c r="A88" s="51">
         <v>43549</v>
       </c>
       <c r="B88">
@@ -7469,7 +7513,7 @@
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" s="47"/>
+      <c r="A89" s="51"/>
       <c r="B89">
         <v>-4</v>
       </c>
@@ -7481,7 +7525,7 @@
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" s="47"/>
+      <c r="A90" s="51"/>
       <c r="B90">
         <v>-16.02</v>
       </c>
@@ -7493,7 +7537,7 @@
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="47"/>
+      <c r="A91" s="51"/>
       <c r="B91">
         <v>-4</v>
       </c>
@@ -7505,7 +7549,7 @@
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" s="47">
+      <c r="A92" s="51">
         <v>43550</v>
       </c>
       <c r="B92">
@@ -7519,7 +7563,7 @@
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="47"/>
+      <c r="A93" s="51"/>
       <c r="B93">
         <v>-24</v>
       </c>
@@ -7531,7 +7575,7 @@
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="47"/>
+      <c r="A94" s="51"/>
       <c r="B94">
         <v>-3</v>
       </c>
@@ -7543,7 +7587,7 @@
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="47">
+      <c r="A95" s="51">
         <v>43551</v>
       </c>
       <c r="B95">
@@ -7557,7 +7601,7 @@
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" s="47"/>
+      <c r="A96" s="51"/>
       <c r="B96">
         <v>-10</v>
       </c>
@@ -7569,7 +7613,7 @@
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" s="47">
+      <c r="A97" s="51">
         <v>43552</v>
       </c>
       <c r="B97">
@@ -7583,7 +7627,7 @@
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98" s="47"/>
+      <c r="A98" s="51"/>
       <c r="B98">
         <v>-6.72</v>
       </c>
@@ -7595,7 +7639,7 @@
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99" s="47"/>
+      <c r="A99" s="51"/>
       <c r="B99">
         <v>-2</v>
       </c>
@@ -7607,7 +7651,7 @@
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100" s="47"/>
+      <c r="A100" s="51"/>
       <c r="B100">
         <v>-9</v>
       </c>
@@ -7619,7 +7663,7 @@
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A101" s="47">
+      <c r="A101" s="51">
         <v>43553</v>
       </c>
       <c r="B101">
@@ -7633,7 +7677,7 @@
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A102" s="47"/>
+      <c r="A102" s="51"/>
       <c r="B102">
         <v>-3.4</v>
       </c>
@@ -7645,7 +7689,7 @@
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A103" s="47"/>
+      <c r="A103" s="51"/>
       <c r="B103">
         <v>-30</v>
       </c>
@@ -7657,7 +7701,7 @@
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A104" s="51">
+      <c r="A104" s="55">
         <v>43554</v>
       </c>
       <c r="B104">
@@ -7671,7 +7715,7 @@
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A105" s="51"/>
+      <c r="A105" s="55"/>
       <c r="B105">
         <v>-8</v>
       </c>
@@ -7683,7 +7727,7 @@
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A106" s="51"/>
+      <c r="A106" s="55"/>
       <c r="B106">
         <v>-30</v>
       </c>
@@ -7695,7 +7739,7 @@
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A107" s="47">
+      <c r="A107" s="51">
         <v>43555</v>
       </c>
       <c r="B107">
@@ -7709,7 +7753,7 @@
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A108" s="47"/>
+      <c r="A108" s="51"/>
       <c r="B108">
         <v>-21</v>
       </c>
@@ -7721,7 +7765,7 @@
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A109" s="47"/>
+      <c r="A109" s="51"/>
       <c r="B109">
         <v>-9</v>
       </c>
@@ -7733,7 +7777,7 @@
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A110" s="47"/>
+      <c r="A110" s="51"/>
       <c r="B110">
         <v>-38</v>
       </c>
@@ -7892,28 +7936,28 @@
       <c r="A159" s="33"/>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A160" s="47"/>
+      <c r="A160" s="51"/>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A161" s="47"/>
+      <c r="A161" s="51"/>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A162" s="47"/>
+      <c r="A162" s="51"/>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A163" s="47"/>
+      <c r="A163" s="51"/>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A164" s="47"/>
+      <c r="A164" s="51"/>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A165" s="47"/>
+      <c r="A165" s="51"/>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A166" s="47"/>
+      <c r="A166" s="51"/>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A167" s="47"/>
+      <c r="A167" s="51"/>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" s="33"/>
@@ -7961,10 +8005,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N213"/>
+  <dimension ref="A1:N215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:A29"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7981,41 +8025,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="52" t="s">
         <v>168</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="37">
-        <f>SUMIF(B4:B255,"&lt;0")</f>
-        <v>-2362.9500000000003</v>
+        <f>SUMIF(B4:B257,"&lt;0")</f>
+        <v>-2074.25</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="49"/>
+      <c r="A2" s="53"/>
       <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="13">
         <f>3000+C1</f>
-        <v>637.04999999999973</v>
+        <v>925.75</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>18</v>
       </c>
       <c r="F2">
         <f ca="1">DATE(2019,4,1)-TODAY()</f>
-        <v>-8</v>
+        <v>-10</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I2">
         <f ca="1">C2/F2</f>
-        <v>-79.631249999999966</v>
+        <v>-92.575000000000003</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="77" customHeight="1" x14ac:dyDescent="0.2">
@@ -8037,7 +8081,7 @@
       <c r="H3" s="8"/>
       <c r="I3" s="8">
         <f ca="1">C2/(F2-1)</f>
-        <v>-70.783333333333303</v>
+        <v>-84.159090909090907</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -8094,7 +8138,7 @@
       <c r="N5" s="8"/>
     </row>
     <row r="6" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="44">
+      <c r="A6" s="48">
         <v>43558</v>
       </c>
       <c r="B6" s="8">
@@ -8118,7 +8162,7 @@
       <c r="N6" s="8"/>
     </row>
     <row r="7" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="44"/>
+      <c r="A7" s="48"/>
       <c r="B7" s="8">
         <v>-7.3</v>
       </c>
@@ -8140,7 +8184,7 @@
       <c r="N7" s="8"/>
     </row>
     <row r="8" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="44"/>
+      <c r="A8" s="48"/>
       <c r="B8" s="8">
         <v>-11</v>
       </c>
@@ -8162,7 +8206,7 @@
       <c r="N8" s="8"/>
     </row>
     <row r="9" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="44">
+      <c r="A9" s="48">
         <v>43559</v>
       </c>
       <c r="B9" s="8">
@@ -8186,7 +8230,7 @@
       <c r="N9" s="8"/>
     </row>
     <row r="10" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="44"/>
+      <c r="A10" s="48"/>
       <c r="B10" s="8">
         <v>-11</v>
       </c>
@@ -8208,12 +8252,12 @@
       <c r="N10" s="8"/>
     </row>
     <row r="11" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="44"/>
+      <c r="A11" s="48"/>
       <c r="B11" s="8">
         <v>-1420</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D11" s="12">
         <v>5</v>
@@ -8230,7 +8274,7 @@
       <c r="N11" s="8"/>
     </row>
     <row r="12" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="44"/>
+      <c r="A12" s="48"/>
       <c r="B12" s="8">
         <v>-89</v>
       </c>
@@ -8252,11 +8296,11 @@
       <c r="N12" s="8"/>
     </row>
     <row r="13" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="50">
+      <c r="A13" s="54">
         <v>43560</v>
       </c>
       <c r="B13" s="8">
-        <v>-139</v>
+        <v>-13</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>50</v>
@@ -8276,67 +8320,70 @@
       <c r="N13" s="8"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="50"/>
+      <c r="A14" s="54"/>
       <c r="B14" s="8">
-        <v>-199</v>
+        <v>-6</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="D14" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="54"/>
+      <c r="B15" s="8">
+        <v>-5</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D15" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="42">
+        <v>43561</v>
+      </c>
+      <c r="B16" s="8">
+        <v>-3</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="D16" s="12">
+        <v>2</v>
+      </c>
+      <c r="H16" s="9"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="54">
+        <v>43562</v>
+      </c>
+      <c r="B17" s="8">
+        <v>-48</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="D17" s="12">
         <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="50"/>
-      <c r="B15" s="8">
-        <v>-6</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="D15" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="50"/>
-      <c r="B16" s="8">
-        <v>-5</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="D16" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="42">
-        <v>43561</v>
-      </c>
-      <c r="B17" s="8">
-        <v>-3</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="D17" s="12">
-        <v>2</v>
       </c>
       <c r="H17" s="9"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="50">
-        <v>43562</v>
-      </c>
+      <c r="A18" s="54"/>
       <c r="B18" s="8">
-        <v>-48</v>
+        <v>-30</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D18" s="12">
         <v>3</v>
@@ -8346,27 +8393,27 @@
       <c r="J18" s="4"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="50"/>
+      <c r="A19" s="54"/>
       <c r="B19" s="8">
-        <v>-30</v>
+        <v>-42.5</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D19" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H19" s="9"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="50"/>
+      <c r="A20" s="54"/>
       <c r="B20" s="8">
-        <v>-42.5</v>
+        <v>-2.5</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="D20" s="12">
         <v>2</v>
@@ -8376,9 +8423,9 @@
       <c r="J20" s="4"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="50"/>
+      <c r="A21" s="54"/>
       <c r="B21" s="8">
-        <v>-2.5</v>
+        <v>-5.3</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>178</v>
@@ -8386,81 +8433,79 @@
       <c r="D21" s="12">
         <v>2</v>
       </c>
-      <c r="H21" s="9"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
+      <c r="H21" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="50"/>
+      <c r="A22" s="54"/>
       <c r="B22" s="8">
-        <v>-5.3</v>
+        <v>-3.33</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="D22" s="12">
         <v>2</v>
       </c>
-      <c r="H22" s="9" t="s">
-        <v>43</v>
+      <c r="H22">
+        <v>1</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>44</v>
+        <v>142</v>
+      </c>
+      <c r="J22">
+        <f>SUMIF($D$4:$D283,H22,$B$4:$B$283)</f>
+        <v>-242</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="50"/>
+      <c r="A23" s="48">
+        <v>43563</v>
+      </c>
       <c r="B23" s="8">
-        <v>-3.33</v>
+        <v>-11</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>160</v>
+        <v>53</v>
       </c>
       <c r="D23" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J23">
-        <f>SUMIF($D$4:$D281,H23,$B$4:$B$281)</f>
-        <v>-253</v>
+        <f ca="1">SUMIF($D$4:$D284,H23,$B$4:$B$283)</f>
+        <v>-321.25000000000006</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="44">
-        <v>43563</v>
-      </c>
+      <c r="A24" s="48"/>
       <c r="B24" s="8">
-        <v>-11</v>
+        <v>-58.52</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>53</v>
+        <v>183</v>
       </c>
       <c r="D24" s="12">
-        <v>1</v>
-      </c>
-      <c r="H24">
-        <v>2</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="J24">
-        <f ca="1">SUMIF($D$4:$D282,H24,$B$4:$B$281)</f>
-        <v>-273.95000000000005</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I24" s="4"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="44"/>
+      <c r="A25" s="48"/>
       <c r="B25" s="8">
-        <v>-58.52</v>
+        <v>-6.3</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>184</v>
@@ -8471,12 +8516,12 @@
       <c r="I25" s="4"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="44"/>
+      <c r="A26" s="48"/>
       <c r="B26" s="8">
-        <v>-6.3</v>
+        <v>-4</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="D26" s="12">
         <v>2</v>
@@ -8484,203 +8529,199 @@
       <c r="I26" s="4"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="44"/>
+      <c r="A27" s="48">
+        <v>43564</v>
+      </c>
       <c r="B27" s="8">
-        <v>-4</v>
+        <v>-11</v>
       </c>
       <c r="C27" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="12">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>3</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J27">
+        <f ca="1">SUMIF($D$4:$D285,H27,$B$4:$B$283)</f>
+        <v>-91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="48"/>
+      <c r="B28" s="8">
+        <v>-10.199999999999999</v>
+      </c>
+      <c r="C28" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="D27" s="12">
-        <v>2</v>
-      </c>
-      <c r="I27" s="4"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="44">
-        <v>43564</v>
-      </c>
-      <c r="B28" s="8">
+      <c r="D28" s="12">
+        <v>2</v>
+      </c>
+      <c r="I28" s="4"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="38">
+        <v>43565</v>
+      </c>
+      <c r="B29" s="8">
         <v>-11</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C29" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D28" s="12">
-        <v>1</v>
-      </c>
-      <c r="H28">
-        <v>3</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="J28">
-        <f ca="1">SUMIF($D$4:$D283,H28,$B$4:$B$281)</f>
-        <v>-416</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="44"/>
-      <c r="B29" s="8">
-        <v>-10.199999999999999</v>
-      </c>
-      <c r="C29" s="8" t="s">
+      <c r="D29" s="12">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>4</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J29">
+        <f ca="1">SUMIF($D$4:$D286,H29,$B$4:$B$283)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="44"/>
+      <c r="B30" s="8">
+        <v>-10</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="D29" s="12">
-        <v>2</v>
-      </c>
-      <c r="I29" s="4"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="38">
-        <v>43565</v>
-      </c>
-      <c r="B30" s="8">
-        <v>-11</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>53</v>
-      </c>
       <c r="D30" s="12">
-        <v>1</v>
-      </c>
-      <c r="H30">
-        <v>4</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J30">
-        <f ca="1">SUMIF($D$4:$D284,H30,$B$4:$B$281)</f>
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I30" s="4"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="41"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="12"/>
+      <c r="A31" s="44"/>
+      <c r="B31" s="8">
+        <v>-12</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="D31" s="12">
+        <v>2</v>
+      </c>
       <c r="I31" s="4"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="38">
-        <v>43566</v>
-      </c>
+      <c r="A32" s="44"/>
       <c r="B32" s="8">
-        <v>-11</v>
+        <v>-20</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>53</v>
+        <v>188</v>
       </c>
       <c r="D32" s="12">
-        <v>1</v>
-      </c>
-      <c r="H32">
-        <v>5</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J32">
-        <f ca="1">SUMIF($D$4:$D285,H32,$B$4:$B$281)</f>
-        <v>-1420</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I32" s="4"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="41"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="12"/>
+      <c r="B33" s="8">
+        <v>-5.3</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="D33" s="12">
+        <v>2</v>
+      </c>
       <c r="I33" s="4"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="41"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="12"/>
-      <c r="I34" s="4"/>
+      <c r="A34" s="38">
+        <v>43566</v>
+      </c>
+      <c r="B34" s="8">
+        <v>-11</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D34" s="12">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>5</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J34">
+        <f ca="1">SUMIF($D$4:$D287,H34,$B$4:$B$283)</f>
+        <v>-1420</v>
+      </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="43"/>
+      <c r="A35" s="41"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
       <c r="D35" s="12"/>
       <c r="I35" s="4"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="38">
-        <v>43567</v>
-      </c>
-      <c r="B36" s="8">
-        <v>-11</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D36" s="12">
-        <v>1</v>
-      </c>
+      <c r="A36" s="41"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="12"/>
       <c r="I36" s="4"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="40">
-        <v>43568</v>
-      </c>
+      <c r="A37" s="43"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
       <c r="D37" s="12"/>
       <c r="I37" s="4"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="40">
+      <c r="A38" s="38">
+        <v>43567</v>
+      </c>
+      <c r="B38" s="8">
+        <v>-11</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D38" s="12">
+        <v>1</v>
+      </c>
+      <c r="I38" s="4"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="40">
+        <v>43568</v>
+      </c>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="12"/>
+      <c r="I39" s="4"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="40">
         <v>43569</v>
       </c>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="12"/>
-      <c r="I38" s="4"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="38">
-        <v>43570</v>
-      </c>
-      <c r="B39" s="8">
-        <v>-11</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D39" s="12">
-        <v>1</v>
-      </c>
-      <c r="I39" s="4"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="38">
-        <v>43571</v>
-      </c>
-      <c r="B40" s="8">
-        <v>-11</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D40" s="12">
-        <v>1</v>
-      </c>
-      <c r="I40" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="J40">
-        <f ca="1">SUM(J23:J32)</f>
-        <v>-2362.9499999999998</v>
-      </c>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="12"/>
+      <c r="I40" s="4"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="38">
-        <v>43572</v>
+        <v>43570</v>
       </c>
       <c r="B41" s="8">
         <v>-11</v>
@@ -8691,10 +8732,11 @@
       <c r="D41" s="12">
         <v>1</v>
       </c>
+      <c r="I41" s="4"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="38">
-        <v>43573</v>
+        <v>43571</v>
       </c>
       <c r="B42" s="8">
         <v>-11</v>
@@ -8705,10 +8747,17 @@
       <c r="D42" s="12">
         <v>1</v>
       </c>
+      <c r="I42" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="J42">
+        <f ca="1">SUM(J22:J34)</f>
+        <v>-2074.25</v>
+      </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="38">
-        <v>43574</v>
+        <v>43572</v>
       </c>
       <c r="B43" s="8">
         <v>-11</v>
@@ -8721,52 +8770,52 @@
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="40">
+      <c r="A44" s="38">
+        <v>43573</v>
+      </c>
+      <c r="B44" s="8">
+        <v>-11</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D44" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" s="38">
+        <v>43574</v>
+      </c>
+      <c r="B45" s="8">
+        <v>-11</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D45" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" s="40">
         <v>43575</v>
       </c>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="12"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="40">
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="12"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" s="40">
         <v>43576</v>
       </c>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="12"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="38">
-        <v>43577</v>
-      </c>
-      <c r="B46" s="8">
-        <v>-11</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D46" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="38">
-        <v>43578</v>
-      </c>
-      <c r="B47" s="8">
-        <v>-11</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D47" s="12">
-        <v>1</v>
-      </c>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="12"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="38">
-        <v>43579</v>
+        <v>43577</v>
       </c>
       <c r="B48" s="8">
         <v>-11</v>
@@ -8780,7 +8829,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="38">
-        <v>43580</v>
+        <v>43578</v>
       </c>
       <c r="B49" s="8">
         <v>-11</v>
@@ -8794,7 +8843,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="38">
-        <v>43581</v>
+        <v>43579</v>
       </c>
       <c r="B50" s="8">
         <v>-11</v>
@@ -8808,7 +8857,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="38">
-        <v>43582</v>
+        <v>43580</v>
       </c>
       <c r="B51" s="8">
         <v>-11</v>
@@ -8822,7 +8871,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="38">
-        <v>43583</v>
+        <v>43581</v>
       </c>
       <c r="B52" s="8">
         <v>-11</v>
@@ -8835,22 +8884,16 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="38">
-        <v>43584</v>
-      </c>
-      <c r="B53" s="8">
-        <v>-11</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D53" s="12">
-        <v>1</v>
-      </c>
+      <c r="A53" s="47">
+        <v>43582</v>
+      </c>
+      <c r="B53" s="12"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="38">
-        <v>43585</v>
+        <v>43583</v>
       </c>
       <c r="B54" s="8">
         <v>-11</v>
@@ -8863,17 +8906,35 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="38"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
+      <c r="A55" s="38">
+        <v>43584</v>
+      </c>
+      <c r="B55" s="8">
+        <v>-11</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D55" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="8"/>
-      <c r="B56" s="8"/>
-      <c r="C56" s="8"/>
+      <c r="A56" s="38">
+        <v>43585</v>
+      </c>
+      <c r="B56" s="8">
+        <v>-11</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D56" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="8"/>
+      <c r="A57" s="38"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
     </row>
@@ -8926,15 +8987,11 @@
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
-      <c r="H67" s="13"/>
-      <c r="I67" s="13"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
-      <c r="H68" s="13"/>
-      <c r="I68" s="13"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="8"/>
@@ -9059,11 +9116,15 @@
       <c r="A86" s="8"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
+      <c r="H86" s="13"/>
+      <c r="I86" s="13"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" s="8"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
+      <c r="H87" s="13"/>
+      <c r="I87" s="13"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" s="8"/>
@@ -9695,15 +9756,25 @@
       <c r="B213" s="8"/>
       <c r="C213" s="8"/>
     </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A214" s="8"/>
+      <c r="B214" s="8"/>
+      <c r="C214" s="8"/>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A215" s="8"/>
+      <c r="B215" s="8"/>
+      <c r="C215" s="8"/>
+    </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A23:A26"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A12"/>
-    <mergeCell ref="A18:A23"/>
-    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="A17:A22"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9714,8 +9785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX20"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9747,13 +9818,13 @@
       <c r="J3"/>
     </row>
     <row r="4" spans="1:50" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="54" t="s">
+      <c r="D4" s="58" t="s">
         <v>122</v>
       </c>
-      <c r="E4" s="54"/>
+      <c r="E4" s="58"/>
       <c r="G4" s="26" t="s">
         <v>133</v>
       </c>
@@ -9764,15 +9835,21 @@
         <v>123</v>
       </c>
       <c r="M4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N4">
-        <f>SUM(N5:N32)</f>
-        <v>-5007.3599999999997</v>
+        <f>SUM(N5:N19)</f>
+        <v>-4115.5</v>
+      </c>
+      <c r="R4" t="s">
+        <v>181</v>
+      </c>
+      <c r="S4" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:50" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="53"/>
+      <c r="C5" s="57"/>
       <c r="D5" s="28" t="s">
         <v>136</v>
       </c>
@@ -9783,14 +9860,20 @@
       <c r="H5" s="26"/>
       <c r="I5" s="26"/>
       <c r="M5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N5">
         <v>-2239</v>
       </c>
+      <c r="R5">
+        <v>-1547.46</v>
+      </c>
+      <c r="S5">
+        <v>-656.28</v>
+      </c>
     </row>
     <row r="6" spans="1:50" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="55">
+      <c r="C6" s="59">
         <v>43585</v>
       </c>
       <c r="D6" s="29" t="s">
@@ -9799,7 +9882,7 @@
       <c r="E6" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="I6" s="46"/>
+      <c r="I6" s="50"/>
       <c r="J6" s="27"/>
       <c r="M6" t="s">
         <v>149</v>
@@ -9807,16 +9890,22 @@
       <c r="N6">
         <v>-600</v>
       </c>
+      <c r="R6">
+        <v>-972.48</v>
+      </c>
+      <c r="S6">
+        <v>-345.65</v>
+      </c>
     </row>
     <row r="7" spans="1:50" ht="43" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="55"/>
+      <c r="C7" s="59"/>
       <c r="D7" s="29" t="s">
         <v>126</v>
       </c>
       <c r="E7" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="I7" s="46"/>
+      <c r="I7" s="50"/>
       <c r="J7" s="27"/>
       <c r="M7" t="s">
         <v>172</v>
@@ -9827,41 +9916,52 @@
       </c>
     </row>
     <row r="8" spans="1:50" ht="43" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C8" s="55"/>
+      <c r="C8" s="59"/>
       <c r="D8" s="29" t="s">
         <v>128</v>
       </c>
       <c r="E8" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="I8" s="46"/>
+      <c r="I8" s="50"/>
       <c r="J8" s="27"/>
       <c r="M8" t="s">
         <v>173</v>
       </c>
       <c r="N8">
-        <v>-75</v>
+        <v>-109</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>179</v>
+      </c>
+      <c r="R8">
+        <f>SUM(R5:R7)</f>
+        <v>-2519.94</v>
+      </c>
+      <c r="S8">
+        <f>SUM(S5:S7)</f>
+        <v>-1001.93</v>
       </c>
     </row>
     <row r="9" spans="1:50" ht="43" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C9" s="55"/>
+      <c r="C9" s="59"/>
       <c r="D9" s="29" t="s">
         <v>129</v>
       </c>
       <c r="E9" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="I9" s="46"/>
+      <c r="I9" s="50"/>
       <c r="J9" s="27"/>
       <c r="M9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N9">
         <v>-40</v>
       </c>
     </row>
     <row r="10" spans="1:50" ht="43" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="55"/>
+      <c r="C10" s="59"/>
       <c r="D10" s="29">
         <v>0.99305555555555547</v>
       </c>
@@ -9869,8 +9969,14 @@
         <v>132</v>
       </c>
       <c r="F10" s="31"/>
-      <c r="I10" s="46"/>
+      <c r="I10" s="50"/>
       <c r="J10" s="27"/>
+      <c r="M10" t="s">
+        <v>186</v>
+      </c>
+      <c r="N10">
+        <v>-1056</v>
+      </c>
     </row>
     <row r="11" spans="1:50" s="4" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
@@ -9925,7 +10031,7 @@
       <c r="AX11"/>
     </row>
     <row r="12" spans="1:50" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="55">
+      <c r="C12" s="59">
         <v>43586</v>
       </c>
       <c r="D12" s="29">
@@ -9935,48 +10041,25 @@
         <v>135</v>
       </c>
       <c r="M12" t="s">
-        <v>182</v>
-      </c>
-      <c r="N12" t="s">
-        <v>183</v>
+        <v>189</v>
+      </c>
+      <c r="N12">
+        <v>-22</v>
       </c>
     </row>
     <row r="13" spans="1:50" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="55"/>
-      <c r="M13">
-        <v>-1547.46</v>
-      </c>
-      <c r="N13">
-        <v>-656.28</v>
-      </c>
+      <c r="C13" s="59"/>
     </row>
     <row r="14" spans="1:50" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="55"/>
-      <c r="M14">
-        <v>-972.48</v>
-      </c>
-      <c r="N14">
-        <v>-345.65</v>
-      </c>
+      <c r="C14" s="59"/>
     </row>
     <row r="15" spans="1:50" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="55"/>
+      <c r="C15" s="59"/>
     </row>
     <row r="16" spans="1:50" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="55"/>
-      <c r="L16" t="s">
-        <v>180</v>
-      </c>
-      <c r="M16">
-        <f>SUM(M13:M15)</f>
-        <v>-2519.94</v>
-      </c>
-      <c r="N16">
-        <f>SUM(N13:N15)</f>
-        <v>-1001.93</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C16" s="59"/>
+    </row>
+    <row r="17" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="24">
         <v>43587</v>
       </c>
@@ -9987,21 +10070,20 @@
       <c r="I17" s="20"/>
       <c r="J17" s="21"/>
       <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-    </row>
-    <row r="18" spans="1:12" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="25"/>
       <c r="B18" s="32"/>
       <c r="C18" s="24">
         <v>43588</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="24">
         <v>43589</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="24">
         <v>43590</v>
       </c>
@@ -10017,4 +10099,1782 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N215"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.1640625" style="36" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="13"/>
+    <col min="4" max="4" width="23.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="8" max="8" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.33203125" customWidth="1"/>
+    <col min="12" max="12" width="5.33203125" customWidth="1"/>
+    <col min="13" max="13" width="17.6640625" customWidth="1"/>
+    <col min="34" max="34" width="16.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="52" t="s">
+        <v>190</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="37">
+        <f>SUMIF(B4:B257,"&lt;0")</f>
+        <v>-2074.25</v>
+      </c>
+      <c r="E1" s="4"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="53"/>
+      <c r="B2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="13">
+        <f>3000+C1</f>
+        <v>925.75</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2">
+        <f ca="1">DATE(2019,4,1)-TODAY()</f>
+        <v>-10</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2">
+        <f ca="1">C2/F2</f>
+        <v>-92.575000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="77" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8">
+        <f ca="1">C2/(F2-1)</f>
+        <v>-84.159090909090907</v>
+      </c>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+    </row>
+    <row r="4" spans="1:14" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="44">
+        <v>43556</v>
+      </c>
+      <c r="B4" s="8">
+        <v>-11</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="12">
+        <v>1</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+    </row>
+    <row r="5" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="44">
+        <v>43557</v>
+      </c>
+      <c r="B5" s="8">
+        <v>-11</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="12">
+        <v>1</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+    </row>
+    <row r="6" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="48">
+        <v>43558</v>
+      </c>
+      <c r="B6" s="8">
+        <v>-22</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D6" s="12">
+        <v>2</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+    </row>
+    <row r="7" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="48"/>
+      <c r="B7" s="8">
+        <v>-7.3</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="D7" s="12">
+        <v>2</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+    </row>
+    <row r="8" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="48"/>
+      <c r="B8" s="8">
+        <v>-11</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="12">
+        <v>1</v>
+      </c>
+      <c r="E8" s="12"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+    </row>
+    <row r="9" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="48">
+        <v>43559</v>
+      </c>
+      <c r="B9" s="8">
+        <v>-9</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D9" s="12">
+        <v>2</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+    </row>
+    <row r="10" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="48"/>
+      <c r="B10" s="8">
+        <v>-11</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="12">
+        <v>1</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+    </row>
+    <row r="11" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="48"/>
+      <c r="B11" s="8">
+        <v>-1420</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="D11" s="12">
+        <v>5</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+    </row>
+    <row r="12" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="48"/>
+      <c r="B12" s="8">
+        <v>-89</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="D12" s="12">
+        <v>2</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+    </row>
+    <row r="13" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="54">
+        <v>43560</v>
+      </c>
+      <c r="B13" s="8">
+        <v>-13</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="12">
+        <v>3</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="54"/>
+      <c r="B14" s="8">
+        <v>-6</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="D14" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="54"/>
+      <c r="B15" s="8">
+        <v>-5</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D15" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="45">
+        <v>43561</v>
+      </c>
+      <c r="B16" s="8">
+        <v>-3</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="D16" s="12">
+        <v>2</v>
+      </c>
+      <c r="H16" s="9"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="54">
+        <v>43562</v>
+      </c>
+      <c r="B17" s="8">
+        <v>-48</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="D17" s="12">
+        <v>3</v>
+      </c>
+      <c r="H17" s="9"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="54"/>
+      <c r="B18" s="8">
+        <v>-30</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="D18" s="12">
+        <v>3</v>
+      </c>
+      <c r="H18" s="9"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="54"/>
+      <c r="B19" s="8">
+        <v>-42.5</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D19" s="12">
+        <v>2</v>
+      </c>
+      <c r="H19" s="9"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="54"/>
+      <c r="B20" s="8">
+        <v>-2.5</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D20" s="12">
+        <v>2</v>
+      </c>
+      <c r="H20" s="9"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="54"/>
+      <c r="B21" s="8">
+        <v>-5.3</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="D21" s="12">
+        <v>2</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="54"/>
+      <c r="B22" s="8">
+        <v>-3.33</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="D22" s="12">
+        <v>2</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="J22">
+        <f>SUMIF($D$4:$D283,H22,$B$4:$B$283)</f>
+        <v>-242</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="48">
+        <v>43563</v>
+      </c>
+      <c r="B23" s="8">
+        <v>-11</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="12">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>2</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="J23">
+        <f ca="1">SUMIF($D$4:$D284,H23,$B$4:$B$283)</f>
+        <v>-321.25000000000006</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="48"/>
+      <c r="B24" s="8">
+        <v>-58.52</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="D24" s="12">
+        <v>2</v>
+      </c>
+      <c r="I24" s="4"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="48"/>
+      <c r="B25" s="8">
+        <v>-6.3</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="D25" s="12">
+        <v>2</v>
+      </c>
+      <c r="I25" s="4"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="48"/>
+      <c r="B26" s="8">
+        <v>-4</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D26" s="12">
+        <v>2</v>
+      </c>
+      <c r="I26" s="4"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="48">
+        <v>43564</v>
+      </c>
+      <c r="B27" s="8">
+        <v>-11</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="12">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>3</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J27">
+        <f ca="1">SUMIF($D$4:$D285,H27,$B$4:$B$283)</f>
+        <v>-91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="48"/>
+      <c r="B28" s="8">
+        <v>-10.199999999999999</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D28" s="12">
+        <v>2</v>
+      </c>
+      <c r="I28" s="4"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="44">
+        <v>43565</v>
+      </c>
+      <c r="B29" s="8">
+        <v>-11</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" s="12">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>4</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J29">
+        <f ca="1">SUMIF($D$4:$D286,H29,$B$4:$B$283)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="44"/>
+      <c r="B30" s="8">
+        <v>-10</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D30" s="12">
+        <v>2</v>
+      </c>
+      <c r="I30" s="4"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="44"/>
+      <c r="B31" s="8">
+        <v>-12</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="D31" s="12">
+        <v>2</v>
+      </c>
+      <c r="I31" s="4"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="44"/>
+      <c r="B32" s="8">
+        <v>-20</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="D32" s="12">
+        <v>2</v>
+      </c>
+      <c r="I32" s="4"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="44"/>
+      <c r="B33" s="8">
+        <v>-5.3</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="D33" s="12">
+        <v>2</v>
+      </c>
+      <c r="I33" s="4"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="44">
+        <v>43566</v>
+      </c>
+      <c r="B34" s="8">
+        <v>-11</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D34" s="12">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>5</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J34">
+        <f ca="1">SUMIF($D$4:$D287,H34,$B$4:$B$283)</f>
+        <v>-1420</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="44"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="12"/>
+      <c r="I35" s="4"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="44"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="12"/>
+      <c r="I36" s="4"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="44"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="12"/>
+      <c r="I37" s="4"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" s="44">
+        <v>43567</v>
+      </c>
+      <c r="B38" s="8">
+        <v>-11</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D38" s="12">
+        <v>1</v>
+      </c>
+      <c r="I38" s="4"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="47">
+        <v>43568</v>
+      </c>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="12"/>
+      <c r="I39" s="4"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="47">
+        <v>43569</v>
+      </c>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="12"/>
+      <c r="I40" s="4"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="44">
+        <v>43570</v>
+      </c>
+      <c r="B41" s="8">
+        <v>-11</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D41" s="12">
+        <v>1</v>
+      </c>
+      <c r="I41" s="4"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="44">
+        <v>43571</v>
+      </c>
+      <c r="B42" s="8">
+        <v>-11</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D42" s="12">
+        <v>1</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="J42">
+        <f ca="1">SUM(J22:J34)</f>
+        <v>-2074.25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="44">
+        <v>43572</v>
+      </c>
+      <c r="B43" s="8">
+        <v>-11</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D43" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="44">
+        <v>43573</v>
+      </c>
+      <c r="B44" s="8">
+        <v>-11</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D44" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" s="44">
+        <v>43574</v>
+      </c>
+      <c r="B45" s="8">
+        <v>-11</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D45" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" s="47">
+        <v>43575</v>
+      </c>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="12"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" s="47">
+        <v>43576</v>
+      </c>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="12"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" s="44">
+        <v>43577</v>
+      </c>
+      <c r="B48" s="8">
+        <v>-11</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D48" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="44">
+        <v>43578</v>
+      </c>
+      <c r="B49" s="8">
+        <v>-11</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D49" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="44">
+        <v>43579</v>
+      </c>
+      <c r="B50" s="8">
+        <v>-11</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D50" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="44">
+        <v>43580</v>
+      </c>
+      <c r="B51" s="8">
+        <v>-11</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D51" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="44">
+        <v>43581</v>
+      </c>
+      <c r="B52" s="8">
+        <v>-11</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D52" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="47">
+        <v>43582</v>
+      </c>
+      <c r="B53" s="12"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="44">
+        <v>43583</v>
+      </c>
+      <c r="B54" s="8">
+        <v>-11</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D54" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="44">
+        <v>43584</v>
+      </c>
+      <c r="B55" s="8">
+        <v>-11</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D55" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="44">
+        <v>43585</v>
+      </c>
+      <c r="B56" s="8">
+        <v>-11</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D56" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="44"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="8"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="8"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="8"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="8"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="8"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="8"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="8"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="8"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="8"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="8"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65" s="8"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="8"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66" s="8"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="8"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67" s="8"/>
+      <c r="B67" s="8"/>
+      <c r="C67" s="8"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A68" s="8"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="8"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A69" s="8"/>
+      <c r="B69" s="8"/>
+      <c r="C69" s="8"/>
+      <c r="H69" s="13"/>
+      <c r="I69" s="13"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70" s="8"/>
+      <c r="B70" s="8"/>
+      <c r="C70" s="8"/>
+      <c r="H70" s="13"/>
+      <c r="I70" s="13"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A71" s="8"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="8"/>
+      <c r="H71" s="13"/>
+      <c r="I71" s="13"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A72" s="8"/>
+      <c r="B72" s="8"/>
+      <c r="C72" s="8"/>
+      <c r="H72" s="13"/>
+      <c r="I72" s="13"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A73" s="8"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="8"/>
+      <c r="H73" s="13"/>
+      <c r="I73" s="13"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A74" s="8"/>
+      <c r="B74" s="8"/>
+      <c r="C74" s="8"/>
+      <c r="H74" s="13"/>
+      <c r="I74" s="13"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A75" s="8"/>
+      <c r="B75" s="8"/>
+      <c r="C75" s="8"/>
+      <c r="H75" s="13"/>
+      <c r="I75" s="13"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A76" s="8"/>
+      <c r="B76" s="8"/>
+      <c r="C76" s="8"/>
+      <c r="H76" s="13"/>
+      <c r="I76" s="13"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A77" s="8"/>
+      <c r="B77" s="8"/>
+      <c r="C77" s="8"/>
+      <c r="H77" s="13"/>
+      <c r="I77" s="13"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A78" s="8"/>
+      <c r="B78" s="8"/>
+      <c r="C78" s="8"/>
+      <c r="H78" s="13"/>
+      <c r="I78" s="13"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A79" s="8"/>
+      <c r="B79" s="8"/>
+      <c r="C79" s="8"/>
+      <c r="H79" s="13"/>
+      <c r="I79" s="13"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A80" s="8"/>
+      <c r="B80" s="8"/>
+      <c r="C80" s="8"/>
+      <c r="H80" s="13"/>
+      <c r="I80" s="13"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A81" s="8"/>
+      <c r="B81" s="8"/>
+      <c r="C81" s="8"/>
+      <c r="H81" s="13"/>
+      <c r="I81" s="13"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A82" s="8"/>
+      <c r="B82" s="8"/>
+      <c r="C82" s="8"/>
+      <c r="H82" s="13"/>
+      <c r="I82" s="13"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A83" s="8"/>
+      <c r="B83" s="8"/>
+      <c r="C83" s="8"/>
+      <c r="H83" s="13"/>
+      <c r="I83" s="13"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A84" s="8"/>
+      <c r="B84" s="8"/>
+      <c r="C84" s="8"/>
+      <c r="H84" s="13"/>
+      <c r="I84" s="13"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A85" s="8"/>
+      <c r="B85" s="8"/>
+      <c r="C85" s="8"/>
+      <c r="H85" s="13"/>
+      <c r="I85" s="13"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A86" s="8"/>
+      <c r="B86" s="8"/>
+      <c r="C86" s="8"/>
+      <c r="H86" s="13"/>
+      <c r="I86" s="13"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A87" s="8"/>
+      <c r="B87" s="8"/>
+      <c r="C87" s="8"/>
+      <c r="H87" s="13"/>
+      <c r="I87" s="13"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A88" s="8"/>
+      <c r="B88" s="8"/>
+      <c r="C88" s="8"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A89" s="8"/>
+      <c r="B89" s="8"/>
+      <c r="C89" s="8"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A90" s="8"/>
+      <c r="B90" s="8"/>
+      <c r="C90" s="8"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A91" s="8"/>
+      <c r="B91" s="8"/>
+      <c r="C91" s="8"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A92" s="8"/>
+      <c r="B92" s="8"/>
+      <c r="C92" s="8"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A93" s="8"/>
+      <c r="B93" s="8"/>
+      <c r="C93" s="8"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A94" s="8"/>
+      <c r="B94" s="8"/>
+      <c r="C94" s="8"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A95" s="8"/>
+      <c r="B95" s="8"/>
+      <c r="C95" s="8"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A96" s="8"/>
+      <c r="B96" s="8"/>
+      <c r="C96" s="8"/>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" s="8"/>
+      <c r="B97" s="8"/>
+      <c r="C97" s="8"/>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" s="8"/>
+      <c r="B98" s="8"/>
+      <c r="C98" s="8"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" s="8"/>
+      <c r="B99" s="8"/>
+      <c r="C99" s="8"/>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" s="8"/>
+      <c r="B100" s="8"/>
+      <c r="C100" s="8"/>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" s="8"/>
+      <c r="B101" s="8"/>
+      <c r="C101" s="8"/>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" s="8"/>
+      <c r="B102" s="8"/>
+      <c r="C102" s="8"/>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" s="8"/>
+      <c r="B103" s="8"/>
+      <c r="C103" s="8"/>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" s="8"/>
+      <c r="B104" s="8"/>
+      <c r="C104" s="8"/>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" s="8"/>
+      <c r="B105" s="8"/>
+      <c r="C105" s="8"/>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" s="8"/>
+      <c r="B106" s="8"/>
+      <c r="C106" s="8"/>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" s="8"/>
+      <c r="B107" s="8"/>
+      <c r="C107" s="8"/>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" s="8"/>
+      <c r="B108" s="8"/>
+      <c r="C108" s="8"/>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" s="8"/>
+      <c r="B109" s="8"/>
+      <c r="C109" s="8"/>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" s="8"/>
+      <c r="B110" s="8"/>
+      <c r="C110" s="8"/>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" s="8"/>
+      <c r="B111" s="8"/>
+      <c r="C111" s="8"/>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" s="8"/>
+      <c r="B112" s="8"/>
+      <c r="C112" s="8"/>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" s="8"/>
+      <c r="B113" s="8"/>
+      <c r="C113" s="8"/>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" s="8"/>
+      <c r="B114" s="8"/>
+      <c r="C114" s="8"/>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" s="8"/>
+      <c r="B115" s="8"/>
+      <c r="C115" s="8"/>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" s="8"/>
+      <c r="B116" s="8"/>
+      <c r="C116" s="8"/>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" s="8"/>
+      <c r="B117" s="8"/>
+      <c r="C117" s="8"/>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" s="8"/>
+      <c r="B118" s="8"/>
+      <c r="C118" s="8"/>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" s="8"/>
+      <c r="B119" s="8"/>
+      <c r="C119" s="8"/>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" s="8"/>
+      <c r="B120" s="8"/>
+      <c r="C120" s="8"/>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" s="8"/>
+      <c r="B121" s="8"/>
+      <c r="C121" s="8"/>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" s="8"/>
+      <c r="B122" s="8"/>
+      <c r="C122" s="8"/>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" s="8"/>
+      <c r="B123" s="8"/>
+      <c r="C123" s="8"/>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" s="8"/>
+      <c r="B124" s="8"/>
+      <c r="C124" s="8"/>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" s="8"/>
+      <c r="B125" s="8"/>
+      <c r="C125" s="8"/>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" s="8"/>
+      <c r="B126" s="8"/>
+      <c r="C126" s="8"/>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" s="8"/>
+      <c r="B127" s="8"/>
+      <c r="C127" s="8"/>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" s="8"/>
+      <c r="B128" s="8"/>
+      <c r="C128" s="8"/>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" s="8"/>
+      <c r="B129" s="8"/>
+      <c r="C129" s="8"/>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" s="8"/>
+      <c r="B130" s="8"/>
+      <c r="C130" s="8"/>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" s="8"/>
+      <c r="B131" s="8"/>
+      <c r="C131" s="8"/>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" s="8"/>
+      <c r="B132" s="8"/>
+      <c r="C132" s="8"/>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" s="8"/>
+      <c r="B133" s="8"/>
+      <c r="C133" s="8"/>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" s="8"/>
+      <c r="B134" s="8"/>
+      <c r="C134" s="8"/>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" s="8"/>
+      <c r="B135" s="8"/>
+      <c r="C135" s="8"/>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" s="8"/>
+      <c r="B136" s="8"/>
+      <c r="C136" s="8"/>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" s="8"/>
+      <c r="B137" s="8"/>
+      <c r="C137" s="8"/>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" s="8"/>
+      <c r="B138" s="8"/>
+      <c r="C138" s="8"/>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139" s="8"/>
+      <c r="B139" s="8"/>
+      <c r="C139" s="8"/>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140" s="8"/>
+      <c r="B140" s="8"/>
+      <c r="C140" s="8"/>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141" s="8"/>
+      <c r="B141" s="8"/>
+      <c r="C141" s="8"/>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142" s="8"/>
+      <c r="B142" s="8"/>
+      <c r="C142" s="8"/>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143" s="8"/>
+      <c r="B143" s="8"/>
+      <c r="C143" s="8"/>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144" s="8"/>
+      <c r="B144" s="8"/>
+      <c r="C144" s="8"/>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145" s="8"/>
+      <c r="B145" s="8"/>
+      <c r="C145" s="8"/>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146" s="8"/>
+      <c r="B146" s="8"/>
+      <c r="C146" s="8"/>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147" s="8"/>
+      <c r="B147" s="8"/>
+      <c r="C147" s="8"/>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148" s="8"/>
+      <c r="B148" s="8"/>
+      <c r="C148" s="8"/>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149" s="8"/>
+      <c r="B149" s="8"/>
+      <c r="C149" s="8"/>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150" s="8"/>
+      <c r="B150" s="8"/>
+      <c r="C150" s="8"/>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151" s="8"/>
+      <c r="B151" s="8"/>
+      <c r="C151" s="8"/>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152" s="8"/>
+      <c r="B152" s="8"/>
+      <c r="C152" s="8"/>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153" s="8"/>
+      <c r="B153" s="8"/>
+      <c r="C153" s="8"/>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154" s="8"/>
+      <c r="B154" s="8"/>
+      <c r="C154" s="8"/>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155" s="8"/>
+      <c r="B155" s="8"/>
+      <c r="C155" s="8"/>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156" s="8"/>
+      <c r="B156" s="8"/>
+      <c r="C156" s="8"/>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A157" s="8"/>
+      <c r="B157" s="8"/>
+      <c r="C157" s="8"/>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158" s="8"/>
+      <c r="B158" s="8"/>
+      <c r="C158" s="8"/>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159" s="8"/>
+      <c r="B159" s="8"/>
+      <c r="C159" s="8"/>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160" s="8"/>
+      <c r="B160" s="8"/>
+      <c r="C160" s="8"/>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A161" s="8"/>
+      <c r="B161" s="8"/>
+      <c r="C161" s="8"/>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162" s="8"/>
+      <c r="B162" s="8"/>
+      <c r="C162" s="8"/>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A163" s="8"/>
+      <c r="B163" s="8"/>
+      <c r="C163" s="8"/>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A164" s="8"/>
+      <c r="B164" s="8"/>
+      <c r="C164" s="8"/>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A165" s="8"/>
+      <c r="B165" s="8"/>
+      <c r="C165" s="8"/>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A166" s="8"/>
+      <c r="B166" s="8"/>
+      <c r="C166" s="8"/>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A167" s="8"/>
+      <c r="B167" s="8"/>
+      <c r="C167" s="8"/>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A168" s="8"/>
+      <c r="B168" s="8"/>
+      <c r="C168" s="8"/>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A169" s="8"/>
+      <c r="B169" s="8"/>
+      <c r="C169" s="8"/>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A170" s="8"/>
+      <c r="B170" s="8"/>
+      <c r="C170" s="8"/>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A171" s="8"/>
+      <c r="B171" s="8"/>
+      <c r="C171" s="8"/>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A172" s="8"/>
+      <c r="B172" s="8"/>
+      <c r="C172" s="8"/>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A173" s="8"/>
+      <c r="B173" s="8"/>
+      <c r="C173" s="8"/>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A174" s="8"/>
+      <c r="B174" s="8"/>
+      <c r="C174" s="8"/>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A175" s="8"/>
+      <c r="B175" s="8"/>
+      <c r="C175" s="8"/>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A176" s="8"/>
+      <c r="B176" s="8"/>
+      <c r="C176" s="8"/>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A177" s="8"/>
+      <c r="B177" s="8"/>
+      <c r="C177" s="8"/>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A178" s="8"/>
+      <c r="B178" s="8"/>
+      <c r="C178" s="8"/>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A179" s="8"/>
+      <c r="B179" s="8"/>
+      <c r="C179" s="8"/>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A180" s="8"/>
+      <c r="B180" s="8"/>
+      <c r="C180" s="8"/>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A181" s="8"/>
+      <c r="B181" s="8"/>
+      <c r="C181" s="8"/>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A182" s="8"/>
+      <c r="B182" s="8"/>
+      <c r="C182" s="8"/>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A183" s="8"/>
+      <c r="B183" s="8"/>
+      <c r="C183" s="8"/>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A184" s="8"/>
+      <c r="B184" s="8"/>
+      <c r="C184" s="8"/>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A185" s="8"/>
+      <c r="B185" s="8"/>
+      <c r="C185" s="8"/>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A186" s="8"/>
+      <c r="B186" s="8"/>
+      <c r="C186" s="8"/>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A187" s="8"/>
+      <c r="B187" s="8"/>
+      <c r="C187" s="8"/>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A188" s="8"/>
+      <c r="B188" s="8"/>
+      <c r="C188" s="8"/>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A189" s="8"/>
+      <c r="B189" s="8"/>
+      <c r="C189" s="8"/>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A190" s="8"/>
+      <c r="B190" s="8"/>
+      <c r="C190" s="8"/>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A191" s="8"/>
+      <c r="B191" s="8"/>
+      <c r="C191" s="8"/>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A192" s="8"/>
+      <c r="B192" s="8"/>
+      <c r="C192" s="8"/>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A193" s="8"/>
+      <c r="B193" s="8"/>
+      <c r="C193" s="8"/>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A194" s="8"/>
+      <c r="B194" s="8"/>
+      <c r="C194" s="8"/>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A195" s="8"/>
+      <c r="B195" s="8"/>
+      <c r="C195" s="8"/>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A196" s="8"/>
+      <c r="B196" s="8"/>
+      <c r="C196" s="8"/>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A197" s="8"/>
+      <c r="B197" s="8"/>
+      <c r="C197" s="8"/>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A198" s="8"/>
+      <c r="B198" s="8"/>
+      <c r="C198" s="8"/>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A199" s="8"/>
+      <c r="B199" s="8"/>
+      <c r="C199" s="8"/>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A200" s="8"/>
+      <c r="B200" s="8"/>
+      <c r="C200" s="8"/>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A201" s="8"/>
+      <c r="B201" s="8"/>
+      <c r="C201" s="8"/>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A202" s="8"/>
+      <c r="B202" s="8"/>
+      <c r="C202" s="8"/>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A203" s="8"/>
+      <c r="B203" s="8"/>
+      <c r="C203" s="8"/>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A204" s="8"/>
+      <c r="B204" s="8"/>
+      <c r="C204" s="8"/>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A205" s="8"/>
+      <c r="B205" s="8"/>
+      <c r="C205" s="8"/>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A206" s="8"/>
+      <c r="B206" s="8"/>
+      <c r="C206" s="8"/>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A207" s="8"/>
+      <c r="B207" s="8"/>
+      <c r="C207" s="8"/>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A208" s="8"/>
+      <c r="B208" s="8"/>
+      <c r="C208" s="8"/>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A209" s="8"/>
+      <c r="B209" s="8"/>
+      <c r="C209" s="8"/>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A210" s="8"/>
+      <c r="B210" s="8"/>
+      <c r="C210" s="8"/>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A211" s="8"/>
+      <c r="B211" s="8"/>
+      <c r="C211" s="8"/>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A212" s="8"/>
+      <c r="B212" s="8"/>
+      <c r="C212" s="8"/>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A213" s="8"/>
+      <c r="B213" s="8"/>
+      <c r="C213" s="8"/>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A214" s="8"/>
+      <c r="B214" s="8"/>
+      <c r="C214" s="8"/>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A215" s="8"/>
+      <c r="B215" s="8"/>
+      <c r="C215" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A17:A22"/>
+    <mergeCell ref="A23:A26"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>